--- a/£HRN.xlsx
+++ b/£HRN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A726A3-0CC5-4DBD-AC5E-42FE250A7BDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4EC0E1-8127-4DD6-8736-2FEB985F0967}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{2FA1A45F-62BC-48F6-B990-34E28132E0A7}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="122">
   <si>
     <t>£HRN</t>
   </si>
@@ -91,12 +91,6 @@
     <t>Margate, UK</t>
   </si>
   <si>
-    <t>Ex. Chair</t>
-  </si>
-  <si>
-    <t>Lyndon Davies</t>
-  </si>
-  <si>
     <t>Kirstie Gould</t>
   </si>
   <si>
@@ -121,9 +115,6 @@
     <t>Corgi</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>FY22</t>
   </si>
   <si>
@@ -389,6 +380,18 @@
   </si>
   <si>
     <t>P/S</t>
+  </si>
+  <si>
+    <t>Olly Raeburn</t>
+  </si>
+  <si>
+    <t>Olly Raeburn announced as new CEO taking over from Lyndon Davies in on 23rd Jan 23</t>
+  </si>
+  <si>
+    <t>Olly was CEO of Paperchase in September 2020 after joining as Chief Marketing in 2019</t>
+  </si>
+  <si>
+    <t>Development</t>
   </si>
 </sst>
 </file>
@@ -611,7 +614,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -712,17 +715,39 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="17" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -732,6 +757,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -755,18 +786,11 @@
     <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -905,14 +929,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>90</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -929,8 +953,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7762875" y="0"/>
-          <a:ext cx="0" cy="14154150"/>
+          <a:off x="8362950" y="0"/>
+          <a:ext cx="0" cy="14639925"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1256,7 +1280,7 @@
   <dimension ref="A2:Y39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1276,34 +1300,36 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63"/>
-      <c r="G5" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="63"/>
-      <c r="V5" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="W5" s="62"/>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="63"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="81"/>
+      <c r="G5" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="69"/>
+      <c r="V5" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="W5" s="80"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="81"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="37" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="4">
-        <v>0.31</v>
+        <v>0.29849999999999999</v>
       </c>
       <c r="D6" s="17"/>
       <c r="G6" s="11"/>
@@ -1313,9 +1339,11 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="6"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="6"/>
       <c r="V6" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
@@ -1326,21 +1354,28 @@
         <v>4</v>
       </c>
       <c r="C7" s="15">
-        <v>166.93</v>
+        <f>'Financial Model'!M20</f>
+        <v>169.85377</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="G7" s="56">
+        <v>44866</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="6"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="6"/>
       <c r="V7" s="20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
@@ -1352,19 +1387,23 @@
       </c>
       <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>51.7483</v>
+        <v>50.701350344999994</v>
       </c>
       <c r="D8" s="17"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="5"/>
+      <c r="H8" s="76" t="s">
+        <v>120</v>
+      </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="6"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="6"/>
       <c r="V8" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
@@ -1375,11 +1414,11 @@
         <v>6</v>
       </c>
       <c r="C9" s="15">
-        <f>'Financial Model'!U65</f>
-        <v>4.6430000000000007</v>
+        <f>'Financial Model'!M65</f>
+        <v>3.6820000000000004</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="5"/>
@@ -1388,9 +1427,11 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="6"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="6"/>
       <c r="V9" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
@@ -1401,26 +1442,28 @@
         <v>7</v>
       </c>
       <c r="C10" s="15">
-        <f>'Financial Model'!U66</f>
-        <v>0.32700000000000001</v>
+        <f>'Financial Model'!M66</f>
+        <v>6.81</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="57">
+        <v>29</v>
+      </c>
+      <c r="G10" s="56">
         <v>44409</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="6"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="6"/>
       <c r="V10" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
@@ -1432,10 +1475,10 @@
       </c>
       <c r="C11" s="15">
         <f>C9-C10</f>
-        <v>4.3160000000000007</v>
+        <v>-3.1279999999999992</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="5"/>
@@ -1444,7 +1487,9 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="6"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="6"/>
       <c r="V11" s="20"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
@@ -1456,7 +1501,7 @@
       </c>
       <c r="C12" s="16">
         <f>C8-C11</f>
-        <v>47.432299999999998</v>
+        <v>53.829350344999995</v>
       </c>
       <c r="D12" s="18"/>
       <c r="G12" s="11"/>
@@ -1466,7 +1511,9 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="6"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="6"/>
       <c r="V12" s="20"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
@@ -1480,7 +1527,9 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
-      <c r="N13" s="6"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="6"/>
       <c r="V13" s="20"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
@@ -1494,7 +1543,9 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="6"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="6"/>
       <c r="V14" s="21"/>
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
@@ -1502,11 +1553,11 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="81"/>
       <c r="G15" s="11"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -1514,19 +1565,19 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="6"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="6"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
-        <v>21</v>
-      </c>
+      <c r="A16" s="19"/>
       <c r="B16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="60"/>
+      <c r="C16" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="83"/>
       <c r="G16" s="11"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -1534,17 +1585,19 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="6"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="60"/>
+      <c r="C17" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="83"/>
       <c r="G17" s="11"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1552,15 +1605,17 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="60"/>
+      <c r="C18" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="83"/>
       <c r="G18" s="11"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -1568,15 +1623,19 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
-      <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="6"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="92" t="s">
+        <v>121</v>
+      </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="72"/>
+      <c r="C19" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="78"/>
       <c r="G19" s="12"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -1584,122 +1643,124 @@
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="8"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B22" s="61" t="s">
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B22" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="63"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C22" s="80"/>
+      <c r="D22" s="81"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="60"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D23" s="83"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="59">
+      <c r="C24" s="82">
         <v>1907</v>
       </c>
-      <c r="D24" s="60"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D24" s="83"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="69">
+        <v>102</v>
+      </c>
+      <c r="C25" s="89">
         <f>'Financial Model'!U38</f>
         <v>16.462</v>
       </c>
-      <c r="D25" s="70"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D25" s="90"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B26" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26" s="68">
+        <v>107</v>
+      </c>
+      <c r="C26" s="88">
         <f>'Financial Model'!U62</f>
         <v>8.6457233368532282E-2</v>
       </c>
-      <c r="D26" s="60"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D26" s="83"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B27" s="11"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="60"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C27" s="82"/>
+      <c r="D27" s="83"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B28" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="60"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C28" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="83"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B29" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="65"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B32" s="61" t="s">
+      <c r="D29" s="85"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B32" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="63"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="81"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="66">
-        <f>C6/'Financial Model'!U60</f>
-        <v>1.2003709116214336</v>
-      </c>
-      <c r="D33" s="67"/>
+        <v>94</v>
+      </c>
+      <c r="C33" s="86">
+        <f>C6/'Financial Model'!M60</f>
+        <v>1.229064053742849</v>
+      </c>
+      <c r="D33" s="87"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" s="66">
+        <v>109</v>
+      </c>
+      <c r="C34" s="86">
         <f>C6/'Financial Model'!U19</f>
-        <v>34.988498985801272</v>
-      </c>
-      <c r="D34" s="67"/>
+        <v>33.690538539553799</v>
+      </c>
+      <c r="D34" s="87"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="66">
+        <v>110</v>
+      </c>
+      <c r="C35" s="86">
         <f>C12/'Financial Model'!U18</f>
-        <v>32.070520622041968</v>
-      </c>
-      <c r="D35" s="67"/>
+        <v>36.395774405003429</v>
+      </c>
+      <c r="D35" s="87"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="11"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="60"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="83"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="11"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="60"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="83"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="11"/>
@@ -1712,16 +1773,9 @@
       <c r="D39" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
+  <mergeCells count="21">
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="V5:Y5"/>
-    <mergeCell ref="G5:N5"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="C33:D33"/>
@@ -1735,6 +1789,12 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{DCC15395-9800-42C6-A051-2B2869197E07}"/>
@@ -1749,11 +1809,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B96169E-3E8F-4BA7-8806-4E2301312E77}">
   <dimension ref="B1:AE77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I20" sqref="I19:I20"/>
+      <selection pane="bottomRight" activeCell="K65" sqref="K65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1770,7 +1830,7 @@
     <col min="10" max="10" width="9.140625" style="31"/>
     <col min="11" max="11" width="9.140625" style="1"/>
     <col min="12" max="12" width="9.140625" style="31"/>
-    <col min="13" max="13" width="9.140625" style="49"/>
+    <col min="13" max="13" width="9.140625" style="64"/>
     <col min="14" max="14" width="9.140625" style="31"/>
     <col min="15" max="20" width="9.140625" style="1"/>
     <col min="21" max="21" width="9.140625" style="1" customWidth="1"/>
@@ -1780,88 +1840,88 @@
   <sheetData>
     <row r="1" spans="2:31" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C1" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="G1" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="H1" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="I1" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="J1" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="K1" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="L1" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="M1" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="N1" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>73</v>
-      </c>
       <c r="P1" s="22" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q1" s="45" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="R1" s="22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="S1" s="45" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="T1" s="22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="U1" s="45" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="V1" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="Z1" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="AA1" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="Y1" s="22" t="s">
+      <c r="AB1" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" s="22" t="s">
+      <c r="AC1" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" s="22" t="s">
+      <c r="AD1" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" s="22" t="s">
+      <c r="AE1" s="22" t="s">
         <v>55</v>
-      </c>
-      <c r="AC1" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD1" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE1" s="22" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="2:31" s="24" customFormat="1" x14ac:dyDescent="0.2">
@@ -1887,7 +1947,9 @@
       <c r="L2" s="46">
         <v>44651</v>
       </c>
-      <c r="M2" s="56"/>
+      <c r="M2" s="70">
+        <v>44834</v>
+      </c>
       <c r="N2" s="29"/>
       <c r="P2" s="27">
         <v>42825</v>
@@ -1908,12 +1970,12 @@
         <v>44651</v>
       </c>
       <c r="V2" s="52" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D3" s="30"/>
       <c r="F3" s="30"/>
@@ -1921,19 +1983,21 @@
       <c r="I3" s="25">
         <v>21.138000000000002</v>
       </c>
-      <c r="J3" s="73">
+      <c r="J3" s="58">
         <f>T3-I3</f>
         <v>27.410999999999998</v>
       </c>
       <c r="K3" s="25">
         <v>21.844999999999999</v>
       </c>
-      <c r="L3" s="73">
+      <c r="L3" s="58">
         <f>U3-K3</f>
         <v>31.893999999999998</v>
       </c>
-      <c r="M3" s="48"/>
-      <c r="N3" s="30"/>
+      <c r="M3" s="71">
+        <v>22.41</v>
+      </c>
+      <c r="N3" s="75"/>
       <c r="P3" s="25">
         <v>47.42</v>
       </c>
@@ -1956,22 +2020,25 @@
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I4" s="26">
         <v>11.276</v>
       </c>
-      <c r="J4" s="74">
+      <c r="J4" s="59">
         <f>T4-I4</f>
         <v>15.519000000000002</v>
       </c>
       <c r="K4" s="26">
         <v>11.72</v>
       </c>
-      <c r="L4" s="74">
+      <c r="L4" s="59">
         <f>U4-K4</f>
         <v>16.302999999999997</v>
       </c>
+      <c r="M4" s="72">
+        <v>11.683</v>
+      </c>
       <c r="P4" s="26">
         <v>29.27</v>
       </c>
@@ -1993,16 +2060,16 @@
     </row>
     <row r="5" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D5" s="30"/>
       <c r="F5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="25">
-        <f t="shared" ref="I5:L5" si="0">I3-I4</f>
+        <f t="shared" ref="I5:M5" si="0">I3-I4</f>
         <v>9.8620000000000019</v>
       </c>
-      <c r="J5" s="73">
+      <c r="J5" s="58">
         <f t="shared" si="0"/>
         <v>11.891999999999996</v>
       </c>
@@ -2010,11 +2077,14 @@
         <f t="shared" si="0"/>
         <v>10.124999999999998</v>
       </c>
-      <c r="L5" s="73">
+      <c r="L5" s="58">
         <f t="shared" si="0"/>
         <v>15.591000000000001</v>
       </c>
-      <c r="M5" s="48"/>
+      <c r="M5" s="25">
+        <f t="shared" si="0"/>
+        <v>10.727</v>
+      </c>
       <c r="N5" s="30"/>
       <c r="P5" s="25">
         <f t="shared" ref="P5:Q5" si="1">P3-P4</f>
@@ -2044,22 +2114,25 @@
     </row>
     <row r="6" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I6" s="26">
         <v>3.133</v>
       </c>
-      <c r="J6" s="74">
+      <c r="J6" s="59">
         <f t="shared" ref="J6:J15" si="2">T6-I6</f>
         <v>3.665</v>
       </c>
       <c r="K6" s="26">
         <v>3.137</v>
       </c>
-      <c r="L6" s="74">
+      <c r="L6" s="59">
         <f t="shared" ref="L6:L17" si="3">U6-K6</f>
         <v>3.8539999999999996</v>
       </c>
+      <c r="M6" s="72">
+        <v>3.8330000000000002</v>
+      </c>
       <c r="P6" s="26">
         <v>8.4190000000000005</v>
       </c>
@@ -2081,22 +2154,25 @@
     </row>
     <row r="7" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I7" s="26">
         <v>3.6819999999999999</v>
       </c>
-      <c r="J7" s="74">
+      <c r="J7" s="59">
         <f t="shared" si="2"/>
         <v>4.1219999999999999</v>
       </c>
       <c r="K7" s="26">
         <v>4.1509999999999998</v>
       </c>
-      <c r="L7" s="74">
+      <c r="L7" s="59">
         <f t="shared" si="3"/>
         <v>4.6810000000000009</v>
       </c>
+      <c r="M7" s="72">
+        <v>5.0030000000000001</v>
+      </c>
       <c r="P7" s="26">
         <v>10.294</v>
       </c>
@@ -2118,22 +2194,25 @@
     </row>
     <row r="8" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I8" s="26">
         <v>2.657</v>
       </c>
-      <c r="J8" s="74">
+      <c r="J8" s="59">
         <f t="shared" si="2"/>
         <v>3.476</v>
       </c>
       <c r="K8" s="26">
         <v>2.9990000000000001</v>
       </c>
-      <c r="L8" s="74">
+      <c r="L8" s="59">
         <f t="shared" si="3"/>
         <v>5.5149999999999988</v>
       </c>
+      <c r="M8" s="72">
+        <v>4.1829999999999998</v>
+      </c>
       <c r="P8" s="26">
         <v>5.68</v>
       </c>
@@ -2156,22 +2235,25 @@
     </row>
     <row r="9" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I9" s="26">
         <v>-0.151</v>
       </c>
-      <c r="J9" s="74">
+      <c r="J9" s="59">
         <f t="shared" si="2"/>
         <v>-0.09</v>
       </c>
       <c r="K9" s="26">
         <v>-0.16</v>
       </c>
-      <c r="L9" s="74">
+      <c r="L9" s="59">
         <f t="shared" si="3"/>
         <v>-0.13399999999999998</v>
       </c>
+      <c r="M9" s="72">
+        <v>-0.32800000000000001</v>
+      </c>
       <c r="P9" s="26">
         <v>0.35799999999999998</v>
       </c>
@@ -2193,22 +2275,25 @@
     </row>
     <row r="10" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I10" s="26">
         <v>-7.5999999999999998E-2</v>
       </c>
-      <c r="J10" s="74">
+      <c r="J10" s="59">
         <f t="shared" si="2"/>
         <v>-0.13500000000000001</v>
       </c>
       <c r="K10" s="26">
         <v>-0.24099999999999999</v>
       </c>
-      <c r="L10" s="74">
+      <c r="L10" s="59">
         <f t="shared" si="3"/>
         <v>0.10199999999999998</v>
       </c>
+      <c r="M10" s="72">
+        <v>-0.14799999999999999</v>
+      </c>
       <c r="P10" s="26">
         <v>-3.3029999999999999</v>
       </c>
@@ -2230,16 +2315,16 @@
     </row>
     <row r="11" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D11" s="30"/>
       <c r="F11" s="30"/>
       <c r="H11" s="30"/>
       <c r="I11" s="25">
-        <f t="shared" ref="I11:L11" si="4">I5-I6-I7-I8+I9+I10</f>
+        <f t="shared" ref="I11:M11" si="4">I5-I6-I7-I8+I9+I10</f>
         <v>0.16300000000000192</v>
       </c>
-      <c r="J11" s="73">
+      <c r="J11" s="58">
         <f t="shared" si="4"/>
         <v>0.40399999999999692</v>
       </c>
@@ -2247,11 +2332,14 @@
         <f t="shared" si="4"/>
         <v>-0.56300000000000217</v>
       </c>
-      <c r="L11" s="73">
+      <c r="L11" s="58">
         <f t="shared" si="4"/>
         <v>1.5090000000000021</v>
       </c>
-      <c r="M11" s="48"/>
+      <c r="M11" s="25">
+        <f t="shared" si="4"/>
+        <v>-2.7679999999999998</v>
+      </c>
       <c r="N11" s="30"/>
       <c r="P11" s="25">
         <f t="shared" ref="P11:U11" si="5">P5-P6-P7-P8+P9+P10</f>
@@ -2281,22 +2369,25 @@
     </row>
     <row r="12" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I12" s="26">
         <v>2E-3</v>
       </c>
-      <c r="J12" s="74">
+      <c r="J12" s="59">
         <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
       <c r="K12" s="26">
         <v>0.01</v>
       </c>
-      <c r="L12" s="74">
+      <c r="L12" s="59">
         <f t="shared" si="3"/>
         <v>4.9999999999999992E-3</v>
       </c>
+      <c r="M12" s="72">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="P12" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -2318,22 +2409,25 @@
     </row>
     <row r="13" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I13" s="26">
         <v>0.16200000000000001</v>
       </c>
-      <c r="J13" s="74">
+      <c r="J13" s="59">
         <f t="shared" si="2"/>
         <v>0.17200000000000001</v>
       </c>
       <c r="K13" s="26">
         <v>0.17199999999999999</v>
       </c>
-      <c r="L13" s="74">
+      <c r="L13" s="59">
         <f t="shared" si="3"/>
         <v>0.186</v>
       </c>
+      <c r="M13" s="72">
+        <v>0.122</v>
+      </c>
       <c r="P13" s="26">
         <v>0.32600000000000001</v>
       </c>
@@ -2355,13 +2449,13 @@
     </row>
     <row r="14" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I14" s="26">
-        <f t="shared" ref="I14:L14" si="6">I12-I13</f>
+        <f t="shared" ref="I14:M14" si="6">I12-I13</f>
         <v>-0.16</v>
       </c>
-      <c r="J14" s="74">
+      <c r="J14" s="59">
         <f t="shared" si="6"/>
         <v>-0.17100000000000001</v>
       </c>
@@ -2369,9 +2463,13 @@
         <f t="shared" si="6"/>
         <v>-0.16199999999999998</v>
       </c>
-      <c r="L14" s="74">
+      <c r="L14" s="59">
         <f t="shared" si="6"/>
         <v>-0.18099999999999999</v>
+      </c>
+      <c r="M14" s="26">
+        <f t="shared" si="6"/>
+        <v>-0.11799999999999999</v>
       </c>
       <c r="P14" s="26">
         <f t="shared" ref="P14:U14" si="7">P12-P13</f>
@@ -2400,20 +2498,23 @@
     </row>
     <row r="15" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I15" s="26">
         <v>1.4E-2</v>
       </c>
-      <c r="J15" s="74">
+      <c r="J15" s="59">
         <f t="shared" si="2"/>
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="K15" s="26">
         <v>-0.02</v>
       </c>
-      <c r="L15" s="74">
+      <c r="L15" s="59">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="72">
         <v>0</v>
       </c>
       <c r="P15" s="26">
@@ -2437,13 +2538,13 @@
     </row>
     <row r="16" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I16" s="26">
-        <f t="shared" ref="I16:L16" si="8">I11+I14+I15</f>
+        <f t="shared" ref="I16:M16" si="8">I11+I14+I15</f>
         <v>1.7000000000001916E-2</v>
       </c>
-      <c r="J16" s="74">
+      <c r="J16" s="59">
         <f t="shared" si="8"/>
         <v>0.32799999999999691</v>
       </c>
@@ -2451,9 +2552,13 @@
         <f t="shared" si="8"/>
         <v>-0.7450000000000021</v>
       </c>
-      <c r="L16" s="74">
+      <c r="L16" s="59">
         <f t="shared" si="8"/>
         <v>1.3280000000000021</v>
+      </c>
+      <c r="M16" s="26">
+        <f t="shared" si="8"/>
+        <v>-2.8859999999999997</v>
       </c>
       <c r="P16" s="26">
         <f t="shared" ref="P16:U16" si="9">P11+P14+P15</f>
@@ -2482,22 +2587,25 @@
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I17" s="26">
         <v>-3.7999999999999999E-2</v>
       </c>
-      <c r="J17" s="74">
+      <c r="J17" s="59">
         <f t="shared" ref="J17" si="10">J15-J16</f>
         <v>-0.2329999999999969</v>
       </c>
       <c r="K17" s="26">
         <v>0</v>
       </c>
-      <c r="L17" s="74">
+      <c r="L17" s="59">
         <f t="shared" si="3"/>
         <v>-0.89600000000000002</v>
       </c>
+      <c r="M17" s="72">
+        <v>8.6999999999999994E-2</v>
+      </c>
       <c r="P17" s="26">
         <v>0.157</v>
       </c>
@@ -2519,16 +2627,16 @@
     </row>
     <row r="18" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D18" s="30"/>
       <c r="F18" s="30"/>
       <c r="H18" s="30"/>
       <c r="I18" s="25">
-        <f t="shared" ref="I18:L18" si="11">I16-I17</f>
+        <f t="shared" ref="I18:M18" si="11">I16-I17</f>
         <v>5.5000000000001915E-2</v>
       </c>
-      <c r="J18" s="73">
+      <c r="J18" s="58">
         <f t="shared" si="11"/>
         <v>0.56099999999999384</v>
       </c>
@@ -2536,11 +2644,14 @@
         <f t="shared" si="11"/>
         <v>-0.7450000000000021</v>
       </c>
-      <c r="L18" s="73">
+      <c r="L18" s="58">
         <f t="shared" si="11"/>
         <v>2.224000000000002</v>
       </c>
-      <c r="M18" s="48"/>
+      <c r="M18" s="25">
+        <f t="shared" si="11"/>
+        <v>-2.9729999999999999</v>
+      </c>
       <c r="N18" s="30"/>
       <c r="P18" s="25">
         <f t="shared" ref="P18:U18" si="12">P16-P17</f>
@@ -2570,23 +2681,24 @@
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I19" s="78"/>
-      <c r="J19" s="77">
+        <v>73</v>
+      </c>
+      <c r="I19" s="63"/>
+      <c r="J19" s="62">
         <f>J18/J20</f>
         <v>3.3607102420789309E-3</v>
       </c>
-      <c r="K19" s="78">
-        <f t="shared" ref="I19:K19" si="13">K18/K20</f>
+      <c r="K19" s="63">
+        <f t="shared" ref="K19:M19" si="13">K18/K20</f>
         <v>-4.4630063440946385E-3</v>
       </c>
-      <c r="L19" s="77">
+      <c r="L19" s="62">
         <f>L18/L20</f>
         <v>1.3323029551485973E-2</v>
       </c>
-      <c r="M19" s="49" t="s">
-        <v>31</v>
+      <c r="M19" s="63">
+        <f t="shared" si="13"/>
+        <v>-1.7503291213377247E-2</v>
       </c>
       <c r="P19" s="34">
         <f t="shared" ref="P19:U19" si="14">P18/P20</f>
@@ -2618,17 +2730,20 @@
         <v>4</v>
       </c>
       <c r="I20" s="26"/>
-      <c r="J20" s="74">
+      <c r="J20" s="59">
         <f>T20</f>
         <v>166.929</v>
       </c>
       <c r="K20" s="26">
         <v>166.92783800000001</v>
       </c>
-      <c r="L20" s="74">
+      <c r="L20" s="59">
         <f>U20</f>
         <v>166.929</v>
       </c>
+      <c r="M20" s="72">
+        <v>169.85377</v>
+      </c>
       <c r="P20" s="26">
         <v>76.384</v>
       </c>
@@ -2653,7 +2768,7 @@
     </row>
     <row r="22" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D22" s="30"/>
       <c r="F22" s="30"/>
@@ -2663,14 +2778,17 @@
         <f>K3/I3-1</f>
         <v>3.3446872930267713E-2</v>
       </c>
-      <c r="L22" s="76">
+      <c r="L22" s="61">
         <f>L3/J3-1</f>
         <v>0.16354748093830951</v>
       </c>
-      <c r="M22" s="48"/>
-      <c r="N22" s="30"/>
+      <c r="M22" s="35">
+        <f>M3/K3-1</f>
+        <v>2.5864042114900565E-2</v>
+      </c>
+      <c r="N22" s="61"/>
       <c r="P22" s="55" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q22" s="35">
         <f t="shared" ref="Q22" si="15">Q3/P3-1</f>
@@ -2696,9 +2814,9 @@
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J23" s="75">
+        <v>96</v>
+      </c>
+      <c r="J23" s="60">
         <f>J3/I3-1</f>
         <v>0.29676412148736842</v>
       </c>
@@ -2706,27 +2824,31 @@
         <f>K3/J3-1</f>
         <v>-0.2030571668308343</v>
       </c>
-      <c r="L23" s="75">
+      <c r="L23" s="60">
         <f>L3/K3-1</f>
         <v>0.46001373311970695</v>
       </c>
+      <c r="M23" s="42">
+        <f>M3/L3-1</f>
+        <v>-0.29736000501661752</v>
+      </c>
       <c r="P23" s="36" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q23" s="36" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="R23" s="36" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="S23" s="36" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="T23" s="36" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="U23" s="36" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
@@ -2734,13 +2856,13 @@
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I25" s="42">
         <f t="shared" ref="I25:J25" si="18">I5/I3</f>
         <v>0.46655312706973229</v>
       </c>
-      <c r="J25" s="75">
+      <c r="J25" s="60">
         <f t="shared" si="18"/>
         <v>0.43384042902484393</v>
       </c>
@@ -2748,24 +2870,28 @@
         <f t="shared" ref="K25:L25" si="19">K5/K3</f>
         <v>0.46349279011215377</v>
       </c>
-      <c r="L25" s="75">
+      <c r="L25" s="60">
         <f t="shared" si="19"/>
         <v>0.48883802596099585</v>
       </c>
+      <c r="M25" s="42">
+        <f t="shared" ref="M25" si="20">M5/M3</f>
+        <v>0.47867023650156182</v>
+      </c>
       <c r="P25" s="42">
-        <f t="shared" ref="P25:Q25" si="20">P5/P3</f>
+        <f t="shared" ref="P25:Q25" si="21">P5/P3</f>
         <v>0.38274989455925773</v>
       </c>
       <c r="Q25" s="42">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.38571148074387823</v>
       </c>
       <c r="R25" s="42">
-        <f t="shared" ref="R25:S25" si="21">R5/R3</f>
+        <f t="shared" ref="R25:S25" si="22">R5/R3</f>
         <v>0.40938368082053789</v>
       </c>
       <c r="S25" s="42">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.44136145024047352</v>
       </c>
       <c r="T25" s="42">
@@ -2779,38 +2905,42 @@
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I26" s="42">
-        <f t="shared" ref="I26:J26" si="22">I11/I3</f>
+        <f t="shared" ref="I26:J26" si="23">I11/I3</f>
         <v>7.7112309584635207E-3</v>
       </c>
-      <c r="J26" s="75">
-        <f t="shared" si="22"/>
+      <c r="J26" s="60">
+        <f t="shared" si="23"/>
         <v>1.473860858779311E-2</v>
       </c>
       <c r="K26" s="42">
-        <f t="shared" ref="K26:L26" si="23">K11/K3</f>
+        <f t="shared" ref="K26:L26" si="24">K11/K3</f>
         <v>-2.5772487983520356E-2</v>
       </c>
-      <c r="L26" s="75">
-        <f t="shared" si="23"/>
+      <c r="L26" s="60">
+        <f t="shared" si="24"/>
         <v>4.7312974227127429E-2</v>
       </c>
+      <c r="M26" s="42">
+        <f t="shared" ref="M26" si="25">M11/M3</f>
+        <v>-0.12351628737170905</v>
+      </c>
       <c r="P26" s="42">
-        <f t="shared" ref="P26:Q26" si="24">P11/P3</f>
+        <f t="shared" ref="P26:Q26" si="26">P11/P3</f>
         <v>-0.19375790805567267</v>
       </c>
       <c r="Q26" s="42">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-0.276850579226389</v>
       </c>
       <c r="R26" s="42">
-        <f t="shared" ref="R26:S26" si="25">R11/R3</f>
+        <f t="shared" ref="R26:S26" si="27">R11/R3</f>
         <v>-0.15943710125461699</v>
       </c>
       <c r="S26" s="42">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-7.4441097193594444E-2</v>
       </c>
       <c r="T26" s="42">
@@ -2824,38 +2954,42 @@
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I27" s="42">
-        <f t="shared" ref="I27:J27" si="26">I18/I3</f>
+        <f t="shared" ref="I27:J27" si="28">I18/I3</f>
         <v>2.6019490964141316E-3</v>
       </c>
-      <c r="J27" s="75">
-        <f t="shared" si="26"/>
+      <c r="J27" s="60">
+        <f t="shared" si="28"/>
         <v>2.0466236182554227E-2</v>
       </c>
       <c r="K27" s="42">
-        <f t="shared" ref="K27:L27" si="27">K18/K3</f>
+        <f t="shared" ref="K27:L27" si="29">K18/K3</f>
         <v>-3.4103913939116604E-2</v>
       </c>
-      <c r="L27" s="75">
-        <f t="shared" si="27"/>
+      <c r="L27" s="60">
+        <f t="shared" si="29"/>
         <v>6.9730983884116193E-2</v>
       </c>
+      <c r="M27" s="42">
+        <f t="shared" ref="M27" si="30">M18/M3</f>
+        <v>-0.1326639892904953</v>
+      </c>
       <c r="P27" s="42">
-        <f t="shared" ref="P27:Q27" si="28">P18/P3</f>
+        <f t="shared" ref="P27:Q27" si="31">P18/P3</f>
         <v>-0.20383804301982283</v>
       </c>
       <c r="Q27" s="42">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>-0.27640178396117904</v>
       </c>
       <c r="R27" s="42">
-        <f t="shared" ref="R27:S27" si="29">R18/R3</f>
+        <f t="shared" ref="R27:S27" si="32">R18/R3</f>
         <v>-0.16215391190207265</v>
       </c>
       <c r="S27" s="42">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>-8.971513133555313E-2</v>
       </c>
       <c r="T27" s="42">
@@ -2869,42 +3003,46 @@
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I28" s="42">
-        <f t="shared" ref="I28:J28" si="30">I17/I16</f>
+        <f t="shared" ref="I28:J28" si="33">I17/I16</f>
         <v>-2.2352941176468066</v>
       </c>
-      <c r="J28" s="75">
-        <f t="shared" si="30"/>
+      <c r="J28" s="60">
+        <f t="shared" si="33"/>
         <v>-0.71036585365853389</v>
       </c>
       <c r="K28" s="42">
-        <f t="shared" ref="K28:L28" si="31">K17/K16</f>
-        <v>0</v>
-      </c>
-      <c r="L28" s="75">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="K28:L28" si="34">K17/K16</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="60">
+        <f t="shared" si="34"/>
         <v>-0.67469879518072184</v>
       </c>
+      <c r="M28" s="42">
+        <f t="shared" ref="M28" si="35">M17/M16</f>
+        <v>-3.0145530145530147E-2</v>
+      </c>
       <c r="P28" s="42">
-        <f t="shared" ref="P28:Q28" si="32">P17/P16</f>
+        <f t="shared" ref="P28:Q28" si="36">P17/P16</f>
         <v>-1.6510674098222738E-2</v>
       </c>
       <c r="Q28" s="42">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>2.1060997417047495E-2</v>
       </c>
       <c r="R28" s="42">
-        <f t="shared" ref="R28:T28" si="33">R17/R16</f>
+        <f t="shared" ref="R28:T28" si="37">R17/R16</f>
         <v>0</v>
       </c>
       <c r="S28" s="42">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="T28" s="42">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>-2.9507246376811809</v>
       </c>
       <c r="U28" s="42">
@@ -2914,12 +3052,20 @@
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B31" s="33" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="L32" s="59">
+        <f>U32</f>
+        <v>7.8309999999999995</v>
+      </c>
+      <c r="M32" s="72">
+        <f>4.647+3.097</f>
+        <v>7.7439999999999998</v>
       </c>
       <c r="P32" s="26">
         <f>4.554+4.214</f>
@@ -2948,7 +3094,14 @@
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="L33" s="59">
+        <f>U33</f>
+        <v>10.057</v>
+      </c>
+      <c r="M33" s="72">
+        <v>10.477</v>
       </c>
       <c r="P33" s="26">
         <v>5.6829999999999998</v>
@@ -2971,14 +3124,19 @@
     </row>
     <row r="34" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D34" s="30"/>
       <c r="F34" s="30"/>
       <c r="H34" s="30"/>
       <c r="J34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="48"/>
+      <c r="L34" s="58">
+        <f>U34</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="71">
+        <v>0</v>
+      </c>
       <c r="N34" s="30"/>
       <c r="P34" s="25">
         <v>0</v>
@@ -3002,7 +3160,14 @@
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="L35" s="59">
+        <f t="shared" ref="L35:L39" si="38">U35</f>
+        <v>2.5840000000000001</v>
+      </c>
+      <c r="M35" s="72">
+        <v>2.484</v>
       </c>
       <c r="P35" s="26">
         <v>0</v>
@@ -3025,7 +3190,14 @@
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+      <c r="L36" s="59">
+        <f t="shared" si="38"/>
+        <v>3.4249999999999998</v>
+      </c>
+      <c r="M36" s="72">
+        <v>3.423</v>
       </c>
       <c r="P36" s="26">
         <v>1.974</v>
@@ -3048,43 +3220,56 @@
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="L37" s="59">
+        <f t="shared" ref="L37" si="39">SUM(L32:L36)</f>
+        <v>23.896999999999998</v>
+      </c>
+      <c r="M37" s="26">
+        <f t="shared" ref="M37" si="40">SUM(M32:M36)</f>
+        <v>24.128</v>
       </c>
       <c r="P37" s="26">
-        <f t="shared" ref="P37:U37" si="34">SUM(P32:P36)</f>
+        <f t="shared" ref="P37:U37" si="41">SUM(P32:P36)</f>
         <v>16.425000000000001</v>
       </c>
       <c r="Q37" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>16.065999999999999</v>
       </c>
       <c r="R37" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>15.261999999999999</v>
       </c>
       <c r="S37" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>17.886000000000003</v>
       </c>
       <c r="T37" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>21.742999999999999</v>
       </c>
       <c r="U37" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>23.896999999999998</v>
       </c>
     </row>
     <row r="38" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D38" s="30"/>
       <c r="F38" s="30"/>
       <c r="H38" s="30"/>
       <c r="J38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="48"/>
+      <c r="L38" s="58">
+        <f>U38</f>
+        <v>16.462</v>
+      </c>
+      <c r="M38" s="71">
+        <v>22.547999999999998</v>
+      </c>
       <c r="N38" s="30"/>
       <c r="P38" s="25">
         <v>9.68</v>
@@ -3108,7 +3293,14 @@
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="L39" s="59">
+        <f t="shared" si="38"/>
+        <v>8.7859999999999996</v>
+      </c>
+      <c r="M39" s="72">
+        <v>9.1539999999999999</v>
       </c>
       <c r="P39" s="26">
         <v>9.2460000000000004</v>
@@ -3131,14 +3323,19 @@
     </row>
     <row r="40" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D40" s="30"/>
       <c r="F40" s="30"/>
       <c r="H40" s="30"/>
       <c r="J40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="48"/>
+      <c r="L40" s="58">
+        <f>U40</f>
+        <v>0.504</v>
+      </c>
+      <c r="M40" s="71">
+        <v>1.8080000000000001</v>
+      </c>
       <c r="N40" s="30"/>
       <c r="P40" s="25">
         <v>0.12</v>
@@ -3168,8 +3365,13 @@
       <c r="F41" s="30"/>
       <c r="H41" s="30"/>
       <c r="J41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="48"/>
+      <c r="L41" s="58">
+        <f>U41</f>
+        <v>4.1390000000000002</v>
+      </c>
+      <c r="M41" s="71">
+        <v>1.8740000000000001</v>
+      </c>
       <c r="N41" s="30"/>
       <c r="P41" s="25">
         <f>1.58+0.05</f>
@@ -3194,34 +3396,44 @@
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="L42" s="59">
+        <f t="shared" ref="L42" si="42">L37+SUM(L38:L41)</f>
+        <v>53.787999999999997</v>
+      </c>
+      <c r="M42" s="26">
+        <f t="shared" ref="M42" si="43">M37+SUM(M38:M41)</f>
+        <v>59.512</v>
       </c>
       <c r="P42" s="26">
-        <f t="shared" ref="P42:U42" si="35">P37+SUM(P38:P41)</f>
+        <f t="shared" ref="P42:U42" si="44">P37+SUM(P38:P41)</f>
         <v>37.100999999999999</v>
       </c>
       <c r="Q42" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>35.923000000000002</v>
       </c>
       <c r="R42" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>34.030999999999999</v>
       </c>
       <c r="S42" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>44.683</v>
       </c>
       <c r="T42" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>48.858999999999995</v>
       </c>
       <c r="U42" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="44"/>
         <v>53.787999999999997</v>
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="L43" s="59"/>
+      <c r="M43" s="72"/>
       <c r="P43" s="26"/>
       <c r="Q43" s="26"/>
       <c r="R43" s="26"/>
@@ -3231,14 +3443,19 @@
     </row>
     <row r="44" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D44" s="30"/>
       <c r="F44" s="30"/>
       <c r="H44" s="30"/>
       <c r="J44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="48"/>
+      <c r="L44" s="58">
+        <f>U44</f>
+        <v>0.05</v>
+      </c>
+      <c r="M44" s="71">
+        <v>5.5579999999999998</v>
+      </c>
       <c r="N44" s="30"/>
       <c r="P44" s="25">
         <v>8.2000000000000003E-2</v>
@@ -3262,7 +3479,14 @@
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
+      </c>
+      <c r="L45" s="59">
+        <f t="shared" ref="L45:L53" si="45">U45</f>
+        <v>7.3719999999999999</v>
+      </c>
+      <c r="M45" s="72">
+        <v>8.4540000000000006</v>
       </c>
       <c r="P45" s="26">
         <v>6.6639999999999997</v>
@@ -3285,7 +3509,14 @@
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
+      </c>
+      <c r="L46" s="59">
+        <f t="shared" si="45"/>
+        <v>0.433</v>
+      </c>
+      <c r="M46" s="72">
+        <v>0.45</v>
       </c>
       <c r="P46" s="1">
         <v>0</v>
@@ -3308,14 +3539,19 @@
     </row>
     <row r="47" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D47" s="30"/>
       <c r="F47" s="30"/>
       <c r="H47" s="30"/>
       <c r="J47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="48"/>
+      <c r="L47" s="58">
+        <f>U47</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="71">
+        <v>0</v>
+      </c>
       <c r="N47" s="30"/>
       <c r="P47" s="26">
         <v>0.19</v>
@@ -3339,7 +3575,14 @@
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="L48" s="59">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="72">
+        <v>0</v>
       </c>
       <c r="P48" s="26">
         <v>0.19600000000000001</v>
@@ -3362,7 +3605,14 @@
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="L49" s="59">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="72">
+        <v>0</v>
       </c>
       <c r="P49" s="26">
         <v>0.21199999999999999</v>
@@ -3385,7 +3635,15 @@
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
+      </c>
+      <c r="L50" s="59">
+        <f t="shared" si="45"/>
+        <v>7.8549999999999995</v>
+      </c>
+      <c r="M50" s="26">
+        <f>SUM(M44:M49)</f>
+        <v>14.462</v>
       </c>
       <c r="P50" s="26">
         <f>SUM(P44:P49)</f>
@@ -3396,32 +3654,37 @@
         <v>4.9090000000000007</v>
       </c>
       <c r="R50" s="26">
-        <f t="shared" ref="R50:U50" si="36">SUM(R44:R49)</f>
+        <f t="shared" ref="R50:U50" si="46">SUM(R44:R49)</f>
         <v>7.5209999999999999</v>
       </c>
       <c r="S50" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="46"/>
         <v>5.2730000000000006</v>
       </c>
       <c r="T50" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="46"/>
         <v>8.0090000000000003</v>
       </c>
       <c r="U50" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="46"/>
         <v>7.8549999999999995</v>
       </c>
     </row>
     <row r="51" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D51" s="30"/>
       <c r="F51" s="30"/>
       <c r="H51" s="30"/>
       <c r="J51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="48"/>
+      <c r="L51" s="58">
+        <f>U51</f>
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="M51" s="71">
+        <v>1.252</v>
+      </c>
       <c r="N51" s="30"/>
       <c r="P51" s="25">
         <v>0</v>
@@ -3445,7 +3708,14 @@
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
+      </c>
+      <c r="L52" s="59">
+        <f t="shared" si="45"/>
+        <v>2.3130000000000002</v>
+      </c>
+      <c r="M52" s="72">
+        <v>2.3130000000000002</v>
       </c>
       <c r="P52" s="26">
         <v>0</v>
@@ -3468,7 +3738,14 @@
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+      <c r="L53" s="59">
+        <f t="shared" si="45"/>
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="M53" s="72">
+        <v>0.23300000000000001</v>
       </c>
       <c r="P53" s="26">
         <v>9.4E-2</v>
@@ -3491,14 +3768,22 @@
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
+      </c>
+      <c r="L54" s="59">
+        <f t="shared" ref="L54:M54" si="47">L50+SUM(L51:L53)</f>
+        <v>10.678000000000001</v>
+      </c>
+      <c r="M54" s="26">
+        <f t="shared" si="47"/>
+        <v>18.260000000000002</v>
       </c>
       <c r="P54" s="26">
-        <f t="shared" ref="P54:Q54" si="37">P50+SUM(P51:P53)</f>
+        <f t="shared" ref="P54:Q54" si="48">P50+SUM(P51:P53)</f>
         <v>7.4379999999999997</v>
       </c>
       <c r="Q54" s="26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>5.0590000000000011</v>
       </c>
       <c r="R54" s="26">
@@ -3519,13 +3804,21 @@
       </c>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="M55" s="72"/>
       <c r="R55" s="26"/>
       <c r="T55" s="26"/>
       <c r="U55" s="26"/>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
+      </c>
+      <c r="L56" s="59">
+        <f>U56</f>
+        <v>43.11</v>
+      </c>
+      <c r="M56" s="72">
+        <v>41.351999999999997</v>
       </c>
       <c r="P56" s="26">
         <v>29.663</v>
@@ -3548,14 +3841,22 @@
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
+      </c>
+      <c r="L57" s="59">
+        <f>L56+L54</f>
+        <v>53.787999999999997</v>
+      </c>
+      <c r="M57" s="26">
+        <f t="shared" ref="M57" si="49">M56+M54</f>
+        <v>59.611999999999995</v>
       </c>
       <c r="P57" s="26">
-        <f t="shared" ref="P57:Q57" si="38">P56+P54</f>
+        <f t="shared" ref="P57:Q57" si="50">P56+P54</f>
         <v>37.100999999999999</v>
       </c>
       <c r="Q57" s="26">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>35.923000000000002</v>
       </c>
       <c r="R57" s="26">
@@ -3577,26 +3878,34 @@
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
+      </c>
+      <c r="L59" s="59">
+        <f>L42-L54</f>
+        <v>43.11</v>
+      </c>
+      <c r="M59" s="26">
+        <f t="shared" ref="M59" si="51">M42-M54</f>
+        <v>41.251999999999995</v>
       </c>
       <c r="P59" s="26">
-        <f t="shared" ref="P59" si="39">P42-P54</f>
+        <f t="shared" ref="P59" si="52">P42-P54</f>
         <v>29.663</v>
       </c>
       <c r="Q59" s="26">
-        <f t="shared" ref="Q59" si="40">Q42-Q54</f>
+        <f t="shared" ref="Q59" si="53">Q42-Q54</f>
         <v>30.864000000000001</v>
       </c>
       <c r="R59" s="26">
-        <f t="shared" ref="R59:T59" si="41">R42-R54</f>
+        <f t="shared" ref="R59:T59" si="54">R42-R54</f>
         <v>25.798999999999999</v>
       </c>
       <c r="S59" s="26">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>37.004999999999995</v>
       </c>
       <c r="T59" s="26">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>38.256999999999991</v>
       </c>
       <c r="U59" s="26">
@@ -3606,14 +3915,22 @@
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
+      </c>
+      <c r="L60" s="31">
+        <f>L59/L20</f>
+        <v>0.25825350897687038</v>
+      </c>
+      <c r="M60" s="26">
+        <f t="shared" ref="M60" si="55">M59/M20</f>
+        <v>0.24286773263849248</v>
       </c>
       <c r="P60" s="26">
-        <f t="shared" ref="P60" si="42">P59/P20</f>
+        <f t="shared" ref="P60" si="56">P59/P20</f>
         <v>0.38834049015500627</v>
       </c>
       <c r="Q60" s="26">
-        <f t="shared" ref="Q60" si="43">Q59/Q20</f>
+        <f t="shared" ref="Q60" si="57">Q59/Q20</f>
         <v>0.31724364772633834</v>
       </c>
       <c r="R60" s="26">
@@ -3635,32 +3952,32 @@
     </row>
     <row r="62" spans="2:22" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="39" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D62" s="40"/>
       <c r="F62" s="40"/>
       <c r="H62" s="40"/>
       <c r="J62" s="40"/>
       <c r="L62" s="40"/>
-      <c r="M62" s="51"/>
+      <c r="M62" s="65"/>
       <c r="N62" s="40"/>
       <c r="P62" s="19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q62" s="43">
-        <f t="shared" ref="Q62" si="44">Q38/P38-1</f>
+        <f t="shared" ref="Q62" si="58">Q38/P38-1</f>
         <v>3.6157024793388448E-2</v>
       </c>
       <c r="R62" s="43">
-        <f t="shared" ref="R62" si="45">R38/Q38-1</f>
+        <f t="shared" ref="R62" si="59">R38/Q38-1</f>
         <v>8.2751744765702906E-2</v>
       </c>
       <c r="S62" s="43">
-        <f t="shared" ref="S62:T62" si="46">S38/R38-1</f>
+        <f t="shared" ref="S62:T62" si="60">S38/R38-1</f>
         <v>0.31077348066298338</v>
       </c>
       <c r="T62" s="43">
-        <f t="shared" si="46"/>
+        <f t="shared" si="60"/>
         <v>6.4418686336494613E-2</v>
       </c>
       <c r="U62" s="43">
@@ -3671,32 +3988,35 @@
     </row>
     <row r="63" spans="2:22" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="39" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D63" s="40"/>
       <c r="F63" s="40"/>
       <c r="H63" s="40"/>
       <c r="J63" s="40"/>
       <c r="L63" s="40"/>
-      <c r="M63" s="51"/>
+      <c r="M63" s="91">
+        <f>M38/L38-1</f>
+        <v>0.36969991495565546</v>
+      </c>
       <c r="N63" s="40"/>
       <c r="P63" s="19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q63" s="44" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="R63" s="44" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="S63" s="44" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="T63" s="44" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="U63" s="44" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="V63" s="51"/>
     </row>
@@ -3708,27 +4028,33 @@
       <c r="F65" s="40"/>
       <c r="H65" s="40"/>
       <c r="J65" s="40"/>
-      <c r="L65" s="40"/>
-      <c r="M65" s="51"/>
+      <c r="L65" s="73">
+        <f t="shared" ref="L65:M65" si="61">L41+L40+L34</f>
+        <v>4.6430000000000007</v>
+      </c>
+      <c r="M65" s="41">
+        <f t="shared" si="61"/>
+        <v>3.6820000000000004</v>
+      </c>
       <c r="N65" s="40"/>
       <c r="P65" s="41">
-        <f t="shared" ref="P65:Q65" si="47">P41+P40+P34</f>
+        <f t="shared" ref="P65:Q65" si="62">P41+P40+P34</f>
         <v>1.75</v>
       </c>
       <c r="Q65" s="41">
-        <f t="shared" si="47"/>
+        <f t="shared" si="62"/>
         <v>5.4930000000000003</v>
       </c>
       <c r="R65" s="41">
-        <f t="shared" ref="R65:T65" si="48">R41+R40+R34</f>
+        <f t="shared" ref="R65:T65" si="63">R41+R40+R34</f>
         <v>2.4249999999999998</v>
       </c>
       <c r="S65" s="41">
-        <f t="shared" si="48"/>
+        <f t="shared" si="63"/>
         <v>7.7669999999999995</v>
       </c>
       <c r="T65" s="41">
-        <f t="shared" si="48"/>
+        <f t="shared" si="63"/>
         <v>6.5559999999999992</v>
       </c>
       <c r="U65" s="41">
@@ -3745,27 +4071,33 @@
       <c r="F66" s="40"/>
       <c r="H66" s="40"/>
       <c r="J66" s="40"/>
-      <c r="L66" s="40"/>
-      <c r="M66" s="51"/>
+      <c r="L66" s="73">
+        <f t="shared" ref="L66:M66" si="64">L44+L47+L51</f>
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="M66" s="41">
+        <f t="shared" si="64"/>
+        <v>6.81</v>
+      </c>
       <c r="N66" s="40"/>
       <c r="P66" s="41">
-        <f t="shared" ref="P66:Q66" si="49">P44+P47+P51</f>
+        <f t="shared" ref="P66:Q66" si="65">P44+P47+P51</f>
         <v>0.27200000000000002</v>
       </c>
       <c r="Q66" s="41">
-        <f t="shared" si="49"/>
+        <f t="shared" si="65"/>
         <v>0.42299999999999999</v>
       </c>
       <c r="R66" s="41">
-        <f t="shared" ref="R66:T66" si="50">R44+R47+R51</f>
+        <f t="shared" ref="R66:T66" si="66">R44+R47+R51</f>
         <v>2.61</v>
       </c>
       <c r="S66" s="41">
-        <f t="shared" si="50"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="T66" s="41">
-        <f t="shared" si="50"/>
+        <f t="shared" si="66"/>
         <v>0.51300000000000001</v>
       </c>
       <c r="U66" s="41">
@@ -3778,24 +4110,32 @@
       <c r="B67" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="L67" s="59">
+        <f t="shared" ref="L67:M67" si="67">L65-L66</f>
+        <v>4.3160000000000007</v>
+      </c>
+      <c r="M67" s="26">
+        <f t="shared" si="67"/>
+        <v>-3.1279999999999992</v>
+      </c>
       <c r="P67" s="26">
-        <f t="shared" ref="P67:Q67" si="51">P65-P66</f>
+        <f t="shared" ref="P67:Q67" si="68">P65-P66</f>
         <v>1.478</v>
       </c>
       <c r="Q67" s="26">
-        <f t="shared" si="51"/>
+        <f t="shared" si="68"/>
         <v>5.07</v>
       </c>
       <c r="R67" s="26">
-        <f t="shared" ref="R67:T67" si="52">R65-R66</f>
+        <f t="shared" ref="R67:T67" si="69">R65-R66</f>
         <v>-0.18500000000000005</v>
       </c>
       <c r="S67" s="26">
-        <f t="shared" si="52"/>
+        <f t="shared" si="69"/>
         <v>7.7669999999999995</v>
       </c>
       <c r="T67" s="26">
-        <f t="shared" si="52"/>
+        <f t="shared" si="69"/>
         <v>6.0429999999999993</v>
       </c>
       <c r="U67" s="26">
@@ -3805,7 +4145,14 @@
     </row>
     <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
+      </c>
+      <c r="L69" s="74">
+        <f>U69</f>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="M69" s="64">
+        <v>0.28499999999999998</v>
       </c>
       <c r="P69" s="53">
         <v>0.31359999999999999</v>
@@ -3828,26 +4175,34 @@
     </row>
     <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
+      </c>
+      <c r="L70" s="59">
+        <f>L69*L20</f>
+        <v>54.251925</v>
+      </c>
+      <c r="M70" s="26">
+        <f t="shared" ref="M70" si="70">M69*M20</f>
+        <v>48.408324449999995</v>
       </c>
       <c r="P70" s="26">
-        <f t="shared" ref="P70:T70" si="53">P69*P20</f>
+        <f t="shared" ref="P70:T70" si="71">P69*P20</f>
         <v>23.954022399999999</v>
       </c>
       <c r="Q70" s="26">
-        <f t="shared" si="53"/>
+        <f t="shared" si="71"/>
         <v>23.446407999999998</v>
       </c>
       <c r="R70" s="26">
-        <f t="shared" si="53"/>
+        <f t="shared" si="71"/>
         <v>45.469742999999994</v>
       </c>
       <c r="S70" s="26">
-        <f t="shared" si="53"/>
+        <f t="shared" si="71"/>
         <v>41.338700000000003</v>
       </c>
       <c r="T70" s="26">
-        <f t="shared" si="53"/>
+        <f t="shared" si="71"/>
         <v>73.448760000000007</v>
       </c>
       <c r="U70" s="26">
@@ -3859,24 +4214,32 @@
       <c r="B71" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="L71" s="59">
+        <f>L70-L67</f>
+        <v>49.935924999999997</v>
+      </c>
+      <c r="M71" s="26">
+        <f t="shared" ref="M71" si="72">M70-M67</f>
+        <v>51.536324449999995</v>
+      </c>
       <c r="P71" s="26">
-        <f t="shared" ref="P71:T71" si="54">P70-P67</f>
+        <f t="shared" ref="P71:T71" si="73">P70-P67</f>
         <v>22.476022399999998</v>
       </c>
       <c r="Q71" s="26">
-        <f t="shared" si="54"/>
+        <f t="shared" si="73"/>
         <v>18.376407999999998</v>
       </c>
       <c r="R71" s="26">
-        <f t="shared" si="54"/>
+        <f t="shared" si="73"/>
         <v>45.654742999999996</v>
       </c>
       <c r="S71" s="26">
-        <f t="shared" si="54"/>
+        <f t="shared" si="73"/>
         <v>33.571700000000007</v>
       </c>
       <c r="T71" s="26">
-        <f t="shared" si="54"/>
+        <f t="shared" si="73"/>
         <v>67.405760000000015</v>
       </c>
       <c r="U71" s="26">
@@ -3886,113 +4249,145 @@
     </row>
     <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="P73" s="58">
-        <f t="shared" ref="P73:U73" si="55">P70/P3</f>
+        <v>117</v>
+      </c>
+      <c r="L73" s="94">
+        <f>L70/SUM(K3:L3)</f>
+        <v>1.0095447440406409</v>
+      </c>
+      <c r="M73" s="93">
+        <f>M70/SUM(L3:M3)</f>
+        <v>0.89143202066146132</v>
+      </c>
+      <c r="P73" s="57">
+        <f t="shared" ref="P73:T73" si="74">P70/P3</f>
         <v>0.50514598059890337</v>
       </c>
-      <c r="Q73" s="58">
-        <f t="shared" si="55"/>
+      <c r="Q73" s="57">
+        <f t="shared" si="74"/>
         <v>0.65766480603629618</v>
       </c>
-      <c r="R73" s="58">
-        <f t="shared" si="55"/>
+      <c r="R73" s="57">
+        <f t="shared" si="74"/>
         <v>1.3880076620165449</v>
       </c>
-      <c r="S73" s="58">
-        <f t="shared" si="55"/>
+      <c r="S73" s="57">
+        <f t="shared" si="74"/>
         <v>1.092402621425929</v>
       </c>
-      <c r="T73" s="58">
-        <f t="shared" si="55"/>
+      <c r="T73" s="57">
+        <f t="shared" si="74"/>
         <v>1.5128789470431936</v>
       </c>
-      <c r="U73" s="58">
+      <c r="U73" s="57">
         <f>U70/U3</f>
         <v>1.0095447440406409</v>
       </c>
     </row>
     <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="P74" s="58">
+        <v>109</v>
+      </c>
+      <c r="L74" s="94">
+        <f>L69/SUM(K18:L18)</f>
+        <v>0.2197430696416498</v>
+      </c>
+      <c r="M74" s="93">
+        <f>M69/SUM(L18:M18)</f>
+        <v>-0.38050734312416662</v>
+      </c>
+      <c r="P74" s="57">
         <f>P69/P19</f>
         <v>-2.4781732257397064</v>
       </c>
-      <c r="Q74" s="58">
-        <f t="shared" ref="Q74:U74" si="56">Q69/Q19</f>
+      <c r="Q74" s="57">
+        <f t="shared" ref="Q74:U74" si="75">Q69/Q19</f>
         <v>-2.3793797442662887</v>
       </c>
-      <c r="R74" s="58">
-        <f t="shared" si="56"/>
+      <c r="R74" s="57">
+        <f t="shared" si="75"/>
         <v>-8.5598160768072322</v>
       </c>
-      <c r="S74" s="58">
-        <f t="shared" si="56"/>
+      <c r="S74" s="57">
+        <f t="shared" si="75"/>
         <v>-12.176347569955812</v>
       </c>
-      <c r="T74" s="58">
-        <f t="shared" si="56"/>
+      <c r="T74" s="57">
+        <f t="shared" si="75"/>
         <v>53.887571533382342</v>
       </c>
-      <c r="U74" s="58">
-        <f t="shared" si="56"/>
+      <c r="U74" s="57">
+        <f t="shared" si="75"/>
         <v>36.681490872211008</v>
       </c>
     </row>
     <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P75" s="58">
-        <f t="shared" ref="P75:T75" si="57">P69/P60</f>
+        <v>94</v>
+      </c>
+      <c r="L75" s="94">
+        <f>L69/L60</f>
+        <v>1.2584533750869868</v>
+      </c>
+      <c r="M75" s="93">
+        <f>M69/M60</f>
+        <v>1.1734782422670416</v>
+      </c>
+      <c r="P75" s="57">
+        <f t="shared" ref="P75:T75" si="76">P69/P60</f>
         <v>0.8075387654653946</v>
       </c>
-      <c r="Q75" s="58">
-        <f t="shared" si="57"/>
+      <c r="Q75" s="57">
+        <f t="shared" si="76"/>
         <v>0.75966848107827878</v>
       </c>
-      <c r="R75" s="58">
-        <f t="shared" si="57"/>
+      <c r="R75" s="57">
+        <f t="shared" si="76"/>
         <v>1.7624614519942634</v>
       </c>
-      <c r="S75" s="58">
-        <f t="shared" si="57"/>
+      <c r="S75" s="57">
+        <f t="shared" si="76"/>
         <v>1.1171112011890287</v>
       </c>
-      <c r="T75" s="58">
-        <f t="shared" si="57"/>
+      <c r="T75" s="57">
+        <f t="shared" si="76"/>
         <v>1.919877669446115</v>
       </c>
-      <c r="U75" s="58">
+      <c r="U75" s="57">
         <f>U69/U60</f>
         <v>1.2584533750869868</v>
       </c>
     </row>
     <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="L77" s="60">
+        <f>L38/SUM(K3:L3)</f>
+        <v>0.30633245873574128</v>
+      </c>
+      <c r="M77" s="95">
+        <f>M38/SUM(L3:M3)</f>
+        <v>0.41521803182086031</v>
       </c>
       <c r="P77" s="42">
-        <f t="shared" ref="P77:T77" si="58">P38/P3</f>
+        <f t="shared" ref="P77:T77" si="77">P38/P3</f>
         <v>0.20413327709827075</v>
       </c>
       <c r="Q77" s="42">
-        <f t="shared" si="58"/>
+        <f t="shared" si="77"/>
         <v>0.28133853187848862</v>
       </c>
       <c r="R77" s="42">
-        <f t="shared" si="58"/>
+        <f t="shared" si="77"/>
         <v>0.33151195091425256</v>
       </c>
       <c r="S77" s="42">
-        <f t="shared" si="58"/>
+        <f t="shared" si="77"/>
         <v>0.37616933565879179</v>
       </c>
       <c r="T77" s="42">
-        <f t="shared" si="58"/>
+        <f t="shared" si="77"/>
         <v>0.31209705658200992</v>
       </c>
       <c r="U77" s="42">
@@ -4006,12 +4401,13 @@
     <hyperlink ref="S1" r:id="rId2" xr:uid="{27F9E946-7008-4128-A946-D7CD3BD95A46}"/>
     <hyperlink ref="Q1" r:id="rId3" xr:uid="{851E20EF-A79F-4087-846B-75750EFD5CDE}"/>
     <hyperlink ref="K1" r:id="rId4" xr:uid="{55ACAAC2-78C7-4DF1-A031-C9C03F5CC52E}"/>
+    <hyperlink ref="M1" r:id="rId5" xr:uid="{7DA399CD-D7CD-43B7-BB15-739C308E5CEF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId5"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId6"/>
   <ignoredErrors>
-    <ignoredError sqref="L5:L16 J5:J18" formula="1"/>
+    <ignoredError sqref="L5:L16 J5:J18 L37" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/£HRN.xlsx
+++ b/£HRN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4EC0E1-8127-4DD6-8736-2FEB985F0967}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8259257-270B-487B-A7ED-A51390AAC32A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{2FA1A45F-62BC-48F6-B990-34E28132E0A7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{2FA1A45F-62BC-48F6-B990-34E28132E0A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="127">
   <si>
     <t>£HRN</t>
   </si>
@@ -392,6 +392,21 @@
   </si>
   <si>
     <t>Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TT:120 Range launches, brand new scale </t>
+  </si>
+  <si>
+    <t>KATO Works Co., Ltd.: KATO Works Co., Ltd. is a publicly traded company on the Tokyo Stock Exchange that produces model trains and other hobby products under the KATO brand.</t>
+  </si>
+  <si>
+    <t>Tomy Company, Ltd.: Tomy Company, Ltd. is a publicly traded company on the Tokyo Stock Exchange that owns Bachmann, a US-based model train brand.</t>
+  </si>
+  <si>
+    <t>Hornby plc: Hornby plc is a publicly traded company on the London Stock Exchange that owns Hornby, a well-known UK-based model train brand.</t>
+  </si>
+  <si>
+    <t>Hasbro: Hasbro is a publicly traded company that owns a number of model train brands, including Lionel, which is one of the best-known and most respected brands in the model train industry. Hasbro is listed on the NASDAQ stock exchange.</t>
   </si>
 </sst>
 </file>
@@ -422,13 +437,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -479,6 +487,12 @@
       <i/>
       <sz val="8"/>
       <color theme="1" tint="0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -612,13 +626,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -658,27 +671,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -686,18 +699,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -706,8 +719,8 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -726,30 +739,29 @@
     <xf numFmtId="166" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -765,10 +777,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -786,11 +798,15 @@
     <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -822,7 +838,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1279,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79E222E-B96F-437C-8E98-98E56FA92AC3}">
   <dimension ref="A2:Y39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1288,11 +1304,10 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2"/>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -1300,477 +1315,493 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="81"/>
-      <c r="G5" s="67" t="s">
+      <c r="C5" s="82"/>
+      <c r="D5" s="83"/>
+      <c r="G5" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="69"/>
-      <c r="V5" s="79" t="s">
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68"/>
+      <c r="V5" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="W5" s="80"/>
-      <c r="X5" s="80"/>
-      <c r="Y5" s="81"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="83"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>0.29849999999999999</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="6"/>
-      <c r="V6" s="20" t="s">
+      <c r="D6" s="16"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="5"/>
+      <c r="V6" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="6"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="5"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <f>'Financial Model'!M20</f>
         <v>169.85377</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="56">
-        <v>44866</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="6"/>
-      <c r="V7" s="20" t="s">
+      <c r="G7" s="10"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="5"/>
+      <c r="V7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="6"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="5"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <f>C6*C7</f>
         <v>50.701350344999994</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="6"/>
-      <c r="V8" s="20" t="s">
+      <c r="D8" s="16"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="5"/>
+      <c r="V8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="6"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="5"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <f>'Financial Model'!M65</f>
         <v>3.6820000000000004</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="6"/>
-      <c r="V9" s="20" t="s">
+      <c r="G9" s="10"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="5"/>
+      <c r="V9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="6"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="5"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <f>'Financial Model'!M66</f>
         <v>6.81</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="56">
-        <v>44409</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="6"/>
-      <c r="V10" s="20" t="s">
+      <c r="G10" s="55">
+        <v>44896</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="5"/>
+      <c r="V10" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="6"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="5"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <f>C9-C10</f>
         <v>-3.1279999999999992</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="6"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="6"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="5"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="5"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="15">
         <f>C8-C11</f>
         <v>53.829350344999995</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="6"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="6"/>
+      <c r="D12" s="17"/>
+      <c r="G12" s="55">
+        <v>44866</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="5"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="5"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="G13" s="11"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="6"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="6"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="5"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="5"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="G14" s="11"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="6"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="8"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="5"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="7"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="79" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="81"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="6"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="83"/>
+      <c r="G15" s="55">
+        <v>44409</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="5"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="83"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="6"/>
+      <c r="D16" s="85"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="83"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="6"/>
+      <c r="D17" s="85"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="5"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="82" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="83"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="6"/>
+      <c r="D18" s="85"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="5"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="92" t="s">
+      <c r="A19" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="77" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="78"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="8"/>
+      <c r="D19" s="94"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="7"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="80"/>
-      <c r="D22" s="81"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="83"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="82" t="s">
+      <c r="C23" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="83"/>
+      <c r="D23" s="85"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="82">
+      <c r="C24" s="84">
         <v>1907</v>
       </c>
-      <c r="D24" s="83"/>
+      <c r="D24" s="85"/>
+      <c r="G24" s="95" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="89">
+      <c r="C25" s="91">
         <f>'Financial Model'!U38</f>
         <v>16.462</v>
       </c>
-      <c r="D25" s="90"/>
+      <c r="D25" s="92"/>
+      <c r="G25" s="95" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="88">
+      <c r="C26" s="90">
         <f>'Financial Model'!U62</f>
         <v>8.6457233368532282E-2</v>
       </c>
-      <c r="D26" s="83"/>
+      <c r="D26" s="85"/>
+      <c r="G26" s="95" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B27" s="11"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="83"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="85"/>
+      <c r="G27" s="95" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="82" t="s">
+      <c r="C28" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="83"/>
+      <c r="D28" s="85"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="84" t="s">
+      <c r="C29" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="85"/>
+      <c r="D29" s="87"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B32" s="79" t="s">
+      <c r="B32" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="80"/>
-      <c r="D32" s="81"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="83"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="86">
+      <c r="C33" s="88">
         <f>C6/'Financial Model'!M60</f>
         <v>1.229064053742849</v>
       </c>
-      <c r="D33" s="87"/>
+      <c r="D33" s="89"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="86">
+      <c r="C34" s="88">
         <f>C6/'Financial Model'!U19</f>
         <v>33.690538539553799</v>
       </c>
-      <c r="D34" s="87"/>
+      <c r="D34" s="89"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="86">
+      <c r="C35" s="88">
         <f>C12/'Financial Model'!U18</f>
         <v>36.395774405003429</v>
       </c>
-      <c r="D35" s="87"/>
+      <c r="D35" s="89"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="11"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="83"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="85"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="11"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="83"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="85"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="11"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="11"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -1809,7 +1840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B96169E-3E8F-4BA7-8806-4E2301312E77}">
   <dimension ref="B1:AE77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1821,155 +1852,155 @@
     <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="9.140625" style="31"/>
+    <col min="4" max="4" width="9.140625" style="30"/>
     <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="9.140625" style="31"/>
+    <col min="6" max="6" width="9.140625" style="30"/>
     <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="9.140625" style="31"/>
+    <col min="8" max="8" width="9.140625" style="30"/>
     <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="9.140625" style="31"/>
+    <col min="10" max="10" width="9.140625" style="30"/>
     <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="9.140625" style="31"/>
-    <col min="13" max="13" width="9.140625" style="64"/>
-    <col min="14" max="14" width="9.140625" style="31"/>
+    <col min="12" max="12" width="9.140625" style="30"/>
+    <col min="13" max="13" width="9.140625" style="63"/>
+    <col min="14" max="14" width="9.140625" style="30"/>
     <col min="15" max="20" width="9.140625" style="1"/>
     <col min="21" max="21" width="9.140625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="49"/>
+    <col min="22" max="22" width="9.140625" style="48"/>
     <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="22" t="s">
+    <row r="1" spans="2:31" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="66" t="s">
+      <c r="M1" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="Q1" s="45" t="s">
+      <c r="Q1" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="45" t="s">
+      <c r="S1" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="T1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="45" t="s">
+      <c r="U1" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="47" t="s">
+      <c r="V1" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="W1" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="X1" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" s="22" t="s">
+      <c r="Y1" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" s="22" t="s">
+      <c r="Z1" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="AA1" s="22" t="s">
+      <c r="AA1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="AB1" s="22" t="s">
+      <c r="AB1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AC1" s="22" t="s">
+      <c r="AC1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AD1" s="22" t="s">
+      <c r="AD1" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="AE1" s="22" t="s">
+      <c r="AE1" s="21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="2:31" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="23"/>
-      <c r="D2" s="46">
+    <row r="2" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="22"/>
+      <c r="D2" s="45">
         <v>43190</v>
       </c>
-      <c r="F2" s="46">
+      <c r="F2" s="45">
         <v>43555</v>
       </c>
-      <c r="H2" s="46">
+      <c r="H2" s="45">
         <v>43921</v>
       </c>
-      <c r="I2" s="27">
+      <c r="I2" s="26">
         <v>44104</v>
       </c>
-      <c r="J2" s="46">
+      <c r="J2" s="45">
         <v>44286</v>
       </c>
-      <c r="K2" s="27">
+      <c r="K2" s="26">
         <v>44469</v>
       </c>
-      <c r="L2" s="46">
+      <c r="L2" s="45">
         <v>44651</v>
       </c>
-      <c r="M2" s="70">
+      <c r="M2" s="69">
         <v>44834</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="P2" s="27">
+      <c r="N2" s="28"/>
+      <c r="P2" s="26">
         <v>42825</v>
       </c>
-      <c r="Q2" s="27">
+      <c r="Q2" s="26">
         <v>43190</v>
       </c>
-      <c r="R2" s="27">
+      <c r="R2" s="26">
         <v>43555</v>
       </c>
-      <c r="S2" s="27">
+      <c r="S2" s="26">
         <v>43921</v>
       </c>
-      <c r="T2" s="27">
+      <c r="T2" s="26">
         <v>44286</v>
       </c>
-      <c r="U2" s="27">
+      <c r="U2" s="26">
         <v>44651</v>
       </c>
-      <c r="V2" s="52" t="s">
+      <c r="V2" s="51" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1977,84 +2008,84 @@
       <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="25">
+      <c r="D3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="24">
         <v>21.138000000000002</v>
       </c>
-      <c r="J3" s="58">
+      <c r="J3" s="57">
         <f>T3-I3</f>
         <v>27.410999999999998</v>
       </c>
-      <c r="K3" s="25">
+      <c r="K3" s="24">
         <v>21.844999999999999</v>
       </c>
-      <c r="L3" s="58">
+      <c r="L3" s="57">
         <f>U3-K3</f>
         <v>31.893999999999998</v>
       </c>
-      <c r="M3" s="71">
+      <c r="M3" s="70">
         <v>22.41</v>
       </c>
-      <c r="N3" s="75"/>
-      <c r="P3" s="25">
+      <c r="N3" s="74"/>
+      <c r="P3" s="24">
         <v>47.42</v>
       </c>
-      <c r="Q3" s="25">
+      <c r="Q3" s="24">
         <v>35.651000000000003</v>
       </c>
-      <c r="R3" s="25">
+      <c r="R3" s="24">
         <v>32.759</v>
       </c>
-      <c r="S3" s="25">
+      <c r="S3" s="24">
         <v>37.841999999999999</v>
       </c>
-      <c r="T3" s="25">
+      <c r="T3" s="24">
         <v>48.548999999999999</v>
       </c>
-      <c r="U3" s="25">
+      <c r="U3" s="24">
         <v>53.738999999999997</v>
       </c>
-      <c r="V3" s="48"/>
+      <c r="V3" s="47"/>
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="25">
         <v>11.276</v>
       </c>
-      <c r="J4" s="59">
+      <c r="J4" s="58">
         <f>T4-I4</f>
         <v>15.519000000000002</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="25">
         <v>11.72</v>
       </c>
-      <c r="L4" s="59">
+      <c r="L4" s="58">
         <f>U4-K4</f>
         <v>16.302999999999997</v>
       </c>
-      <c r="M4" s="72">
+      <c r="M4" s="71">
         <v>11.683</v>
       </c>
-      <c r="P4" s="26">
+      <c r="P4" s="25">
         <v>29.27</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="Q4" s="25">
         <v>21.9</v>
       </c>
-      <c r="R4" s="26">
+      <c r="R4" s="25">
         <v>19.347999999999999</v>
       </c>
-      <c r="S4" s="26">
+      <c r="S4" s="25">
         <v>21.14</v>
       </c>
-      <c r="T4" s="26">
+      <c r="T4" s="25">
         <v>26.795000000000002</v>
       </c>
-      <c r="U4" s="26">
+      <c r="U4" s="25">
         <v>28.023</v>
       </c>
     </row>
@@ -2062,93 +2093,93 @@
       <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="25">
+      <c r="D5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="24">
         <f t="shared" ref="I5:M5" si="0">I3-I4</f>
         <v>9.8620000000000019</v>
       </c>
-      <c r="J5" s="58">
+      <c r="J5" s="57">
         <f t="shared" si="0"/>
         <v>11.891999999999996</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="24">
         <f t="shared" si="0"/>
         <v>10.124999999999998</v>
       </c>
-      <c r="L5" s="58">
+      <c r="L5" s="57">
         <f t="shared" si="0"/>
         <v>15.591000000000001</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="24">
         <f t="shared" si="0"/>
         <v>10.727</v>
       </c>
-      <c r="N5" s="30"/>
-      <c r="P5" s="25">
+      <c r="N5" s="29"/>
+      <c r="P5" s="24">
         <f t="shared" ref="P5:Q5" si="1">P3-P4</f>
         <v>18.150000000000002</v>
       </c>
-      <c r="Q5" s="25">
+      <c r="Q5" s="24">
         <f t="shared" si="1"/>
         <v>13.751000000000005</v>
       </c>
-      <c r="R5" s="25">
+      <c r="R5" s="24">
         <f>R3-R4</f>
         <v>13.411000000000001</v>
       </c>
-      <c r="S5" s="25">
+      <c r="S5" s="24">
         <f>S3-S4</f>
         <v>16.701999999999998</v>
       </c>
-      <c r="T5" s="25">
+      <c r="T5" s="24">
         <f>T3-T4</f>
         <v>21.753999999999998</v>
       </c>
-      <c r="U5" s="25">
+      <c r="U5" s="24">
         <f>U3-U4</f>
         <v>25.715999999999998</v>
       </c>
-      <c r="V5" s="48"/>
+      <c r="V5" s="47"/>
     </row>
     <row r="6" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="25">
         <v>3.133</v>
       </c>
-      <c r="J6" s="59">
+      <c r="J6" s="58">
         <f t="shared" ref="J6:J15" si="2">T6-I6</f>
         <v>3.665</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="25">
         <v>3.137</v>
       </c>
-      <c r="L6" s="59">
+      <c r="L6" s="58">
         <f t="shared" ref="L6:L17" si="3">U6-K6</f>
         <v>3.8539999999999996</v>
       </c>
-      <c r="M6" s="72">
+      <c r="M6" s="71">
         <v>3.8330000000000002</v>
       </c>
-      <c r="P6" s="26">
+      <c r="P6" s="25">
         <v>8.4190000000000005</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="Q6" s="25">
         <v>7.2240000000000002</v>
       </c>
-      <c r="R6" s="26">
+      <c r="R6" s="25">
         <v>6.1769999999999996</v>
       </c>
-      <c r="S6" s="26">
+      <c r="S6" s="25">
         <v>5.7869999999999999</v>
       </c>
-      <c r="T6" s="26">
+      <c r="T6" s="25">
         <v>6.798</v>
       </c>
-      <c r="U6" s="26">
+      <c r="U6" s="25">
         <v>6.9909999999999997</v>
       </c>
     </row>
@@ -2156,39 +2187,39 @@
       <c r="B7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="25">
         <v>3.6819999999999999</v>
       </c>
-      <c r="J7" s="59">
+      <c r="J7" s="58">
         <f t="shared" si="2"/>
         <v>4.1219999999999999</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="25">
         <v>4.1509999999999998</v>
       </c>
-      <c r="L7" s="59">
+      <c r="L7" s="58">
         <f t="shared" si="3"/>
         <v>4.6810000000000009</v>
       </c>
-      <c r="M7" s="72">
+      <c r="M7" s="71">
         <v>5.0030000000000001</v>
       </c>
-      <c r="P7" s="26">
+      <c r="P7" s="25">
         <v>10.294</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="Q7" s="25">
         <v>7.6470000000000002</v>
       </c>
-      <c r="R7" s="26">
+      <c r="R7" s="25">
         <v>6.8259999999999996</v>
       </c>
-      <c r="S7" s="26">
+      <c r="S7" s="25">
         <v>8.1530000000000005</v>
       </c>
-      <c r="T7" s="26">
+      <c r="T7" s="25">
         <v>7.8040000000000003</v>
       </c>
-      <c r="U7" s="26">
+      <c r="U7" s="25">
         <v>8.8320000000000007</v>
       </c>
     </row>
@@ -2196,80 +2227,80 @@
       <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="25">
         <v>2.657</v>
       </c>
-      <c r="J8" s="59">
+      <c r="J8" s="58">
         <f t="shared" si="2"/>
         <v>3.476</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="25">
         <v>2.9990000000000001</v>
       </c>
-      <c r="L8" s="59">
+      <c r="L8" s="58">
         <f t="shared" si="3"/>
         <v>5.5149999999999988</v>
       </c>
-      <c r="M8" s="72">
+      <c r="M8" s="71">
         <v>4.1829999999999998</v>
       </c>
-      <c r="P8" s="26">
+      <c r="P8" s="25">
         <v>5.68</v>
       </c>
-      <c r="Q8" s="26">
+      <c r="Q8" s="25">
         <v>6.0209999999999999</v>
       </c>
-      <c r="R8" s="26">
+      <c r="R8" s="25">
         <v>4.8120000000000003</v>
       </c>
-      <c r="S8" s="26">
+      <c r="S8" s="25">
         <v>5.6849999999999996</v>
       </c>
-      <c r="T8" s="26">
+      <c r="T8" s="25">
         <v>6.133</v>
       </c>
-      <c r="U8" s="26">
+      <c r="U8" s="25">
         <v>8.5139999999999993</v>
       </c>
-      <c r="Y8" s="54"/>
+      <c r="Y8" s="53"/>
     </row>
     <row r="9" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="25">
         <v>-0.151</v>
       </c>
-      <c r="J9" s="59">
+      <c r="J9" s="58">
         <f t="shared" si="2"/>
         <v>-0.09</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="25">
         <v>-0.16</v>
       </c>
-      <c r="L9" s="59">
+      <c r="L9" s="58">
         <f t="shared" si="3"/>
         <v>-0.13399999999999998</v>
       </c>
-      <c r="M9" s="72">
+      <c r="M9" s="71">
         <v>-0.32800000000000001</v>
       </c>
-      <c r="P9" s="26">
+      <c r="P9" s="25">
         <v>0.35799999999999998</v>
       </c>
-      <c r="Q9" s="26">
+      <c r="Q9" s="25">
         <v>-0.437</v>
       </c>
-      <c r="R9" s="26">
+      <c r="R9" s="25">
         <v>-0.22600000000000001</v>
       </c>
-      <c r="S9" s="26">
+      <c r="S9" s="25">
         <v>0.18099999999999999</v>
       </c>
-      <c r="T9" s="26">
+      <c r="T9" s="25">
         <v>-0.24099999999999999</v>
       </c>
-      <c r="U9" s="26">
+      <c r="U9" s="25">
         <v>-0.29399999999999998</v>
       </c>
     </row>
@@ -2277,39 +2308,39 @@
       <c r="B10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="25">
         <v>-7.5999999999999998E-2</v>
       </c>
-      <c r="J10" s="59">
+      <c r="J10" s="58">
         <f t="shared" si="2"/>
         <v>-0.13500000000000001</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="25">
         <v>-0.24099999999999999</v>
       </c>
-      <c r="L10" s="59">
+      <c r="L10" s="58">
         <f t="shared" si="3"/>
         <v>0.10199999999999998</v>
       </c>
-      <c r="M10" s="72">
+      <c r="M10" s="71">
         <v>-0.14799999999999999</v>
       </c>
-      <c r="P10" s="26">
+      <c r="P10" s="25">
         <v>-3.3029999999999999</v>
       </c>
-      <c r="Q10" s="26">
+      <c r="Q10" s="25">
         <v>-2.2919999999999998</v>
       </c>
-      <c r="R10" s="26">
+      <c r="R10" s="25">
         <v>-0.59299999999999997</v>
       </c>
-      <c r="S10" s="26">
+      <c r="S10" s="25">
         <v>-7.4999999999999997E-2</v>
       </c>
-      <c r="T10" s="26">
+      <c r="T10" s="25">
         <v>-0.21099999999999999</v>
       </c>
-      <c r="U10" s="26">
+      <c r="U10" s="25">
         <v>-0.13900000000000001</v>
       </c>
     </row>
@@ -2317,93 +2348,93 @@
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="25">
+      <c r="D11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="24">
         <f t="shared" ref="I11:M11" si="4">I5-I6-I7-I8+I9+I10</f>
         <v>0.16300000000000192</v>
       </c>
-      <c r="J11" s="58">
+      <c r="J11" s="57">
         <f t="shared" si="4"/>
         <v>0.40399999999999692</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11" s="24">
         <f t="shared" si="4"/>
         <v>-0.56300000000000217</v>
       </c>
-      <c r="L11" s="58">
+      <c r="L11" s="57">
         <f t="shared" si="4"/>
         <v>1.5090000000000021</v>
       </c>
-      <c r="M11" s="25">
+      <c r="M11" s="24">
         <f t="shared" si="4"/>
         <v>-2.7679999999999998</v>
       </c>
-      <c r="N11" s="30"/>
-      <c r="P11" s="25">
+      <c r="N11" s="29"/>
+      <c r="P11" s="24">
         <f t="shared" ref="P11:U11" si="5">P5-P6-P7-P8+P9+P10</f>
         <v>-9.1879999999999988</v>
       </c>
-      <c r="Q11" s="25">
+      <c r="Q11" s="24">
         <f t="shared" si="5"/>
         <v>-9.8699999999999957</v>
       </c>
-      <c r="R11" s="25">
+      <c r="R11" s="24">
         <f t="shared" si="5"/>
         <v>-5.2229999999999981</v>
       </c>
-      <c r="S11" s="25">
+      <c r="S11" s="24">
         <f t="shared" si="5"/>
         <v>-2.8170000000000011</v>
       </c>
-      <c r="T11" s="25">
+      <c r="T11" s="24">
         <f t="shared" si="5"/>
         <v>0.56699999999999751</v>
       </c>
-      <c r="U11" s="25">
+      <c r="U11" s="24">
         <f t="shared" si="5"/>
         <v>0.94599999999999773</v>
       </c>
-      <c r="V11" s="48"/>
+      <c r="V11" s="47"/>
     </row>
     <row r="12" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="25">
         <v>2E-3</v>
       </c>
-      <c r="J12" s="59">
+      <c r="J12" s="58">
         <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="25">
         <v>0.01</v>
       </c>
-      <c r="L12" s="59">
+      <c r="L12" s="58">
         <f t="shared" si="3"/>
         <v>4.9999999999999992E-3</v>
       </c>
-      <c r="M12" s="72">
+      <c r="M12" s="71">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="P12" s="26">
+      <c r="P12" s="25">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="Q12" s="26">
+      <c r="Q12" s="25">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="R12" s="26">
+      <c r="R12" s="25">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="S12" s="26">
+      <c r="S12" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="T12" s="26">
+      <c r="T12" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="U12" s="26">
+      <c r="U12" s="25">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -2411,39 +2442,39 @@
       <c r="B13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="25">
         <v>0.16200000000000001</v>
       </c>
-      <c r="J13" s="59">
+      <c r="J13" s="58">
         <f t="shared" si="2"/>
         <v>0.17200000000000001</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="25">
         <v>0.17199999999999999</v>
       </c>
-      <c r="L13" s="59">
+      <c r="L13" s="58">
         <f t="shared" si="3"/>
         <v>0.186</v>
       </c>
-      <c r="M13" s="72">
+      <c r="M13" s="71">
         <v>0.122</v>
       </c>
-      <c r="P13" s="26">
+      <c r="P13" s="25">
         <v>0.32600000000000001</v>
       </c>
-      <c r="Q13" s="26">
+      <c r="Q13" s="25">
         <v>0.218</v>
       </c>
-      <c r="R13" s="26">
+      <c r="R13" s="25">
         <v>0.17699999999999999</v>
       </c>
-      <c r="S13" s="26">
+      <c r="S13" s="25">
         <v>0.61499999999999999</v>
       </c>
-      <c r="T13" s="26">
+      <c r="T13" s="25">
         <v>0.33400000000000002</v>
       </c>
-      <c r="U13" s="26">
+      <c r="U13" s="25">
         <v>0.35799999999999998</v>
       </c>
     </row>
@@ -2451,47 +2482,47 @@
       <c r="B14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I14" s="25">
         <f t="shared" ref="I14:M14" si="6">I12-I13</f>
         <v>-0.16</v>
       </c>
-      <c r="J14" s="59">
+      <c r="J14" s="58">
         <f t="shared" si="6"/>
         <v>-0.17100000000000001</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="25">
         <f t="shared" si="6"/>
         <v>-0.16199999999999998</v>
       </c>
-      <c r="L14" s="59">
+      <c r="L14" s="58">
         <f t="shared" si="6"/>
         <v>-0.18099999999999999</v>
       </c>
-      <c r="M14" s="26">
+      <c r="M14" s="25">
         <f t="shared" si="6"/>
         <v>-0.11799999999999999</v>
       </c>
-      <c r="P14" s="26">
+      <c r="P14" s="25">
         <f t="shared" ref="P14:U14" si="7">P12-P13</f>
         <v>-0.32100000000000001</v>
       </c>
-      <c r="Q14" s="26">
+      <c r="Q14" s="25">
         <f t="shared" si="7"/>
         <v>-0.21099999999999999</v>
       </c>
-      <c r="R14" s="26">
+      <c r="R14" s="25">
         <f t="shared" si="7"/>
         <v>-0.16999999999999998</v>
       </c>
-      <c r="S14" s="26">
+      <c r="S14" s="25">
         <f t="shared" si="7"/>
         <v>-0.61199999999999999</v>
       </c>
-      <c r="T14" s="26">
+      <c r="T14" s="25">
         <f t="shared" si="7"/>
         <v>-0.33100000000000002</v>
       </c>
-      <c r="U14" s="26">
+      <c r="U14" s="25">
         <f t="shared" si="7"/>
         <v>-0.34299999999999997</v>
       </c>
@@ -2500,39 +2531,39 @@
       <c r="B15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="25">
         <v>1.4E-2</v>
       </c>
-      <c r="J15" s="59">
+      <c r="J15" s="58">
         <f t="shared" si="2"/>
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="25">
         <v>-0.02</v>
       </c>
-      <c r="L15" s="59">
+      <c r="L15" s="58">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M15" s="72">
-        <v>0</v>
-      </c>
-      <c r="P15" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="26">
+      <c r="M15" s="71">
+        <v>0</v>
+      </c>
+      <c r="P15" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="25">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="R15" s="26">
+      <c r="R15" s="25">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="S15" s="26">
+      <c r="S15" s="25">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="T15" s="26">
+      <c r="T15" s="25">
         <v>0.109</v>
       </c>
-      <c r="U15" s="32">
+      <c r="U15" s="31">
         <v>-0.02</v>
       </c>
     </row>
@@ -2540,47 +2571,47 @@
       <c r="B16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="25">
         <f t="shared" ref="I16:M16" si="8">I11+I14+I15</f>
         <v>1.7000000000001916E-2</v>
       </c>
-      <c r="J16" s="59">
+      <c r="J16" s="58">
         <f t="shared" si="8"/>
         <v>0.32799999999999691</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="25">
         <f t="shared" si="8"/>
         <v>-0.7450000000000021</v>
       </c>
-      <c r="L16" s="59">
+      <c r="L16" s="58">
         <f t="shared" si="8"/>
         <v>1.3280000000000021</v>
       </c>
-      <c r="M16" s="26">
+      <c r="M16" s="25">
         <f t="shared" si="8"/>
         <v>-2.8859999999999997</v>
       </c>
-      <c r="P16" s="26">
+      <c r="P16" s="25">
         <f t="shared" ref="P16:U16" si="9">P11+P14+P15</f>
         <v>-9.5089999999999986</v>
       </c>
-      <c r="Q16" s="26">
+      <c r="Q16" s="25">
         <f t="shared" si="9"/>
         <v>-10.065999999999995</v>
       </c>
-      <c r="R16" s="26">
+      <c r="R16" s="25">
         <f t="shared" si="9"/>
         <v>-5.3119999999999976</v>
       </c>
-      <c r="S16" s="26">
+      <c r="S16" s="25">
         <f t="shared" si="9"/>
         <v>-3.3950000000000014</v>
       </c>
-      <c r="T16" s="26">
+      <c r="T16" s="25">
         <f t="shared" si="9"/>
         <v>0.34499999999999748</v>
       </c>
-      <c r="U16" s="26">
+      <c r="U16" s="25">
         <f t="shared" si="9"/>
         <v>0.58299999999999774</v>
       </c>
@@ -2589,39 +2620,39 @@
       <c r="B17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="25">
         <v>-3.7999999999999999E-2</v>
       </c>
-      <c r="J17" s="59">
+      <c r="J17" s="58">
         <f t="shared" ref="J17" si="10">J15-J16</f>
         <v>-0.2329999999999969</v>
       </c>
-      <c r="K17" s="26">
-        <v>0</v>
-      </c>
-      <c r="L17" s="59">
+      <c r="K17" s="25">
+        <v>0</v>
+      </c>
+      <c r="L17" s="58">
         <f t="shared" si="3"/>
         <v>-0.89600000000000002</v>
       </c>
-      <c r="M17" s="72">
+      <c r="M17" s="71">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="P17" s="26">
+      <c r="P17" s="25">
         <v>0.157</v>
       </c>
-      <c r="Q17" s="26">
+      <c r="Q17" s="25">
         <v>-0.21199999999999999</v>
       </c>
-      <c r="R17" s="26">
-        <v>0</v>
-      </c>
-      <c r="S17" s="26">
-        <v>0</v>
-      </c>
-      <c r="T17" s="26">
+      <c r="R17" s="25">
+        <v>0</v>
+      </c>
+      <c r="S17" s="25">
+        <v>0</v>
+      </c>
+      <c r="T17" s="25">
         <v>-1.018</v>
       </c>
-      <c r="U17" s="26">
+      <c r="U17" s="25">
         <v>-0.89600000000000002</v>
       </c>
     </row>
@@ -2629,98 +2660,98 @@
       <c r="B18" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="25">
+      <c r="D18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="24">
         <f t="shared" ref="I18:M18" si="11">I16-I17</f>
         <v>5.5000000000001915E-2</v>
       </c>
-      <c r="J18" s="58">
+      <c r="J18" s="57">
         <f t="shared" si="11"/>
         <v>0.56099999999999384</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K18" s="24">
         <f t="shared" si="11"/>
         <v>-0.7450000000000021</v>
       </c>
-      <c r="L18" s="58">
+      <c r="L18" s="57">
         <f t="shared" si="11"/>
         <v>2.224000000000002</v>
       </c>
-      <c r="M18" s="25">
+      <c r="M18" s="24">
         <f t="shared" si="11"/>
         <v>-2.9729999999999999</v>
       </c>
-      <c r="N18" s="30"/>
-      <c r="P18" s="25">
+      <c r="N18" s="29"/>
+      <c r="P18" s="24">
         <f t="shared" ref="P18:U18" si="12">P16-P17</f>
         <v>-9.6659999999999986</v>
       </c>
-      <c r="Q18" s="25">
+      <c r="Q18" s="24">
         <f t="shared" si="12"/>
         <v>-9.8539999999999957</v>
       </c>
-      <c r="R18" s="25">
+      <c r="R18" s="24">
         <f t="shared" si="12"/>
         <v>-5.3119999999999976</v>
       </c>
-      <c r="S18" s="25">
+      <c r="S18" s="24">
         <f t="shared" si="12"/>
         <v>-3.3950000000000014</v>
       </c>
-      <c r="T18" s="25">
+      <c r="T18" s="24">
         <f t="shared" si="12"/>
         <v>1.3629999999999975</v>
       </c>
-      <c r="U18" s="25">
+      <c r="U18" s="24">
         <f t="shared" si="12"/>
         <v>1.4789999999999979</v>
       </c>
-      <c r="V18" s="48"/>
+      <c r="V18" s="47"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I19" s="63"/>
-      <c r="J19" s="62">
+      <c r="I19" s="62"/>
+      <c r="J19" s="61">
         <f>J18/J20</f>
         <v>3.3607102420789309E-3</v>
       </c>
-      <c r="K19" s="63">
+      <c r="K19" s="62">
         <f t="shared" ref="K19:M19" si="13">K18/K20</f>
         <v>-4.4630063440946385E-3</v>
       </c>
-      <c r="L19" s="62">
+      <c r="L19" s="61">
         <f>L18/L20</f>
         <v>1.3323029551485973E-2</v>
       </c>
-      <c r="M19" s="63">
+      <c r="M19" s="62">
         <f t="shared" si="13"/>
         <v>-1.7503291213377247E-2</v>
       </c>
-      <c r="P19" s="34">
+      <c r="P19" s="33">
         <f t="shared" ref="P19:U19" si="14">P18/P20</f>
         <v>-0.12654482614160031</v>
       </c>
-      <c r="Q19" s="34">
+      <c r="Q19" s="33">
         <f t="shared" si="14"/>
         <v>-0.10128690074829369</v>
       </c>
-      <c r="R19" s="34">
+      <c r="R19" s="33">
         <f t="shared" si="14"/>
         <v>-4.2407453237639788E-2</v>
       </c>
-      <c r="S19" s="34">
+      <c r="S19" s="33">
         <f t="shared" si="14"/>
         <v>-2.6691090914808653E-2</v>
       </c>
-      <c r="T19" s="34">
+      <c r="T19" s="33">
         <f t="shared" si="14"/>
         <v>8.1651480569583327E-3</v>
       </c>
-      <c r="U19" s="34">
+      <c r="U19" s="33">
         <f t="shared" si="14"/>
         <v>8.8600542745718106E-3</v>
       </c>
@@ -2729,176 +2760,176 @@
       <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="26"/>
-      <c r="J20" s="59">
+      <c r="I20" s="25"/>
+      <c r="J20" s="58">
         <f>T20</f>
         <v>166.929</v>
       </c>
-      <c r="K20" s="26">
+      <c r="K20" s="25">
         <v>166.92783800000001</v>
       </c>
-      <c r="L20" s="59">
+      <c r="L20" s="58">
         <f>U20</f>
         <v>166.929</v>
       </c>
-      <c r="M20" s="72">
+      <c r="M20" s="71">
         <v>169.85377</v>
       </c>
-      <c r="P20" s="26">
+      <c r="P20" s="25">
         <v>76.384</v>
       </c>
-      <c r="Q20" s="26">
+      <c r="Q20" s="25">
         <v>97.287999999999997</v>
       </c>
-      <c r="R20" s="26">
+      <c r="R20" s="25">
         <v>125.261</v>
       </c>
-      <c r="S20" s="26">
+      <c r="S20" s="25">
         <v>127.196</v>
       </c>
-      <c r="T20" s="26">
+      <c r="T20" s="25">
         <v>166.929</v>
       </c>
-      <c r="U20" s="26">
+      <c r="U20" s="25">
         <v>166.929</v>
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="U21" s="26"/>
+      <c r="U21" s="25"/>
     </row>
     <row r="22" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="35">
+      <c r="D22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="34">
         <f>K3/I3-1</f>
         <v>3.3446872930267713E-2</v>
       </c>
-      <c r="L22" s="61">
+      <c r="L22" s="60">
         <f>L3/J3-1</f>
         <v>0.16354748093830951</v>
       </c>
-      <c r="M22" s="35">
+      <c r="M22" s="34">
         <f>M3/K3-1</f>
         <v>2.5864042114900565E-2</v>
       </c>
-      <c r="N22" s="61"/>
-      <c r="P22" s="55" t="s">
+      <c r="N22" s="60"/>
+      <c r="P22" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="Q22" s="35">
+      <c r="Q22" s="34">
         <f t="shared" ref="Q22" si="15">Q3/P3-1</f>
         <v>-0.24818641923239138</v>
       </c>
-      <c r="R22" s="35">
+      <c r="R22" s="34">
         <f t="shared" ref="R22" si="16">R3/Q3-1</f>
         <v>-8.1119744186698872E-2</v>
       </c>
-      <c r="S22" s="35">
+      <c r="S22" s="34">
         <f t="shared" ref="S22:T22" si="17">S3/R3-1</f>
         <v>0.15516346652828217</v>
       </c>
-      <c r="T22" s="35">
+      <c r="T22" s="34">
         <f t="shared" si="17"/>
         <v>0.28293959093071197</v>
       </c>
-      <c r="U22" s="35">
+      <c r="U22" s="34">
         <f>U3/T3-1</f>
         <v>0.10690230488784525</v>
       </c>
-      <c r="V22" s="50"/>
+      <c r="V22" s="49"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J23" s="60">
+      <c r="J23" s="59">
         <f>J3/I3-1</f>
         <v>0.29676412148736842</v>
       </c>
-      <c r="K23" s="42">
+      <c r="K23" s="41">
         <f>K3/J3-1</f>
         <v>-0.2030571668308343</v>
       </c>
-      <c r="L23" s="60">
+      <c r="L23" s="59">
         <f>L3/K3-1</f>
         <v>0.46001373311970695</v>
       </c>
-      <c r="M23" s="42">
+      <c r="M23" s="41">
         <f>M3/L3-1</f>
         <v>-0.29736000501661752</v>
       </c>
-      <c r="P23" s="36" t="s">
+      <c r="P23" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="Q23" s="36" t="s">
+      <c r="Q23" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="R23" s="36" t="s">
+      <c r="R23" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="S23" s="36" t="s">
+      <c r="S23" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="T23" s="36" t="s">
+      <c r="T23" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="U23" s="36" t="s">
+      <c r="U23" s="35" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="U24" s="26"/>
+      <c r="U24" s="25"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I25" s="42">
+      <c r="I25" s="41">
         <f t="shared" ref="I25:J25" si="18">I5/I3</f>
         <v>0.46655312706973229</v>
       </c>
-      <c r="J25" s="60">
+      <c r="J25" s="59">
         <f t="shared" si="18"/>
         <v>0.43384042902484393</v>
       </c>
-      <c r="K25" s="42">
+      <c r="K25" s="41">
         <f t="shared" ref="K25:L25" si="19">K5/K3</f>
         <v>0.46349279011215377</v>
       </c>
-      <c r="L25" s="60">
+      <c r="L25" s="59">
         <f t="shared" si="19"/>
         <v>0.48883802596099585</v>
       </c>
-      <c r="M25" s="42">
+      <c r="M25" s="41">
         <f t="shared" ref="M25" si="20">M5/M3</f>
         <v>0.47867023650156182</v>
       </c>
-      <c r="P25" s="42">
+      <c r="P25" s="41">
         <f t="shared" ref="P25:Q25" si="21">P5/P3</f>
         <v>0.38274989455925773</v>
       </c>
-      <c r="Q25" s="42">
+      <c r="Q25" s="41">
         <f t="shared" si="21"/>
         <v>0.38571148074387823</v>
       </c>
-      <c r="R25" s="42">
+      <c r="R25" s="41">
         <f t="shared" ref="R25:S25" si="22">R5/R3</f>
         <v>0.40938368082053789</v>
       </c>
-      <c r="S25" s="42">
+      <c r="S25" s="41">
         <f t="shared" si="22"/>
         <v>0.44136145024047352</v>
       </c>
-      <c r="T25" s="42">
+      <c r="T25" s="41">
         <f>T5/T3</f>
         <v>0.44808337967826317</v>
       </c>
-      <c r="U25" s="42">
+      <c r="U25" s="41">
         <f>U5/U3</f>
         <v>0.47853514207558756</v>
       </c>
@@ -2907,47 +2938,47 @@
       <c r="B26" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="I26" s="42">
+      <c r="I26" s="41">
         <f t="shared" ref="I26:J26" si="23">I11/I3</f>
         <v>7.7112309584635207E-3</v>
       </c>
-      <c r="J26" s="60">
+      <c r="J26" s="59">
         <f t="shared" si="23"/>
         <v>1.473860858779311E-2</v>
       </c>
-      <c r="K26" s="42">
+      <c r="K26" s="41">
         <f t="shared" ref="K26:L26" si="24">K11/K3</f>
         <v>-2.5772487983520356E-2</v>
       </c>
-      <c r="L26" s="60">
+      <c r="L26" s="59">
         <f t="shared" si="24"/>
         <v>4.7312974227127429E-2</v>
       </c>
-      <c r="M26" s="42">
+      <c r="M26" s="41">
         <f t="shared" ref="M26" si="25">M11/M3</f>
         <v>-0.12351628737170905</v>
       </c>
-      <c r="P26" s="42">
+      <c r="P26" s="41">
         <f t="shared" ref="P26:Q26" si="26">P11/P3</f>
         <v>-0.19375790805567267</v>
       </c>
-      <c r="Q26" s="42">
+      <c r="Q26" s="41">
         <f t="shared" si="26"/>
         <v>-0.276850579226389</v>
       </c>
-      <c r="R26" s="42">
+      <c r="R26" s="41">
         <f t="shared" ref="R26:S26" si="27">R11/R3</f>
         <v>-0.15943710125461699</v>
       </c>
-      <c r="S26" s="42">
+      <c r="S26" s="41">
         <f t="shared" si="27"/>
         <v>-7.4441097193594444E-2</v>
       </c>
-      <c r="T26" s="42">
+      <c r="T26" s="41">
         <f>T11/T3</f>
         <v>1.1678922325897496E-2</v>
       </c>
-      <c r="U26" s="42">
+      <c r="U26" s="41">
         <f>U11/U3</f>
         <v>1.7603602597740891E-2</v>
       </c>
@@ -2956,47 +2987,47 @@
       <c r="B27" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I27" s="42">
+      <c r="I27" s="41">
         <f t="shared" ref="I27:J27" si="28">I18/I3</f>
         <v>2.6019490964141316E-3</v>
       </c>
-      <c r="J27" s="60">
+      <c r="J27" s="59">
         <f t="shared" si="28"/>
         <v>2.0466236182554227E-2</v>
       </c>
-      <c r="K27" s="42">
+      <c r="K27" s="41">
         <f t="shared" ref="K27:L27" si="29">K18/K3</f>
         <v>-3.4103913939116604E-2</v>
       </c>
-      <c r="L27" s="60">
+      <c r="L27" s="59">
         <f t="shared" si="29"/>
         <v>6.9730983884116193E-2</v>
       </c>
-      <c r="M27" s="42">
+      <c r="M27" s="41">
         <f t="shared" ref="M27" si="30">M18/M3</f>
         <v>-0.1326639892904953</v>
       </c>
-      <c r="P27" s="42">
+      <c r="P27" s="41">
         <f t="shared" ref="P27:Q27" si="31">P18/P3</f>
         <v>-0.20383804301982283</v>
       </c>
-      <c r="Q27" s="42">
+      <c r="Q27" s="41">
         <f t="shared" si="31"/>
         <v>-0.27640178396117904</v>
       </c>
-      <c r="R27" s="42">
+      <c r="R27" s="41">
         <f t="shared" ref="R27:S27" si="32">R18/R3</f>
         <v>-0.16215391190207265</v>
       </c>
-      <c r="S27" s="42">
+      <c r="S27" s="41">
         <f t="shared" si="32"/>
         <v>-8.971513133555313E-2</v>
       </c>
-      <c r="T27" s="42">
+      <c r="T27" s="41">
         <f>T18/T3</f>
         <v>2.8074728624688409E-2</v>
       </c>
-      <c r="U27" s="42">
+      <c r="U27" s="41">
         <f>U18/U3</f>
         <v>2.7521911460950111E-2</v>
       </c>
@@ -3005,53 +3036,53 @@
       <c r="B28" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I28" s="42">
+      <c r="I28" s="41">
         <f t="shared" ref="I28:J28" si="33">I17/I16</f>
         <v>-2.2352941176468066</v>
       </c>
-      <c r="J28" s="60">
+      <c r="J28" s="59">
         <f t="shared" si="33"/>
         <v>-0.71036585365853389</v>
       </c>
-      <c r="K28" s="42">
+      <c r="K28" s="41">
         <f t="shared" ref="K28:L28" si="34">K17/K16</f>
         <v>0</v>
       </c>
-      <c r="L28" s="60">
+      <c r="L28" s="59">
         <f t="shared" si="34"/>
         <v>-0.67469879518072184</v>
       </c>
-      <c r="M28" s="42">
+      <c r="M28" s="41">
         <f t="shared" ref="M28" si="35">M17/M16</f>
         <v>-3.0145530145530147E-2</v>
       </c>
-      <c r="P28" s="42">
+      <c r="P28" s="41">
         <f t="shared" ref="P28:Q28" si="36">P17/P16</f>
         <v>-1.6510674098222738E-2</v>
       </c>
-      <c r="Q28" s="42">
+      <c r="Q28" s="41">
         <f t="shared" si="36"/>
         <v>2.1060997417047495E-2</v>
       </c>
-      <c r="R28" s="42">
+      <c r="R28" s="41">
         <f t="shared" ref="R28:T28" si="37">R17/R16</f>
         <v>0</v>
       </c>
-      <c r="S28" s="42">
+      <c r="S28" s="41">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="T28" s="42">
+      <c r="T28" s="41">
         <f t="shared" si="37"/>
         <v>-2.9507246376811809</v>
       </c>
-      <c r="U28" s="42">
+      <c r="U28" s="41">
         <f>U17/U16</f>
         <v>-1.5368782161235051</v>
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="32" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3059,35 +3090,35 @@
       <c r="B32" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L32" s="59">
+      <c r="L32" s="58">
         <f>U32</f>
         <v>7.8309999999999995</v>
       </c>
-      <c r="M32" s="72">
+      <c r="M32" s="71">
         <f>4.647+3.097</f>
         <v>7.7439999999999998</v>
       </c>
-      <c r="P32" s="26">
+      <c r="P32" s="25">
         <f>4.554+4.214</f>
         <v>8.7680000000000007</v>
       </c>
-      <c r="Q32" s="26">
+      <c r="Q32" s="25">
         <f>4.564+3.368</f>
         <v>7.9320000000000004</v>
       </c>
-      <c r="R32" s="26">
+      <c r="R32" s="25">
         <f>4.563+3.19</f>
         <v>7.7530000000000001</v>
       </c>
-      <c r="S32" s="26">
+      <c r="S32" s="25">
         <f>4.564+2.824</f>
         <v>7.3879999999999999</v>
       </c>
-      <c r="T32" s="26">
+      <c r="T32" s="25">
         <f>4.561+3.017</f>
         <v>7.5779999999999994</v>
       </c>
-      <c r="U32" s="26">
+      <c r="U32" s="25">
         <f>4.644+3.187</f>
         <v>7.8309999999999995</v>
       </c>
@@ -3096,29 +3127,29 @@
       <c r="B33" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L33" s="59">
+      <c r="L33" s="58">
         <f>U33</f>
         <v>10.057</v>
       </c>
-      <c r="M33" s="72">
+      <c r="M33" s="71">
         <v>10.477</v>
       </c>
-      <c r="P33" s="26">
+      <c r="P33" s="25">
         <v>5.6829999999999998</v>
       </c>
-      <c r="Q33" s="26">
+      <c r="Q33" s="25">
         <v>4.4889999999999999</v>
       </c>
-      <c r="R33" s="26">
+      <c r="R33" s="25">
         <v>3.7829999999999999</v>
       </c>
-      <c r="S33" s="26">
+      <c r="S33" s="25">
         <v>4.165</v>
       </c>
-      <c r="T33" s="26">
+      <c r="T33" s="25">
         <v>6.68</v>
       </c>
-      <c r="U33" s="26">
+      <c r="U33" s="25">
         <v>10.057</v>
       </c>
     </row>
@@ -3126,65 +3157,65 @@
       <c r="B34" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="L34" s="58">
+      <c r="D34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="L34" s="57">
         <f>U34</f>
         <v>0</v>
       </c>
-      <c r="M34" s="71">
-        <v>0</v>
-      </c>
-      <c r="N34" s="30"/>
-      <c r="P34" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="25">
+      <c r="M34" s="70">
+        <v>0</v>
+      </c>
+      <c r="N34" s="29"/>
+      <c r="P34" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="24">
         <v>1.615</v>
       </c>
-      <c r="R34" s="25">
+      <c r="R34" s="24">
         <v>1.696</v>
       </c>
-      <c r="S34" s="25">
+      <c r="S34" s="24">
         <v>1.73</v>
       </c>
-      <c r="T34" s="25">
+      <c r="T34" s="24">
         <v>1.839</v>
       </c>
-      <c r="U34" s="25">
-        <v>0</v>
-      </c>
-      <c r="V34" s="48"/>
+      <c r="U34" s="24">
+        <v>0</v>
+      </c>
+      <c r="V34" s="47"/>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L35" s="59">
+      <c r="L35" s="58">
         <f t="shared" ref="L35:L39" si="38">U35</f>
         <v>2.5840000000000001</v>
       </c>
-      <c r="M35" s="72">
+      <c r="M35" s="71">
         <v>2.484</v>
       </c>
-      <c r="P35" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="26">
-        <v>0</v>
-      </c>
-      <c r="R35" s="26">
-        <v>0</v>
-      </c>
-      <c r="S35" s="26">
+      <c r="P35" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="25">
+        <v>0</v>
+      </c>
+      <c r="R35" s="25">
+        <v>0</v>
+      </c>
+      <c r="S35" s="25">
         <v>2.573</v>
       </c>
-      <c r="T35" s="26">
+      <c r="T35" s="25">
         <v>2.69</v>
       </c>
-      <c r="U35" s="26">
+      <c r="U35" s="25">
         <v>2.5840000000000001</v>
       </c>
     </row>
@@ -3192,29 +3223,29 @@
       <c r="B36" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L36" s="59">
+      <c r="L36" s="58">
         <f t="shared" si="38"/>
         <v>3.4249999999999998</v>
       </c>
-      <c r="M36" s="72">
+      <c r="M36" s="71">
         <v>3.423</v>
       </c>
-      <c r="P36" s="26">
+      <c r="P36" s="25">
         <v>1.974</v>
       </c>
-      <c r="Q36" s="26">
+      <c r="Q36" s="25">
         <v>2.0299999999999998</v>
       </c>
-      <c r="R36" s="26">
+      <c r="R36" s="25">
         <v>2.0299999999999998</v>
       </c>
-      <c r="S36" s="26">
+      <c r="S36" s="25">
         <v>2.0299999999999998</v>
       </c>
-      <c r="T36" s="26">
+      <c r="T36" s="25">
         <v>2.956</v>
       </c>
-      <c r="U36" s="26">
+      <c r="U36" s="25">
         <v>3.4249999999999998</v>
       </c>
     </row>
@@ -3222,35 +3253,35 @@
       <c r="B37" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="L37" s="59">
+      <c r="L37" s="58">
         <f t="shared" ref="L37" si="39">SUM(L32:L36)</f>
         <v>23.896999999999998</v>
       </c>
-      <c r="M37" s="26">
+      <c r="M37" s="25">
         <f t="shared" ref="M37" si="40">SUM(M32:M36)</f>
         <v>24.128</v>
       </c>
-      <c r="P37" s="26">
+      <c r="P37" s="25">
         <f t="shared" ref="P37:U37" si="41">SUM(P32:P36)</f>
         <v>16.425000000000001</v>
       </c>
-      <c r="Q37" s="26">
+      <c r="Q37" s="25">
         <f t="shared" si="41"/>
         <v>16.065999999999999</v>
       </c>
-      <c r="R37" s="26">
+      <c r="R37" s="25">
         <f t="shared" si="41"/>
         <v>15.261999999999999</v>
       </c>
-      <c r="S37" s="26">
+      <c r="S37" s="25">
         <f t="shared" si="41"/>
         <v>17.886000000000003</v>
       </c>
-      <c r="T37" s="26">
+      <c r="T37" s="25">
         <f t="shared" si="41"/>
         <v>21.742999999999999</v>
       </c>
-      <c r="U37" s="26">
+      <c r="U37" s="25">
         <f t="shared" si="41"/>
         <v>23.896999999999998</v>
       </c>
@@ -3259,65 +3290,65 @@
       <c r="B38" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="L38" s="58">
+      <c r="D38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="L38" s="57">
         <f>U38</f>
         <v>16.462</v>
       </c>
-      <c r="M38" s="71">
+      <c r="M38" s="70">
         <v>22.547999999999998</v>
       </c>
-      <c r="N38" s="30"/>
-      <c r="P38" s="25">
+      <c r="N38" s="29"/>
+      <c r="P38" s="24">
         <v>9.68</v>
       </c>
-      <c r="Q38" s="25">
+      <c r="Q38" s="24">
         <v>10.029999999999999</v>
       </c>
-      <c r="R38" s="25">
+      <c r="R38" s="24">
         <v>10.86</v>
       </c>
-      <c r="S38" s="25">
+      <c r="S38" s="24">
         <v>14.234999999999999</v>
       </c>
-      <c r="T38" s="25">
+      <c r="T38" s="24">
         <v>15.151999999999999</v>
       </c>
-      <c r="U38" s="25">
+      <c r="U38" s="24">
         <v>16.462</v>
       </c>
-      <c r="V38" s="48"/>
+      <c r="V38" s="47"/>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L39" s="59">
+      <c r="L39" s="58">
         <f t="shared" si="38"/>
         <v>8.7859999999999996</v>
       </c>
-      <c r="M39" s="72">
+      <c r="M39" s="71">
         <v>9.1539999999999999</v>
       </c>
-      <c r="P39" s="26">
+      <c r="P39" s="25">
         <v>9.2460000000000004</v>
       </c>
-      <c r="Q39" s="26">
+      <c r="Q39" s="25">
         <v>5.9489999999999998</v>
       </c>
-      <c r="R39" s="26">
+      <c r="R39" s="25">
         <v>7.18</v>
       </c>
-      <c r="S39" s="26">
+      <c r="S39" s="25">
         <v>6.5250000000000004</v>
       </c>
-      <c r="T39" s="26">
+      <c r="T39" s="25">
         <v>7.2469999999999999</v>
       </c>
-      <c r="U39" s="26">
+      <c r="U39" s="25">
         <v>8.7859999999999996</v>
       </c>
     </row>
@@ -3325,185 +3356,185 @@
       <c r="B40" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="L40" s="58">
+      <c r="D40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="L40" s="57">
         <f>U40</f>
         <v>0.504</v>
       </c>
-      <c r="M40" s="71">
+      <c r="M40" s="70">
         <v>1.8080000000000001</v>
       </c>
-      <c r="N40" s="30"/>
-      <c r="P40" s="25">
+      <c r="N40" s="29"/>
+      <c r="P40" s="24">
         <v>0.12</v>
       </c>
-      <c r="Q40" s="25">
-        <v>0</v>
-      </c>
-      <c r="R40" s="25">
+      <c r="Q40" s="24">
+        <v>0</v>
+      </c>
+      <c r="R40" s="24">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="S40" s="25">
+      <c r="S40" s="24">
         <v>0.11600000000000001</v>
       </c>
-      <c r="T40" s="25">
+      <c r="T40" s="24">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="U40" s="25">
+      <c r="U40" s="24">
         <v>0.504</v>
       </c>
-      <c r="V40" s="48"/>
+      <c r="V40" s="47"/>
     </row>
     <row r="41" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="L41" s="58">
+      <c r="D41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="L41" s="57">
         <f>U41</f>
         <v>4.1390000000000002</v>
       </c>
-      <c r="M41" s="71">
+      <c r="M41" s="70">
         <v>1.8740000000000001</v>
       </c>
-      <c r="N41" s="30"/>
-      <c r="P41" s="25">
+      <c r="N41" s="29"/>
+      <c r="P41" s="24">
         <f>1.58+0.05</f>
         <v>1.6300000000000001</v>
       </c>
-      <c r="Q41" s="25">
+      <c r="Q41" s="24">
         <v>3.8780000000000001</v>
       </c>
-      <c r="R41" s="25">
+      <c r="R41" s="24">
         <v>0.70399999999999996</v>
       </c>
-      <c r="S41" s="25">
+      <c r="S41" s="24">
         <v>5.9210000000000003</v>
       </c>
-      <c r="T41" s="25">
+      <c r="T41" s="24">
         <v>4.6849999999999996</v>
       </c>
-      <c r="U41" s="25">
+      <c r="U41" s="24">
         <v>4.1390000000000002</v>
       </c>
-      <c r="V41" s="48"/>
+      <c r="V41" s="47"/>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L42" s="59">
+      <c r="L42" s="58">
         <f t="shared" ref="L42" si="42">L37+SUM(L38:L41)</f>
         <v>53.787999999999997</v>
       </c>
-      <c r="M42" s="26">
+      <c r="M42" s="25">
         <f t="shared" ref="M42" si="43">M37+SUM(M38:M41)</f>
         <v>59.512</v>
       </c>
-      <c r="P42" s="26">
+      <c r="P42" s="25">
         <f t="shared" ref="P42:U42" si="44">P37+SUM(P38:P41)</f>
         <v>37.100999999999999</v>
       </c>
-      <c r="Q42" s="26">
+      <c r="Q42" s="25">
         <f t="shared" si="44"/>
         <v>35.923000000000002</v>
       </c>
-      <c r="R42" s="26">
+      <c r="R42" s="25">
         <f t="shared" si="44"/>
         <v>34.030999999999999</v>
       </c>
-      <c r="S42" s="26">
+      <c r="S42" s="25">
         <f t="shared" si="44"/>
         <v>44.683</v>
       </c>
-      <c r="T42" s="26">
+      <c r="T42" s="25">
         <f t="shared" si="44"/>
         <v>48.858999999999995</v>
       </c>
-      <c r="U42" s="26">
+      <c r="U42" s="25">
         <f t="shared" si="44"/>
         <v>53.787999999999997</v>
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="L43" s="59"/>
-      <c r="M43" s="72"/>
-      <c r="P43" s="26"/>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="26"/>
-      <c r="S43" s="26"/>
-      <c r="T43" s="26"/>
-      <c r="U43" s="26"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="71"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="25"/>
+      <c r="U43" s="25"/>
     </row>
     <row r="44" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="L44" s="58">
+      <c r="D44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="L44" s="57">
         <f>U44</f>
         <v>0.05</v>
       </c>
-      <c r="M44" s="71">
+      <c r="M44" s="70">
         <v>5.5579999999999998</v>
       </c>
-      <c r="N44" s="30"/>
-      <c r="P44" s="25">
+      <c r="N44" s="29"/>
+      <c r="P44" s="24">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="Q44" s="25">
-        <v>0</v>
-      </c>
-      <c r="R44" s="25">
+      <c r="Q44" s="24">
+        <v>0</v>
+      </c>
+      <c r="R44" s="24">
         <v>1.893</v>
       </c>
-      <c r="S44" s="25">
-        <v>0</v>
-      </c>
-      <c r="T44" s="25">
-        <v>0</v>
-      </c>
-      <c r="U44" s="25">
+      <c r="S44" s="24">
+        <v>0</v>
+      </c>
+      <c r="T44" s="24">
+        <v>0</v>
+      </c>
+      <c r="U44" s="24">
         <v>0.05</v>
       </c>
-      <c r="V44" s="48"/>
+      <c r="V44" s="47"/>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L45" s="59">
+      <c r="L45" s="58">
         <f t="shared" ref="L45:L53" si="45">U45</f>
         <v>7.3719999999999999</v>
       </c>
-      <c r="M45" s="72">
+      <c r="M45" s="71">
         <v>8.4540000000000006</v>
       </c>
-      <c r="P45" s="26">
+      <c r="P45" s="25">
         <v>6.6639999999999997</v>
       </c>
-      <c r="Q45" s="26">
+      <c r="Q45" s="25">
         <v>4.3120000000000003</v>
       </c>
-      <c r="R45" s="26">
+      <c r="R45" s="25">
         <v>5.4720000000000004</v>
       </c>
-      <c r="S45" s="26">
+      <c r="S45" s="25">
         <v>4.8890000000000002</v>
       </c>
-      <c r="T45" s="26">
+      <c r="T45" s="25">
         <v>7.1310000000000002</v>
       </c>
-      <c r="U45" s="26">
+      <c r="U45" s="25">
         <v>7.3719999999999999</v>
       </c>
     </row>
@@ -3511,11 +3542,11 @@
       <c r="B46" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L46" s="59">
+      <c r="L46" s="58">
         <f t="shared" si="45"/>
         <v>0.433</v>
       </c>
-      <c r="M46" s="72">
+      <c r="M46" s="71">
         <v>0.45</v>
       </c>
       <c r="P46" s="1">
@@ -3524,16 +3555,16 @@
       <c r="Q46" s="1">
         <v>0</v>
       </c>
-      <c r="R46" s="26">
-        <v>0</v>
-      </c>
-      <c r="S46" s="26">
+      <c r="R46" s="25">
+        <v>0</v>
+      </c>
+      <c r="S46" s="25">
         <v>0.38400000000000001</v>
       </c>
-      <c r="T46" s="26">
+      <c r="T46" s="25">
         <v>0.36499999999999999</v>
       </c>
-      <c r="U46" s="26">
+      <c r="U46" s="25">
         <v>0.433</v>
       </c>
     </row>
@@ -3541,65 +3572,65 @@
       <c r="B47" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="L47" s="58">
+      <c r="D47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="L47" s="57">
         <f>U47</f>
         <v>0</v>
       </c>
-      <c r="M47" s="71">
-        <v>0</v>
-      </c>
-      <c r="N47" s="30"/>
-      <c r="P47" s="26">
+      <c r="M47" s="70">
+        <v>0</v>
+      </c>
+      <c r="N47" s="29"/>
+      <c r="P47" s="25">
         <v>0.19</v>
       </c>
-      <c r="Q47" s="26">
+      <c r="Q47" s="25">
         <v>0.42299999999999999</v>
       </c>
-      <c r="R47" s="25">
+      <c r="R47" s="24">
         <v>0.156</v>
       </c>
-      <c r="S47" s="25">
-        <v>0</v>
-      </c>
-      <c r="T47" s="25">
+      <c r="S47" s="24">
+        <v>0</v>
+      </c>
+      <c r="T47" s="24">
         <v>0.51300000000000001</v>
       </c>
-      <c r="U47" s="25">
-        <v>0</v>
-      </c>
-      <c r="V47" s="48"/>
+      <c r="U47" s="24">
+        <v>0</v>
+      </c>
+      <c r="V47" s="47"/>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="L48" s="59">
+      <c r="L48" s="58">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="M48" s="72">
-        <v>0</v>
-      </c>
-      <c r="P48" s="26">
+      <c r="M48" s="71">
+        <v>0</v>
+      </c>
+      <c r="P48" s="25">
         <v>0.19600000000000001</v>
       </c>
-      <c r="Q48" s="26">
+      <c r="Q48" s="25">
         <v>0.17399999999999999</v>
       </c>
-      <c r="R48" s="26">
-        <v>0</v>
-      </c>
-      <c r="S48" s="26">
-        <v>0</v>
-      </c>
-      <c r="T48" s="26">
-        <v>0</v>
-      </c>
-      <c r="U48" s="26">
+      <c r="R48" s="25">
+        <v>0</v>
+      </c>
+      <c r="S48" s="25">
+        <v>0</v>
+      </c>
+      <c r="T48" s="25">
+        <v>0</v>
+      </c>
+      <c r="U48" s="25">
         <v>0</v>
       </c>
     </row>
@@ -3607,29 +3638,29 @@
       <c r="B49" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L49" s="59">
+      <c r="L49" s="58">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="M49" s="72">
-        <v>0</v>
-      </c>
-      <c r="P49" s="26">
+      <c r="M49" s="71">
+        <v>0</v>
+      </c>
+      <c r="P49" s="25">
         <v>0.21199999999999999</v>
       </c>
-      <c r="Q49" s="26">
-        <v>0</v>
-      </c>
-      <c r="R49" s="26">
-        <v>0</v>
-      </c>
-      <c r="S49" s="26">
-        <v>0</v>
-      </c>
-      <c r="T49" s="26">
-        <v>0</v>
-      </c>
-      <c r="U49" s="26">
+      <c r="Q49" s="25">
+        <v>0</v>
+      </c>
+      <c r="R49" s="25">
+        <v>0</v>
+      </c>
+      <c r="S49" s="25">
+        <v>0</v>
+      </c>
+      <c r="T49" s="25">
+        <v>0</v>
+      </c>
+      <c r="U49" s="25">
         <v>0</v>
       </c>
     </row>
@@ -3637,35 +3668,35 @@
       <c r="B50" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L50" s="59">
+      <c r="L50" s="58">
         <f t="shared" si="45"/>
         <v>7.8549999999999995</v>
       </c>
-      <c r="M50" s="26">
+      <c r="M50" s="25">
         <f>SUM(M44:M49)</f>
         <v>14.462</v>
       </c>
-      <c r="P50" s="26">
+      <c r="P50" s="25">
         <f>SUM(P44:P49)</f>
         <v>7.3439999999999994</v>
       </c>
-      <c r="Q50" s="26">
+      <c r="Q50" s="25">
         <f>SUM(Q44:Q49)</f>
         <v>4.9090000000000007</v>
       </c>
-      <c r="R50" s="26">
+      <c r="R50" s="25">
         <f t="shared" ref="R50:U50" si="46">SUM(R44:R49)</f>
         <v>7.5209999999999999</v>
       </c>
-      <c r="S50" s="26">
+      <c r="S50" s="25">
         <f t="shared" si="46"/>
         <v>5.2730000000000006</v>
       </c>
-      <c r="T50" s="26">
+      <c r="T50" s="25">
         <f t="shared" si="46"/>
         <v>8.0090000000000003</v>
       </c>
-      <c r="U50" s="26">
+      <c r="U50" s="25">
         <f t="shared" si="46"/>
         <v>7.8549999999999995</v>
       </c>
@@ -3674,65 +3705,65 @@
       <c r="B51" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="L51" s="58">
+      <c r="D51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="L51" s="57">
         <f>U51</f>
         <v>0.27700000000000002</v>
       </c>
-      <c r="M51" s="71">
+      <c r="M51" s="70">
         <v>1.252</v>
       </c>
-      <c r="N51" s="30"/>
-      <c r="P51" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="25">
-        <v>0</v>
-      </c>
-      <c r="R51" s="25">
+      <c r="N51" s="29"/>
+      <c r="P51" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="24">
+        <v>0</v>
+      </c>
+      <c r="R51" s="24">
         <v>0.56100000000000005</v>
       </c>
-      <c r="S51" s="25">
-        <v>0</v>
-      </c>
-      <c r="T51" s="25">
-        <v>0</v>
-      </c>
-      <c r="U51" s="25">
+      <c r="S51" s="24">
+        <v>0</v>
+      </c>
+      <c r="T51" s="24">
+        <v>0</v>
+      </c>
+      <c r="U51" s="24">
         <v>0.27700000000000002</v>
       </c>
-      <c r="V51" s="48"/>
+      <c r="V51" s="47"/>
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L52" s="59">
+      <c r="L52" s="58">
         <f t="shared" si="45"/>
         <v>2.3130000000000002</v>
       </c>
-      <c r="M52" s="72">
+      <c r="M52" s="71">
         <v>2.3130000000000002</v>
       </c>
-      <c r="P52" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="26">
-        <v>0</v>
-      </c>
-      <c r="R52" s="26">
-        <v>0</v>
-      </c>
-      <c r="S52" s="26">
+      <c r="P52" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="25">
+        <v>0</v>
+      </c>
+      <c r="R52" s="25">
+        <v>0</v>
+      </c>
+      <c r="S52" s="25">
         <v>2.2549999999999999</v>
       </c>
-      <c r="T52" s="26">
+      <c r="T52" s="25">
         <v>2.4430000000000001</v>
       </c>
-      <c r="U52" s="26">
+      <c r="U52" s="25">
         <v>2.3130000000000002</v>
       </c>
     </row>
@@ -3740,29 +3771,29 @@
       <c r="B53" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L53" s="59">
+      <c r="L53" s="58">
         <f t="shared" si="45"/>
         <v>0.23300000000000001</v>
       </c>
-      <c r="M53" s="72">
+      <c r="M53" s="71">
         <v>0.23300000000000001</v>
       </c>
-      <c r="P53" s="26">
+      <c r="P53" s="25">
         <v>9.4E-2</v>
       </c>
-      <c r="Q53" s="26">
+      <c r="Q53" s="25">
         <v>0.15</v>
       </c>
-      <c r="R53" s="26">
+      <c r="R53" s="25">
         <v>0.15</v>
       </c>
-      <c r="S53" s="26">
+      <c r="S53" s="25">
         <v>0.15</v>
       </c>
-      <c r="T53" s="26">
+      <c r="T53" s="25">
         <v>0.15</v>
       </c>
-      <c r="U53" s="26">
+      <c r="U53" s="25">
         <v>0.23300000000000001</v>
       </c>
     </row>
@@ -3770,72 +3801,72 @@
       <c r="B54" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L54" s="59">
+      <c r="L54" s="58">
         <f t="shared" ref="L54:M54" si="47">L50+SUM(L51:L53)</f>
         <v>10.678000000000001</v>
       </c>
-      <c r="M54" s="26">
+      <c r="M54" s="25">
         <f t="shared" si="47"/>
         <v>18.260000000000002</v>
       </c>
-      <c r="P54" s="26">
+      <c r="P54" s="25">
         <f t="shared" ref="P54:Q54" si="48">P50+SUM(P51:P53)</f>
         <v>7.4379999999999997</v>
       </c>
-      <c r="Q54" s="26">
+      <c r="Q54" s="25">
         <f t="shared" si="48"/>
         <v>5.0590000000000011</v>
       </c>
-      <c r="R54" s="26">
+      <c r="R54" s="25">
         <f>R50+SUM(R51:R53)</f>
         <v>8.2319999999999993</v>
       </c>
-      <c r="S54" s="26">
+      <c r="S54" s="25">
         <f>S50+SUM(S51:S53)</f>
         <v>7.6780000000000008</v>
       </c>
-      <c r="T54" s="26">
+      <c r="T54" s="25">
         <f>T50+SUM(T51:T53)</f>
         <v>10.602</v>
       </c>
-      <c r="U54" s="26">
+      <c r="U54" s="25">
         <f>U50+SUM(U51:U53)</f>
         <v>10.678000000000001</v>
       </c>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="M55" s="72"/>
-      <c r="R55" s="26"/>
-      <c r="T55" s="26"/>
-      <c r="U55" s="26"/>
+      <c r="M55" s="71"/>
+      <c r="R55" s="25"/>
+      <c r="T55" s="25"/>
+      <c r="U55" s="25"/>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L56" s="59">
+      <c r="L56" s="58">
         <f>U56</f>
         <v>43.11</v>
       </c>
-      <c r="M56" s="72">
+      <c r="M56" s="71">
         <v>41.351999999999997</v>
       </c>
-      <c r="P56" s="26">
+      <c r="P56" s="25">
         <v>29.663</v>
       </c>
-      <c r="Q56" s="26">
+      <c r="Q56" s="25">
         <v>30.864000000000001</v>
       </c>
-      <c r="R56" s="26">
+      <c r="R56" s="25">
         <v>25.798999999999999</v>
       </c>
-      <c r="S56" s="26">
+      <c r="S56" s="25">
         <v>37.005000000000003</v>
       </c>
-      <c r="T56" s="26">
+      <c r="T56" s="25">
         <v>38.256999999999998</v>
       </c>
-      <c r="U56" s="26">
+      <c r="U56" s="25">
         <v>43.11</v>
       </c>
     </row>
@@ -3843,35 +3874,35 @@
       <c r="B57" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L57" s="59">
+      <c r="L57" s="58">
         <f>L56+L54</f>
         <v>53.787999999999997</v>
       </c>
-      <c r="M57" s="26">
+      <c r="M57" s="25">
         <f t="shared" ref="M57" si="49">M56+M54</f>
         <v>59.611999999999995</v>
       </c>
-      <c r="P57" s="26">
+      <c r="P57" s="25">
         <f t="shared" ref="P57:Q57" si="50">P56+P54</f>
         <v>37.100999999999999</v>
       </c>
-      <c r="Q57" s="26">
+      <c r="Q57" s="25">
         <f t="shared" si="50"/>
         <v>35.923000000000002</v>
       </c>
-      <c r="R57" s="26">
+      <c r="R57" s="25">
         <f>R56+R54</f>
         <v>34.030999999999999</v>
       </c>
-      <c r="S57" s="26">
+      <c r="S57" s="25">
         <f>S56+S54</f>
         <v>44.683000000000007</v>
       </c>
-      <c r="T57" s="26">
+      <c r="T57" s="25">
         <f>T56+T54</f>
         <v>48.858999999999995</v>
       </c>
-      <c r="U57" s="26">
+      <c r="U57" s="25">
         <f>U56+U54</f>
         <v>53.787999999999997</v>
       </c>
@@ -3880,35 +3911,35 @@
       <c r="B59" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L59" s="59">
+      <c r="L59" s="58">
         <f>L42-L54</f>
         <v>43.11</v>
       </c>
-      <c r="M59" s="26">
+      <c r="M59" s="25">
         <f t="shared" ref="M59" si="51">M42-M54</f>
         <v>41.251999999999995</v>
       </c>
-      <c r="P59" s="26">
+      <c r="P59" s="25">
         <f t="shared" ref="P59" si="52">P42-P54</f>
         <v>29.663</v>
       </c>
-      <c r="Q59" s="26">
+      <c r="Q59" s="25">
         <f t="shared" ref="Q59" si="53">Q42-Q54</f>
         <v>30.864000000000001</v>
       </c>
-      <c r="R59" s="26">
+      <c r="R59" s="25">
         <f t="shared" ref="R59:T59" si="54">R42-R54</f>
         <v>25.798999999999999</v>
       </c>
-      <c r="S59" s="26">
+      <c r="S59" s="25">
         <f t="shared" si="54"/>
         <v>37.004999999999995</v>
       </c>
-      <c r="T59" s="26">
+      <c r="T59" s="25">
         <f t="shared" si="54"/>
         <v>38.256999999999991</v>
       </c>
-      <c r="U59" s="26">
+      <c r="U59" s="25">
         <f>U42-U54</f>
         <v>43.11</v>
       </c>
@@ -3917,228 +3948,228 @@
       <c r="B60" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L60" s="31">
+      <c r="L60" s="30">
         <f>L59/L20</f>
         <v>0.25825350897687038</v>
       </c>
-      <c r="M60" s="26">
+      <c r="M60" s="25">
         <f t="shared" ref="M60" si="55">M59/M20</f>
         <v>0.24286773263849248</v>
       </c>
-      <c r="P60" s="26">
+      <c r="P60" s="25">
         <f t="shared" ref="P60" si="56">P59/P20</f>
         <v>0.38834049015500627</v>
       </c>
-      <c r="Q60" s="26">
+      <c r="Q60" s="25">
         <f t="shared" ref="Q60" si="57">Q59/Q20</f>
         <v>0.31724364772633834</v>
       </c>
-      <c r="R60" s="26">
+      <c r="R60" s="25">
         <f>R59/R20</f>
         <v>0.20596195144538204</v>
       </c>
-      <c r="S60" s="26">
+      <c r="S60" s="25">
         <f>S59/S20</f>
         <v>0.29092896003018959</v>
       </c>
-      <c r="T60" s="26">
+      <c r="T60" s="25">
         <f>T59/T20</f>
         <v>0.22918126868309274</v>
       </c>
-      <c r="U60" s="26">
+      <c r="U60" s="25">
         <f>U59/U20</f>
         <v>0.25825350897687038</v>
       </c>
     </row>
-    <row r="62" spans="2:22" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="39" t="s">
+    <row r="62" spans="2:22" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="D62" s="40"/>
-      <c r="F62" s="40"/>
-      <c r="H62" s="40"/>
-      <c r="J62" s="40"/>
-      <c r="L62" s="40"/>
-      <c r="M62" s="65"/>
-      <c r="N62" s="40"/>
-      <c r="P62" s="19" t="s">
+      <c r="D62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="J62" s="39"/>
+      <c r="L62" s="39"/>
+      <c r="M62" s="64"/>
+      <c r="N62" s="39"/>
+      <c r="P62" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="Q62" s="43">
+      <c r="Q62" s="42">
         <f t="shared" ref="Q62" si="58">Q38/P38-1</f>
         <v>3.6157024793388448E-2</v>
       </c>
-      <c r="R62" s="43">
+      <c r="R62" s="42">
         <f t="shared" ref="R62" si="59">R38/Q38-1</f>
         <v>8.2751744765702906E-2</v>
       </c>
-      <c r="S62" s="43">
+      <c r="S62" s="42">
         <f t="shared" ref="S62:T62" si="60">S38/R38-1</f>
         <v>0.31077348066298338</v>
       </c>
-      <c r="T62" s="43">
+      <c r="T62" s="42">
         <f t="shared" si="60"/>
         <v>6.4418686336494613E-2</v>
       </c>
-      <c r="U62" s="43">
+      <c r="U62" s="42">
         <f>U38/T38-1</f>
         <v>8.6457233368532282E-2</v>
       </c>
-      <c r="V62" s="51"/>
-    </row>
-    <row r="63" spans="2:22" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="39" t="s">
+      <c r="V62" s="50"/>
+    </row>
+    <row r="63" spans="2:22" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="D63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="H63" s="40"/>
-      <c r="J63" s="40"/>
-      <c r="L63" s="40"/>
-      <c r="M63" s="91">
+      <c r="D63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="J63" s="39"/>
+      <c r="L63" s="39"/>
+      <c r="M63" s="76">
         <f>M38/L38-1</f>
         <v>0.36969991495565546</v>
       </c>
-      <c r="N63" s="40"/>
-      <c r="P63" s="19" t="s">
+      <c r="N63" s="39"/>
+      <c r="P63" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="Q63" s="44" t="s">
+      <c r="Q63" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="R63" s="44" t="s">
+      <c r="R63" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="S63" s="44" t="s">
+      <c r="S63" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="T63" s="44" t="s">
+      <c r="T63" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="U63" s="44" t="s">
+      <c r="U63" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="V63" s="51"/>
-    </row>
-    <row r="65" spans="2:22" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="39" t="s">
+      <c r="V63" s="50"/>
+    </row>
+    <row r="65" spans="2:22" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="40"/>
-      <c r="F65" s="40"/>
-      <c r="H65" s="40"/>
-      <c r="J65" s="40"/>
-      <c r="L65" s="73">
+      <c r="D65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="J65" s="39"/>
+      <c r="L65" s="72">
         <f t="shared" ref="L65:M65" si="61">L41+L40+L34</f>
         <v>4.6430000000000007</v>
       </c>
-      <c r="M65" s="41">
+      <c r="M65" s="40">
         <f t="shared" si="61"/>
         <v>3.6820000000000004</v>
       </c>
-      <c r="N65" s="40"/>
-      <c r="P65" s="41">
+      <c r="N65" s="39"/>
+      <c r="P65" s="40">
         <f t="shared" ref="P65:Q65" si="62">P41+P40+P34</f>
         <v>1.75</v>
       </c>
-      <c r="Q65" s="41">
+      <c r="Q65" s="40">
         <f t="shared" si="62"/>
         <v>5.4930000000000003</v>
       </c>
-      <c r="R65" s="41">
+      <c r="R65" s="40">
         <f t="shared" ref="R65:T65" si="63">R41+R40+R34</f>
         <v>2.4249999999999998</v>
       </c>
-      <c r="S65" s="41">
+      <c r="S65" s="40">
         <f t="shared" si="63"/>
         <v>7.7669999999999995</v>
       </c>
-      <c r="T65" s="41">
+      <c r="T65" s="40">
         <f t="shared" si="63"/>
         <v>6.5559999999999992</v>
       </c>
-      <c r="U65" s="41">
+      <c r="U65" s="40">
         <f>U41+U40+U34</f>
         <v>4.6430000000000007</v>
       </c>
-      <c r="V65" s="51"/>
-    </row>
-    <row r="66" spans="2:22" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="39" t="s">
+      <c r="V65" s="50"/>
+    </row>
+    <row r="66" spans="2:22" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="40"/>
-      <c r="F66" s="40"/>
-      <c r="H66" s="40"/>
-      <c r="J66" s="40"/>
-      <c r="L66" s="73">
+      <c r="D66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="H66" s="39"/>
+      <c r="J66" s="39"/>
+      <c r="L66" s="72">
         <f t="shared" ref="L66:M66" si="64">L44+L47+L51</f>
         <v>0.32700000000000001</v>
       </c>
-      <c r="M66" s="41">
+      <c r="M66" s="40">
         <f t="shared" si="64"/>
         <v>6.81</v>
       </c>
-      <c r="N66" s="40"/>
-      <c r="P66" s="41">
+      <c r="N66" s="39"/>
+      <c r="P66" s="40">
         <f t="shared" ref="P66:Q66" si="65">P44+P47+P51</f>
         <v>0.27200000000000002</v>
       </c>
-      <c r="Q66" s="41">
+      <c r="Q66" s="40">
         <f t="shared" si="65"/>
         <v>0.42299999999999999</v>
       </c>
-      <c r="R66" s="41">
+      <c r="R66" s="40">
         <f t="shared" ref="R66:T66" si="66">R44+R47+R51</f>
         <v>2.61</v>
       </c>
-      <c r="S66" s="41">
+      <c r="S66" s="40">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="T66" s="41">
+      <c r="T66" s="40">
         <f t="shared" si="66"/>
         <v>0.51300000000000001</v>
       </c>
-      <c r="U66" s="41">
+      <c r="U66" s="40">
         <f>U44+U47+U51</f>
         <v>0.32700000000000001</v>
       </c>
-      <c r="V66" s="51"/>
+      <c r="V66" s="50"/>
     </row>
     <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L67" s="59">
+      <c r="L67" s="58">
         <f t="shared" ref="L67:M67" si="67">L65-L66</f>
         <v>4.3160000000000007</v>
       </c>
-      <c r="M67" s="26">
+      <c r="M67" s="25">
         <f t="shared" si="67"/>
         <v>-3.1279999999999992</v>
       </c>
-      <c r="P67" s="26">
+      <c r="P67" s="25">
         <f t="shared" ref="P67:Q67" si="68">P65-P66</f>
         <v>1.478</v>
       </c>
-      <c r="Q67" s="26">
+      <c r="Q67" s="25">
         <f t="shared" si="68"/>
         <v>5.07</v>
       </c>
-      <c r="R67" s="26">
+      <c r="R67" s="25">
         <f t="shared" ref="R67:T67" si="69">R65-R66</f>
         <v>-0.18500000000000005</v>
       </c>
-      <c r="S67" s="26">
+      <c r="S67" s="25">
         <f t="shared" si="69"/>
         <v>7.7669999999999995</v>
       </c>
-      <c r="T67" s="26">
+      <c r="T67" s="25">
         <f t="shared" si="69"/>
         <v>6.0429999999999993</v>
       </c>
-      <c r="U67" s="26">
+      <c r="U67" s="25">
         <f>U65-U66</f>
         <v>4.3160000000000007</v>
       </c>
@@ -4147,29 +4178,29 @@
       <c r="B69" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L69" s="74">
+      <c r="L69" s="73">
         <f>U69</f>
         <v>0.32500000000000001</v>
       </c>
-      <c r="M69" s="64">
+      <c r="M69" s="63">
         <v>0.28499999999999998</v>
       </c>
-      <c r="P69" s="53">
+      <c r="P69" s="52">
         <v>0.31359999999999999</v>
       </c>
-      <c r="Q69" s="53">
+      <c r="Q69" s="52">
         <v>0.24099999999999999</v>
       </c>
-      <c r="R69" s="53">
+      <c r="R69" s="52">
         <v>0.36299999999999999</v>
       </c>
-      <c r="S69" s="53">
+      <c r="S69" s="52">
         <v>0.32500000000000001</v>
       </c>
-      <c r="T69" s="53">
+      <c r="T69" s="52">
         <v>0.44</v>
       </c>
-      <c r="U69" s="53">
+      <c r="U69" s="52">
         <v>0.32500000000000001</v>
       </c>
     </row>
@@ -4177,35 +4208,35 @@
       <c r="B70" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="L70" s="59">
+      <c r="L70" s="58">
         <f>L69*L20</f>
         <v>54.251925</v>
       </c>
-      <c r="M70" s="26">
+      <c r="M70" s="25">
         <f t="shared" ref="M70" si="70">M69*M20</f>
         <v>48.408324449999995</v>
       </c>
-      <c r="P70" s="26">
+      <c r="P70" s="25">
         <f t="shared" ref="P70:T70" si="71">P69*P20</f>
         <v>23.954022399999999</v>
       </c>
-      <c r="Q70" s="26">
+      <c r="Q70" s="25">
         <f t="shared" si="71"/>
         <v>23.446407999999998</v>
       </c>
-      <c r="R70" s="26">
+      <c r="R70" s="25">
         <f t="shared" si="71"/>
         <v>45.469742999999994</v>
       </c>
-      <c r="S70" s="26">
+      <c r="S70" s="25">
         <f t="shared" si="71"/>
         <v>41.338700000000003</v>
       </c>
-      <c r="T70" s="26">
+      <c r="T70" s="25">
         <f t="shared" si="71"/>
         <v>73.448760000000007</v>
       </c>
-      <c r="U70" s="26">
+      <c r="U70" s="25">
         <f>U69*U20</f>
         <v>54.251925</v>
       </c>
@@ -4214,35 +4245,35 @@
       <c r="B71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L71" s="59">
+      <c r="L71" s="58">
         <f>L70-L67</f>
         <v>49.935924999999997</v>
       </c>
-      <c r="M71" s="26">
+      <c r="M71" s="25">
         <f t="shared" ref="M71" si="72">M70-M67</f>
         <v>51.536324449999995</v>
       </c>
-      <c r="P71" s="26">
+      <c r="P71" s="25">
         <f t="shared" ref="P71:T71" si="73">P70-P67</f>
         <v>22.476022399999998</v>
       </c>
-      <c r="Q71" s="26">
+      <c r="Q71" s="25">
         <f t="shared" si="73"/>
         <v>18.376407999999998</v>
       </c>
-      <c r="R71" s="26">
+      <c r="R71" s="25">
         <f t="shared" si="73"/>
         <v>45.654742999999996</v>
       </c>
-      <c r="S71" s="26">
+      <c r="S71" s="25">
         <f t="shared" si="73"/>
         <v>33.571700000000007</v>
       </c>
-      <c r="T71" s="26">
+      <c r="T71" s="25">
         <f t="shared" si="73"/>
         <v>67.405760000000015</v>
       </c>
-      <c r="U71" s="26">
+      <c r="U71" s="25">
         <f>U70-U67</f>
         <v>49.935924999999997</v>
       </c>
@@ -4251,35 +4282,35 @@
       <c r="B73" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="L73" s="94">
+      <c r="L73" s="79">
         <f>L70/SUM(K3:L3)</f>
         <v>1.0095447440406409</v>
       </c>
-      <c r="M73" s="93">
+      <c r="M73" s="78">
         <f>M70/SUM(L3:M3)</f>
         <v>0.89143202066146132</v>
       </c>
-      <c r="P73" s="57">
+      <c r="P73" s="56">
         <f t="shared" ref="P73:T73" si="74">P70/P3</f>
         <v>0.50514598059890337</v>
       </c>
-      <c r="Q73" s="57">
+      <c r="Q73" s="56">
         <f t="shared" si="74"/>
         <v>0.65766480603629618</v>
       </c>
-      <c r="R73" s="57">
+      <c r="R73" s="56">
         <f t="shared" si="74"/>
         <v>1.3880076620165449</v>
       </c>
-      <c r="S73" s="57">
+      <c r="S73" s="56">
         <f t="shared" si="74"/>
         <v>1.092402621425929</v>
       </c>
-      <c r="T73" s="57">
+      <c r="T73" s="56">
         <f t="shared" si="74"/>
         <v>1.5128789470431936</v>
       </c>
-      <c r="U73" s="57">
+      <c r="U73" s="56">
         <f>U70/U3</f>
         <v>1.0095447440406409</v>
       </c>
@@ -4288,35 +4319,35 @@
       <c r="B74" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L74" s="94">
+      <c r="L74" s="79">
         <f>L69/SUM(K18:L18)</f>
         <v>0.2197430696416498</v>
       </c>
-      <c r="M74" s="93">
+      <c r="M74" s="78">
         <f>M69/SUM(L18:M18)</f>
         <v>-0.38050734312416662</v>
       </c>
-      <c r="P74" s="57">
+      <c r="P74" s="56">
         <f>P69/P19</f>
         <v>-2.4781732257397064</v>
       </c>
-      <c r="Q74" s="57">
+      <c r="Q74" s="56">
         <f t="shared" ref="Q74:U74" si="75">Q69/Q19</f>
         <v>-2.3793797442662887</v>
       </c>
-      <c r="R74" s="57">
+      <c r="R74" s="56">
         <f t="shared" si="75"/>
         <v>-8.5598160768072322</v>
       </c>
-      <c r="S74" s="57">
+      <c r="S74" s="56">
         <f t="shared" si="75"/>
         <v>-12.176347569955812</v>
       </c>
-      <c r="T74" s="57">
+      <c r="T74" s="56">
         <f t="shared" si="75"/>
         <v>53.887571533382342</v>
       </c>
-      <c r="U74" s="57">
+      <c r="U74" s="56">
         <f t="shared" si="75"/>
         <v>36.681490872211008</v>
       </c>
@@ -4325,35 +4356,35 @@
       <c r="B75" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L75" s="94">
+      <c r="L75" s="79">
         <f>L69/L60</f>
         <v>1.2584533750869868</v>
       </c>
-      <c r="M75" s="93">
+      <c r="M75" s="78">
         <f>M69/M60</f>
         <v>1.1734782422670416</v>
       </c>
-      <c r="P75" s="57">
+      <c r="P75" s="56">
         <f t="shared" ref="P75:T75" si="76">P69/P60</f>
         <v>0.8075387654653946</v>
       </c>
-      <c r="Q75" s="57">
+      <c r="Q75" s="56">
         <f t="shared" si="76"/>
         <v>0.75966848107827878</v>
       </c>
-      <c r="R75" s="57">
+      <c r="R75" s="56">
         <f t="shared" si="76"/>
         <v>1.7624614519942634</v>
       </c>
-      <c r="S75" s="57">
+      <c r="S75" s="56">
         <f t="shared" si="76"/>
         <v>1.1171112011890287</v>
       </c>
-      <c r="T75" s="57">
+      <c r="T75" s="56">
         <f t="shared" si="76"/>
         <v>1.919877669446115</v>
       </c>
-      <c r="U75" s="57">
+      <c r="U75" s="56">
         <f>U69/U60</f>
         <v>1.2584533750869868</v>
       </c>
@@ -4362,35 +4393,35 @@
       <c r="B77" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="L77" s="60">
+      <c r="L77" s="59">
         <f>L38/SUM(K3:L3)</f>
         <v>0.30633245873574128</v>
       </c>
-      <c r="M77" s="95">
+      <c r="M77" s="80">
         <f>M38/SUM(L3:M3)</f>
         <v>0.41521803182086031</v>
       </c>
-      <c r="P77" s="42">
+      <c r="P77" s="41">
         <f t="shared" ref="P77:T77" si="77">P38/P3</f>
         <v>0.20413327709827075</v>
       </c>
-      <c r="Q77" s="42">
+      <c r="Q77" s="41">
         <f t="shared" si="77"/>
         <v>0.28133853187848862</v>
       </c>
-      <c r="R77" s="42">
+      <c r="R77" s="41">
         <f t="shared" si="77"/>
         <v>0.33151195091425256</v>
       </c>
-      <c r="S77" s="42">
+      <c r="S77" s="41">
         <f t="shared" si="77"/>
         <v>0.37616933565879179</v>
       </c>
-      <c r="T77" s="42">
+      <c r="T77" s="41">
         <f t="shared" si="77"/>
         <v>0.31209705658200992</v>
       </c>
-      <c r="U77" s="42">
+      <c r="U77" s="41">
         <f>U38/U3</f>
         <v>0.30633245873574128</v>
       </c>

--- a/£HRN.xlsx
+++ b/£HRN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8259257-270B-487B-A7ED-A51390AAC32A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C20351-B9FD-44D2-BDF1-7A291E5FBEC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{2FA1A45F-62BC-48F6-B990-34E28132E0A7}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="131">
   <si>
     <t>£HRN</t>
   </si>
@@ -391,15 +391,9 @@
     <t>Olly was CEO of Paperchase in September 2020 after joining as Chief Marketing in 2019</t>
   </si>
   <si>
-    <t>Development</t>
-  </si>
-  <si>
     <t xml:space="preserve">TT:120 Range launches, brand new scale </t>
   </si>
   <si>
-    <t>KATO Works Co., Ltd.: KATO Works Co., Ltd. is a publicly traded company on the Tokyo Stock Exchange that produces model trains and other hobby products under the KATO brand.</t>
-  </si>
-  <si>
     <t>Tomy Company, Ltd.: Tomy Company, Ltd. is a publicly traded company on the Tokyo Stock Exchange that owns Bachmann, a US-based model train brand.</t>
   </si>
   <si>
@@ -407,6 +401,24 @@
   </si>
   <si>
     <t>Hasbro: Hasbro is a publicly traded company that owns a number of model train brands, including Lionel, which is one of the best-known and most respected brands in the model train industry. Hasbro is listed on the NASDAQ stock exchange.</t>
+  </si>
+  <si>
+    <t>OO Gauge</t>
+  </si>
+  <si>
+    <t>TT:120 Gauge</t>
+  </si>
+  <si>
+    <t>2023 range launch, warning to expect delays following years of China covid lockdowns</t>
+  </si>
+  <si>
+    <t>Share price falls on announcement that year-to-march would show "modest loss" and timid on guidance</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Dev &amp;</t>
   </si>
 </sst>
 </file>
@@ -628,7 +640,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -743,9 +755,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -758,10 +767,16 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -803,9 +818,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1296,7 +1308,7 @@
   <dimension ref="A2:Y39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1315,29 +1327,30 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="83"/>
-      <c r="G5" s="66" t="s">
+      <c r="C5" s="81"/>
+      <c r="D5" s="82"/>
+      <c r="G5" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="68"/>
-      <c r="V5" s="81" t="s">
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="82"/>
+      <c r="V5" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="W5" s="82"/>
-      <c r="X5" s="82"/>
-      <c r="Y5" s="83"/>
+      <c r="W5" s="81"/>
+      <c r="X5" s="81"/>
+      <c r="Y5" s="82"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="36" t="s">
@@ -1347,8 +1360,12 @@
         <v>0.29849999999999999</v>
       </c>
       <c r="D6" s="16"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="4"/>
+      <c r="G6" s="55">
+        <v>44927</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -1356,8 +1373,9 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="5"/>
-      <c r="V6" s="19" t="s">
+      <c r="P6" s="4"/>
+      <c r="Q6" s="5"/>
+      <c r="V6" s="78" t="s">
         <v>25</v>
       </c>
       <c r="W6" s="4"/>
@@ -1384,9 +1402,10 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
-      <c r="P7" s="5"/>
-      <c r="V7" s="19" t="s">
-        <v>34</v>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="5"/>
+      <c r="V7" s="79" t="s">
+        <v>125</v>
       </c>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
@@ -1401,8 +1420,12 @@
         <v>50.701350344999994</v>
       </c>
       <c r="D8" s="16"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="4"/>
+      <c r="G8" s="55">
+        <v>44927</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -1410,9 +1433,10 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="5"/>
-      <c r="V8" s="19" t="s">
-        <v>26</v>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="5"/>
+      <c r="V8" s="79" t="s">
+        <v>126</v>
       </c>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
@@ -1438,10 +1462,9 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="5"/>
-      <c r="V9" s="19" t="s">
-        <v>28</v>
-      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="5"/>
+      <c r="V9" s="19"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="5"/>
@@ -1461,7 +1484,7 @@
         <v>44896</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -1470,9 +1493,10 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="5"/>
-      <c r="V10" s="19" t="s">
-        <v>112</v>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="5"/>
+      <c r="V10" s="78" t="s">
+        <v>34</v>
       </c>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
@@ -1498,8 +1522,11 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="5"/>
-      <c r="V11" s="19"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="5"/>
+      <c r="V11" s="78" t="s">
+        <v>26</v>
+      </c>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="5"/>
@@ -1526,15 +1553,18 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="5"/>
-      <c r="V12" s="19"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="5"/>
+      <c r="V12" s="78" t="s">
+        <v>28</v>
+      </c>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="5"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="G13" s="10"/>
-      <c r="H13" s="75" t="s">
+      <c r="H13" s="72" t="s">
         <v>120</v>
       </c>
       <c r="I13" s="4"/>
@@ -1544,8 +1574,11 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="5"/>
-      <c r="V13" s="19"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="5"/>
+      <c r="V13" s="78" t="s">
+        <v>112</v>
+      </c>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="5"/>
@@ -1560,19 +1593,20 @@
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
-      <c r="P14" s="5"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="7"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="5"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="5"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="83"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="82"/>
       <c r="G15" s="55">
         <v>44409</v>
       </c>
@@ -1586,17 +1620,22 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="5"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="5"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="5"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
       <c r="B16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="84" t="s">
+      <c r="C16" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="85"/>
+      <c r="D16" s="84"/>
       <c r="G16" s="10"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -1606,17 +1645,22 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
-      <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P16" s="4"/>
+      <c r="Q16" s="5"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="7"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
       <c r="B17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="84" t="s">
+      <c r="C17" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="85"/>
+      <c r="D17" s="84"/>
       <c r="G17" s="10"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -1626,15 +1670,16 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
-      <c r="P17" s="5"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P17" s="4"/>
+      <c r="Q17" s="5"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="84" t="s">
+      <c r="C18" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="85"/>
+      <c r="D18" s="84"/>
       <c r="G18" s="10"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -1644,17 +1689,20 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
-      <c r="P18" s="5"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="77" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="93" t="s">
+      <c r="P18" s="4"/>
+      <c r="Q18" s="5"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="94"/>
+      <c r="D19" s="93"/>
       <c r="G19" s="11"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -1664,134 +1712,133 @@
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="7"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B22" s="81" t="s">
+      <c r="P19" s="6"/>
+      <c r="Q19" s="7"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B22" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C22" s="81"/>
+      <c r="D22" s="82"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B23" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="84" t="s">
+      <c r="C23" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="85"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D23" s="84"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="84">
+      <c r="C24" s="83">
         <v>1907</v>
       </c>
-      <c r="D24" s="85"/>
-      <c r="G24" s="95" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D24" s="84"/>
+      <c r="G24" s="77" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B25" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="91">
+      <c r="C25" s="90">
         <f>'Financial Model'!U38</f>
         <v>16.462</v>
       </c>
-      <c r="D25" s="92"/>
-      <c r="G25" s="95" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D25" s="91"/>
+      <c r="G25" s="77" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B26" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="90">
+      <c r="C26" s="89">
         <f>'Financial Model'!U62</f>
         <v>8.6457233368532282E-2</v>
       </c>
-      <c r="D26" s="85"/>
-      <c r="G26" s="95" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D26" s="84"/>
+      <c r="G26" s="77" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B27" s="10"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="85"/>
-      <c r="G27" s="95" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C27" s="83"/>
+      <c r="D27" s="84"/>
+      <c r="G27" s="77"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B28" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="84" t="s">
+      <c r="C28" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="85"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D28" s="84"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="86" t="s">
+      <c r="C29" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="87"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B32" s="81" t="s">
+      <c r="D29" s="86"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B32" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="82"/>
-      <c r="D32" s="83"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="82"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="88">
+      <c r="C33" s="87">
         <f>C6/'Financial Model'!M60</f>
         <v>1.229064053742849</v>
       </c>
-      <c r="D33" s="89"/>
+      <c r="D33" s="88"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="88">
+      <c r="C34" s="87">
         <f>C6/'Financial Model'!U19</f>
         <v>33.690538539553799</v>
       </c>
-      <c r="D34" s="89"/>
+      <c r="D34" s="88"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="88">
+      <c r="C35" s="87">
         <f>C12/'Financial Model'!U18</f>
         <v>36.395774405003429</v>
       </c>
-      <c r="D35" s="89"/>
+      <c r="D35" s="88"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="10"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="85"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="84"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="10"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="85"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="84"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="10"/>
@@ -1804,7 +1851,14 @@
       <c r="D39" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
+    <mergeCell ref="G5:Q5"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="V5:Y5"/>
     <mergeCell ref="C29:D29"/>
@@ -1820,12 +1874,6 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{DCC15395-9800-42C6-A051-2B2869197E07}"/>
@@ -1978,7 +2026,7 @@
       <c r="L2" s="45">
         <v>44651</v>
       </c>
-      <c r="M2" s="69">
+      <c r="M2" s="66">
         <v>44834</v>
       </c>
       <c r="N2" s="28"/>
@@ -2025,10 +2073,10 @@
         <f>U3-K3</f>
         <v>31.893999999999998</v>
       </c>
-      <c r="M3" s="70">
+      <c r="M3" s="67">
         <v>22.41</v>
       </c>
-      <c r="N3" s="74"/>
+      <c r="N3" s="71"/>
       <c r="P3" s="24">
         <v>47.42</v>
       </c>
@@ -2067,7 +2115,7 @@
         <f>U4-K4</f>
         <v>16.302999999999997</v>
       </c>
-      <c r="M4" s="71">
+      <c r="M4" s="68">
         <v>11.683</v>
       </c>
       <c r="P4" s="25">
@@ -2161,7 +2209,7 @@
         <f t="shared" ref="L6:L17" si="3">U6-K6</f>
         <v>3.8539999999999996</v>
       </c>
-      <c r="M6" s="71">
+      <c r="M6" s="68">
         <v>3.8330000000000002</v>
       </c>
       <c r="P6" s="25">
@@ -2201,7 +2249,7 @@
         <f t="shared" si="3"/>
         <v>4.6810000000000009</v>
       </c>
-      <c r="M7" s="71">
+      <c r="M7" s="68">
         <v>5.0030000000000001</v>
       </c>
       <c r="P7" s="25">
@@ -2241,7 +2289,7 @@
         <f t="shared" si="3"/>
         <v>5.5149999999999988</v>
       </c>
-      <c r="M8" s="71">
+      <c r="M8" s="68">
         <v>4.1829999999999998</v>
       </c>
       <c r="P8" s="25">
@@ -2282,7 +2330,7 @@
         <f t="shared" si="3"/>
         <v>-0.13399999999999998</v>
       </c>
-      <c r="M9" s="71">
+      <c r="M9" s="68">
         <v>-0.32800000000000001</v>
       </c>
       <c r="P9" s="25">
@@ -2322,7 +2370,7 @@
         <f t="shared" si="3"/>
         <v>0.10199999999999998</v>
       </c>
-      <c r="M10" s="71">
+      <c r="M10" s="68">
         <v>-0.14799999999999999</v>
       </c>
       <c r="P10" s="25">
@@ -2416,7 +2464,7 @@
         <f t="shared" si="3"/>
         <v>4.9999999999999992E-3</v>
       </c>
-      <c r="M12" s="71">
+      <c r="M12" s="68">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="P12" s="25">
@@ -2456,7 +2504,7 @@
         <f t="shared" si="3"/>
         <v>0.186</v>
       </c>
-      <c r="M13" s="71">
+      <c r="M13" s="68">
         <v>0.122</v>
       </c>
       <c r="P13" s="25">
@@ -2545,7 +2593,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M15" s="71">
+      <c r="M15" s="68">
         <v>0</v>
       </c>
       <c r="P15" s="25">
@@ -2634,7 +2682,7 @@
         <f t="shared" si="3"/>
         <v>-0.89600000000000002</v>
       </c>
-      <c r="M17" s="71">
+      <c r="M17" s="68">
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="P17" s="25">
@@ -2772,7 +2820,7 @@
         <f>U20</f>
         <v>166.929</v>
       </c>
-      <c r="M20" s="71">
+      <c r="M20" s="68">
         <v>169.85377</v>
       </c>
       <c r="P20" s="25">
@@ -3094,7 +3142,7 @@
         <f>U32</f>
         <v>7.8309999999999995</v>
       </c>
-      <c r="M32" s="71">
+      <c r="M32" s="68">
         <f>4.647+3.097</f>
         <v>7.7439999999999998</v>
       </c>
@@ -3131,7 +3179,7 @@
         <f>U33</f>
         <v>10.057</v>
       </c>
-      <c r="M33" s="71">
+      <c r="M33" s="68">
         <v>10.477</v>
       </c>
       <c r="P33" s="25">
@@ -3165,7 +3213,7 @@
         <f>U34</f>
         <v>0</v>
       </c>
-      <c r="M34" s="70">
+      <c r="M34" s="67">
         <v>0</v>
       </c>
       <c r="N34" s="29"/>
@@ -3197,7 +3245,7 @@
         <f t="shared" ref="L35:L39" si="38">U35</f>
         <v>2.5840000000000001</v>
       </c>
-      <c r="M35" s="71">
+      <c r="M35" s="68">
         <v>2.484</v>
       </c>
       <c r="P35" s="25">
@@ -3227,7 +3275,7 @@
         <f t="shared" si="38"/>
         <v>3.4249999999999998</v>
       </c>
-      <c r="M36" s="71">
+      <c r="M36" s="68">
         <v>3.423</v>
       </c>
       <c r="P36" s="25">
@@ -3298,7 +3346,7 @@
         <f>U38</f>
         <v>16.462</v>
       </c>
-      <c r="M38" s="70">
+      <c r="M38" s="67">
         <v>22.547999999999998</v>
       </c>
       <c r="N38" s="29"/>
@@ -3330,7 +3378,7 @@
         <f t="shared" si="38"/>
         <v>8.7859999999999996</v>
       </c>
-      <c r="M39" s="71">
+      <c r="M39" s="68">
         <v>9.1539999999999999</v>
       </c>
       <c r="P39" s="25">
@@ -3364,7 +3412,7 @@
         <f>U40</f>
         <v>0.504</v>
       </c>
-      <c r="M40" s="70">
+      <c r="M40" s="67">
         <v>1.8080000000000001</v>
       </c>
       <c r="N40" s="29"/>
@@ -3400,7 +3448,7 @@
         <f>U41</f>
         <v>4.1390000000000002</v>
       </c>
-      <c r="M41" s="70">
+      <c r="M41" s="67">
         <v>1.8740000000000001</v>
       </c>
       <c r="N41" s="29"/>
@@ -3464,7 +3512,7 @@
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="L43" s="58"/>
-      <c r="M43" s="71"/>
+      <c r="M43" s="68"/>
       <c r="P43" s="25"/>
       <c r="Q43" s="25"/>
       <c r="R43" s="25"/>
@@ -3484,7 +3532,7 @@
         <f>U44</f>
         <v>0.05</v>
       </c>
-      <c r="M44" s="70">
+      <c r="M44" s="67">
         <v>5.5579999999999998</v>
       </c>
       <c r="N44" s="29"/>
@@ -3516,7 +3564,7 @@
         <f t="shared" ref="L45:L53" si="45">U45</f>
         <v>7.3719999999999999</v>
       </c>
-      <c r="M45" s="71">
+      <c r="M45" s="68">
         <v>8.4540000000000006</v>
       </c>
       <c r="P45" s="25">
@@ -3546,7 +3594,7 @@
         <f t="shared" si="45"/>
         <v>0.433</v>
       </c>
-      <c r="M46" s="71">
+      <c r="M46" s="68">
         <v>0.45</v>
       </c>
       <c r="P46" s="1">
@@ -3580,7 +3628,7 @@
         <f>U47</f>
         <v>0</v>
       </c>
-      <c r="M47" s="70">
+      <c r="M47" s="67">
         <v>0</v>
       </c>
       <c r="N47" s="29"/>
@@ -3612,7 +3660,7 @@
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="M48" s="71">
+      <c r="M48" s="68">
         <v>0</v>
       </c>
       <c r="P48" s="25">
@@ -3642,7 +3690,7 @@
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="M49" s="71">
+      <c r="M49" s="68">
         <v>0</v>
       </c>
       <c r="P49" s="25">
@@ -3713,7 +3761,7 @@
         <f>U51</f>
         <v>0.27700000000000002</v>
       </c>
-      <c r="M51" s="70">
+      <c r="M51" s="67">
         <v>1.252</v>
       </c>
       <c r="N51" s="29"/>
@@ -3745,7 +3793,7 @@
         <f t="shared" si="45"/>
         <v>2.3130000000000002</v>
       </c>
-      <c r="M52" s="71">
+      <c r="M52" s="68">
         <v>2.3130000000000002</v>
       </c>
       <c r="P52" s="25">
@@ -3775,7 +3823,7 @@
         <f t="shared" si="45"/>
         <v>0.23300000000000001</v>
       </c>
-      <c r="M53" s="71">
+      <c r="M53" s="68">
         <v>0.23300000000000001</v>
       </c>
       <c r="P53" s="25">
@@ -3835,7 +3883,7 @@
       </c>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="M55" s="71"/>
+      <c r="M55" s="68"/>
       <c r="R55" s="25"/>
       <c r="T55" s="25"/>
       <c r="U55" s="25"/>
@@ -3848,7 +3896,7 @@
         <f>U56</f>
         <v>43.11</v>
       </c>
-      <c r="M56" s="71">
+      <c r="M56" s="68">
         <v>41.351999999999997</v>
       </c>
       <c r="P56" s="25">
@@ -4026,7 +4074,7 @@
       <c r="H63" s="39"/>
       <c r="J63" s="39"/>
       <c r="L63" s="39"/>
-      <c r="M63" s="76">
+      <c r="M63" s="73">
         <f>M38/L38-1</f>
         <v>0.36969991495565546</v>
       </c>
@@ -4059,7 +4107,7 @@
       <c r="F65" s="39"/>
       <c r="H65" s="39"/>
       <c r="J65" s="39"/>
-      <c r="L65" s="72">
+      <c r="L65" s="69">
         <f t="shared" ref="L65:M65" si="61">L41+L40+L34</f>
         <v>4.6430000000000007</v>
       </c>
@@ -4102,7 +4150,7 @@
       <c r="F66" s="39"/>
       <c r="H66" s="39"/>
       <c r="J66" s="39"/>
-      <c r="L66" s="72">
+      <c r="L66" s="69">
         <f t="shared" ref="L66:M66" si="64">L44+L47+L51</f>
         <v>0.32700000000000001</v>
       </c>
@@ -4178,7 +4226,7 @@
       <c r="B69" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L69" s="73">
+      <c r="L69" s="70">
         <f>U69</f>
         <v>0.32500000000000001</v>
       </c>
@@ -4282,11 +4330,11 @@
       <c r="B73" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="L73" s="79">
+      <c r="L73" s="75">
         <f>L70/SUM(K3:L3)</f>
         <v>1.0095447440406409</v>
       </c>
-      <c r="M73" s="78">
+      <c r="M73" s="74">
         <f>M70/SUM(L3:M3)</f>
         <v>0.89143202066146132</v>
       </c>
@@ -4319,11 +4367,11 @@
       <c r="B74" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L74" s="79">
+      <c r="L74" s="75">
         <f>L69/SUM(K18:L18)</f>
         <v>0.2197430696416498</v>
       </c>
-      <c r="M74" s="78">
+      <c r="M74" s="74">
         <f>M69/SUM(L18:M18)</f>
         <v>-0.38050734312416662</v>
       </c>
@@ -4356,11 +4404,11 @@
       <c r="B75" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L75" s="79">
+      <c r="L75" s="75">
         <f>L69/L60</f>
         <v>1.2584533750869868</v>
       </c>
-      <c r="M75" s="78">
+      <c r="M75" s="74">
         <f>M69/M60</f>
         <v>1.1734782422670416</v>
       </c>
@@ -4397,7 +4445,7 @@
         <f>L38/SUM(K3:L3)</f>
         <v>0.30633245873574128</v>
       </c>
-      <c r="M77" s="80">
+      <c r="M77" s="76">
         <f>M38/SUM(L3:M3)</f>
         <v>0.41521803182086031</v>
       </c>

--- a/£HRN.xlsx
+++ b/£HRN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C20351-B9FD-44D2-BDF1-7A291E5FBEC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35192763-6783-4D6F-9DED-7B6C4774925D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{2FA1A45F-62BC-48F6-B990-34E28132E0A7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{2FA1A45F-62BC-48F6-B990-34E28132E0A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="153">
   <si>
     <t>£HRN</t>
   </si>
@@ -419,6 +419,72 @@
   </si>
   <si>
     <t>Dev &amp;</t>
+  </si>
+  <si>
+    <t>Cashflow Statement</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>Classic model kits &amp; starter kits</t>
+  </si>
+  <si>
+    <t>Quick Build Lego style sets</t>
+  </si>
+  <si>
+    <t>Cash used in Operations</t>
+  </si>
+  <si>
+    <t>Interest Paid</t>
+  </si>
+  <si>
+    <t>Tax Received</t>
+  </si>
+  <si>
+    <t>Lease Payment Interest</t>
+  </si>
+  <si>
+    <t>Acquisition of  Subsidiary</t>
+  </si>
+  <si>
+    <t>Sale of PP&amp;E</t>
+  </si>
+  <si>
+    <t>Purchase of PP&amp;E</t>
+  </si>
+  <si>
+    <t>Purchase of Intangibles</t>
+  </si>
+  <si>
+    <t>Interest Received</t>
+  </si>
+  <si>
+    <t>Share Issue Proceeds</t>
+  </si>
+  <si>
+    <t>Repayment of Loan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proceeds from ABL </t>
+  </si>
+  <si>
+    <t>Shareholder Loan Proceeds</t>
+  </si>
+  <si>
+    <t>Payment of Lease Liability</t>
+  </si>
+  <si>
+    <t>CFFF</t>
   </si>
 </sst>
 </file>
@@ -777,6 +843,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -784,12 +856,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -915,8 +981,8 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -932,7 +998,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13249275" y="0"/>
-          <a:ext cx="0" cy="13916025"/>
+          <a:ext cx="0" cy="16821150"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -965,8 +1031,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -982,7 +1048,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8362950" y="0"/>
-          <a:ext cx="0" cy="14639925"/>
+          <a:ext cx="0" cy="17011650"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1307,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79E222E-B96F-437C-8E98-98E56FA92AC3}">
   <dimension ref="A2:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23:AB27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1327,30 +1393,30 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="82"/>
-      <c r="G5" s="80" t="s">
+      <c r="C5" s="83"/>
+      <c r="D5" s="84"/>
+      <c r="G5" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="82"/>
-      <c r="V5" s="80" t="s">
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="84"/>
+      <c r="V5" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="W5" s="81"/>
-      <c r="X5" s="81"/>
-      <c r="Y5" s="82"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="83"/>
+      <c r="Y5" s="84"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="36" t="s">
@@ -1524,8 +1590,8 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="5"/>
-      <c r="V11" s="78" t="s">
-        <v>26</v>
+      <c r="V11" s="79" t="s">
+        <v>136</v>
       </c>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
@@ -1555,8 +1621,8 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="5"/>
-      <c r="V12" s="78" t="s">
-        <v>28</v>
+      <c r="V12" s="79" t="s">
+        <v>137</v>
       </c>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
@@ -1577,7 +1643,7 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="5"/>
       <c r="V13" s="78" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
@@ -1595,18 +1661,20 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="5"/>
-      <c r="V14" s="19"/>
+      <c r="V14" s="78" t="s">
+        <v>28</v>
+      </c>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="5"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="82"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="84"/>
       <c r="G15" s="55">
         <v>44409</v>
       </c>
@@ -1622,7 +1690,9 @@
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="5"/>
-      <c r="V15" s="19"/>
+      <c r="V15" s="78" t="s">
+        <v>112</v>
+      </c>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="5"/>
@@ -1632,10 +1702,10 @@
       <c r="B16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="84"/>
+      <c r="D16" s="81"/>
       <c r="G16" s="10"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -1657,10 +1727,10 @@
       <c r="B17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="83" t="s">
+      <c r="C17" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="84"/>
+      <c r="D17" s="81"/>
       <c r="G17" s="10"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -1676,10 +1746,10 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="83" t="s">
+      <c r="C18" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="84"/>
+      <c r="D18" s="81"/>
       <c r="G18" s="10"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -1716,29 +1786,29 @@
       <c r="Q19" s="7"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="80" t="s">
+      <c r="B22" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="81"/>
-      <c r="D22" s="82"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="84"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B23" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="83" t="s">
+      <c r="C23" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="84"/>
+      <c r="D23" s="81"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="83">
+      <c r="C24" s="80">
         <v>1907</v>
       </c>
-      <c r="D24" s="84"/>
+      <c r="D24" s="81"/>
       <c r="G24" s="77" t="s">
         <v>124</v>
       </c>
@@ -1764,25 +1834,25 @@
         <f>'Financial Model'!U62</f>
         <v>8.6457233368532282E-2</v>
       </c>
-      <c r="D26" s="84"/>
+      <c r="D26" s="81"/>
       <c r="G26" s="77" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B27" s="10"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="84"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="81"/>
       <c r="G27" s="77"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B28" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="83" t="s">
+      <c r="C28" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="84"/>
+      <c r="D28" s="81"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
@@ -1794,11 +1864,11 @@
       <c r="D29" s="86"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B32" s="80" t="s">
+      <c r="B32" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="81"/>
-      <c r="D32" s="82"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="84"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="10" t="s">
@@ -1832,13 +1902,13 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="10"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="84"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="81"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="10"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="84"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="81"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="10"/>
@@ -1852,7 +1922,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="G5:Q5"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B15:D15"/>
@@ -1874,6 +1943,7 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C27:D27"/>
+    <mergeCell ref="G5:Q5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{DCC15395-9800-42C6-A051-2B2869197E07}"/>
@@ -1886,19 +1956,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B96169E-3E8F-4BA7-8806-4E2301312E77}">
-  <dimension ref="B1:AE77"/>
+  <dimension ref="B1:AE103"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K65" sqref="K65"/>
+      <selection pane="bottomRight" activeCell="R99" sqref="R99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="9.140625" style="30"/>
     <col min="5" max="5" width="9.140625" style="1"/>
@@ -1966,7 +2036,7 @@
       <c r="S1" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="44" t="s">
         <v>30</v>
       </c>
       <c r="U1" s="44" t="s">
@@ -4474,6 +4544,594 @@
         <v>0.30633245873574128</v>
       </c>
     </row>
+    <row r="81" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B81" s="32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K82" s="25">
+        <v>-0.41299999999999998</v>
+      </c>
+      <c r="L82" s="58">
+        <f>U82-K82</f>
+        <v>5.2750000000000004</v>
+      </c>
+      <c r="M82" s="68">
+        <v>-6.5830000000000002</v>
+      </c>
+      <c r="S82" s="25">
+        <v>-3.2410000000000001</v>
+      </c>
+      <c r="T82" s="25">
+        <v>4.3719999999999999</v>
+      </c>
+      <c r="U82" s="25">
+        <v>4.8620000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K83" s="25">
+        <v>-8.8999999999999996E-2</v>
+      </c>
+      <c r="L83" s="58">
+        <f>U83-K83</f>
+        <v>-0.10300000000000001</v>
+      </c>
+      <c r="M83" s="68">
+        <v>-4.2999999999999997E-2</v>
+      </c>
+      <c r="S83" s="25">
+        <v>-0.44600000000000001</v>
+      </c>
+      <c r="T83" s="25">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="U83" s="25">
+        <v>-0.192</v>
+      </c>
+    </row>
+    <row r="84" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K84" s="25">
+        <v>0</v>
+      </c>
+      <c r="L84" s="58">
+        <f>U84-K84</f>
+        <v>0</v>
+      </c>
+      <c r="M84" s="68">
+        <v>0</v>
+      </c>
+      <c r="S84" s="25">
+        <v>0</v>
+      </c>
+      <c r="T84" s="25">
+        <v>0.09</v>
+      </c>
+      <c r="U84" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K85" s="25">
+        <v>-8.3000000000000004E-2</v>
+      </c>
+      <c r="L85" s="58">
+        <f>U85-K85</f>
+        <v>-8.3000000000000004E-2</v>
+      </c>
+      <c r="M85" s="68">
+        <v>-7.9000000000000001E-2</v>
+      </c>
+      <c r="S85" s="25">
+        <v>-0.16900000000000001</v>
+      </c>
+      <c r="T85" s="25">
+        <v>-0.16500000000000001</v>
+      </c>
+      <c r="U85" s="25">
+        <v>-0.16600000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="H86" s="29"/>
+      <c r="J86" s="29"/>
+      <c r="K86" s="67">
+        <f>SUM(K82:K85)</f>
+        <v>-0.58499999999999996</v>
+      </c>
+      <c r="L86" s="57">
+        <f>SUM(L82:L85)</f>
+        <v>5.0890000000000004</v>
+      </c>
+      <c r="M86" s="67">
+        <f>SUM(M82:M85)</f>
+        <v>-6.7050000000000001</v>
+      </c>
+      <c r="N86" s="29"/>
+      <c r="P86" s="67">
+        <f t="shared" ref="P86:U86" si="78">SUM(P82:P85)</f>
+        <v>0</v>
+      </c>
+      <c r="Q86" s="67">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="R86" s="67">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="S86" s="67">
+        <f t="shared" si="78"/>
+        <v>-3.8560000000000003</v>
+      </c>
+      <c r="T86" s="67">
+        <f t="shared" si="78"/>
+        <v>4.2219999999999995</v>
+      </c>
+      <c r="U86" s="67">
+        <f t="shared" si="78"/>
+        <v>4.5039999999999996</v>
+      </c>
+      <c r="V86" s="47"/>
+    </row>
+    <row r="87" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="K87" s="25"/>
+      <c r="L87" s="58"/>
+      <c r="S87" s="25"/>
+      <c r="T87" s="25"/>
+      <c r="U87" s="25"/>
+    </row>
+    <row r="88" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K88" s="25">
+        <f>-1.015</f>
+        <v>-1.0149999999999999</v>
+      </c>
+      <c r="L88" s="58">
+        <f>U88-K88</f>
+        <v>0</v>
+      </c>
+      <c r="M88" s="68">
+        <v>0</v>
+      </c>
+      <c r="S88" s="25">
+        <v>0</v>
+      </c>
+      <c r="T88" s="25">
+        <v>0</v>
+      </c>
+      <c r="U88" s="25">
+        <v>-1.0149999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K89" s="25">
+        <v>0</v>
+      </c>
+      <c r="L89" s="58">
+        <f>U89-K89</f>
+        <v>0</v>
+      </c>
+      <c r="M89" s="68">
+        <v>0</v>
+      </c>
+      <c r="S89" s="25">
+        <v>0</v>
+      </c>
+      <c r="T89" s="25">
+        <v>0</v>
+      </c>
+      <c r="U89" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B90" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K90" s="25">
+        <v>-1.865</v>
+      </c>
+      <c r="L90" s="58">
+        <f>U90-K90</f>
+        <v>0</v>
+      </c>
+      <c r="M90" s="68">
+        <v>-1.72</v>
+      </c>
+      <c r="S90" s="25">
+        <v>-2.4809999999999999</v>
+      </c>
+      <c r="T90" s="25">
+        <v>-4.2489999999999997</v>
+      </c>
+      <c r="U90" s="25">
+        <v>-1.865</v>
+      </c>
+    </row>
+    <row r="91" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K91" s="25">
+        <v>-0.45100000000000001</v>
+      </c>
+      <c r="L91" s="58">
+        <f>U91-K91</f>
+        <v>0</v>
+      </c>
+      <c r="M91" s="68">
+        <v>-0.16800000000000001</v>
+      </c>
+      <c r="S91" s="25">
+        <v>-0.23699999999999999</v>
+      </c>
+      <c r="T91" s="25">
+        <v>-0.72599999999999998</v>
+      </c>
+      <c r="U91" s="25">
+        <v>-0.45100000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B92" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K92" s="25">
+        <v>0.01</v>
+      </c>
+      <c r="L92" s="58">
+        <f>U92-K92</f>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="M92" s="68">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="S92" s="25">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="T92" s="25">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="U92" s="25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="H93" s="29"/>
+      <c r="J93" s="29"/>
+      <c r="K93" s="67">
+        <f>SUM(K88:K92)</f>
+        <v>-3.3210000000000002</v>
+      </c>
+      <c r="L93" s="57">
+        <f>SUM(L88:L92)</f>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="M93" s="67">
+        <f>SUM(M88:M92)</f>
+        <v>-1.8839999999999999</v>
+      </c>
+      <c r="N93" s="29"/>
+      <c r="P93" s="67">
+        <f t="shared" ref="P93:U93" si="79">SUM(P88:P92)</f>
+        <v>0</v>
+      </c>
+      <c r="Q93" s="67">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="R93" s="67">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="S93" s="67">
+        <f t="shared" si="79"/>
+        <v>-2.7149999999999999</v>
+      </c>
+      <c r="T93" s="67">
+        <f t="shared" si="79"/>
+        <v>-4.9719999999999995</v>
+      </c>
+      <c r="U93" s="67">
+        <f t="shared" si="79"/>
+        <v>-3.2309999999999999</v>
+      </c>
+      <c r="V93" s="47"/>
+    </row>
+    <row r="94" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="K94" s="25"/>
+      <c r="L94" s="58"/>
+      <c r="S94" s="25"/>
+      <c r="T94" s="25"/>
+      <c r="U94" s="25"/>
+    </row>
+    <row r="95" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K95" s="25">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="L95" s="58">
+        <f>U95-K95</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M95" s="68">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="S95" s="25">
+        <f>15-0.314</f>
+        <v>14.686</v>
+      </c>
+      <c r="T95" s="25">
+        <v>0</v>
+      </c>
+      <c r="U95" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B96" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K96" s="25">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="L96" s="58">
+        <f>U96-K96</f>
+        <v>-0.69899999999999995</v>
+      </c>
+      <c r="M96" s="68">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="S96" s="25"/>
+      <c r="T96" s="25">
+        <v>0</v>
+      </c>
+      <c r="U96" s="25">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B97" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K97" s="25">
+        <v>0</v>
+      </c>
+      <c r="L97" s="58">
+        <f>U97-K97</f>
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="M97" s="68">
+        <v>5.508</v>
+      </c>
+      <c r="S97" s="25">
+        <v>-1.893</v>
+      </c>
+      <c r="T97" s="25">
+        <v>0</v>
+      </c>
+      <c r="U97" s="25">
+        <v>0.69099999999999995</v>
+      </c>
+    </row>
+    <row r="98" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B98" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K98" s="25">
+        <v>0</v>
+      </c>
+      <c r="L98" s="58">
+        <f>U98-K98</f>
+        <v>0</v>
+      </c>
+      <c r="M98" s="68">
+        <v>1</v>
+      </c>
+      <c r="S98" s="25">
+        <f>7.776-8.337</f>
+        <v>-0.56099999999999994</v>
+      </c>
+      <c r="T98" s="25">
+        <v>0</v>
+      </c>
+      <c r="U98" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B99" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K99" s="25">
+        <v>-0.29899999999999999</v>
+      </c>
+      <c r="L99" s="58">
+        <f>U99-K99</f>
+        <v>0</v>
+      </c>
+      <c r="M99" s="68">
+        <v>-0.248</v>
+      </c>
+      <c r="S99" s="25">
+        <v>-0.46200000000000002</v>
+      </c>
+      <c r="T99" s="25">
+        <v>-0.46200000000000002</v>
+      </c>
+      <c r="U99" s="25">
+        <v>-0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D100" s="29"/>
+      <c r="F100" s="29"/>
+      <c r="H100" s="29"/>
+      <c r="J100" s="29"/>
+      <c r="K100" s="67">
+        <f>SUM(K95:K99)</f>
+        <v>0.38399999999999995</v>
+      </c>
+      <c r="L100" s="57">
+        <f>SUM(L95:L99)</f>
+        <v>0</v>
+      </c>
+      <c r="M100" s="67">
+        <f>SUM(M95:M99)</f>
+        <v>6.2639999999999993</v>
+      </c>
+      <c r="N100" s="29"/>
+      <c r="P100" s="67">
+        <f t="shared" ref="P100:U100" si="80">SUM(P95:P99)</f>
+        <v>0</v>
+      </c>
+      <c r="Q100" s="67">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="R100" s="67">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="S100" s="67">
+        <f t="shared" si="80"/>
+        <v>11.77</v>
+      </c>
+      <c r="T100" s="67">
+        <f t="shared" si="80"/>
+        <v>-0.46200000000000002</v>
+      </c>
+      <c r="U100" s="67">
+        <f t="shared" si="80"/>
+        <v>0.38399999999999995</v>
+      </c>
+      <c r="V100" s="47"/>
+    </row>
+    <row r="101" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="L101" s="58"/>
+    </row>
+    <row r="102" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B102" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K102" s="68">
+        <f>+K88+K90+K91</f>
+        <v>-3.331</v>
+      </c>
+      <c r="L102" s="58">
+        <f>+L88+L90+L91</f>
+        <v>0</v>
+      </c>
+      <c r="M102" s="68">
+        <f>+M88+M90+M91</f>
+        <v>-1.8879999999999999</v>
+      </c>
+      <c r="P102" s="68">
+        <f t="shared" ref="P102:U102" si="81">+P88+P90+P91</f>
+        <v>0</v>
+      </c>
+      <c r="Q102" s="68">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="R102" s="68">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="S102" s="68">
+        <f t="shared" si="81"/>
+        <v>-2.718</v>
+      </c>
+      <c r="T102" s="68">
+        <f t="shared" si="81"/>
+        <v>-4.9749999999999996</v>
+      </c>
+      <c r="U102" s="68">
+        <f t="shared" si="81"/>
+        <v>-3.331</v>
+      </c>
+    </row>
+    <row r="103" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D103" s="29"/>
+      <c r="F103" s="29"/>
+      <c r="H103" s="29"/>
+      <c r="J103" s="29"/>
+      <c r="K103" s="67">
+        <f>K86-K102</f>
+        <v>2.746</v>
+      </c>
+      <c r="L103" s="57">
+        <f>L86-L102</f>
+        <v>5.0890000000000004</v>
+      </c>
+      <c r="M103" s="67">
+        <f>M86-M102</f>
+        <v>-4.8170000000000002</v>
+      </c>
+      <c r="N103" s="29"/>
+      <c r="P103" s="67">
+        <f t="shared" ref="P103:U103" si="82">P86-P102</f>
+        <v>0</v>
+      </c>
+      <c r="Q103" s="67">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="R103" s="67">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="S103" s="67">
+        <f t="shared" si="82"/>
+        <v>-1.1380000000000003</v>
+      </c>
+      <c r="T103" s="67">
+        <f t="shared" si="82"/>
+        <v>9.1969999999999992</v>
+      </c>
+      <c r="U103" s="67">
+        <f t="shared" si="82"/>
+        <v>7.8349999999999991</v>
+      </c>
+      <c r="V103" s="47"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="U1" r:id="rId1" xr:uid="{0F1F7899-CBC0-4EDD-B320-C6331D9D04E1}"/>
@@ -4481,12 +5139,13 @@
     <hyperlink ref="Q1" r:id="rId3" xr:uid="{851E20EF-A79F-4087-846B-75750EFD5CDE}"/>
     <hyperlink ref="K1" r:id="rId4" xr:uid="{55ACAAC2-78C7-4DF1-A031-C9C03F5CC52E}"/>
     <hyperlink ref="M1" r:id="rId5" xr:uid="{7DA399CD-D7CD-43B7-BB15-739C308E5CEF}"/>
+    <hyperlink ref="T1" r:id="rId6" xr:uid="{C76E6A73-1E57-4D23-92D7-948EE0F78E12}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId6"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId7"/>
   <ignoredErrors>
     <ignoredError sqref="L5:L16 J5:J18 L37" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
--- a/£HRN.xlsx
+++ b/£HRN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35192763-6783-4D6F-9DED-7B6C4774925D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CD571E-FBE3-42A7-8428-A4369CFCED37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{2FA1A45F-62BC-48F6-B990-34E28132E0A7}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="154">
   <si>
     <t>£HRN</t>
   </si>
@@ -485,6 +485,9 @@
   </si>
   <si>
     <t>CFFF</t>
+  </si>
+  <si>
+    <t>31/09/2019</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1377,7 @@
   <dimension ref="A2:Y39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23:AB27"/>
+      <selection activeCell="C29" sqref="C29:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1962,7 +1965,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R99" sqref="R99"/>
+      <selection pane="bottomRight" activeCell="G102" sqref="G102:G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2081,6 +2084,9 @@
       <c r="F2" s="45">
         <v>43555</v>
       </c>
+      <c r="G2" s="23" t="s">
+        <v>153</v>
+      </c>
       <c r="H2" s="45">
         <v>43921</v>
       </c>
@@ -4553,6 +4559,16 @@
       <c r="B82" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="G82" s="25">
+        <v>-4.6950000000000003</v>
+      </c>
+      <c r="I82" s="25">
+        <v>1.7669999999999999</v>
+      </c>
+      <c r="J82" s="58">
+        <f>T82-I82</f>
+        <v>2.605</v>
+      </c>
       <c r="K82" s="25">
         <v>-0.41299999999999998</v>
       </c>
@@ -4577,6 +4593,16 @@
       <c r="B83" s="1" t="s">
         <v>139</v>
       </c>
+      <c r="G83" s="25">
+        <v>-0.253</v>
+      </c>
+      <c r="I83" s="25">
+        <v>-0.17599999999999999</v>
+      </c>
+      <c r="J83" s="58">
+        <f t="shared" ref="J83:J85" si="78">T83-I83</f>
+        <v>0.10099999999999999</v>
+      </c>
       <c r="K83" s="25">
         <v>-8.8999999999999996E-2</v>
       </c>
@@ -4601,6 +4627,16 @@
       <c r="B84" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="G84" s="25">
+        <v>0</v>
+      </c>
+      <c r="I84" s="25">
+        <v>0</v>
+      </c>
+      <c r="J84" s="58">
+        <f t="shared" si="78"/>
+        <v>0.09</v>
+      </c>
       <c r="K84" s="25">
         <v>0</v>
       </c>
@@ -4625,6 +4661,16 @@
       <c r="B85" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="G85" s="25">
+        <v>0</v>
+      </c>
+      <c r="I85" s="25">
+        <v>-7.6999999999999999E-2</v>
+      </c>
+      <c r="J85" s="58">
+        <f t="shared" si="78"/>
+        <v>-8.8000000000000009E-2</v>
+      </c>
       <c r="K85" s="25">
         <v>-8.3000000000000004E-2</v>
       </c>
@@ -4651,8 +4697,19 @@
       </c>
       <c r="D86" s="29"/>
       <c r="F86" s="29"/>
+      <c r="G86" s="67">
+        <f>SUM(G82:G85)</f>
+        <v>-4.9480000000000004</v>
+      </c>
       <c r="H86" s="29"/>
-      <c r="J86" s="29"/>
+      <c r="I86" s="67">
+        <f>SUM(I82:I85)</f>
+        <v>1.514</v>
+      </c>
+      <c r="J86" s="57">
+        <f>SUM(J82:J85)</f>
+        <v>2.7079999999999997</v>
+      </c>
       <c r="K86" s="67">
         <f>SUM(K82:K85)</f>
         <v>-0.58499999999999996</v>
@@ -4667,32 +4724,34 @@
       </c>
       <c r="N86" s="29"/>
       <c r="P86" s="67">
-        <f t="shared" ref="P86:U86" si="78">SUM(P82:P85)</f>
+        <f t="shared" ref="P86:U86" si="79">SUM(P82:P85)</f>
         <v>0</v>
       </c>
       <c r="Q86" s="67">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="R86" s="67">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="S86" s="67">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>-3.8560000000000003</v>
       </c>
       <c r="T86" s="67">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>4.2219999999999995</v>
       </c>
       <c r="U86" s="67">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>4.5039999999999996</v>
       </c>
       <c r="V86" s="47"/>
     </row>
     <row r="87" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="G87" s="25"/>
+      <c r="I87" s="25"/>
       <c r="K87" s="25"/>
       <c r="L87" s="58"/>
       <c r="S87" s="25"/>
@@ -4703,6 +4762,16 @@
       <c r="B88" s="1" t="s">
         <v>142</v>
       </c>
+      <c r="G88" s="25">
+        <v>0</v>
+      </c>
+      <c r="I88" s="25">
+        <v>0</v>
+      </c>
+      <c r="J88" s="58">
+        <f t="shared" ref="J88:J92" si="80">T88-I88</f>
+        <v>0</v>
+      </c>
       <c r="K88" s="25">
         <f>-1.015</f>
         <v>-1.0149999999999999</v>
@@ -4728,6 +4797,16 @@
       <c r="B89" s="1" t="s">
         <v>143</v>
       </c>
+      <c r="G89" s="25">
+        <v>0</v>
+      </c>
+      <c r="I89" s="25">
+        <v>0</v>
+      </c>
+      <c r="J89" s="58">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
       <c r="K89" s="25">
         <v>0</v>
       </c>
@@ -4752,6 +4831,16 @@
       <c r="B90" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="G90" s="25">
+        <v>-1.123</v>
+      </c>
+      <c r="I90" s="25">
+        <v>-2.581</v>
+      </c>
+      <c r="J90" s="58">
+        <f t="shared" si="80"/>
+        <v>-1.6679999999999997</v>
+      </c>
       <c r="K90" s="25">
         <v>-1.865</v>
       </c>
@@ -4776,6 +4865,16 @@
       <c r="B91" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="G91" s="25">
+        <v>-0.108</v>
+      </c>
+      <c r="I91" s="25">
+        <v>-0.53200000000000003</v>
+      </c>
+      <c r="J91" s="58">
+        <f t="shared" si="80"/>
+        <v>-0.19399999999999995</v>
+      </c>
       <c r="K91" s="25">
         <v>-0.45100000000000001</v>
       </c>
@@ -4800,6 +4899,16 @@
       <c r="B92" s="1" t="s">
         <v>146</v>
       </c>
+      <c r="G92" s="25">
+        <v>1E-3</v>
+      </c>
+      <c r="I92" s="25">
+        <v>1E-3</v>
+      </c>
+      <c r="J92" s="58">
+        <f t="shared" si="80"/>
+        <v>2E-3</v>
+      </c>
       <c r="K92" s="25">
         <v>0.01</v>
       </c>
@@ -4826,8 +4935,19 @@
       </c>
       <c r="D93" s="29"/>
       <c r="F93" s="29"/>
+      <c r="G93" s="67">
+        <f>SUM(G88:G92)</f>
+        <v>-1.2300000000000002</v>
+      </c>
       <c r="H93" s="29"/>
-      <c r="J93" s="29"/>
+      <c r="I93" s="67">
+        <f>SUM(I88:I92)</f>
+        <v>-3.1120000000000001</v>
+      </c>
+      <c r="J93" s="57">
+        <f>SUM(J88:J92)</f>
+        <v>-1.8599999999999997</v>
+      </c>
       <c r="K93" s="67">
         <f>SUM(K88:K92)</f>
         <v>-3.3210000000000002</v>
@@ -4842,32 +4962,34 @@
       </c>
       <c r="N93" s="29"/>
       <c r="P93" s="67">
-        <f t="shared" ref="P93:U93" si="79">SUM(P88:P92)</f>
+        <f t="shared" ref="P93:U93" si="81">SUM(P88:P92)</f>
         <v>0</v>
       </c>
       <c r="Q93" s="67">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="R93" s="67">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="S93" s="67">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>-2.7149999999999999</v>
       </c>
       <c r="T93" s="67">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>-4.9719999999999995</v>
       </c>
       <c r="U93" s="67">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>-3.2309999999999999</v>
       </c>
       <c r="V93" s="47"/>
     </row>
     <row r="94" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="G94" s="25"/>
+      <c r="I94" s="25"/>
       <c r="K94" s="25"/>
       <c r="L94" s="58"/>
       <c r="S94" s="25"/>
@@ -4878,6 +5000,16 @@
       <c r="B95" s="1" t="s">
         <v>147</v>
       </c>
+      <c r="G95" s="25">
+        <v>0</v>
+      </c>
+      <c r="I95" s="25">
+        <v>0</v>
+      </c>
+      <c r="J95" s="58">
+        <f t="shared" ref="J95:J99" si="82">T95-I95</f>
+        <v>0</v>
+      </c>
       <c r="K95" s="25">
         <v>-8.0000000000000002E-3</v>
       </c>
@@ -4903,6 +5035,16 @@
       <c r="B96" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="G96" s="25">
+        <v>0</v>
+      </c>
+      <c r="I96" s="25">
+        <v>0</v>
+      </c>
+      <c r="J96" s="58">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
       <c r="K96" s="25">
         <v>0.69099999999999995</v>
       </c>
@@ -4925,6 +5067,16 @@
       <c r="B97" s="1" t="s">
         <v>149</v>
       </c>
+      <c r="G97" s="25">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="I97" s="25">
+        <v>0</v>
+      </c>
+      <c r="J97" s="58">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
       <c r="K97" s="25">
         <v>0</v>
       </c>
@@ -4949,6 +5101,16 @@
       <c r="B98" s="1" t="s">
         <v>150</v>
       </c>
+      <c r="G98" s="25">
+        <v>5.1050000000000004</v>
+      </c>
+      <c r="I98" s="25">
+        <v>0</v>
+      </c>
+      <c r="J98" s="58">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
       <c r="K98" s="25">
         <v>0</v>
       </c>
@@ -4974,6 +5136,16 @@
       <c r="B99" s="1" t="s">
         <v>151</v>
       </c>
+      <c r="G99" s="25">
+        <v>-0.47699999999999998</v>
+      </c>
+      <c r="I99" s="25">
+        <v>-0.30399999999999999</v>
+      </c>
+      <c r="J99" s="58">
+        <f t="shared" si="82"/>
+        <v>-0.15800000000000003</v>
+      </c>
       <c r="K99" s="25">
         <v>-0.29899999999999999</v>
       </c>
@@ -5000,8 +5172,19 @@
       </c>
       <c r="D100" s="29"/>
       <c r="F100" s="29"/>
+      <c r="G100" s="67">
+        <f>SUM(G95:G99)</f>
+        <v>6.2220000000000004</v>
+      </c>
       <c r="H100" s="29"/>
-      <c r="J100" s="29"/>
+      <c r="I100" s="67">
+        <f>SUM(I95:I99)</f>
+        <v>-0.30399999999999999</v>
+      </c>
+      <c r="J100" s="57">
+        <f>SUM(J95:J99)</f>
+        <v>-0.15800000000000003</v>
+      </c>
       <c r="K100" s="67">
         <f>SUM(K95:K99)</f>
         <v>0.38399999999999995</v>
@@ -5016,73 +5199,86 @@
       </c>
       <c r="N100" s="29"/>
       <c r="P100" s="67">
-        <f t="shared" ref="P100:U100" si="80">SUM(P95:P99)</f>
+        <f t="shared" ref="P100:U100" si="83">SUM(P95:P99)</f>
         <v>0</v>
       </c>
       <c r="Q100" s="67">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="R100" s="67">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="S100" s="67">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>11.77</v>
       </c>
       <c r="T100" s="67">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>-0.46200000000000002</v>
       </c>
       <c r="U100" s="67">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0.38399999999999995</v>
       </c>
       <c r="V100" s="47"/>
     </row>
     <row r="101" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="I101" s="25"/>
       <c r="L101" s="58"/>
     </row>
     <row r="102" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B102" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="G102" s="68">
+        <f t="shared" ref="G102" si="84">+G90+G91</f>
+        <v>-1.2310000000000001</v>
+      </c>
+      <c r="I102" s="68">
+        <f t="shared" ref="I102:K102" si="85">+I90+I91</f>
+        <v>-3.113</v>
+      </c>
+      <c r="J102" s="58">
+        <f t="shared" ref="J102:L102" si="86">+J90+J91</f>
+        <v>-1.8619999999999997</v>
+      </c>
       <c r="K102" s="68">
-        <f>+K88+K90+K91</f>
-        <v>-3.331</v>
+        <f t="shared" si="85"/>
+        <v>-2.3159999999999998</v>
       </c>
       <c r="L102" s="58">
-        <f>+L88+L90+L91</f>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="M102" s="68">
-        <f>+M88+M90+M91</f>
+        <f t="shared" ref="M102" si="87">+M90+M91</f>
         <v>-1.8879999999999999</v>
       </c>
       <c r="P102" s="68">
-        <f t="shared" ref="P102:U102" si="81">+P88+P90+P91</f>
+        <f t="shared" ref="P102:T102" si="88">+P90+P91</f>
         <v>0</v>
       </c>
       <c r="Q102" s="68">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="R102" s="68">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="S102" s="68">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>-2.718</v>
       </c>
       <c r="T102" s="68">
-        <f t="shared" si="81"/>
+        <f t="shared" si="88"/>
         <v>-4.9749999999999996</v>
       </c>
       <c r="U102" s="68">
-        <f t="shared" si="81"/>
-        <v>-3.331</v>
+        <f>+U90+U91</f>
+        <v>-2.3159999999999998</v>
       </c>
     </row>
     <row r="103" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5091,11 +5287,22 @@
       </c>
       <c r="D103" s="29"/>
       <c r="F103" s="29"/>
+      <c r="G103" s="67">
+        <f>G86-G102</f>
+        <v>-3.7170000000000005</v>
+      </c>
       <c r="H103" s="29"/>
-      <c r="J103" s="29"/>
+      <c r="I103" s="67">
+        <f>I86-I102</f>
+        <v>4.6269999999999998</v>
+      </c>
+      <c r="J103" s="57">
+        <f>J86-J102</f>
+        <v>4.5699999999999994</v>
+      </c>
       <c r="K103" s="67">
         <f>K86-K102</f>
-        <v>2.746</v>
+        <v>1.7309999999999999</v>
       </c>
       <c r="L103" s="57">
         <f>L86-L102</f>
@@ -5107,28 +5314,28 @@
       </c>
       <c r="N103" s="29"/>
       <c r="P103" s="67">
-        <f t="shared" ref="P103:U103" si="82">P86-P102</f>
+        <f t="shared" ref="P103:R103" si="89">P86-P102</f>
         <v>0</v>
       </c>
       <c r="Q103" s="67">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="R103" s="67">
-        <f t="shared" si="82"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="S103" s="67">
-        <f t="shared" si="82"/>
-        <v>-1.1380000000000003</v>
+        <f t="shared" ref="S103:T103" si="90">S86+S102</f>
+        <v>-6.5739999999999998</v>
       </c>
       <c r="T103" s="67">
-        <f t="shared" si="82"/>
-        <v>9.1969999999999992</v>
+        <f t="shared" si="90"/>
+        <v>-0.75300000000000011</v>
       </c>
       <c r="U103" s="67">
-        <f t="shared" si="82"/>
-        <v>7.8349999999999991</v>
+        <f>U86+U102</f>
+        <v>2.1879999999999997</v>
       </c>
       <c r="V103" s="47"/>
     </row>

--- a/£HRN.xlsx
+++ b/£HRN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CD571E-FBE3-42A7-8428-A4369CFCED37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B0AFF5-FD58-45F6-828E-B219A9D8A0FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{2FA1A45F-62BC-48F6-B990-34E28132E0A7}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="155">
   <si>
     <t>£HRN</t>
   </si>
@@ -361,9 +361,6 @@
     <t>EV/E</t>
   </si>
   <si>
-    <t>(Projected)</t>
-  </si>
-  <si>
     <t>Oxford Diecast</t>
   </si>
   <si>
@@ -488,16 +485,21 @@
   </si>
   <si>
     <t>31/09/2019</t>
+  </si>
+  <si>
+    <t>H124</t>
+  </si>
+  <si>
+    <t>H224</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0\x"/>
     <numFmt numFmtId="168" formatCode="#,##0.000"/>
   </numFmts>
@@ -709,7 +711,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -773,7 +775,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -799,11 +800,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -817,10 +814,7 @@
     <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -831,7 +825,6 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -849,7 +842,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -859,6 +855,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -882,10 +884,23 @@
     <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -976,14 +991,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>115</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -1000,8 +1015,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13249275" y="0"/>
-          <a:ext cx="0" cy="16821150"/>
+          <a:off x="14087475" y="0"/>
+          <a:ext cx="0" cy="18764250"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1026,14 +1041,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>117</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -1050,8 +1065,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8362950" y="0"/>
-          <a:ext cx="0" cy="17011650"/>
+          <a:off x="9810750" y="0"/>
+          <a:ext cx="0" cy="18954750"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1377,7 +1392,7 @@
   <dimension ref="A2:Y39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:D29"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1396,44 +1411,44 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="84"/>
-      <c r="G5" s="82" t="s">
+      <c r="C5" s="77"/>
+      <c r="D5" s="78"/>
+      <c r="G5" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="84"/>
-      <c r="V5" s="82" t="s">
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="V5" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="W5" s="83"/>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="84"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="78"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="35" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3">
-        <v>0.29849999999999999</v>
+        <v>0.37</v>
       </c>
       <c r="D6" s="16"/>
-      <c r="G6" s="55">
+      <c r="G6" s="52">
         <v>44927</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -1444,7 +1459,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="5"/>
-      <c r="V6" s="78" t="s">
+      <c r="V6" s="71" t="s">
         <v>25</v>
       </c>
       <c r="W6" s="4"/>
@@ -1452,15 +1467,15 @@
       <c r="Y6" s="5"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="35" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="14">
-        <f>'Financial Model'!M20</f>
-        <v>169.85377</v>
+        <f>+'Financial Model'!O20</f>
+        <v>166.929</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="4"/>
@@ -1473,27 +1488,27 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="5"/>
-      <c r="V7" s="79" t="s">
-        <v>125</v>
+      <c r="V7" s="72" t="s">
+        <v>124</v>
       </c>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="5"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="35" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="14">
         <f>C6*C7</f>
-        <v>50.701350344999994</v>
+        <v>61.763730000000002</v>
       </c>
       <c r="D8" s="16"/>
-      <c r="G8" s="55">
+      <c r="G8" s="52">
         <v>44927</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -1504,23 +1519,23 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="5"/>
-      <c r="V8" s="79" t="s">
-        <v>126</v>
+      <c r="V8" s="72" t="s">
+        <v>125</v>
       </c>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="5"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="14">
-        <f>'Financial Model'!M65</f>
-        <v>3.6820000000000004</v>
+        <f>+'Financial Model'!O65</f>
+        <v>2.7069999999999999</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="4"/>
@@ -1539,21 +1554,21 @@
       <c r="Y9" s="5"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="35" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="14">
-        <f>'Financial Model'!M66</f>
-        <v>6.81</v>
+        <f>+'Financial Model'!O66</f>
+        <v>15.831000000000001</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="55">
+        <v>153</v>
+      </c>
+      <c r="G10" s="52">
         <v>44896</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -1564,7 +1579,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="5"/>
-      <c r="V10" s="78" t="s">
+      <c r="V10" s="71" t="s">
         <v>34</v>
       </c>
       <c r="W10" s="4"/>
@@ -1572,15 +1587,15 @@
       <c r="Y10" s="5"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="35" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="14">
         <f>C9-C10</f>
-        <v>-3.1279999999999992</v>
+        <v>-13.124000000000002</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="4"/>
@@ -1593,27 +1608,27 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="5"/>
-      <c r="V11" s="79" t="s">
-        <v>136</v>
+      <c r="V11" s="72" t="s">
+        <v>135</v>
       </c>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="5"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="36" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="15">
         <f>C8-C11</f>
-        <v>53.829350344999995</v>
+        <v>74.887730000000005</v>
       </c>
       <c r="D12" s="17"/>
-      <c r="G12" s="55">
+      <c r="G12" s="52">
         <v>44866</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1624,8 +1639,8 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="5"/>
-      <c r="V12" s="79" t="s">
-        <v>137</v>
+      <c r="V12" s="72" t="s">
+        <v>136</v>
       </c>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
@@ -1633,8 +1648,8 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="G13" s="10"/>
-      <c r="H13" s="72" t="s">
-        <v>120</v>
+      <c r="H13" s="65" t="s">
+        <v>119</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1645,7 +1660,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="5"/>
-      <c r="V13" s="78" t="s">
+      <c r="V13" s="71" t="s">
         <v>26</v>
       </c>
       <c r="W13" s="4"/>
@@ -1664,7 +1679,7 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="5"/>
-      <c r="V14" s="78" t="s">
+      <c r="V14" s="71" t="s">
         <v>28</v>
       </c>
       <c r="W14" s="4"/>
@@ -1673,16 +1688,16 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="83"/>
-      <c r="D15" s="84"/>
-      <c r="G15" s="55">
+      <c r="C15" s="77"/>
+      <c r="D15" s="78"/>
+      <c r="G15" s="52">
         <v>44409</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1693,8 +1708,8 @@
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="5"/>
-      <c r="V15" s="78" t="s">
-        <v>112</v>
+      <c r="V15" s="71" t="s">
+        <v>111</v>
       </c>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
@@ -1705,10 +1720,10 @@
       <c r="B16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="80" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" s="81"/>
+      <c r="C16" s="79" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="80"/>
       <c r="G16" s="10"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -1730,10 +1745,10 @@
       <c r="B17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="81"/>
+      <c r="D17" s="80"/>
       <c r="G17" s="10"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -1749,10 +1764,10 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="80" t="s">
+      <c r="C18" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="81"/>
+      <c r="D18" s="80"/>
       <c r="G18" s="10"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -1767,15 +1782,15 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="92" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="93"/>
+      <c r="D19" s="75"/>
       <c r="G19" s="11"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -1789,129 +1804,131 @@
       <c r="Q19" s="7"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="82" t="s">
+      <c r="B22" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="83"/>
-      <c r="D22" s="84"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="78"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B23" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="80" t="s">
+      <c r="C23" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="81"/>
+      <c r="D23" s="80"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="80">
+      <c r="C24" s="79">
         <v>1907</v>
       </c>
-      <c r="D24" s="81"/>
-      <c r="G24" s="77" t="s">
-        <v>124</v>
+      <c r="D24" s="80"/>
+      <c r="G24" s="70" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B25" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="90">
-        <f>'Financial Model'!U38</f>
-        <v>16.462</v>
-      </c>
-      <c r="D25" s="91"/>
-      <c r="G25" s="77" t="s">
-        <v>123</v>
+      <c r="C25" s="86">
+        <f>'Financial Model'!O38</f>
+        <v>24.111999999999998</v>
+      </c>
+      <c r="D25" s="87"/>
+      <c r="G25" s="70" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B26" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="89">
-        <f>'Financial Model'!U62</f>
-        <v>8.6457233368532282E-2</v>
-      </c>
-      <c r="D26" s="81"/>
-      <c r="G26" s="77" t="s">
-        <v>122</v>
+      <c r="C26" s="85">
+        <f>'Financial Model'!O62</f>
+        <v>6.9363136420081517E-2</v>
+      </c>
+      <c r="D26" s="80"/>
+      <c r="G26" s="70" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B27" s="10"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="81"/>
-      <c r="G27" s="77"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="80"/>
+      <c r="G27" s="70"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B28" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="81"/>
+      <c r="C28" s="73" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="98">
+        <v>45619</v>
+      </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="85" t="s">
+      <c r="C29" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="86"/>
+      <c r="D29" s="82"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B32" s="82" t="s">
+      <c r="B32" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="83"/>
-      <c r="D32" s="84"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="78"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="87">
-        <f>C6/'Financial Model'!M60</f>
-        <v>1.229064053742849</v>
-      </c>
-      <c r="D33" s="88"/>
+      <c r="C33" s="83">
+        <f>C6/'Financial Model'!O60</f>
+        <v>1.9440285165717164</v>
+      </c>
+      <c r="D33" s="84"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="87">
-        <f>C6/'Financial Model'!U19</f>
-        <v>33.690538539553799</v>
-      </c>
-      <c r="D34" s="88"/>
+      <c r="C34" s="83">
+        <f>C6/SUM('Financial Model'!N19:O19)</f>
+        <v>-7.7117904857035793</v>
+      </c>
+      <c r="D34" s="84"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="87">
-        <f>C12/'Financial Model'!U18</f>
-        <v>36.395774405003429</v>
-      </c>
-      <c r="D35" s="88"/>
+      <c r="C35" s="83">
+        <f>C12/SUM('Financial Model'!N18:O18)</f>
+        <v>-9.3504469971282251</v>
+      </c>
+      <c r="D35" s="84"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="10"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="81"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="80"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="10"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="81"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="80"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="10"/>
@@ -1924,13 +1941,7 @@
       <c r="D39" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
+  <mergeCells count="21">
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="V5:Y5"/>
     <mergeCell ref="C29:D29"/>
@@ -1944,9 +1955,14 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C28:D28"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="G5:Q5"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{DCC15395-9800-42C6-A051-2B2869197E07}"/>
@@ -1959,13 +1975,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B96169E-3E8F-4BA7-8806-4E2301312E77}">
-  <dimension ref="B1:AE103"/>
+  <dimension ref="B1:AG103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G102" sqref="G102:G103"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1982,15 +1998,18 @@
     <col min="10" max="10" width="9.140625" style="30"/>
     <col min="11" max="11" width="9.140625" style="1"/>
     <col min="12" max="12" width="9.140625" style="30"/>
-    <col min="13" max="13" width="9.140625" style="63"/>
+    <col min="13" max="13" width="9.140625" style="58"/>
     <col min="14" max="14" width="9.140625" style="30"/>
-    <col min="15" max="20" width="9.140625" style="1"/>
-    <col min="21" max="21" width="9.140625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="48"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="9.140625" style="30"/>
+    <col min="17" max="22" width="9.140625" style="1"/>
+    <col min="23" max="23" width="9.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="58"/>
+    <col min="25" max="25" width="9.140625" style="47"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:33" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C1" s="21" t="s">
         <v>59</v>
       </c>
@@ -2015,120 +2034,134 @@
       <c r="J1" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="43" t="s">
         <v>67</v>
       </c>
       <c r="L1" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="M1" s="59" t="s">
         <v>69</v>
       </c>
       <c r="N1" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="O1" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="R1" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="Q1" s="44" t="s">
+      <c r="S1" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="T1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="44" t="s">
+      <c r="U1" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="44" t="s">
+      <c r="V1" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="44" t="s">
+      <c r="W1" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="46" t="s">
+      <c r="X1" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="Y1" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="Z1" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="AA1" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="AB1" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AC1" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AD1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AC1" s="21" t="s">
+      <c r="AE1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="AD1" s="21" t="s">
+      <c r="AF1" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="AE1" s="21" t="s">
+      <c r="AG1" s="21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="2:31" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:33" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="22"/>
-      <c r="D2" s="45">
+      <c r="D2" s="44">
         <v>43190</v>
       </c>
-      <c r="F2" s="45">
+      <c r="F2" s="44">
         <v>43555</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="H2" s="45">
+        <v>152</v>
+      </c>
+      <c r="H2" s="44">
         <v>43921</v>
       </c>
       <c r="I2" s="26">
         <v>44104</v>
       </c>
-      <c r="J2" s="45">
+      <c r="J2" s="44">
         <v>44286</v>
       </c>
       <c r="K2" s="26">
         <v>44469</v>
       </c>
-      <c r="L2" s="45">
+      <c r="L2" s="44">
         <v>44651</v>
       </c>
-      <c r="M2" s="66">
+      <c r="M2" s="60">
         <v>44834</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="P2" s="26">
+      <c r="N2" s="44">
+        <f>+X2</f>
+        <v>45016</v>
+      </c>
+      <c r="O2" s="26">
+        <v>45199</v>
+      </c>
+      <c r="P2" s="28"/>
+      <c r="R2" s="26">
         <v>42825</v>
       </c>
-      <c r="Q2" s="26">
+      <c r="S2" s="26">
         <v>43190</v>
       </c>
-      <c r="R2" s="26">
+      <c r="T2" s="26">
         <v>43555</v>
       </c>
-      <c r="S2" s="26">
+      <c r="U2" s="26">
         <v>43921</v>
       </c>
-      <c r="T2" s="26">
+      <c r="V2" s="26">
         <v>44286</v>
       </c>
-      <c r="U2" s="26">
+      <c r="W2" s="26">
         <v>44651</v>
       </c>
-      <c r="V2" s="51" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X2" s="88">
+        <v>45016</v>
+      </c>
+      <c r="Y2" s="92"/>
+    </row>
+    <row r="3" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
@@ -2138,82 +2171,102 @@
       <c r="I3" s="24">
         <v>21.138000000000002</v>
       </c>
-      <c r="J3" s="57">
-        <f>T3-I3</f>
+      <c r="J3" s="54">
+        <f>V3-I3</f>
         <v>27.410999999999998</v>
       </c>
       <c r="K3" s="24">
         <v>21.844999999999999</v>
       </c>
-      <c r="L3" s="57">
-        <f>U3-K3</f>
+      <c r="L3" s="54">
+        <f>W3-K3</f>
         <v>31.893999999999998</v>
       </c>
-      <c r="M3" s="67">
+      <c r="M3" s="61">
         <v>22.41</v>
       </c>
-      <c r="N3" s="71"/>
-      <c r="P3" s="24">
+      <c r="N3" s="54">
+        <f>+X3-M3</f>
+        <v>32.694999999999993</v>
+      </c>
+      <c r="O3" s="24">
+        <v>23.794</v>
+      </c>
+      <c r="P3" s="29"/>
+      <c r="R3" s="24">
         <v>47.42</v>
       </c>
-      <c r="Q3" s="24">
+      <c r="S3" s="24">
         <v>35.651000000000003</v>
       </c>
-      <c r="R3" s="24">
+      <c r="T3" s="24">
         <v>32.759</v>
       </c>
-      <c r="S3" s="24">
+      <c r="U3" s="24">
         <v>37.841999999999999</v>
       </c>
-      <c r="T3" s="24">
+      <c r="V3" s="24">
         <v>48.548999999999999</v>
       </c>
-      <c r="U3" s="24">
+      <c r="W3" s="24">
         <v>53.738999999999997</v>
       </c>
-      <c r="V3" s="47"/>
-    </row>
-    <row r="4" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="X3" s="61">
+        <v>55.104999999999997</v>
+      </c>
+      <c r="Y3" s="46"/>
+    </row>
+    <row r="4" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>36</v>
       </c>
       <c r="I4" s="25">
         <v>11.276</v>
       </c>
-      <c r="J4" s="58">
-        <f>T4-I4</f>
+      <c r="J4" s="55">
+        <f>V4-I4</f>
         <v>15.519000000000002</v>
       </c>
       <c r="K4" s="25">
         <v>11.72</v>
       </c>
-      <c r="L4" s="58">
-        <f>U4-K4</f>
+      <c r="L4" s="55">
+        <f>W4-K4</f>
         <v>16.302999999999997</v>
       </c>
-      <c r="M4" s="68">
+      <c r="M4" s="62">
         <v>11.683</v>
       </c>
-      <c r="P4" s="25">
+      <c r="N4" s="55">
+        <f>+X4-M4</f>
+        <v>16.483000000000001</v>
+      </c>
+      <c r="O4" s="25">
+        <v>13.368</v>
+      </c>
+      <c r="R4" s="25">
         <v>29.27</v>
       </c>
-      <c r="Q4" s="25">
+      <c r="S4" s="25">
         <v>21.9</v>
       </c>
-      <c r="R4" s="25">
+      <c r="T4" s="25">
         <v>19.347999999999999</v>
       </c>
-      <c r="S4" s="25">
+      <c r="U4" s="25">
         <v>21.14</v>
       </c>
-      <c r="T4" s="25">
+      <c r="V4" s="25">
         <v>26.795000000000002</v>
       </c>
-      <c r="U4" s="25">
+      <c r="W4" s="25">
         <v>28.023</v>
       </c>
-    </row>
-    <row r="5" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X4" s="62">
+        <v>28.166</v>
+      </c>
+    </row>
+    <row r="5" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
@@ -2221,10 +2274,10 @@
       <c r="F5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="24">
-        <f t="shared" ref="I5:M5" si="0">I3-I4</f>
+        <f t="shared" ref="I5:O5" si="0">I3-I4</f>
         <v>9.8620000000000019</v>
       </c>
-      <c r="J5" s="57">
+      <c r="J5" s="54">
         <f t="shared" si="0"/>
         <v>11.891999999999996</v>
       </c>
@@ -2232,7 +2285,7 @@
         <f t="shared" si="0"/>
         <v>10.124999999999998</v>
       </c>
-      <c r="L5" s="57">
+      <c r="L5" s="54">
         <f t="shared" si="0"/>
         <v>15.591000000000001</v>
       </c>
@@ -2240,235 +2293,297 @@
         <f t="shared" si="0"/>
         <v>10.727</v>
       </c>
-      <c r="N5" s="29"/>
-      <c r="P5" s="24">
-        <f t="shared" ref="P5:Q5" si="1">P3-P4</f>
+      <c r="N5" s="54">
+        <f t="shared" si="0"/>
+        <v>16.211999999999993</v>
+      </c>
+      <c r="O5" s="24">
+        <f t="shared" si="0"/>
+        <v>10.426</v>
+      </c>
+      <c r="P5" s="29"/>
+      <c r="R5" s="24">
+        <f t="shared" ref="R5:S5" si="1">R3-R4</f>
         <v>18.150000000000002</v>
       </c>
-      <c r="Q5" s="24">
+      <c r="S5" s="24">
         <f t="shared" si="1"/>
         <v>13.751000000000005</v>
       </c>
-      <c r="R5" s="24">
-        <f>R3-R4</f>
-        <v>13.411000000000001</v>
-      </c>
-      <c r="S5" s="24">
-        <f>S3-S4</f>
-        <v>16.701999999999998</v>
-      </c>
       <c r="T5" s="24">
         <f>T3-T4</f>
-        <v>21.753999999999998</v>
+        <v>13.411000000000001</v>
       </c>
       <c r="U5" s="24">
         <f>U3-U4</f>
+        <v>16.701999999999998</v>
+      </c>
+      <c r="V5" s="24">
+        <f>V3-V4</f>
+        <v>21.753999999999998</v>
+      </c>
+      <c r="W5" s="24">
+        <f>W3-W4</f>
         <v>25.715999999999998</v>
       </c>
-      <c r="V5" s="47"/>
-    </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="X5" s="24">
+        <f>X3-X4</f>
+        <v>26.938999999999997</v>
+      </c>
+      <c r="Y5" s="46"/>
+    </row>
+    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>38</v>
       </c>
       <c r="I6" s="25">
         <v>3.133</v>
       </c>
-      <c r="J6" s="58">
-        <f t="shared" ref="J6:J15" si="2">T6-I6</f>
+      <c r="J6" s="55">
+        <f t="shared" ref="J6:J15" si="2">V6-I6</f>
         <v>3.665</v>
       </c>
       <c r="K6" s="25">
         <v>3.137</v>
       </c>
-      <c r="L6" s="58">
-        <f t="shared" ref="L6:L17" si="3">U6-K6</f>
+      <c r="L6" s="55">
+        <f t="shared" ref="L6:L17" si="3">W6-K6</f>
         <v>3.8539999999999996</v>
       </c>
-      <c r="M6" s="68">
+      <c r="M6" s="62">
         <v>3.8330000000000002</v>
       </c>
-      <c r="P6" s="25">
+      <c r="N6" s="55">
+        <f t="shared" ref="N6:N17" si="4">+X6-M6</f>
+        <v>4.3629999999999995</v>
+      </c>
+      <c r="O6" s="25">
+        <v>3.988</v>
+      </c>
+      <c r="R6" s="25">
         <v>8.4190000000000005</v>
       </c>
-      <c r="Q6" s="25">
+      <c r="S6" s="25">
         <v>7.2240000000000002</v>
       </c>
-      <c r="R6" s="25">
+      <c r="T6" s="25">
         <v>6.1769999999999996</v>
       </c>
-      <c r="S6" s="25">
+      <c r="U6" s="25">
         <v>5.7869999999999999</v>
       </c>
-      <c r="T6" s="25">
+      <c r="V6" s="25">
         <v>6.798</v>
       </c>
-      <c r="U6" s="25">
+      <c r="W6" s="25">
         <v>6.9909999999999997</v>
       </c>
-    </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="X6" s="62">
+        <v>8.1959999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I7" s="25">
         <v>3.6819999999999999</v>
       </c>
-      <c r="J7" s="58">
+      <c r="J7" s="55">
         <f t="shared" si="2"/>
         <v>4.1219999999999999</v>
       </c>
       <c r="K7" s="25">
         <v>4.1509999999999998</v>
       </c>
-      <c r="L7" s="58">
+      <c r="L7" s="55">
         <f t="shared" si="3"/>
         <v>4.6810000000000009</v>
       </c>
-      <c r="M7" s="68">
+      <c r="M7" s="62">
         <v>5.0030000000000001</v>
       </c>
-      <c r="P7" s="25">
+      <c r="N7" s="55">
+        <f t="shared" si="4"/>
+        <v>6.4450000000000003</v>
+      </c>
+      <c r="O7" s="25">
+        <v>6.4870000000000001</v>
+      </c>
+      <c r="R7" s="25">
         <v>10.294</v>
       </c>
-      <c r="Q7" s="25">
+      <c r="S7" s="25">
         <v>7.6470000000000002</v>
       </c>
-      <c r="R7" s="25">
+      <c r="T7" s="25">
         <v>6.8259999999999996</v>
       </c>
-      <c r="S7" s="25">
+      <c r="U7" s="25">
         <v>8.1530000000000005</v>
       </c>
-      <c r="T7" s="25">
+      <c r="V7" s="25">
         <v>7.8040000000000003</v>
       </c>
-      <c r="U7" s="25">
+      <c r="W7" s="25">
         <v>8.8320000000000007</v>
       </c>
-    </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="X7" s="62">
+        <v>11.448</v>
+      </c>
+    </row>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="I8" s="25">
         <v>2.657</v>
       </c>
-      <c r="J8" s="58">
+      <c r="J8" s="55">
         <f t="shared" si="2"/>
         <v>3.476</v>
       </c>
       <c r="K8" s="25">
         <v>2.9990000000000001</v>
       </c>
-      <c r="L8" s="58">
+      <c r="L8" s="55">
         <f t="shared" si="3"/>
         <v>5.5149999999999988</v>
       </c>
-      <c r="M8" s="68">
+      <c r="M8" s="62">
         <v>4.1829999999999998</v>
       </c>
-      <c r="P8" s="25">
+      <c r="N8" s="55">
+        <f t="shared" si="4"/>
+        <v>3.5289999999999999</v>
+      </c>
+      <c r="O8" s="25">
+        <v>4.109</v>
+      </c>
+      <c r="R8" s="25">
         <v>5.68</v>
       </c>
-      <c r="Q8" s="25">
+      <c r="S8" s="25">
         <v>6.0209999999999999</v>
       </c>
-      <c r="R8" s="25">
+      <c r="T8" s="25">
         <v>4.8120000000000003</v>
       </c>
-      <c r="S8" s="25">
+      <c r="U8" s="25">
         <v>5.6849999999999996</v>
       </c>
-      <c r="T8" s="25">
+      <c r="V8" s="25">
         <v>6.133</v>
       </c>
-      <c r="U8" s="25">
+      <c r="W8" s="25">
         <v>8.5139999999999993</v>
       </c>
-      <c r="Y8" s="53"/>
-    </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="X8" s="62">
+        <v>7.7119999999999997</v>
+      </c>
+      <c r="AA8" s="50"/>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I9" s="25">
         <v>-0.151</v>
       </c>
-      <c r="J9" s="58">
+      <c r="J9" s="55">
         <f t="shared" si="2"/>
         <v>-0.09</v>
       </c>
       <c r="K9" s="25">
         <v>-0.16</v>
       </c>
-      <c r="L9" s="58">
+      <c r="L9" s="55">
         <f t="shared" si="3"/>
         <v>-0.13399999999999998</v>
       </c>
-      <c r="M9" s="68">
+      <c r="M9" s="62">
         <v>-0.32800000000000001</v>
       </c>
-      <c r="P9" s="25">
+      <c r="N9" s="55">
+        <f t="shared" si="4"/>
+        <v>-0.32500000000000001</v>
+      </c>
+      <c r="O9" s="25">
+        <v>-0.157</v>
+      </c>
+      <c r="R9" s="25">
         <v>0.35799999999999998</v>
       </c>
-      <c r="Q9" s="25">
+      <c r="S9" s="25">
         <v>-0.437</v>
       </c>
-      <c r="R9" s="25">
+      <c r="T9" s="25">
         <v>-0.22600000000000001</v>
       </c>
-      <c r="S9" s="25">
+      <c r="U9" s="25">
         <v>0.18099999999999999</v>
       </c>
-      <c r="T9" s="25">
+      <c r="V9" s="25">
         <v>-0.24099999999999999</v>
       </c>
-      <c r="U9" s="25">
+      <c r="W9" s="25">
         <v>-0.29399999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="X9" s="62">
+        <v>-0.65300000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I10" s="25">
         <v>-7.5999999999999998E-2</v>
       </c>
-      <c r="J10" s="58">
+      <c r="J10" s="55">
         <f t="shared" si="2"/>
         <v>-0.13500000000000001</v>
       </c>
       <c r="K10" s="25">
         <v>-0.24099999999999999</v>
       </c>
-      <c r="L10" s="58">
+      <c r="L10" s="55">
         <f t="shared" si="3"/>
         <v>0.10199999999999998</v>
       </c>
-      <c r="M10" s="68">
+      <c r="M10" s="62">
         <v>-0.14799999999999999</v>
       </c>
-      <c r="P10" s="25">
+      <c r="N10" s="55">
+        <f t="shared" si="4"/>
+        <v>-3.8260000000000001</v>
+      </c>
+      <c r="O10" s="25">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="R10" s="25">
         <v>-3.3029999999999999</v>
       </c>
-      <c r="Q10" s="25">
+      <c r="S10" s="25">
         <v>-2.2919999999999998</v>
       </c>
-      <c r="R10" s="25">
+      <c r="T10" s="25">
         <v>-0.59299999999999997</v>
       </c>
-      <c r="S10" s="25">
+      <c r="U10" s="25">
         <v>-7.4999999999999997E-2</v>
       </c>
-      <c r="T10" s="25">
+      <c r="V10" s="25">
         <v>-0.21099999999999999</v>
       </c>
-      <c r="U10" s="25">
+      <c r="W10" s="25">
         <v>-0.13900000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X10" s="62">
+        <v>-3.9740000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
@@ -2476,311 +2591,387 @@
       <c r="F11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="24">
-        <f t="shared" ref="I11:M11" si="4">I5-I6-I7-I8+I9+I10</f>
+        <f t="shared" ref="I11:O11" si="5">I5-I6-I7-I8+I9+I10</f>
         <v>0.16300000000000192</v>
       </c>
-      <c r="J11" s="57">
-        <f t="shared" si="4"/>
+      <c r="J11" s="54">
+        <f t="shared" si="5"/>
         <v>0.40399999999999692</v>
       </c>
       <c r="K11" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.56300000000000217</v>
       </c>
-      <c r="L11" s="57">
-        <f t="shared" si="4"/>
+      <c r="L11" s="54">
+        <f t="shared" si="5"/>
         <v>1.5090000000000021</v>
       </c>
       <c r="M11" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.7679999999999998</v>
       </c>
-      <c r="N11" s="29"/>
-      <c r="P11" s="24">
-        <f t="shared" ref="P11:U11" si="5">P5-P6-P7-P8+P9+P10</f>
+      <c r="N11" s="54">
+        <f t="shared" si="5"/>
+        <v>-2.2760000000000069</v>
+      </c>
+      <c r="O11" s="24">
+        <f t="shared" si="5"/>
+        <v>-4.3619999999999992</v>
+      </c>
+      <c r="P11" s="29"/>
+      <c r="R11" s="24">
+        <f t="shared" ref="R11:X11" si="6">R5-R6-R7-R8+R9+R10</f>
         <v>-9.1879999999999988</v>
       </c>
-      <c r="Q11" s="24">
-        <f t="shared" si="5"/>
+      <c r="S11" s="24">
+        <f t="shared" si="6"/>
         <v>-9.8699999999999957</v>
       </c>
-      <c r="R11" s="24">
-        <f t="shared" si="5"/>
+      <c r="T11" s="24">
+        <f t="shared" si="6"/>
         <v>-5.2229999999999981</v>
       </c>
-      <c r="S11" s="24">
-        <f t="shared" si="5"/>
+      <c r="U11" s="24">
+        <f t="shared" si="6"/>
         <v>-2.8170000000000011</v>
       </c>
-      <c r="T11" s="24">
-        <f t="shared" si="5"/>
+      <c r="V11" s="24">
+        <f t="shared" si="6"/>
         <v>0.56699999999999751</v>
       </c>
-      <c r="U11" s="24">
-        <f t="shared" si="5"/>
+      <c r="W11" s="24">
+        <f t="shared" si="6"/>
         <v>0.94599999999999773</v>
       </c>
-      <c r="V11" s="47"/>
-    </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="X11" s="24">
+        <f t="shared" si="6"/>
+        <v>-5.0440000000000058</v>
+      </c>
+      <c r="Y11" s="46"/>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I12" s="25">
         <v>2E-3</v>
       </c>
-      <c r="J12" s="58">
+      <c r="J12" s="55">
         <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
       <c r="K12" s="25">
         <v>0.01</v>
       </c>
-      <c r="L12" s="58">
+      <c r="L12" s="55">
         <f t="shared" si="3"/>
         <v>4.9999999999999992E-3</v>
       </c>
-      <c r="M12" s="68">
+      <c r="M12" s="62">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="P12" s="25">
+      <c r="N12" s="55">
+        <f t="shared" si="4"/>
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="O12" s="25">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="R12" s="25">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="Q12" s="25">
+      <c r="S12" s="25">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="R12" s="25">
+      <c r="T12" s="25">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="S12" s="25">
+      <c r="U12" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="T12" s="25">
+      <c r="V12" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="U12" s="25">
+      <c r="W12" s="25">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="13" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="X12" s="62">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I13" s="25">
         <v>0.16200000000000001</v>
       </c>
-      <c r="J13" s="58">
+      <c r="J13" s="55">
         <f t="shared" si="2"/>
         <v>0.17200000000000001</v>
       </c>
       <c r="K13" s="25">
         <v>0.17199999999999999</v>
       </c>
-      <c r="L13" s="58">
+      <c r="L13" s="55">
         <f t="shared" si="3"/>
         <v>0.186</v>
       </c>
-      <c r="M13" s="68">
+      <c r="M13" s="62">
         <v>0.122</v>
       </c>
-      <c r="P13" s="25">
+      <c r="N13" s="55">
+        <f t="shared" si="4"/>
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="O13" s="25">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="R13" s="25">
         <v>0.32600000000000001</v>
       </c>
-      <c r="Q13" s="25">
+      <c r="S13" s="25">
         <v>0.218</v>
       </c>
-      <c r="R13" s="25">
+      <c r="T13" s="25">
         <v>0.17699999999999999</v>
       </c>
-      <c r="S13" s="25">
+      <c r="U13" s="25">
         <v>0.61499999999999999</v>
       </c>
-      <c r="T13" s="25">
+      <c r="V13" s="25">
         <v>0.33400000000000002</v>
       </c>
-      <c r="U13" s="25">
+      <c r="W13" s="25">
         <v>0.35799999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="X13" s="62">
+        <v>0.84299999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>58</v>
       </c>
       <c r="I14" s="25">
-        <f t="shared" ref="I14:M14" si="6">I12-I13</f>
+        <f t="shared" ref="I14:O14" si="7">I12-I13</f>
         <v>-0.16</v>
       </c>
-      <c r="J14" s="58">
-        <f t="shared" si="6"/>
+      <c r="J14" s="55">
+        <f t="shared" si="7"/>
         <v>-0.17100000000000001</v>
       </c>
       <c r="K14" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.16199999999999998</v>
       </c>
-      <c r="L14" s="58">
-        <f t="shared" si="6"/>
+      <c r="L14" s="55">
+        <f t="shared" si="7"/>
         <v>-0.18099999999999999</v>
       </c>
       <c r="M14" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.11799999999999999</v>
       </c>
-      <c r="P14" s="25">
-        <f t="shared" ref="P14:U14" si="7">P12-P13</f>
+      <c r="N14" s="55">
+        <f t="shared" si="7"/>
+        <v>-0.71399999999999997</v>
+      </c>
+      <c r="O14" s="25">
+        <f t="shared" si="7"/>
+        <v>-0.71399999999999997</v>
+      </c>
+      <c r="R14" s="25">
+        <f t="shared" ref="R14:X14" si="8">R12-R13</f>
         <v>-0.32100000000000001</v>
       </c>
-      <c r="Q14" s="25">
-        <f t="shared" si="7"/>
+      <c r="S14" s="25">
+        <f t="shared" si="8"/>
         <v>-0.21099999999999999</v>
       </c>
-      <c r="R14" s="25">
-        <f t="shared" si="7"/>
+      <c r="T14" s="25">
+        <f t="shared" si="8"/>
         <v>-0.16999999999999998</v>
       </c>
-      <c r="S14" s="25">
-        <f t="shared" si="7"/>
+      <c r="U14" s="25">
+        <f t="shared" si="8"/>
         <v>-0.61199999999999999</v>
       </c>
-      <c r="T14" s="25">
-        <f t="shared" si="7"/>
+      <c r="V14" s="25">
+        <f t="shared" si="8"/>
         <v>-0.33100000000000002</v>
       </c>
-      <c r="U14" s="25">
-        <f t="shared" si="7"/>
+      <c r="W14" s="25">
+        <f t="shared" si="8"/>
         <v>-0.34299999999999997</v>
       </c>
-    </row>
-    <row r="15" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="X14" s="25">
+        <f t="shared" si="8"/>
+        <v>-0.83199999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>56</v>
       </c>
       <c r="I15" s="25">
         <v>1.4E-2</v>
       </c>
-      <c r="J15" s="58">
+      <c r="J15" s="55">
         <f t="shared" si="2"/>
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="K15" s="25">
         <v>-0.02</v>
       </c>
-      <c r="L15" s="58">
+      <c r="L15" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M15" s="68">
-        <v>0</v>
-      </c>
-      <c r="P15" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="25">
+      <c r="M15" s="62">
+        <v>0</v>
+      </c>
+      <c r="N15" s="55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="25">
+        <v>2E-3</v>
+      </c>
+      <c r="R15" s="25">
+        <v>0</v>
+      </c>
+      <c r="S15" s="25">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="R15" s="25">
+      <c r="T15" s="25">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="S15" s="25">
+      <c r="U15" s="25">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="T15" s="25">
+      <c r="V15" s="25">
         <v>0.109</v>
       </c>
-      <c r="U15" s="31">
+      <c r="W15" s="31">
         <v>-0.02</v>
       </c>
-    </row>
-    <row r="16" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="X15" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>57</v>
       </c>
       <c r="I16" s="25">
-        <f t="shared" ref="I16:M16" si="8">I11+I14+I15</f>
+        <f t="shared" ref="I16:O16" si="9">I11+I14+I15</f>
         <v>1.7000000000001916E-2</v>
       </c>
-      <c r="J16" s="58">
-        <f t="shared" si="8"/>
+      <c r="J16" s="55">
+        <f t="shared" si="9"/>
         <v>0.32799999999999691</v>
       </c>
       <c r="K16" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.7450000000000021</v>
       </c>
-      <c r="L16" s="58">
-        <f t="shared" si="8"/>
+      <c r="L16" s="55">
+        <f t="shared" si="9"/>
         <v>1.3280000000000021</v>
       </c>
       <c r="M16" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-2.8859999999999997</v>
       </c>
-      <c r="P16" s="25">
-        <f t="shared" ref="P16:U16" si="9">P11+P14+P15</f>
+      <c r="N16" s="55">
+        <f t="shared" si="9"/>
+        <v>-2.9900000000000069</v>
+      </c>
+      <c r="O16" s="25">
+        <f t="shared" si="9"/>
+        <v>-5.073999999999999</v>
+      </c>
+      <c r="R16" s="25">
+        <f t="shared" ref="R16:X16" si="10">R11+R14+R15</f>
         <v>-9.5089999999999986</v>
       </c>
-      <c r="Q16" s="25">
-        <f t="shared" si="9"/>
+      <c r="S16" s="25">
+        <f t="shared" si="10"/>
         <v>-10.065999999999995</v>
       </c>
-      <c r="R16" s="25">
-        <f t="shared" si="9"/>
+      <c r="T16" s="25">
+        <f t="shared" si="10"/>
         <v>-5.3119999999999976</v>
       </c>
-      <c r="S16" s="25">
-        <f t="shared" si="9"/>
+      <c r="U16" s="25">
+        <f t="shared" si="10"/>
         <v>-3.3950000000000014</v>
       </c>
-      <c r="T16" s="25">
-        <f t="shared" si="9"/>
+      <c r="V16" s="25">
+        <f t="shared" si="10"/>
         <v>0.34499999999999748</v>
       </c>
-      <c r="U16" s="25">
-        <f t="shared" si="9"/>
+      <c r="W16" s="25">
+        <f t="shared" si="10"/>
         <v>0.58299999999999774</v>
       </c>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X16" s="25">
+        <f t="shared" si="10"/>
+        <v>-5.8760000000000057</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I17" s="25">
         <v>-3.7999999999999999E-2</v>
       </c>
-      <c r="J17" s="58">
-        <f t="shared" ref="J17" si="10">J15-J16</f>
+      <c r="J17" s="55">
+        <f t="shared" ref="J17" si="11">J15-J16</f>
         <v>-0.2329999999999969</v>
       </c>
       <c r="K17" s="25">
         <v>0</v>
       </c>
-      <c r="L17" s="58">
+      <c r="L17" s="55">
         <f t="shared" si="3"/>
         <v>-0.89600000000000002</v>
       </c>
-      <c r="M17" s="68">
+      <c r="M17" s="62">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="P17" s="25">
+      <c r="N17" s="55">
+        <f t="shared" si="4"/>
+        <v>-4.0999999999999995E-2</v>
+      </c>
+      <c r="O17" s="25">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="R17" s="25">
         <v>0.157</v>
       </c>
-      <c r="Q17" s="25">
+      <c r="S17" s="25">
         <v>-0.21199999999999999</v>
       </c>
-      <c r="R17" s="25">
-        <v>0</v>
-      </c>
-      <c r="S17" s="25">
-        <v>0</v>
-      </c>
       <c r="T17" s="25">
+        <v>0</v>
+      </c>
+      <c r="U17" s="25">
+        <v>0</v>
+      </c>
+      <c r="V17" s="25">
         <v>-1.018</v>
       </c>
-      <c r="U17" s="25">
+      <c r="W17" s="25">
         <v>-0.89600000000000002</v>
       </c>
-    </row>
-    <row r="18" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X17" s="62">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>72</v>
       </c>
@@ -2788,140 +2979,180 @@
       <c r="F18" s="29"/>
       <c r="H18" s="29"/>
       <c r="I18" s="24">
-        <f t="shared" ref="I18:M18" si="11">I16-I17</f>
+        <f t="shared" ref="I18:O18" si="12">I16-I17</f>
         <v>5.5000000000001915E-2</v>
       </c>
-      <c r="J18" s="57">
-        <f t="shared" si="11"/>
+      <c r="J18" s="54">
+        <f t="shared" si="12"/>
         <v>0.56099999999999384</v>
       </c>
       <c r="K18" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.7450000000000021</v>
       </c>
-      <c r="L18" s="57">
-        <f t="shared" si="11"/>
+      <c r="L18" s="54">
+        <f t="shared" si="12"/>
         <v>2.224000000000002</v>
       </c>
       <c r="M18" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-2.9729999999999999</v>
       </c>
-      <c r="N18" s="29"/>
-      <c r="P18" s="24">
-        <f t="shared" ref="P18:U18" si="12">P16-P17</f>
+      <c r="N18" s="54">
+        <f t="shared" si="12"/>
+        <v>-2.9490000000000069</v>
+      </c>
+      <c r="O18" s="24">
+        <f t="shared" si="12"/>
+        <v>-5.0599999999999987</v>
+      </c>
+      <c r="P18" s="29"/>
+      <c r="R18" s="24">
+        <f t="shared" ref="R18:X18" si="13">R16-R17</f>
         <v>-9.6659999999999986</v>
       </c>
-      <c r="Q18" s="24">
-        <f t="shared" si="12"/>
+      <c r="S18" s="24">
+        <f t="shared" si="13"/>
         <v>-9.8539999999999957</v>
       </c>
-      <c r="R18" s="24">
-        <f t="shared" si="12"/>
+      <c r="T18" s="24">
+        <f t="shared" si="13"/>
         <v>-5.3119999999999976</v>
       </c>
-      <c r="S18" s="24">
-        <f t="shared" si="12"/>
+      <c r="U18" s="24">
+        <f t="shared" si="13"/>
         <v>-3.3950000000000014</v>
       </c>
-      <c r="T18" s="24">
-        <f t="shared" si="12"/>
+      <c r="V18" s="24">
+        <f t="shared" si="13"/>
         <v>1.3629999999999975</v>
       </c>
-      <c r="U18" s="24">
-        <f t="shared" si="12"/>
+      <c r="W18" s="24">
+        <f t="shared" si="13"/>
         <v>1.4789999999999979</v>
       </c>
-      <c r="V18" s="47"/>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
+      <c r="X18" s="24">
+        <f t="shared" si="13"/>
+        <v>-5.9220000000000059</v>
+      </c>
+      <c r="Y18" s="46"/>
+    </row>
+    <row r="19" spans="2:25" s="89" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="I19" s="62"/>
-      <c r="J19" s="61">
+      <c r="D19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="90">
         <f>J18/J20</f>
         <v>3.3607102420789309E-3</v>
       </c>
-      <c r="K19" s="62">
-        <f t="shared" ref="K19:M19" si="13">K18/K20</f>
+      <c r="K19" s="91">
+        <f t="shared" ref="K19:O19" si="14">K18/K20</f>
         <v>-4.4630063440946385E-3</v>
       </c>
-      <c r="L19" s="61">
+      <c r="L19" s="90">
         <f>L18/L20</f>
         <v>1.3323029551485973E-2</v>
       </c>
-      <c r="M19" s="62">
-        <f t="shared" si="13"/>
+      <c r="M19" s="91">
+        <f t="shared" si="14"/>
         <v>-1.7503291213377247E-2</v>
       </c>
-      <c r="P19" s="33">
-        <f t="shared" ref="P19:U19" si="14">P18/P20</f>
+      <c r="N19" s="64">
+        <f>N18/N20</f>
+        <v>-1.7666193411570229E-2</v>
+      </c>
+      <c r="O19" s="91">
+        <f t="shared" si="14"/>
+        <v>-3.031228845796715E-2</v>
+      </c>
+      <c r="P19" s="90"/>
+      <c r="R19" s="89">
+        <f t="shared" ref="R19:X19" si="15">R18/R20</f>
         <v>-0.12654482614160031</v>
       </c>
-      <c r="Q19" s="33">
-        <f t="shared" si="14"/>
+      <c r="S19" s="89">
+        <f t="shared" si="15"/>
         <v>-0.10128690074829369</v>
       </c>
-      <c r="R19" s="33">
-        <f t="shared" si="14"/>
+      <c r="T19" s="89">
+        <f t="shared" si="15"/>
         <v>-4.2407453237639788E-2</v>
       </c>
-      <c r="S19" s="33">
-        <f t="shared" si="14"/>
+      <c r="U19" s="89">
+        <f t="shared" si="15"/>
         <v>-2.6691090914808653E-2</v>
       </c>
-      <c r="T19" s="33">
-        <f t="shared" si="14"/>
+      <c r="V19" s="89">
+        <f t="shared" si="15"/>
         <v>8.1651480569583327E-3</v>
       </c>
-      <c r="U19" s="33">
-        <f t="shared" si="14"/>
+      <c r="W19" s="89">
+        <f t="shared" si="15"/>
         <v>8.8600542745718106E-3</v>
       </c>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X19" s="89">
+        <f t="shared" si="15"/>
+        <v>-3.5476160523336304E-2</v>
+      </c>
+      <c r="Y19" s="93"/>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I20" s="25"/>
-      <c r="J20" s="58">
-        <f>T20</f>
+      <c r="J20" s="55">
+        <f>V20</f>
         <v>166.929</v>
       </c>
       <c r="K20" s="25">
         <v>166.92783800000001</v>
       </c>
-      <c r="L20" s="58">
-        <f>U20</f>
+      <c r="L20" s="55">
+        <f>W20</f>
         <v>166.929</v>
       </c>
-      <c r="M20" s="68">
+      <c r="M20" s="62">
         <v>169.85377</v>
       </c>
-      <c r="P20" s="25">
+      <c r="N20" s="55">
+        <f>+X20</f>
+        <v>166.929</v>
+      </c>
+      <c r="O20" s="25">
+        <f>+N20</f>
+        <v>166.929</v>
+      </c>
+      <c r="R20" s="25">
         <v>76.384</v>
       </c>
-      <c r="Q20" s="25">
+      <c r="S20" s="25">
         <v>97.287999999999997</v>
       </c>
-      <c r="R20" s="25">
+      <c r="T20" s="25">
         <v>125.261</v>
       </c>
-      <c r="S20" s="25">
+      <c r="U20" s="25">
         <v>127.196</v>
       </c>
-      <c r="T20" s="25">
+      <c r="V20" s="25">
         <v>166.929</v>
       </c>
-      <c r="U20" s="25">
+      <c r="W20" s="25">
         <v>166.929</v>
       </c>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="U21" s="25"/>
-    </row>
-    <row r="22" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X20" s="62">
+        <v>166.929</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="W21" s="25"/>
+    </row>
+    <row r="22" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>95</v>
       </c>
@@ -2929,355 +3160,450 @@
       <c r="F22" s="29"/>
       <c r="H22" s="29"/>
       <c r="J22" s="29"/>
-      <c r="K22" s="34">
+      <c r="K22" s="33">
         <f>K3/I3-1</f>
         <v>3.3446872930267713E-2</v>
       </c>
-      <c r="L22" s="60">
+      <c r="L22" s="57">
         <f>L3/J3-1</f>
         <v>0.16354748093830951</v>
       </c>
-      <c r="M22" s="34">
+      <c r="M22" s="33">
         <f>M3/K3-1</f>
         <v>2.5864042114900565E-2</v>
       </c>
-      <c r="N22" s="60"/>
-      <c r="P22" s="54" t="s">
+      <c r="N22" s="57">
+        <f>N3/L3-1</f>
+        <v>2.5114441587759329E-2</v>
+      </c>
+      <c r="O22" s="33">
+        <f>O3/M3-1</f>
+        <v>6.1758143685854527E-2</v>
+      </c>
+      <c r="P22" s="29"/>
+      <c r="R22" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="Q22" s="34">
-        <f t="shared" ref="Q22" si="15">Q3/P3-1</f>
+      <c r="S22" s="33">
+        <f t="shared" ref="S22" si="16">S3/R3-1</f>
         <v>-0.24818641923239138</v>
       </c>
-      <c r="R22" s="34">
-        <f t="shared" ref="R22" si="16">R3/Q3-1</f>
+      <c r="T22" s="33">
+        <f t="shared" ref="T22" si="17">T3/S3-1</f>
         <v>-8.1119744186698872E-2</v>
       </c>
-      <c r="S22" s="34">
-        <f t="shared" ref="S22:T22" si="17">S3/R3-1</f>
+      <c r="U22" s="33">
+        <f t="shared" ref="U22:V22" si="18">U3/T3-1</f>
         <v>0.15516346652828217</v>
       </c>
-      <c r="T22" s="34">
-        <f t="shared" si="17"/>
+      <c r="V22" s="33">
+        <f t="shared" si="18"/>
         <v>0.28293959093071197</v>
       </c>
-      <c r="U22" s="34">
-        <f>U3/T3-1</f>
+      <c r="W22" s="33">
+        <f>W3/V3-1</f>
         <v>0.10690230488784525</v>
       </c>
-      <c r="V22" s="49"/>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X22" s="33">
+        <f t="shared" ref="X22" si="19">X3/W3-1</f>
+        <v>2.5419155548112249E-2</v>
+      </c>
+      <c r="Y22" s="46"/>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J23" s="59">
+      <c r="J23" s="56">
         <f>J3/I3-1</f>
         <v>0.29676412148736842</v>
       </c>
-      <c r="K23" s="41">
+      <c r="K23" s="40">
         <f>K3/J3-1</f>
         <v>-0.2030571668308343</v>
       </c>
-      <c r="L23" s="59">
+      <c r="L23" s="56">
         <f>L3/K3-1</f>
         <v>0.46001373311970695</v>
       </c>
-      <c r="M23" s="41">
+      <c r="M23" s="40">
         <f>M3/L3-1</f>
         <v>-0.29736000501661752</v>
       </c>
-      <c r="P23" s="35" t="s">
+      <c r="N23" s="56">
+        <f>N3/M3-1</f>
+        <v>0.45894689870593464</v>
+      </c>
+      <c r="O23" s="40">
+        <f>O3/N3-1</f>
+        <v>-0.27224346230310426</v>
+      </c>
+      <c r="R23" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="Q23" s="35" t="s">
+      <c r="S23" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="R23" s="35" t="s">
+      <c r="T23" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="S23" s="35" t="s">
+      <c r="U23" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="T23" s="35" t="s">
+      <c r="V23" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="U23" s="35" t="s">
+      <c r="W23" s="34" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="U24" s="25"/>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X23" s="34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="O24" s="58"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I25" s="41">
-        <f t="shared" ref="I25:J25" si="18">I5/I3</f>
+      <c r="I25" s="40">
+        <f t="shared" ref="I25:J25" si="20">I5/I3</f>
         <v>0.46655312706973229</v>
       </c>
-      <c r="J25" s="59">
-        <f t="shared" si="18"/>
+      <c r="J25" s="56">
+        <f t="shared" si="20"/>
         <v>0.43384042902484393</v>
       </c>
-      <c r="K25" s="41">
-        <f t="shared" ref="K25:L25" si="19">K5/K3</f>
+      <c r="K25" s="40">
+        <f t="shared" ref="K25:L25" si="21">K5/K3</f>
         <v>0.46349279011215377</v>
       </c>
-      <c r="L25" s="59">
-        <f t="shared" si="19"/>
+      <c r="L25" s="56">
+        <f t="shared" si="21"/>
         <v>0.48883802596099585</v>
       </c>
-      <c r="M25" s="41">
-        <f t="shared" ref="M25" si="20">M5/M3</f>
+      <c r="M25" s="40">
+        <f t="shared" ref="M25:N25" si="22">M5/M3</f>
         <v>0.47867023650156182</v>
       </c>
-      <c r="P25" s="41">
-        <f t="shared" ref="P25:Q25" si="21">P5/P3</f>
+      <c r="N25" s="56">
+        <f t="shared" si="22"/>
+        <v>0.49585563541825955</v>
+      </c>
+      <c r="O25" s="40">
+        <f t="shared" ref="O25" si="23">O5/O3</f>
+        <v>0.43817769185508954</v>
+      </c>
+      <c r="R25" s="40">
+        <f t="shared" ref="R25:S25" si="24">R5/R3</f>
         <v>0.38274989455925773</v>
       </c>
-      <c r="Q25" s="41">
-        <f t="shared" si="21"/>
+      <c r="S25" s="40">
+        <f t="shared" si="24"/>
         <v>0.38571148074387823</v>
       </c>
-      <c r="R25" s="41">
-        <f t="shared" ref="R25:S25" si="22">R5/R3</f>
+      <c r="T25" s="40">
+        <f t="shared" ref="T25:U25" si="25">T5/T3</f>
         <v>0.40938368082053789</v>
       </c>
-      <c r="S25" s="41">
-        <f t="shared" si="22"/>
+      <c r="U25" s="40">
+        <f t="shared" si="25"/>
         <v>0.44136145024047352</v>
       </c>
-      <c r="T25" s="41">
-        <f>T5/T3</f>
+      <c r="V25" s="40">
+        <f>V5/V3</f>
         <v>0.44808337967826317</v>
       </c>
-      <c r="U25" s="41">
-        <f>U5/U3</f>
+      <c r="W25" s="40">
+        <f>W5/W3</f>
         <v>0.47853514207558756</v>
       </c>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X25" s="40">
+        <f t="shared" ref="X25" si="26">X5/X3</f>
+        <v>0.48886670901007162</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="I26" s="41">
-        <f t="shared" ref="I26:J26" si="23">I11/I3</f>
+      <c r="I26" s="40">
+        <f t="shared" ref="I26:J26" si="27">I11/I3</f>
         <v>7.7112309584635207E-3</v>
       </c>
-      <c r="J26" s="59">
-        <f t="shared" si="23"/>
+      <c r="J26" s="56">
+        <f t="shared" si="27"/>
         <v>1.473860858779311E-2</v>
       </c>
-      <c r="K26" s="41">
-        <f t="shared" ref="K26:L26" si="24">K11/K3</f>
+      <c r="K26" s="40">
+        <f t="shared" ref="K26:L26" si="28">K11/K3</f>
         <v>-2.5772487983520356E-2</v>
       </c>
-      <c r="L26" s="59">
-        <f t="shared" si="24"/>
+      <c r="L26" s="56">
+        <f t="shared" si="28"/>
         <v>4.7312974227127429E-2</v>
       </c>
-      <c r="M26" s="41">
-        <f t="shared" ref="M26" si="25">M11/M3</f>
+      <c r="M26" s="40">
+        <f t="shared" ref="M26:N26" si="29">M11/M3</f>
         <v>-0.12351628737170905</v>
       </c>
-      <c r="P26" s="41">
-        <f t="shared" ref="P26:Q26" si="26">P11/P3</f>
+      <c r="N26" s="56">
+        <f t="shared" si="29"/>
+        <v>-6.9613090686649559E-2</v>
+      </c>
+      <c r="O26" s="40">
+        <f t="shared" ref="O26" si="30">O11/O3</f>
+        <v>-0.18332352693956455</v>
+      </c>
+      <c r="R26" s="40">
+        <f t="shared" ref="R26:S26" si="31">R11/R3</f>
         <v>-0.19375790805567267</v>
       </c>
-      <c r="Q26" s="41">
-        <f t="shared" si="26"/>
+      <c r="S26" s="40">
+        <f t="shared" si="31"/>
         <v>-0.276850579226389</v>
       </c>
-      <c r="R26" s="41">
-        <f t="shared" ref="R26:S26" si="27">R11/R3</f>
+      <c r="T26" s="40">
+        <f t="shared" ref="T26:U26" si="32">T11/T3</f>
         <v>-0.15943710125461699</v>
       </c>
-      <c r="S26" s="41">
-        <f t="shared" si="27"/>
+      <c r="U26" s="40">
+        <f t="shared" si="32"/>
         <v>-7.4441097193594444E-2</v>
       </c>
-      <c r="T26" s="41">
-        <f>T11/T3</f>
+      <c r="V26" s="40">
+        <f>V11/V3</f>
         <v>1.1678922325897496E-2</v>
       </c>
-      <c r="U26" s="41">
-        <f>U11/U3</f>
+      <c r="W26" s="40">
+        <f>W11/W3</f>
         <v>1.7603602597740891E-2</v>
       </c>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X26" s="40">
+        <f t="shared" ref="X26" si="33">X11/X3</f>
+        <v>-9.1534343525995931E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I27" s="41">
-        <f t="shared" ref="I27:J27" si="28">I18/I3</f>
+      <c r="I27" s="40">
+        <f t="shared" ref="I27:J27" si="34">I18/I3</f>
         <v>2.6019490964141316E-3</v>
       </c>
-      <c r="J27" s="59">
-        <f t="shared" si="28"/>
+      <c r="J27" s="56">
+        <f t="shared" si="34"/>
         <v>2.0466236182554227E-2</v>
       </c>
-      <c r="K27" s="41">
-        <f t="shared" ref="K27:L27" si="29">K18/K3</f>
+      <c r="K27" s="40">
+        <f t="shared" ref="K27:L27" si="35">K18/K3</f>
         <v>-3.4103913939116604E-2</v>
       </c>
-      <c r="L27" s="59">
-        <f t="shared" si="29"/>
+      <c r="L27" s="56">
+        <f t="shared" si="35"/>
         <v>6.9730983884116193E-2</v>
       </c>
-      <c r="M27" s="41">
-        <f t="shared" ref="M27" si="30">M18/M3</f>
+      <c r="M27" s="40">
+        <f t="shared" ref="M27:N27" si="36">M18/M3</f>
         <v>-0.1326639892904953</v>
       </c>
-      <c r="P27" s="41">
-        <f t="shared" ref="P27:Q27" si="31">P18/P3</f>
+      <c r="N27" s="56">
+        <f t="shared" si="36"/>
+        <v>-9.0197277871234369E-2</v>
+      </c>
+      <c r="O27" s="40">
+        <f t="shared" ref="O27" si="37">O18/O3</f>
+        <v>-0.21265865344204415</v>
+      </c>
+      <c r="R27" s="40">
+        <f t="shared" ref="R27:S27" si="38">R18/R3</f>
         <v>-0.20383804301982283</v>
       </c>
-      <c r="Q27" s="41">
-        <f t="shared" si="31"/>
+      <c r="S27" s="40">
+        <f t="shared" si="38"/>
         <v>-0.27640178396117904</v>
       </c>
-      <c r="R27" s="41">
-        <f t="shared" ref="R27:S27" si="32">R18/R3</f>
+      <c r="T27" s="40">
+        <f t="shared" ref="T27:U27" si="39">T18/T3</f>
         <v>-0.16215391190207265</v>
       </c>
-      <c r="S27" s="41">
-        <f t="shared" si="32"/>
+      <c r="U27" s="40">
+        <f t="shared" si="39"/>
         <v>-8.971513133555313E-2</v>
       </c>
-      <c r="T27" s="41">
-        <f>T18/T3</f>
+      <c r="V27" s="40">
+        <f>V18/V3</f>
         <v>2.8074728624688409E-2</v>
       </c>
-      <c r="U27" s="41">
-        <f>U18/U3</f>
+      <c r="W27" s="40">
+        <f>W18/W3</f>
         <v>2.7521911460950111E-2</v>
       </c>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X27" s="40">
+        <f t="shared" ref="X27" si="40">X18/X3</f>
+        <v>-0.10746756192722995</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I28" s="41">
-        <f t="shared" ref="I28:J28" si="33">I17/I16</f>
+      <c r="I28" s="40">
+        <f t="shared" ref="I28:J28" si="41">I17/I16</f>
         <v>-2.2352941176468066</v>
       </c>
-      <c r="J28" s="59">
-        <f t="shared" si="33"/>
+      <c r="J28" s="56">
+        <f t="shared" si="41"/>
         <v>-0.71036585365853389</v>
       </c>
-      <c r="K28" s="41">
-        <f t="shared" ref="K28:L28" si="34">K17/K16</f>
-        <v>0</v>
-      </c>
-      <c r="L28" s="59">
-        <f t="shared" si="34"/>
+      <c r="K28" s="40">
+        <f t="shared" ref="K28:L28" si="42">K17/K16</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="56">
+        <f t="shared" si="42"/>
         <v>-0.67469879518072184</v>
       </c>
-      <c r="M28" s="41">
-        <f t="shared" ref="M28" si="35">M17/M16</f>
+      <c r="M28" s="40">
+        <f t="shared" ref="M28:N28" si="43">M17/M16</f>
         <v>-3.0145530145530147E-2</v>
       </c>
-      <c r="P28" s="41">
-        <f t="shared" ref="P28:Q28" si="36">P17/P16</f>
+      <c r="N28" s="56">
+        <f t="shared" si="43"/>
+        <v>1.3712374581939767E-2</v>
+      </c>
+      <c r="O28" s="40">
+        <f t="shared" ref="O28" si="44">O17/O16</f>
+        <v>2.7591643673630277E-3</v>
+      </c>
+      <c r="R28" s="40">
+        <f t="shared" ref="R28:S28" si="45">R17/R16</f>
         <v>-1.6510674098222738E-2</v>
       </c>
-      <c r="Q28" s="41">
-        <f t="shared" si="36"/>
+      <c r="S28" s="40">
+        <f t="shared" si="45"/>
         <v>2.1060997417047495E-2</v>
       </c>
-      <c r="R28" s="41">
-        <f t="shared" ref="R28:T28" si="37">R17/R16</f>
-        <v>0</v>
-      </c>
-      <c r="S28" s="41">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="T28" s="41">
-        <f t="shared" si="37"/>
+      <c r="T28" s="40">
+        <f t="shared" ref="T28:V28" si="46">T17/T16</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="40">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="V28" s="40">
+        <f t="shared" si="46"/>
         <v>-2.9507246376811809</v>
       </c>
-      <c r="U28" s="41">
-        <f>U17/U16</f>
+      <c r="W28" s="40">
+        <f>W17/W16</f>
         <v>-1.5368782161235051</v>
       </c>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X28" s="40">
+        <f t="shared" ref="X28" si="47">X17/X16</f>
+        <v>-7.8284547311095899E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B31" s="32" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L32" s="58">
-        <f>U32</f>
+      <c r="L32" s="55">
+        <f>W32</f>
         <v>7.8309999999999995</v>
       </c>
-      <c r="M32" s="68">
+      <c r="M32" s="62">
         <f>4.647+3.097</f>
         <v>7.7439999999999998</v>
       </c>
-      <c r="P32" s="25">
+      <c r="N32" s="55">
+        <f>+X32</f>
+        <v>4.718</v>
+      </c>
+      <c r="O32" s="25">
+        <f>1.713+2.724</f>
+        <v>4.4370000000000003</v>
+      </c>
+      <c r="R32" s="25">
         <f>4.554+4.214</f>
         <v>8.7680000000000007</v>
       </c>
-      <c r="Q32" s="25">
+      <c r="S32" s="25">
         <f>4.564+3.368</f>
         <v>7.9320000000000004</v>
       </c>
-      <c r="R32" s="25">
+      <c r="T32" s="25">
         <f>4.563+3.19</f>
         <v>7.7530000000000001</v>
       </c>
-      <c r="S32" s="25">
+      <c r="U32" s="25">
         <f>4.564+2.824</f>
         <v>7.3879999999999999</v>
       </c>
-      <c r="T32" s="25">
+      <c r="V32" s="25">
         <f>4.561+3.017</f>
         <v>7.5779999999999994</v>
       </c>
-      <c r="U32" s="25">
+      <c r="W32" s="25">
         <f>4.644+3.187</f>
         <v>7.8309999999999995</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X32" s="62">
+        <f>1.732+2.986</f>
+        <v>4.718</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L33" s="58">
-        <f>U33</f>
+      <c r="L33" s="55">
+        <f>W33</f>
         <v>10.057</v>
       </c>
-      <c r="M33" s="68">
+      <c r="M33" s="62">
         <v>10.477</v>
       </c>
-      <c r="P33" s="25">
+      <c r="N33" s="55">
+        <f>+X33</f>
+        <v>12.041</v>
+      </c>
+      <c r="O33" s="25">
+        <v>13.786</v>
+      </c>
+      <c r="R33" s="25">
         <v>5.6829999999999998</v>
       </c>
-      <c r="Q33" s="25">
+      <c r="S33" s="25">
         <v>4.4889999999999999</v>
       </c>
-      <c r="R33" s="25">
+      <c r="T33" s="25">
         <v>3.7829999999999999</v>
       </c>
-      <c r="S33" s="25">
+      <c r="U33" s="25">
         <v>4.165</v>
       </c>
-      <c r="T33" s="25">
+      <c r="V33" s="25">
         <v>6.68</v>
       </c>
-      <c r="U33" s="25">
+      <c r="W33" s="25">
         <v>10.057</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X33" s="62">
+        <v>12.041</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>77</v>
       </c>
@@ -3285,132 +3611,174 @@
       <c r="F34" s="29"/>
       <c r="H34" s="29"/>
       <c r="J34" s="29"/>
-      <c r="L34" s="57">
-        <f>U34</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="67">
-        <v>0</v>
-      </c>
-      <c r="N34" s="29"/>
-      <c r="P34" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="24">
+      <c r="L34" s="54">
+        <f>W34</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="61">
+        <v>0</v>
+      </c>
+      <c r="N34" s="54">
+        <f>+X34</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="24">
+        <v>1.4370000000000001</v>
+      </c>
+      <c r="P34" s="29"/>
+      <c r="R34" s="24">
+        <v>0</v>
+      </c>
+      <c r="S34" s="24">
         <v>1.615</v>
       </c>
-      <c r="R34" s="24">
+      <c r="T34" s="24">
         <v>1.696</v>
       </c>
-      <c r="S34" s="24">
+      <c r="U34" s="24">
         <v>1.73</v>
       </c>
-      <c r="T34" s="24">
+      <c r="V34" s="24">
         <v>1.839</v>
       </c>
-      <c r="U34" s="24">
-        <v>0</v>
-      </c>
-      <c r="V34" s="47"/>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="24">
+        <v>0</v>
+      </c>
+      <c r="X34" s="61">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="46"/>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L35" s="58">
-        <f t="shared" ref="L35:L39" si="38">U35</f>
+      <c r="L35" s="55">
+        <f t="shared" ref="L35:L39" si="48">W35</f>
         <v>2.5840000000000001</v>
       </c>
-      <c r="M35" s="68">
+      <c r="M35" s="62">
         <v>2.484</v>
       </c>
-      <c r="P35" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="25">
-        <v>0</v>
+      <c r="N35" s="55">
+        <f>+X35</f>
+        <v>2.0870000000000002</v>
+      </c>
+      <c r="O35" s="25">
+        <v>2.1440000000000001</v>
       </c>
       <c r="R35" s="25">
         <v>0</v>
       </c>
       <c r="S35" s="25">
+        <v>0</v>
+      </c>
+      <c r="T35" s="25">
+        <v>0</v>
+      </c>
+      <c r="U35" s="25">
         <v>2.573</v>
       </c>
-      <c r="T35" s="25">
+      <c r="V35" s="25">
         <v>2.69</v>
       </c>
-      <c r="U35" s="25">
+      <c r="W35" s="25">
         <v>2.5840000000000001</v>
       </c>
-    </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X35" s="62">
+        <v>2.0870000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L36" s="58">
-        <f t="shared" si="38"/>
+      <c r="L36" s="55">
+        <f t="shared" si="48"/>
         <v>3.4249999999999998</v>
       </c>
-      <c r="M36" s="68">
+      <c r="M36" s="62">
         <v>3.423</v>
       </c>
-      <c r="P36" s="25">
+      <c r="N36" s="55">
+        <f>+X36</f>
+        <v>3.5710000000000002</v>
+      </c>
+      <c r="O36" s="25">
+        <v>3.5710000000000002</v>
+      </c>
+      <c r="R36" s="25">
         <v>1.974</v>
-      </c>
-      <c r="Q36" s="25">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="R36" s="25">
-        <v>2.0299999999999998</v>
       </c>
       <c r="S36" s="25">
         <v>2.0299999999999998</v>
       </c>
       <c r="T36" s="25">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="U36" s="25">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="V36" s="25">
         <v>2.956</v>
       </c>
-      <c r="U36" s="25">
+      <c r="W36" s="25">
         <v>3.4249999999999998</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X36" s="62">
+        <v>3.5710000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="L37" s="58">
-        <f t="shared" ref="L37" si="39">SUM(L32:L36)</f>
+      <c r="L37" s="55">
+        <f t="shared" ref="L37:N37" si="49">SUM(L32:L36)</f>
         <v>23.896999999999998</v>
       </c>
       <c r="M37" s="25">
-        <f t="shared" ref="M37" si="40">SUM(M32:M36)</f>
+        <f t="shared" ref="M37:O37" si="50">SUM(M32:M36)</f>
         <v>24.128</v>
       </c>
-      <c r="P37" s="25">
-        <f t="shared" ref="P37:U37" si="41">SUM(P32:P36)</f>
+      <c r="N37" s="55">
+        <f t="shared" si="49"/>
+        <v>22.417000000000002</v>
+      </c>
+      <c r="O37" s="25">
+        <f t="shared" si="50"/>
+        <v>25.375000000000004</v>
+      </c>
+      <c r="R37" s="25">
+        <f t="shared" ref="R37:X37" si="51">SUM(R32:R36)</f>
         <v>16.425000000000001</v>
       </c>
-      <c r="Q37" s="25">
-        <f t="shared" si="41"/>
+      <c r="S37" s="25">
+        <f t="shared" si="51"/>
         <v>16.065999999999999</v>
       </c>
-      <c r="R37" s="25">
-        <f t="shared" si="41"/>
+      <c r="T37" s="25">
+        <f t="shared" si="51"/>
         <v>15.261999999999999</v>
       </c>
-      <c r="S37" s="25">
-        <f t="shared" si="41"/>
+      <c r="U37" s="25">
+        <f t="shared" si="51"/>
         <v>17.886000000000003</v>
       </c>
-      <c r="T37" s="25">
-        <f t="shared" si="41"/>
+      <c r="V37" s="25">
+        <f t="shared" si="51"/>
         <v>21.742999999999999</v>
       </c>
-      <c r="U37" s="25">
-        <f t="shared" si="41"/>
+      <c r="W37" s="25">
+        <f t="shared" si="51"/>
         <v>23.896999999999998</v>
       </c>
-    </row>
-    <row r="38" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X37" s="25">
+        <f t="shared" si="51"/>
+        <v>22.417000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>81</v>
       </c>
@@ -3418,65 +3786,85 @@
       <c r="F38" s="29"/>
       <c r="H38" s="29"/>
       <c r="J38" s="29"/>
-      <c r="L38" s="57">
-        <f>U38</f>
+      <c r="L38" s="54">
+        <f>W38</f>
         <v>16.462</v>
       </c>
-      <c r="M38" s="67">
+      <c r="M38" s="61">
         <v>22.547999999999998</v>
       </c>
-      <c r="N38" s="29"/>
-      <c r="P38" s="24">
+      <c r="N38" s="54">
+        <f>+X38</f>
+        <v>21.282</v>
+      </c>
+      <c r="O38" s="24">
+        <v>24.111999999999998</v>
+      </c>
+      <c r="P38" s="29"/>
+      <c r="R38" s="24">
         <v>9.68</v>
       </c>
-      <c r="Q38" s="24">
+      <c r="S38" s="24">
         <v>10.029999999999999</v>
       </c>
-      <c r="R38" s="24">
+      <c r="T38" s="24">
         <v>10.86</v>
       </c>
-      <c r="S38" s="24">
+      <c r="U38" s="24">
         <v>14.234999999999999</v>
       </c>
-      <c r="T38" s="24">
+      <c r="V38" s="24">
         <v>15.151999999999999</v>
       </c>
-      <c r="U38" s="24">
+      <c r="W38" s="24">
         <v>16.462</v>
       </c>
-      <c r="V38" s="47"/>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X38" s="61">
+        <v>21.282</v>
+      </c>
+      <c r="Y38" s="46"/>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L39" s="58">
-        <f t="shared" si="38"/>
+      <c r="L39" s="55">
+        <f t="shared" si="48"/>
         <v>8.7859999999999996</v>
       </c>
-      <c r="M39" s="68">
+      <c r="M39" s="62">
         <v>9.1539999999999999</v>
       </c>
-      <c r="P39" s="25">
+      <c r="N39" s="55">
+        <f>+X39</f>
+        <v>9.1809999999999992</v>
+      </c>
+      <c r="O39" s="25">
+        <v>9.1150000000000002</v>
+      </c>
+      <c r="R39" s="25">
         <v>9.2460000000000004</v>
       </c>
-      <c r="Q39" s="25">
+      <c r="S39" s="25">
         <v>5.9489999999999998</v>
       </c>
-      <c r="R39" s="25">
+      <c r="T39" s="25">
         <v>7.18</v>
       </c>
-      <c r="S39" s="25">
+      <c r="U39" s="25">
         <v>6.5250000000000004</v>
       </c>
-      <c r="T39" s="25">
+      <c r="V39" s="25">
         <v>7.2469999999999999</v>
       </c>
-      <c r="U39" s="25">
+      <c r="W39" s="25">
         <v>8.7859999999999996</v>
       </c>
-    </row>
-    <row r="40" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X39" s="62">
+        <v>9.1809999999999992</v>
+      </c>
+    </row>
+    <row r="40" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>93</v>
       </c>
@@ -3484,35 +3872,45 @@
       <c r="F40" s="29"/>
       <c r="H40" s="29"/>
       <c r="J40" s="29"/>
-      <c r="L40" s="57">
-        <f>U40</f>
+      <c r="L40" s="54">
+        <f>W40</f>
         <v>0.504</v>
       </c>
-      <c r="M40" s="67">
+      <c r="M40" s="61">
         <v>1.8080000000000001</v>
       </c>
-      <c r="N40" s="29"/>
-      <c r="P40" s="24">
+      <c r="N40" s="54">
+        <f>+X40</f>
+        <v>2E-3</v>
+      </c>
+      <c r="O40" s="24">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="P40" s="29"/>
+      <c r="R40" s="24">
         <v>0.12</v>
       </c>
-      <c r="Q40" s="24">
-        <v>0</v>
-      </c>
-      <c r="R40" s="24">
+      <c r="S40" s="24">
+        <v>0</v>
+      </c>
+      <c r="T40" s="24">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="S40" s="24">
+      <c r="U40" s="24">
         <v>0.11600000000000001</v>
       </c>
-      <c r="T40" s="24">
+      <c r="V40" s="24">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="U40" s="24">
+      <c r="W40" s="24">
         <v>0.504</v>
       </c>
-      <c r="V40" s="47"/>
-    </row>
-    <row r="41" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X40" s="61">
+        <v>2E-3</v>
+      </c>
+      <c r="Y40" s="46"/>
+    </row>
+    <row r="41" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>6</v>
       </c>
@@ -3520,83 +3918,105 @@
       <c r="F41" s="29"/>
       <c r="H41" s="29"/>
       <c r="J41" s="29"/>
-      <c r="L41" s="57">
-        <f>U41</f>
+      <c r="L41" s="54">
+        <f>W41</f>
         <v>4.1390000000000002</v>
       </c>
-      <c r="M41" s="67">
+      <c r="M41" s="61">
         <v>1.8740000000000001</v>
       </c>
-      <c r="N41" s="29"/>
-      <c r="P41" s="24">
+      <c r="N41" s="54">
+        <f>+X41</f>
+        <v>1.337</v>
+      </c>
+      <c r="O41" s="24">
+        <v>1.014</v>
+      </c>
+      <c r="P41" s="29"/>
+      <c r="R41" s="24">
         <f>1.58+0.05</f>
         <v>1.6300000000000001</v>
       </c>
-      <c r="Q41" s="24">
+      <c r="S41" s="24">
         <v>3.8780000000000001</v>
       </c>
-      <c r="R41" s="24">
+      <c r="T41" s="24">
         <v>0.70399999999999996</v>
       </c>
-      <c r="S41" s="24">
+      <c r="U41" s="24">
         <v>5.9210000000000003</v>
       </c>
-      <c r="T41" s="24">
+      <c r="V41" s="24">
         <v>4.6849999999999996</v>
       </c>
-      <c r="U41" s="24">
+      <c r="W41" s="24">
         <v>4.1390000000000002</v>
       </c>
-      <c r="V41" s="47"/>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X41" s="61">
+        <v>1.337</v>
+      </c>
+      <c r="Y41" s="46"/>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L42" s="58">
-        <f t="shared" ref="L42" si="42">L37+SUM(L38:L41)</f>
+      <c r="L42" s="55">
+        <f t="shared" ref="L42:N42" si="52">L37+SUM(L38:L41)</f>
         <v>53.787999999999997</v>
       </c>
       <c r="M42" s="25">
-        <f t="shared" ref="M42" si="43">M37+SUM(M38:M41)</f>
+        <f t="shared" ref="M42:O42" si="53">M37+SUM(M38:M41)</f>
         <v>59.512</v>
       </c>
-      <c r="P42" s="25">
-        <f t="shared" ref="P42:U42" si="44">P37+SUM(P38:P41)</f>
+      <c r="N42" s="55">
+        <f t="shared" si="52"/>
+        <v>54.219000000000001</v>
+      </c>
+      <c r="O42" s="25">
+        <f t="shared" si="53"/>
+        <v>59.872</v>
+      </c>
+      <c r="R42" s="25">
+        <f t="shared" ref="R42:X42" si="54">R37+SUM(R38:R41)</f>
         <v>37.100999999999999</v>
       </c>
-      <c r="Q42" s="25">
-        <f t="shared" si="44"/>
+      <c r="S42" s="25">
+        <f t="shared" si="54"/>
         <v>35.923000000000002</v>
       </c>
-      <c r="R42" s="25">
-        <f t="shared" si="44"/>
+      <c r="T42" s="25">
+        <f t="shared" si="54"/>
         <v>34.030999999999999</v>
       </c>
-      <c r="S42" s="25">
-        <f t="shared" si="44"/>
+      <c r="U42" s="25">
+        <f t="shared" si="54"/>
         <v>44.683</v>
       </c>
-      <c r="T42" s="25">
-        <f t="shared" si="44"/>
+      <c r="V42" s="25">
+        <f t="shared" si="54"/>
         <v>48.858999999999995</v>
       </c>
-      <c r="U42" s="25">
-        <f t="shared" si="44"/>
+      <c r="W42" s="25">
+        <f t="shared" si="54"/>
         <v>53.787999999999997</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="L43" s="58"/>
-      <c r="M43" s="68"/>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="25"/>
+      <c r="X42" s="25">
+        <f t="shared" si="54"/>
+        <v>54.219000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="L43" s="55"/>
+      <c r="M43" s="62"/>
       <c r="R43" s="25"/>
       <c r="S43" s="25"/>
       <c r="T43" s="25"/>
       <c r="U43" s="25"/>
-    </row>
-    <row r="44" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V43" s="25"/>
+      <c r="W43" s="25"/>
+    </row>
+    <row r="44" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>84</v>
       </c>
@@ -3604,95 +4024,125 @@
       <c r="F44" s="29"/>
       <c r="H44" s="29"/>
       <c r="J44" s="29"/>
-      <c r="L44" s="57">
-        <f>U44</f>
+      <c r="L44" s="54">
+        <f>W44</f>
         <v>0.05</v>
       </c>
-      <c r="M44" s="67">
+      <c r="M44" s="61">
         <v>5.5579999999999998</v>
       </c>
-      <c r="N44" s="29"/>
-      <c r="P44" s="24">
+      <c r="N44" s="54">
+        <f>+X44</f>
+        <v>6.75</v>
+      </c>
+      <c r="O44" s="24">
+        <v>6.2190000000000003</v>
+      </c>
+      <c r="P44" s="29"/>
+      <c r="R44" s="24">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="Q44" s="24">
-        <v>0</v>
-      </c>
-      <c r="R44" s="24">
+      <c r="S44" s="24">
+        <v>0</v>
+      </c>
+      <c r="T44" s="24">
         <v>1.893</v>
       </c>
-      <c r="S44" s="24">
-        <v>0</v>
-      </c>
-      <c r="T44" s="24">
-        <v>0</v>
-      </c>
       <c r="U44" s="24">
+        <v>0</v>
+      </c>
+      <c r="V44" s="24">
+        <v>0</v>
+      </c>
+      <c r="W44" s="24">
         <v>0.05</v>
       </c>
-      <c r="V44" s="47"/>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X44" s="61">
+        <v>6.75</v>
+      </c>
+      <c r="Y44" s="46"/>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L45" s="58">
-        <f t="shared" ref="L45:L53" si="45">U45</f>
+      <c r="L45" s="55">
+        <f>W45</f>
         <v>7.3719999999999999</v>
       </c>
-      <c r="M45" s="68">
+      <c r="M45" s="62">
         <v>8.4540000000000006</v>
       </c>
-      <c r="P45" s="25">
+      <c r="N45" s="55">
+        <f>+X45</f>
+        <v>8.0670000000000002</v>
+      </c>
+      <c r="O45" s="25">
+        <v>9.5090000000000003</v>
+      </c>
+      <c r="R45" s="25">
         <v>6.6639999999999997</v>
       </c>
-      <c r="Q45" s="25">
+      <c r="S45" s="25">
         <v>4.3120000000000003</v>
       </c>
-      <c r="R45" s="25">
+      <c r="T45" s="25">
         <v>5.4720000000000004</v>
       </c>
-      <c r="S45" s="25">
+      <c r="U45" s="25">
         <v>4.8890000000000002</v>
       </c>
-      <c r="T45" s="25">
+      <c r="V45" s="25">
         <v>7.1310000000000002</v>
       </c>
-      <c r="U45" s="25">
+      <c r="W45" s="25">
         <v>7.3719999999999999</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X45" s="62">
+        <v>8.0670000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L46" s="58">
-        <f t="shared" si="45"/>
+      <c r="L46" s="55">
+        <f>W46</f>
         <v>0.433</v>
       </c>
-      <c r="M46" s="68">
+      <c r="M46" s="62">
         <v>0.45</v>
       </c>
-      <c r="P46" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="1">
-        <v>0</v>
-      </c>
-      <c r="R46" s="25">
-        <v>0</v>
-      </c>
-      <c r="S46" s="25">
+      <c r="N46" s="55">
+        <f>+X46</f>
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="O46" s="25">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="R46" s="1">
+        <v>0</v>
+      </c>
+      <c r="S46" s="1">
+        <v>0</v>
+      </c>
+      <c r="T46" s="25">
+        <v>0</v>
+      </c>
+      <c r="U46" s="25">
         <v>0.38400000000000001</v>
       </c>
-      <c r="T46" s="25">
+      <c r="V46" s="25">
         <v>0.36499999999999999</v>
       </c>
-      <c r="U46" s="25">
+      <c r="W46" s="25">
         <v>0.433</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X46" s="62">
+        <v>0.40899999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
         <v>93</v>
       </c>
@@ -3700,84 +4150,105 @@
       <c r="F47" s="29"/>
       <c r="H47" s="29"/>
       <c r="J47" s="29"/>
-      <c r="L47" s="57">
-        <f>U47</f>
-        <v>0</v>
-      </c>
-      <c r="M47" s="67">
-        <v>0</v>
-      </c>
-      <c r="N47" s="29"/>
-      <c r="P47" s="25">
+      <c r="L47" s="54">
+        <f>W47</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="61">
+        <v>0</v>
+      </c>
+      <c r="N47" s="54">
+        <f>+X47</f>
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="O47" s="24">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="P47" s="29"/>
+      <c r="R47" s="25">
         <v>0.19</v>
       </c>
-      <c r="Q47" s="25">
+      <c r="S47" s="25">
         <v>0.42299999999999999</v>
       </c>
-      <c r="R47" s="24">
+      <c r="T47" s="24">
         <v>0.156</v>
       </c>
-      <c r="S47" s="24">
-        <v>0</v>
-      </c>
-      <c r="T47" s="24">
+      <c r="U47" s="24">
+        <v>0</v>
+      </c>
+      <c r="V47" s="24">
         <v>0.51300000000000001</v>
       </c>
-      <c r="U47" s="24">
-        <v>0</v>
-      </c>
-      <c r="V47" s="47"/>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="24">
+        <v>0</v>
+      </c>
+      <c r="X47" s="61">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="Y47" s="46"/>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L48" s="58">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="M48" s="68">
-        <v>0</v>
-      </c>
-      <c r="P48" s="25">
+        <v>112</v>
+      </c>
+      <c r="L48" s="55">
+        <f>W48</f>
+        <v>0</v>
+      </c>
+      <c r="M48" s="62">
+        <v>0</v>
+      </c>
+      <c r="N48" s="55">
+        <f>+X48</f>
+        <v>0</v>
+      </c>
+      <c r="O48" s="25">
+        <v>0</v>
+      </c>
+      <c r="R48" s="25">
         <v>0.19600000000000001</v>
       </c>
-      <c r="Q48" s="25">
+      <c r="S48" s="25">
         <v>0.17399999999999999</v>
       </c>
-      <c r="R48" s="25">
-        <v>0</v>
-      </c>
-      <c r="S48" s="25">
-        <v>0</v>
-      </c>
       <c r="T48" s="25">
         <v>0</v>
       </c>
       <c r="U48" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V48" s="25">
+        <v>0</v>
+      </c>
+      <c r="W48" s="25">
+        <v>0</v>
+      </c>
+      <c r="X48" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L49" s="58">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="M49" s="68">
-        <v>0</v>
-      </c>
-      <c r="P49" s="25">
+        <v>114</v>
+      </c>
+      <c r="L49" s="55">
+        <f>W49</f>
+        <v>0</v>
+      </c>
+      <c r="M49" s="62">
+        <v>0</v>
+      </c>
+      <c r="N49" s="55">
+        <f>+X49</f>
+        <v>0</v>
+      </c>
+      <c r="O49" s="25">
+        <v>0</v>
+      </c>
+      <c r="R49" s="25">
         <v>0.21199999999999999</v>
       </c>
-      <c r="Q49" s="25">
-        <v>0</v>
-      </c>
-      <c r="R49" s="25">
-        <v>0</v>
-      </c>
       <c r="S49" s="25">
         <v>0</v>
       </c>
@@ -3787,45 +4258,66 @@
       <c r="U49" s="25">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V49" s="25">
+        <v>0</v>
+      </c>
+      <c r="W49" s="25">
+        <v>0</v>
+      </c>
+      <c r="X49" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L50" s="58">
-        <f t="shared" si="45"/>
+      <c r="L50" s="55">
+        <f>W50</f>
         <v>7.8549999999999995</v>
       </c>
       <c r="M50" s="25">
         <f>SUM(M44:M49)</f>
         <v>14.462</v>
       </c>
-      <c r="P50" s="25">
-        <f>SUM(P44:P49)</f>
+      <c r="N50" s="55">
+        <f>X50</f>
+        <v>15.783000000000001</v>
+      </c>
+      <c r="O50" s="25">
+        <f>SUM(O44:O49)</f>
+        <v>16.148</v>
+      </c>
+      <c r="R50" s="25">
+        <f>SUM(R44:R49)</f>
         <v>7.3439999999999994</v>
       </c>
-      <c r="Q50" s="25">
-        <f>SUM(Q44:Q49)</f>
+      <c r="S50" s="25">
+        <f>SUM(S44:S49)</f>
         <v>4.9090000000000007</v>
       </c>
-      <c r="R50" s="25">
-        <f t="shared" ref="R50:U50" si="46">SUM(R44:R49)</f>
+      <c r="T50" s="25">
+        <f t="shared" ref="T50:X50" si="55">SUM(T44:T49)</f>
         <v>7.5209999999999999</v>
       </c>
-      <c r="S50" s="25">
-        <f t="shared" si="46"/>
+      <c r="U50" s="25">
+        <f t="shared" si="55"/>
         <v>5.2730000000000006</v>
       </c>
-      <c r="T50" s="25">
-        <f t="shared" si="46"/>
+      <c r="V50" s="25">
+        <f t="shared" si="55"/>
         <v>8.0090000000000003</v>
       </c>
-      <c r="U50" s="25">
-        <f t="shared" si="46"/>
+      <c r="W50" s="25">
+        <f t="shared" si="55"/>
         <v>7.8549999999999995</v>
       </c>
-    </row>
-    <row r="51" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X50" s="25">
+        <f t="shared" si="55"/>
+        <v>15.783000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>84</v>
       </c>
@@ -3833,83 +4325,104 @@
       <c r="F51" s="29"/>
       <c r="H51" s="29"/>
       <c r="J51" s="29"/>
-      <c r="L51" s="57">
-        <f>U51</f>
+      <c r="L51" s="54">
+        <f>W51</f>
         <v>0.27700000000000002</v>
       </c>
-      <c r="M51" s="67">
+      <c r="M51" s="61">
         <v>1.252</v>
       </c>
-      <c r="N51" s="29"/>
-      <c r="P51" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="24">
-        <v>0</v>
-      </c>
+      <c r="N51" s="54">
+        <f>+X51</f>
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="O51" s="24">
+        <v>9.5950000000000006</v>
+      </c>
+      <c r="P51" s="29"/>
       <c r="R51" s="24">
+        <v>0</v>
+      </c>
+      <c r="S51" s="24">
+        <v>0</v>
+      </c>
+      <c r="T51" s="24">
         <v>0.56100000000000005</v>
       </c>
-      <c r="S51" s="24">
-        <v>0</v>
-      </c>
-      <c r="T51" s="24">
-        <v>0</v>
-      </c>
       <c r="U51" s="24">
+        <v>0</v>
+      </c>
+      <c r="V51" s="24">
+        <v>0</v>
+      </c>
+      <c r="W51" s="24">
         <v>0.27700000000000002</v>
       </c>
-      <c r="V51" s="47"/>
-    </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X51" s="61">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="Y51" s="46"/>
+    </row>
+    <row r="52" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L52" s="58">
-        <f t="shared" si="45"/>
+      <c r="L52" s="55">
+        <f>W52</f>
         <v>2.3130000000000002</v>
       </c>
-      <c r="M52" s="68">
+      <c r="M52" s="62">
         <v>2.3130000000000002</v>
       </c>
-      <c r="P52" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="25">
-        <v>0</v>
+      <c r="N52" s="55">
+        <f>+X52</f>
+        <v>2.0470000000000002</v>
+      </c>
+      <c r="O52" s="25">
+        <v>2.125</v>
       </c>
       <c r="R52" s="25">
         <v>0</v>
       </c>
       <c r="S52" s="25">
+        <v>0</v>
+      </c>
+      <c r="T52" s="25">
+        <v>0</v>
+      </c>
+      <c r="U52" s="25">
         <v>2.2549999999999999</v>
       </c>
-      <c r="T52" s="25">
+      <c r="V52" s="25">
         <v>2.4430000000000001</v>
       </c>
-      <c r="U52" s="25">
+      <c r="W52" s="25">
         <v>2.3130000000000002</v>
       </c>
-    </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X52" s="62">
+        <v>2.0470000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L53" s="58">
-        <f t="shared" si="45"/>
+      <c r="L53" s="55">
+        <f>W53</f>
         <v>0.23300000000000001</v>
       </c>
-      <c r="M53" s="68">
+      <c r="M53" s="62">
         <v>0.23300000000000001</v>
       </c>
-      <c r="P53" s="25">
+      <c r="N53" s="55">
+        <f>+X53</f>
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="O53" s="25">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="R53" s="25">
         <v>9.4E-2</v>
-      </c>
-      <c r="Q53" s="25">
-        <v>0.15</v>
-      </c>
-      <c r="R53" s="25">
-        <v>0.15</v>
       </c>
       <c r="S53" s="25">
         <v>0.15</v>
@@ -3918,646 +4431,870 @@
         <v>0.15</v>
       </c>
       <c r="U53" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="V53" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="W53" s="25">
         <v>0.23300000000000001</v>
       </c>
-    </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X53" s="62">
+        <v>0.23300000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L54" s="58">
-        <f t="shared" ref="L54:M54" si="47">L50+SUM(L51:L53)</f>
+      <c r="L54" s="55">
+        <f t="shared" ref="L54:O54" si="56">L50+SUM(L51:L53)</f>
         <v>10.678000000000001</v>
       </c>
       <c r="M54" s="25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>18.260000000000002</v>
       </c>
-      <c r="P54" s="25">
-        <f t="shared" ref="P54:Q54" si="48">P50+SUM(P51:P53)</f>
+      <c r="N54" s="55">
+        <f t="shared" si="56"/>
+        <v>18.18</v>
+      </c>
+      <c r="O54" s="25">
+        <f t="shared" si="56"/>
+        <v>28.100999999999999</v>
+      </c>
+      <c r="R54" s="25">
+        <f t="shared" ref="R54:S54" si="57">R50+SUM(R51:R53)</f>
         <v>7.4379999999999997</v>
       </c>
-      <c r="Q54" s="25">
-        <f t="shared" si="48"/>
+      <c r="S54" s="25">
+        <f t="shared" si="57"/>
         <v>5.0590000000000011</v>
-      </c>
-      <c r="R54" s="25">
-        <f>R50+SUM(R51:R53)</f>
-        <v>8.2319999999999993</v>
-      </c>
-      <c r="S54" s="25">
-        <f>S50+SUM(S51:S53)</f>
-        <v>7.6780000000000008</v>
       </c>
       <c r="T54" s="25">
         <f>T50+SUM(T51:T53)</f>
-        <v>10.602</v>
+        <v>8.2319999999999993</v>
       </c>
       <c r="U54" s="25">
         <f>U50+SUM(U51:U53)</f>
+        <v>7.6780000000000008</v>
+      </c>
+      <c r="V54" s="25">
+        <f>V50+SUM(V51:V53)</f>
+        <v>10.602</v>
+      </c>
+      <c r="W54" s="25">
+        <f>W50+SUM(W51:W53)</f>
         <v>10.678000000000001</v>
       </c>
-    </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="M55" s="68"/>
-      <c r="R55" s="25"/>
+      <c r="X54" s="25">
+        <f>X50+SUM(X51:X53)</f>
+        <v>18.18</v>
+      </c>
+    </row>
+    <row r="55" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="M55" s="62"/>
       <c r="T55" s="25"/>
-      <c r="U55" s="25"/>
-    </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V55" s="25"/>
+      <c r="W55" s="25"/>
+    </row>
+    <row r="56" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L56" s="58">
-        <f>U56</f>
+      <c r="L56" s="55">
+        <f>W56</f>
         <v>43.11</v>
       </c>
-      <c r="M56" s="68">
+      <c r="M56" s="62">
         <v>41.351999999999997</v>
       </c>
-      <c r="P56" s="25">
+      <c r="N56" s="55">
+        <f>+X56</f>
+        <v>36.039000000000001</v>
+      </c>
+      <c r="O56" s="25">
+        <v>31.789000000000001</v>
+      </c>
+      <c r="R56" s="25">
         <v>29.663</v>
       </c>
-      <c r="Q56" s="25">
+      <c r="S56" s="25">
         <v>30.864000000000001</v>
       </c>
-      <c r="R56" s="25">
+      <c r="T56" s="25">
         <v>25.798999999999999</v>
       </c>
-      <c r="S56" s="25">
+      <c r="U56" s="25">
         <v>37.005000000000003</v>
       </c>
-      <c r="T56" s="25">
+      <c r="V56" s="25">
         <v>38.256999999999998</v>
       </c>
-      <c r="U56" s="25">
+      <c r="W56" s="25">
         <v>43.11</v>
       </c>
-    </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X56" s="62">
+        <v>36.039000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L57" s="58">
+      <c r="L57" s="55">
         <f>L56+L54</f>
         <v>53.787999999999997</v>
       </c>
       <c r="M57" s="25">
-        <f t="shared" ref="M57" si="49">M56+M54</f>
+        <f t="shared" ref="M57:O57" si="58">M56+M54</f>
         <v>59.611999999999995</v>
       </c>
-      <c r="P57" s="25">
-        <f t="shared" ref="P57:Q57" si="50">P56+P54</f>
+      <c r="N57" s="55">
+        <f>N56+N54</f>
+        <v>54.219000000000001</v>
+      </c>
+      <c r="O57" s="25">
+        <f t="shared" si="58"/>
+        <v>59.89</v>
+      </c>
+      <c r="R57" s="25">
+        <f t="shared" ref="R57:S57" si="59">R56+R54</f>
         <v>37.100999999999999</v>
       </c>
-      <c r="Q57" s="25">
-        <f t="shared" si="50"/>
+      <c r="S57" s="25">
+        <f t="shared" si="59"/>
         <v>35.923000000000002</v>
-      </c>
-      <c r="R57" s="25">
-        <f>R56+R54</f>
-        <v>34.030999999999999</v>
-      </c>
-      <c r="S57" s="25">
-        <f>S56+S54</f>
-        <v>44.683000000000007</v>
       </c>
       <c r="T57" s="25">
         <f>T56+T54</f>
-        <v>48.858999999999995</v>
+        <v>34.030999999999999</v>
       </c>
       <c r="U57" s="25">
         <f>U56+U54</f>
+        <v>44.683000000000007</v>
+      </c>
+      <c r="V57" s="25">
+        <f>V56+V54</f>
+        <v>48.858999999999995</v>
+      </c>
+      <c r="W57" s="25">
+        <f>W56+W54</f>
         <v>53.787999999999997</v>
       </c>
-    </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X57" s="25">
+        <f>X56+X54</f>
+        <v>54.219000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L59" s="58">
+      <c r="L59" s="55">
         <f>L42-L54</f>
         <v>43.11</v>
       </c>
       <c r="M59" s="25">
-        <f t="shared" ref="M59" si="51">M42-M54</f>
+        <f t="shared" ref="M59:O59" si="60">M42-M54</f>
         <v>41.251999999999995</v>
       </c>
-      <c r="P59" s="25">
-        <f t="shared" ref="P59" si="52">P42-P54</f>
+      <c r="N59" s="55">
+        <f>N42-N54</f>
+        <v>36.039000000000001</v>
+      </c>
+      <c r="O59" s="25">
+        <f t="shared" si="60"/>
+        <v>31.771000000000001</v>
+      </c>
+      <c r="R59" s="25">
+        <f t="shared" ref="R59" si="61">R42-R54</f>
         <v>29.663</v>
       </c>
-      <c r="Q59" s="25">
-        <f t="shared" ref="Q59" si="53">Q42-Q54</f>
+      <c r="S59" s="25">
+        <f t="shared" ref="S59" si="62">S42-S54</f>
         <v>30.864000000000001</v>
       </c>
-      <c r="R59" s="25">
-        <f t="shared" ref="R59:T59" si="54">R42-R54</f>
+      <c r="T59" s="25">
+        <f t="shared" ref="T59:V59" si="63">T42-T54</f>
         <v>25.798999999999999</v>
       </c>
-      <c r="S59" s="25">
-        <f t="shared" si="54"/>
+      <c r="U59" s="25">
+        <f t="shared" si="63"/>
         <v>37.004999999999995</v>
       </c>
-      <c r="T59" s="25">
-        <f t="shared" si="54"/>
+      <c r="V59" s="25">
+        <f t="shared" si="63"/>
         <v>38.256999999999991</v>
       </c>
-      <c r="U59" s="25">
-        <f>U42-U54</f>
+      <c r="W59" s="25">
+        <f>W42-W54</f>
         <v>43.11</v>
       </c>
-    </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
+      <c r="X59" s="25">
+        <f t="shared" ref="X59" si="64">X42-X54</f>
+        <v>36.039000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="2:25" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="L60" s="30">
+      <c r="D60" s="64"/>
+      <c r="F60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="J60" s="64"/>
+      <c r="L60" s="64">
         <f>L59/L20</f>
         <v>0.25825350897687038</v>
       </c>
-      <c r="M60" s="25">
-        <f t="shared" ref="M60" si="55">M59/M20</f>
+      <c r="M60" s="49">
+        <f t="shared" ref="M60:O60" si="65">M59/M20</f>
         <v>0.24286773263849248</v>
       </c>
-      <c r="P60" s="25">
-        <f t="shared" ref="P60" si="56">P59/P20</f>
+      <c r="N60" s="64">
+        <f>N59/N20</f>
+        <v>0.21589418255665582</v>
+      </c>
+      <c r="O60" s="49">
+        <f t="shared" si="65"/>
+        <v>0.19032642620515308</v>
+      </c>
+      <c r="P60" s="64"/>
+      <c r="R60" s="49">
+        <f t="shared" ref="R60" si="66">R59/R20</f>
         <v>0.38834049015500627</v>
       </c>
-      <c r="Q60" s="25">
-        <f t="shared" ref="Q60" si="57">Q59/Q20</f>
+      <c r="S60" s="49">
+        <f t="shared" ref="S60" si="67">S59/S20</f>
         <v>0.31724364772633834</v>
       </c>
-      <c r="R60" s="25">
-        <f>R59/R20</f>
+      <c r="T60" s="49">
+        <f>T59/T20</f>
         <v>0.20596195144538204</v>
       </c>
-      <c r="S60" s="25">
-        <f>S59/S20</f>
+      <c r="U60" s="49">
+        <f>U59/U20</f>
         <v>0.29092896003018959</v>
       </c>
-      <c r="T60" s="25">
-        <f>T59/T20</f>
+      <c r="V60" s="49">
+        <f>V59/V20</f>
         <v>0.22918126868309274</v>
       </c>
-      <c r="U60" s="25">
-        <f>U59/U20</f>
+      <c r="W60" s="49">
+        <f>W59/W20</f>
         <v>0.25825350897687038</v>
       </c>
-    </row>
-    <row r="62" spans="2:22" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="38" t="s">
+      <c r="X60" s="49">
+        <f t="shared" ref="X60" si="68">X59/X20</f>
+        <v>0.21589418255665582</v>
+      </c>
+      <c r="Y60" s="95"/>
+    </row>
+    <row r="61" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="X61" s="1"/>
+    </row>
+    <row r="62" spans="2:25" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="D62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="J62" s="39"/>
-      <c r="L62" s="39"/>
-      <c r="M62" s="64"/>
-      <c r="N62" s="39"/>
-      <c r="P62" s="18" t="s">
+      <c r="D62" s="94"/>
+      <c r="F62" s="94"/>
+      <c r="H62" s="94"/>
+      <c r="J62" s="94"/>
+      <c r="L62" s="94"/>
+      <c r="M62" s="66"/>
+      <c r="N62" s="94">
+        <f>+N38/L38-1</f>
+        <v>0.29279552909731499</v>
+      </c>
+      <c r="O62" s="41">
+        <f>+O38/M38-1</f>
+        <v>6.9363136420081517E-2</v>
+      </c>
+      <c r="P62" s="94"/>
+      <c r="R62" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="Q62" s="42">
-        <f t="shared" ref="Q62" si="58">Q38/P38-1</f>
+      <c r="S62" s="41">
+        <f t="shared" ref="S62" si="69">S38/R38-1</f>
         <v>3.6157024793388448E-2</v>
       </c>
-      <c r="R62" s="42">
-        <f t="shared" ref="R62" si="59">R38/Q38-1</f>
+      <c r="T62" s="41">
+        <f t="shared" ref="T62" si="70">T38/S38-1</f>
         <v>8.2751744765702906E-2</v>
       </c>
-      <c r="S62" s="42">
-        <f t="shared" ref="S62:T62" si="60">S38/R38-1</f>
+      <c r="U62" s="41">
+        <f t="shared" ref="U62:V62" si="71">U38/T38-1</f>
         <v>0.31077348066298338</v>
       </c>
-      <c r="T62" s="42">
-        <f t="shared" si="60"/>
+      <c r="V62" s="41">
+        <f t="shared" si="71"/>
         <v>6.4418686336494613E-2</v>
       </c>
-      <c r="U62" s="42">
-        <f>U38/T38-1</f>
+      <c r="W62" s="41">
+        <f>W38/V38-1</f>
         <v>8.6457233368532282E-2</v>
       </c>
-      <c r="V62" s="50"/>
-    </row>
-    <row r="63" spans="2:22" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="38" t="s">
+      <c r="X62" s="41">
+        <f t="shared" ref="X62" si="72">X38/W38-1</f>
+        <v>0.29279552909731499</v>
+      </c>
+      <c r="Y62" s="97"/>
+    </row>
+    <row r="63" spans="2:25" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="D63" s="39"/>
-      <c r="F63" s="39"/>
-      <c r="H63" s="39"/>
-      <c r="J63" s="39"/>
-      <c r="L63" s="39"/>
-      <c r="M63" s="73">
+      <c r="D63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="H63" s="38"/>
+      <c r="J63" s="38"/>
+      <c r="L63" s="38"/>
+      <c r="M63" s="66">
         <f>M38/L38-1</f>
         <v>0.36969991495565546</v>
       </c>
-      <c r="N63" s="39"/>
-      <c r="P63" s="18" t="s">
+      <c r="N63" s="94">
+        <f>+N38/M38-1</f>
+        <v>-5.6146886641830651E-2</v>
+      </c>
+      <c r="O63" s="66">
+        <f>O38/N38-1</f>
+        <v>0.13297622403909393</v>
+      </c>
+      <c r="P63" s="38"/>
+      <c r="R63" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="Q63" s="43" t="s">
+      <c r="S63" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="R63" s="43" t="s">
+      <c r="T63" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="S63" s="43" t="s">
+      <c r="U63" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="T63" s="43" t="s">
+      <c r="V63" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="U63" s="43" t="s">
+      <c r="W63" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="V63" s="50"/>
-    </row>
-    <row r="65" spans="2:22" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="38" t="s">
+      <c r="X63" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y63" s="48"/>
+    </row>
+    <row r="65" spans="2:25" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="H65" s="39"/>
-      <c r="J65" s="39"/>
-      <c r="L65" s="69">
-        <f t="shared" ref="L65:M65" si="61">L41+L40+L34</f>
+      <c r="D65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="H65" s="38"/>
+      <c r="J65" s="38"/>
+      <c r="L65" s="63">
+        <f t="shared" ref="L65:M65" si="73">L41+L40+L34</f>
         <v>4.6430000000000007</v>
       </c>
-      <c r="M65" s="40">
-        <f t="shared" si="61"/>
+      <c r="M65" s="39">
+        <f t="shared" si="73"/>
         <v>3.6820000000000004</v>
       </c>
-      <c r="N65" s="39"/>
-      <c r="P65" s="40">
-        <f t="shared" ref="P65:Q65" si="62">P41+P40+P34</f>
+      <c r="N65" s="63">
+        <f t="shared" ref="N65:O65" si="74">N41+N40+N34</f>
+        <v>1.339</v>
+      </c>
+      <c r="O65" s="39">
+        <f t="shared" si="74"/>
+        <v>2.7069999999999999</v>
+      </c>
+      <c r="P65" s="38"/>
+      <c r="R65" s="39">
+        <f t="shared" ref="R65:S65" si="75">R41+R40+R34</f>
         <v>1.75</v>
       </c>
-      <c r="Q65" s="40">
-        <f t="shared" si="62"/>
+      <c r="S65" s="39">
+        <f t="shared" si="75"/>
         <v>5.4930000000000003</v>
       </c>
-      <c r="R65" s="40">
-        <f t="shared" ref="R65:T65" si="63">R41+R40+R34</f>
+      <c r="T65" s="39">
+        <f t="shared" ref="T65:V65" si="76">T41+T40+T34</f>
         <v>2.4249999999999998</v>
       </c>
-      <c r="S65" s="40">
-        <f t="shared" si="63"/>
+      <c r="U65" s="39">
+        <f t="shared" si="76"/>
         <v>7.7669999999999995</v>
       </c>
-      <c r="T65" s="40">
-        <f t="shared" si="63"/>
+      <c r="V65" s="39">
+        <f t="shared" si="76"/>
         <v>6.5559999999999992</v>
       </c>
-      <c r="U65" s="40">
-        <f>U41+U40+U34</f>
+      <c r="W65" s="39">
+        <f>W41+W40+W34</f>
         <v>4.6430000000000007</v>
       </c>
-      <c r="V65" s="50"/>
-    </row>
-    <row r="66" spans="2:22" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="38" t="s">
+      <c r="X65" s="39">
+        <f t="shared" ref="X65" si="77">X41+X40+X34</f>
+        <v>1.339</v>
+      </c>
+      <c r="Y65" s="48"/>
+    </row>
+    <row r="66" spans="2:25" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="39"/>
-      <c r="F66" s="39"/>
-      <c r="H66" s="39"/>
-      <c r="J66" s="39"/>
-      <c r="L66" s="69">
-        <f t="shared" ref="L66:M66" si="64">L44+L47+L51</f>
+      <c r="D66" s="38"/>
+      <c r="F66" s="38"/>
+      <c r="H66" s="38"/>
+      <c r="J66" s="38"/>
+      <c r="L66" s="63">
+        <f t="shared" ref="L66:M66" si="78">L44+L47+L51</f>
         <v>0.32700000000000001</v>
       </c>
-      <c r="M66" s="40">
-        <f t="shared" si="64"/>
+      <c r="M66" s="39">
+        <f t="shared" si="78"/>
         <v>6.81</v>
       </c>
-      <c r="N66" s="39"/>
-      <c r="P66" s="40">
-        <f t="shared" ref="P66:Q66" si="65">P44+P47+P51</f>
+      <c r="N66" s="63">
+        <f t="shared" ref="N66:O66" si="79">N44+N47+N51</f>
+        <v>7.4240000000000004</v>
+      </c>
+      <c r="O66" s="39">
+        <f t="shared" si="79"/>
+        <v>15.831000000000001</v>
+      </c>
+      <c r="P66" s="38"/>
+      <c r="R66" s="39">
+        <f t="shared" ref="R66:S66" si="80">R44+R47+R51</f>
         <v>0.27200000000000002</v>
       </c>
-      <c r="Q66" s="40">
-        <f t="shared" si="65"/>
+      <c r="S66" s="39">
+        <f t="shared" si="80"/>
         <v>0.42299999999999999</v>
       </c>
-      <c r="R66" s="40">
-        <f t="shared" ref="R66:T66" si="66">R44+R47+R51</f>
+      <c r="T66" s="39">
+        <f t="shared" ref="T66:V66" si="81">T44+T47+T51</f>
         <v>2.61</v>
       </c>
-      <c r="S66" s="40">
-        <f t="shared" si="66"/>
-        <v>0</v>
-      </c>
-      <c r="T66" s="40">
-        <f t="shared" si="66"/>
+      <c r="U66" s="39">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="V66" s="39">
+        <f t="shared" si="81"/>
         <v>0.51300000000000001</v>
       </c>
-      <c r="U66" s="40">
-        <f>U44+U47+U51</f>
+      <c r="W66" s="39">
+        <f>W44+W47+W51</f>
         <v>0.32700000000000001</v>
       </c>
-      <c r="V66" s="50"/>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X66" s="39">
+        <f t="shared" ref="X66" si="82">X44+X47+X51</f>
+        <v>7.4240000000000004</v>
+      </c>
+      <c r="Y66" s="48"/>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L67" s="58">
-        <f t="shared" ref="L67:M67" si="67">L65-L66</f>
+      <c r="L67" s="55">
+        <f t="shared" ref="L67:M67" si="83">L65-L66</f>
         <v>4.3160000000000007</v>
       </c>
       <c r="M67" s="25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="83"/>
         <v>-3.1279999999999992</v>
       </c>
-      <c r="P67" s="25">
-        <f t="shared" ref="P67:Q67" si="68">P65-P66</f>
+      <c r="N67" s="55">
+        <f t="shared" ref="N67:O67" si="84">N65-N66</f>
+        <v>-6.0850000000000009</v>
+      </c>
+      <c r="O67" s="25">
+        <f t="shared" si="84"/>
+        <v>-13.124000000000002</v>
+      </c>
+      <c r="R67" s="25">
+        <f t="shared" ref="R67:S67" si="85">R65-R66</f>
         <v>1.478</v>
       </c>
-      <c r="Q67" s="25">
-        <f t="shared" si="68"/>
+      <c r="S67" s="25">
+        <f t="shared" si="85"/>
         <v>5.07</v>
       </c>
-      <c r="R67" s="25">
-        <f t="shared" ref="R67:T67" si="69">R65-R66</f>
+      <c r="T67" s="25">
+        <f t="shared" ref="T67:V67" si="86">T65-T66</f>
         <v>-0.18500000000000005</v>
       </c>
-      <c r="S67" s="25">
-        <f t="shared" si="69"/>
+      <c r="U67" s="25">
+        <f t="shared" si="86"/>
         <v>7.7669999999999995</v>
       </c>
-      <c r="T67" s="25">
-        <f t="shared" si="69"/>
+      <c r="V67" s="25">
+        <f t="shared" si="86"/>
         <v>6.0429999999999993</v>
       </c>
-      <c r="U67" s="25">
-        <f>U65-U66</f>
+      <c r="W67" s="25">
+        <f>W65-W66</f>
         <v>4.3160000000000007</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X67" s="25">
+        <f t="shared" ref="X67" si="87">X65-X66</f>
+        <v>-6.0850000000000009</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L69" s="70">
-        <f>U69</f>
+      <c r="L69" s="64">
+        <f>W69</f>
         <v>0.32500000000000001</v>
       </c>
-      <c r="M69" s="63">
+      <c r="M69" s="58">
         <v>0.28499999999999998</v>
       </c>
-      <c r="P69" s="52">
+      <c r="N69" s="64">
+        <f>+X69</f>
+        <v>0.245</v>
+      </c>
+      <c r="O69" s="1">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="R69" s="49">
         <v>0.31359999999999999</v>
       </c>
-      <c r="Q69" s="52">
+      <c r="S69" s="49">
         <v>0.24099999999999999</v>
       </c>
-      <c r="R69" s="52">
+      <c r="T69" s="49">
         <v>0.36299999999999999</v>
       </c>
-      <c r="S69" s="52">
+      <c r="U69" s="49">
         <v>0.32500000000000001</v>
       </c>
-      <c r="T69" s="52">
+      <c r="V69" s="49">
         <v>0.44</v>
       </c>
-      <c r="U69" s="52">
+      <c r="W69" s="49">
         <v>0.32500000000000001</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X69" s="58">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="L70" s="58">
+      <c r="L70" s="55">
         <f>L69*L20</f>
         <v>54.251925</v>
       </c>
       <c r="M70" s="25">
-        <f t="shared" ref="M70" si="70">M69*M20</f>
+        <f t="shared" ref="M70:O70" si="88">M69*M20</f>
         <v>48.408324449999995</v>
       </c>
-      <c r="P70" s="25">
-        <f t="shared" ref="P70:T70" si="71">P69*P20</f>
+      <c r="N70" s="55">
+        <f>N69*N20</f>
+        <v>40.897604999999999</v>
+      </c>
+      <c r="O70" s="25">
+        <f t="shared" si="88"/>
+        <v>27.543285000000001</v>
+      </c>
+      <c r="R70" s="25">
+        <f t="shared" ref="R70:V70" si="89">R69*R20</f>
         <v>23.954022399999999</v>
       </c>
-      <c r="Q70" s="25">
-        <f t="shared" si="71"/>
+      <c r="S70" s="25">
+        <f t="shared" si="89"/>
         <v>23.446407999999998</v>
       </c>
-      <c r="R70" s="25">
-        <f t="shared" si="71"/>
+      <c r="T70" s="25">
+        <f t="shared" si="89"/>
         <v>45.469742999999994</v>
       </c>
-      <c r="S70" s="25">
-        <f t="shared" si="71"/>
+      <c r="U70" s="25">
+        <f t="shared" si="89"/>
         <v>41.338700000000003</v>
       </c>
-      <c r="T70" s="25">
-        <f t="shared" si="71"/>
+      <c r="V70" s="25">
+        <f t="shared" si="89"/>
         <v>73.448760000000007</v>
       </c>
-      <c r="U70" s="25">
-        <f>U69*U20</f>
+      <c r="W70" s="25">
+        <f>W69*W20</f>
         <v>54.251925</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X70" s="25">
+        <f t="shared" ref="X70" si="90">X69*X20</f>
+        <v>40.897604999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L71" s="58">
+      <c r="L71" s="55">
         <f>L70-L67</f>
         <v>49.935924999999997</v>
       </c>
       <c r="M71" s="25">
-        <f t="shared" ref="M71" si="72">M70-M67</f>
+        <f t="shared" ref="M71:O71" si="91">M70-M67</f>
         <v>51.536324449999995</v>
       </c>
-      <c r="P71" s="25">
-        <f t="shared" ref="P71:T71" si="73">P70-P67</f>
+      <c r="N71" s="55">
+        <f>N70-N67</f>
+        <v>46.982605</v>
+      </c>
+      <c r="O71" s="25">
+        <f t="shared" si="91"/>
+        <v>40.667285000000007</v>
+      </c>
+      <c r="R71" s="25">
+        <f t="shared" ref="R71:V71" si="92">R70-R67</f>
         <v>22.476022399999998</v>
       </c>
-      <c r="Q71" s="25">
-        <f t="shared" si="73"/>
+      <c r="S71" s="25">
+        <f t="shared" si="92"/>
         <v>18.376407999999998</v>
       </c>
-      <c r="R71" s="25">
-        <f t="shared" si="73"/>
+      <c r="T71" s="25">
+        <f t="shared" si="92"/>
         <v>45.654742999999996</v>
       </c>
-      <c r="S71" s="25">
-        <f t="shared" si="73"/>
+      <c r="U71" s="25">
+        <f t="shared" si="92"/>
         <v>33.571700000000007</v>
       </c>
-      <c r="T71" s="25">
-        <f t="shared" si="73"/>
+      <c r="V71" s="25">
+        <f t="shared" si="92"/>
         <v>67.405760000000015</v>
       </c>
-      <c r="U71" s="25">
-        <f>U70-U67</f>
+      <c r="W71" s="25">
+        <f>W70-W67</f>
         <v>49.935924999999997</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X71" s="25">
+        <f t="shared" ref="X71" si="93">X70-X67</f>
+        <v>46.982605</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="O72" s="58"/>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L73" s="75">
+        <v>116</v>
+      </c>
+      <c r="L73" s="68">
         <f>L70/SUM(K3:L3)</f>
         <v>1.0095447440406409</v>
       </c>
-      <c r="M73" s="74">
+      <c r="M73" s="67">
         <f>M70/SUM(L3:M3)</f>
         <v>0.89143202066146132</v>
       </c>
-      <c r="P73" s="56">
-        <f t="shared" ref="P73:T73" si="74">P70/P3</f>
+      <c r="N73" s="68">
+        <f>N70/SUM(M3:N3)</f>
+        <v>0.74217593684783612</v>
+      </c>
+      <c r="O73" s="67">
+        <f>O70/SUM(N3:O3)</f>
+        <v>0.48758669829524343</v>
+      </c>
+      <c r="R73" s="53">
+        <f t="shared" ref="R73:V73" si="94">R70/R3</f>
         <v>0.50514598059890337</v>
       </c>
-      <c r="Q73" s="56">
-        <f t="shared" si="74"/>
+      <c r="S73" s="53">
+        <f t="shared" si="94"/>
         <v>0.65766480603629618</v>
       </c>
-      <c r="R73" s="56">
-        <f t="shared" si="74"/>
+      <c r="T73" s="53">
+        <f t="shared" si="94"/>
         <v>1.3880076620165449</v>
       </c>
-      <c r="S73" s="56">
-        <f t="shared" si="74"/>
+      <c r="U73" s="53">
+        <f t="shared" si="94"/>
         <v>1.092402621425929</v>
       </c>
-      <c r="T73" s="56">
-        <f t="shared" si="74"/>
+      <c r="V73" s="53">
+        <f t="shared" si="94"/>
         <v>1.5128789470431936</v>
       </c>
-      <c r="U73" s="56">
-        <f>U70/U3</f>
+      <c r="W73" s="53">
+        <f>W70/W3</f>
         <v>1.0095447440406409</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X73" s="53">
+        <f t="shared" ref="X73" si="95">X70/X3</f>
+        <v>0.742175936847836</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L74" s="75">
+      <c r="L74" s="68">
         <f>L69/SUM(K18:L18)</f>
         <v>0.2197430696416498</v>
       </c>
-      <c r="M74" s="74">
+      <c r="M74" s="67">
         <f>M69/SUM(L18:M18)</f>
         <v>-0.38050734312416662</v>
       </c>
-      <c r="P74" s="56">
-        <f>P69/P19</f>
+      <c r="N74" s="68">
+        <f>N69/SUM(M18:N18)</f>
+        <v>-4.1371158392434937E-2</v>
+      </c>
+      <c r="O74" s="67">
+        <f>O69/SUM(N18:O18)</f>
+        <v>-2.0601822949182155E-2</v>
+      </c>
+      <c r="R74" s="53">
+        <f>R69/R19</f>
         <v>-2.4781732257397064</v>
       </c>
-      <c r="Q74" s="56">
-        <f t="shared" ref="Q74:U74" si="75">Q69/Q19</f>
+      <c r="S74" s="53">
+        <f t="shared" ref="S74:W74" si="96">S69/S19</f>
         <v>-2.3793797442662887</v>
       </c>
-      <c r="R74" s="56">
-        <f t="shared" si="75"/>
+      <c r="T74" s="53">
+        <f t="shared" si="96"/>
         <v>-8.5598160768072322</v>
       </c>
-      <c r="S74" s="56">
-        <f t="shared" si="75"/>
+      <c r="U74" s="53">
+        <f t="shared" si="96"/>
         <v>-12.176347569955812</v>
       </c>
-      <c r="T74" s="56">
-        <f t="shared" si="75"/>
+      <c r="V74" s="53">
+        <f t="shared" si="96"/>
         <v>53.887571533382342</v>
       </c>
-      <c r="U74" s="56">
-        <f t="shared" si="75"/>
+      <c r="W74" s="53">
+        <f t="shared" si="96"/>
         <v>36.681490872211008</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X74" s="53">
+        <f t="shared" ref="X74" si="97">X69/X19</f>
+        <v>-6.9060460992907728</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L75" s="75">
+      <c r="L75" s="68">
         <f>L69/L60</f>
         <v>1.2584533750869868</v>
       </c>
-      <c r="M75" s="74">
+      <c r="M75" s="67">
         <f>M69/M60</f>
         <v>1.1734782422670416</v>
       </c>
-      <c r="P75" s="56">
-        <f t="shared" ref="P75:T75" si="76">P69/P60</f>
+      <c r="N75" s="68">
+        <f>N69/N60</f>
+        <v>1.1348152001997835</v>
+      </c>
+      <c r="O75" s="67">
+        <f>O69/O60</f>
+        <v>0.86693163576846821</v>
+      </c>
+      <c r="R75" s="53">
+        <f t="shared" ref="R75:V75" si="98">R69/R60</f>
         <v>0.8075387654653946</v>
       </c>
-      <c r="Q75" s="56">
-        <f t="shared" si="76"/>
+      <c r="S75" s="53">
+        <f t="shared" si="98"/>
         <v>0.75966848107827878</v>
       </c>
-      <c r="R75" s="56">
-        <f t="shared" si="76"/>
+      <c r="T75" s="53">
+        <f t="shared" si="98"/>
         <v>1.7624614519942634</v>
       </c>
-      <c r="S75" s="56">
-        <f t="shared" si="76"/>
+      <c r="U75" s="53">
+        <f t="shared" si="98"/>
         <v>1.1171112011890287</v>
       </c>
-      <c r="T75" s="56">
-        <f t="shared" si="76"/>
+      <c r="V75" s="53">
+        <f t="shared" si="98"/>
         <v>1.919877669446115</v>
       </c>
-      <c r="U75" s="56">
-        <f>U69/U60</f>
+      <c r="W75" s="53">
+        <f>W69/W60</f>
         <v>1.2584533750869868</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X75" s="53">
+        <f t="shared" ref="X75" si="99">X69/X60</f>
+        <v>1.1348152001997835</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="O76" s="58"/>
+      <c r="X76" s="1"/>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L77" s="59">
+        <v>115</v>
+      </c>
+      <c r="L77" s="56">
         <f>L38/SUM(K3:L3)</f>
         <v>0.30633245873574128</v>
       </c>
-      <c r="M77" s="76">
+      <c r="M77" s="69">
         <f>M38/SUM(L3:M3)</f>
         <v>0.41521803182086031</v>
       </c>
-      <c r="P77" s="41">
-        <f t="shared" ref="P77:T77" si="77">P38/P3</f>
+      <c r="N77" s="56">
+        <f>N38/SUM(M3:N3)</f>
+        <v>0.38620814808093645</v>
+      </c>
+      <c r="O77" s="69">
+        <f>O38/SUM(N3:O3)</f>
+        <v>0.42684416435058159</v>
+      </c>
+      <c r="R77" s="40">
+        <f t="shared" ref="R77:V77" si="100">R38/R3</f>
         <v>0.20413327709827075</v>
       </c>
-      <c r="Q77" s="41">
-        <f t="shared" si="77"/>
+      <c r="S77" s="40">
+        <f t="shared" si="100"/>
         <v>0.28133853187848862</v>
       </c>
-      <c r="R77" s="41">
-        <f t="shared" si="77"/>
+      <c r="T77" s="40">
+        <f t="shared" si="100"/>
         <v>0.33151195091425256</v>
       </c>
-      <c r="S77" s="41">
-        <f t="shared" si="77"/>
+      <c r="U77" s="40">
+        <f t="shared" si="100"/>
         <v>0.37616933565879179</v>
       </c>
-      <c r="T77" s="41">
-        <f t="shared" si="77"/>
+      <c r="V77" s="40">
+        <f t="shared" si="100"/>
         <v>0.31209705658200992</v>
       </c>
-      <c r="U77" s="41">
-        <f>U38/U3</f>
+      <c r="W77" s="40">
+        <f>W38/W3</f>
         <v>0.30633245873574128</v>
       </c>
-    </row>
-    <row r="81" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X77" s="40">
+        <f t="shared" ref="X77" si="101">X38/X3</f>
+        <v>0.3862081480809364</v>
+      </c>
+    </row>
+    <row r="81" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B81" s="32" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="82" spans="2:22" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G82" s="25">
         <v>-4.6950000000000003</v>
@@ -4565,33 +5302,43 @@
       <c r="I82" s="25">
         <v>1.7669999999999999</v>
       </c>
-      <c r="J82" s="58">
-        <f>T82-I82</f>
+      <c r="J82" s="55">
+        <f>V82-I82</f>
         <v>2.605</v>
       </c>
       <c r="K82" s="25">
         <v>-0.41299999999999998</v>
       </c>
-      <c r="L82" s="58">
-        <f>U82-K82</f>
+      <c r="L82" s="55">
+        <f>W82-K82</f>
         <v>5.2750000000000004</v>
       </c>
-      <c r="M82" s="68">
+      <c r="M82" s="62">
         <v>-6.5830000000000002</v>
       </c>
-      <c r="S82" s="25">
+      <c r="N82" s="55">
+        <f>+X82-M82</f>
+        <v>3.2020000000000004</v>
+      </c>
+      <c r="O82" s="25">
+        <v>-3.2850000000000001</v>
+      </c>
+      <c r="U82" s="25">
         <v>-3.2410000000000001</v>
       </c>
-      <c r="T82" s="25">
+      <c r="V82" s="25">
         <v>4.3719999999999999</v>
       </c>
-      <c r="U82" s="25">
+      <c r="W82" s="25">
         <v>4.8620000000000001</v>
       </c>
-    </row>
-    <row r="83" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X82" s="62">
+        <v>-3.3809999999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G83" s="25">
         <v>-0.253</v>
@@ -4599,67 +5346,87 @@
       <c r="I83" s="25">
         <v>-0.17599999999999999</v>
       </c>
-      <c r="J83" s="58">
-        <f t="shared" ref="J83:J85" si="78">T83-I83</f>
+      <c r="J83" s="55">
+        <f t="shared" ref="J83:J85" si="102">V83-I83</f>
         <v>0.10099999999999999</v>
       </c>
       <c r="K83" s="25">
         <v>-8.8999999999999996E-2</v>
       </c>
-      <c r="L83" s="58">
-        <f>U83-K83</f>
+      <c r="L83" s="55">
+        <f>W83-K83</f>
         <v>-0.10300000000000001</v>
       </c>
-      <c r="M83" s="68">
+      <c r="M83" s="62">
         <v>-4.2999999999999997E-2</v>
       </c>
-      <c r="S83" s="25">
+      <c r="N83" s="55">
+        <f t="shared" ref="N83:N85" si="103">+X83-M83</f>
+        <v>-0.27900000000000003</v>
+      </c>
+      <c r="O83" s="25">
+        <v>-0.65300000000000002</v>
+      </c>
+      <c r="U83" s="25">
         <v>-0.44600000000000001</v>
       </c>
-      <c r="T83" s="25">
+      <c r="V83" s="25">
         <v>-7.4999999999999997E-2</v>
       </c>
-      <c r="U83" s="25">
+      <c r="W83" s="25">
         <v>-0.192</v>
       </c>
-    </row>
-    <row r="84" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X83" s="62">
+        <v>-0.32200000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G84" s="25">
+        <v>0</v>
+      </c>
+      <c r="I84" s="25">
+        <v>0</v>
+      </c>
+      <c r="J84" s="55">
+        <f t="shared" si="102"/>
+        <v>0.09</v>
+      </c>
+      <c r="K84" s="25">
+        <v>0</v>
+      </c>
+      <c r="L84" s="55">
+        <f>W84-K84</f>
+        <v>0</v>
+      </c>
+      <c r="M84" s="62">
+        <v>0</v>
+      </c>
+      <c r="N84" s="55">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="O84" s="25">
+        <v>0</v>
+      </c>
+      <c r="U84" s="25">
+        <v>0</v>
+      </c>
+      <c r="V84" s="25">
+        <v>0.09</v>
+      </c>
+      <c r="W84" s="25">
+        <v>0</v>
+      </c>
+      <c r="X84" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="G84" s="25">
-        <v>0</v>
-      </c>
-      <c r="I84" s="25">
-        <v>0</v>
-      </c>
-      <c r="J84" s="58">
-        <f t="shared" si="78"/>
-        <v>0.09</v>
-      </c>
-      <c r="K84" s="25">
-        <v>0</v>
-      </c>
-      <c r="L84" s="58">
-        <f>U84-K84</f>
-        <v>0</v>
-      </c>
-      <c r="M84" s="68">
-        <v>0</v>
-      </c>
-      <c r="S84" s="25">
-        <v>0</v>
-      </c>
-      <c r="T84" s="25">
-        <v>0.09</v>
-      </c>
-      <c r="U84" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B85" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="G85" s="25">
         <v>0</v>
@@ -4667,100 +5434,124 @@
       <c r="I85" s="25">
         <v>-7.6999999999999999E-2</v>
       </c>
-      <c r="J85" s="58">
-        <f t="shared" si="78"/>
+      <c r="J85" s="55">
+        <f t="shared" si="102"/>
         <v>-8.8000000000000009E-2</v>
       </c>
       <c r="K85" s="25">
         <v>-8.3000000000000004E-2</v>
       </c>
-      <c r="L85" s="58">
-        <f>U85-K85</f>
+      <c r="L85" s="55">
+        <f>W85-K85</f>
         <v>-8.3000000000000004E-2</v>
       </c>
-      <c r="M85" s="68">
+      <c r="M85" s="62">
         <v>-7.9000000000000001E-2</v>
       </c>
-      <c r="S85" s="25">
+      <c r="N85" s="55">
+        <f t="shared" si="103"/>
+        <v>-7.3999999999999996E-2</v>
+      </c>
+      <c r="O85" s="25">
+        <v>-7.1999999999999995E-2</v>
+      </c>
+      <c r="U85" s="25">
         <v>-0.16900000000000001</v>
       </c>
-      <c r="T85" s="25">
+      <c r="V85" s="25">
         <v>-0.16500000000000001</v>
       </c>
-      <c r="U85" s="25">
+      <c r="W85" s="25">
         <v>-0.16600000000000001</v>
       </c>
-    </row>
-    <row r="86" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X85" s="62">
+        <v>-0.153</v>
+      </c>
+    </row>
+    <row r="86" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D86" s="29"/>
       <c r="F86" s="29"/>
-      <c r="G86" s="67">
+      <c r="G86" s="61">
         <f>SUM(G82:G85)</f>
         <v>-4.9480000000000004</v>
       </c>
       <c r="H86" s="29"/>
-      <c r="I86" s="67">
+      <c r="I86" s="61">
         <f>SUM(I82:I85)</f>
         <v>1.514</v>
       </c>
-      <c r="J86" s="57">
+      <c r="J86" s="54">
         <f>SUM(J82:J85)</f>
         <v>2.7079999999999997</v>
       </c>
-      <c r="K86" s="67">
+      <c r="K86" s="61">
         <f>SUM(K82:K85)</f>
         <v>-0.58499999999999996</v>
       </c>
-      <c r="L86" s="57">
+      <c r="L86" s="54">
         <f>SUM(L82:L85)</f>
         <v>5.0890000000000004</v>
       </c>
-      <c r="M86" s="67">
+      <c r="M86" s="61">
         <f>SUM(M82:M85)</f>
         <v>-6.7050000000000001</v>
       </c>
-      <c r="N86" s="29"/>
-      <c r="P86" s="67">
-        <f t="shared" ref="P86:U86" si="79">SUM(P82:P85)</f>
-        <v>0</v>
-      </c>
-      <c r="Q86" s="67">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="R86" s="67">
-        <f t="shared" si="79"/>
-        <v>0</v>
-      </c>
-      <c r="S86" s="67">
-        <f t="shared" si="79"/>
+      <c r="N86" s="54">
+        <f>+X86-M86</f>
+        <v>2.8490000000000002</v>
+      </c>
+      <c r="O86" s="61">
+        <f>SUM(O82:O85)</f>
+        <v>-4.01</v>
+      </c>
+      <c r="P86" s="29"/>
+      <c r="R86" s="61">
+        <f t="shared" ref="R86:X86" si="104">SUM(R82:R85)</f>
+        <v>0</v>
+      </c>
+      <c r="S86" s="61">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="T86" s="61">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="U86" s="61">
+        <f t="shared" si="104"/>
         <v>-3.8560000000000003</v>
       </c>
-      <c r="T86" s="67">
-        <f t="shared" si="79"/>
+      <c r="V86" s="61">
+        <f t="shared" si="104"/>
         <v>4.2219999999999995</v>
       </c>
-      <c r="U86" s="67">
-        <f t="shared" si="79"/>
+      <c r="W86" s="61">
+        <f t="shared" si="104"/>
         <v>4.5039999999999996</v>
       </c>
-      <c r="V86" s="47"/>
-    </row>
-    <row r="87" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X86" s="61">
+        <f t="shared" si="104"/>
+        <v>-3.8559999999999999</v>
+      </c>
+      <c r="Y86" s="46"/>
+    </row>
+    <row r="87" spans="2:25" x14ac:dyDescent="0.2">
       <c r="G87" s="25"/>
       <c r="I87" s="25"/>
       <c r="K87" s="25"/>
-      <c r="L87" s="58"/>
-      <c r="S87" s="25"/>
-      <c r="T87" s="25"/>
+      <c r="L87" s="55"/>
+      <c r="O87" s="25"/>
       <c r="U87" s="25"/>
-    </row>
-    <row r="88" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V87" s="25"/>
+      <c r="W87" s="25"/>
+      <c r="X87" s="62"/>
+    </row>
+    <row r="88" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G88" s="25">
         <v>0</v>
@@ -4768,68 +5559,88 @@
       <c r="I88" s="25">
         <v>0</v>
       </c>
-      <c r="J88" s="58">
-        <f t="shared" ref="J88:J92" si="80">T88-I88</f>
+      <c r="J88" s="55">
+        <f t="shared" ref="J88:J92" si="105">V88-I88</f>
         <v>0</v>
       </c>
       <c r="K88" s="25">
         <f>-1.015</f>
         <v>-1.0149999999999999</v>
       </c>
-      <c r="L88" s="58">
-        <f>U88-K88</f>
-        <v>0</v>
-      </c>
-      <c r="M88" s="68">
-        <v>0</v>
-      </c>
-      <c r="S88" s="25">
-        <v>0</v>
-      </c>
-      <c r="T88" s="25">
-        <v>0</v>
+      <c r="L88" s="55">
+        <f>W88-K88</f>
+        <v>0</v>
+      </c>
+      <c r="M88" s="62">
+        <v>0</v>
+      </c>
+      <c r="N88" s="55">
+        <f>+X88-M88</f>
+        <v>0</v>
+      </c>
+      <c r="O88" s="25">
+        <v>-1.4390000000000001</v>
       </c>
       <c r="U88" s="25">
+        <v>0</v>
+      </c>
+      <c r="V88" s="25">
+        <v>0</v>
+      </c>
+      <c r="W88" s="25">
         <v>-1.0149999999999999</v>
       </c>
-    </row>
-    <row r="89" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X88" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G89" s="25">
+        <v>0</v>
+      </c>
+      <c r="I89" s="25">
+        <v>0</v>
+      </c>
+      <c r="J89" s="55">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="K89" s="25">
+        <v>0</v>
+      </c>
+      <c r="L89" s="55">
+        <f>W89-K89</f>
+        <v>0</v>
+      </c>
+      <c r="M89" s="62">
+        <v>0</v>
+      </c>
+      <c r="N89" s="55">
+        <f t="shared" ref="N89:N92" si="106">+X89-M89</f>
+        <v>0</v>
+      </c>
+      <c r="O89" s="25">
+        <v>0</v>
+      </c>
+      <c r="U89" s="25">
+        <v>0</v>
+      </c>
+      <c r="V89" s="25">
+        <v>0</v>
+      </c>
+      <c r="W89" s="25">
+        <v>0</v>
+      </c>
+      <c r="X89" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B90" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="G89" s="25">
-        <v>0</v>
-      </c>
-      <c r="I89" s="25">
-        <v>0</v>
-      </c>
-      <c r="J89" s="58">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="K89" s="25">
-        <v>0</v>
-      </c>
-      <c r="L89" s="58">
-        <f>U89-K89</f>
-        <v>0</v>
-      </c>
-      <c r="M89" s="68">
-        <v>0</v>
-      </c>
-      <c r="S89" s="25">
-        <v>0</v>
-      </c>
-      <c r="T89" s="25">
-        <v>0</v>
-      </c>
-      <c r="U89" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B90" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="G90" s="25">
         <v>-1.123</v>
@@ -4837,33 +5648,43 @@
       <c r="I90" s="25">
         <v>-2.581</v>
       </c>
-      <c r="J90" s="58">
-        <f t="shared" si="80"/>
+      <c r="J90" s="55">
+        <f t="shared" si="105"/>
         <v>-1.6679999999999997</v>
       </c>
       <c r="K90" s="25">
         <v>-1.865</v>
       </c>
-      <c r="L90" s="58">
-        <f>U90-K90</f>
-        <v>0</v>
-      </c>
-      <c r="M90" s="68">
+      <c r="L90" s="55">
+        <f>W90-K90</f>
+        <v>0</v>
+      </c>
+      <c r="M90" s="62">
         <v>-1.72</v>
       </c>
-      <c r="S90" s="25">
+      <c r="N90" s="55">
+        <f t="shared" si="106"/>
+        <v>-3.024</v>
+      </c>
+      <c r="O90" s="25">
+        <v>-3.5619999999999998</v>
+      </c>
+      <c r="U90" s="25">
         <v>-2.4809999999999999</v>
       </c>
-      <c r="T90" s="25">
+      <c r="V90" s="25">
         <v>-4.2489999999999997</v>
       </c>
-      <c r="U90" s="25">
+      <c r="W90" s="25">
         <v>-1.865</v>
       </c>
-    </row>
-    <row r="91" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X90" s="62">
+        <v>-4.7439999999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G91" s="25">
         <v>-0.108</v>
@@ -4871,33 +5692,43 @@
       <c r="I91" s="25">
         <v>-0.53200000000000003</v>
       </c>
-      <c r="J91" s="58">
-        <f t="shared" si="80"/>
+      <c r="J91" s="55">
+        <f t="shared" si="105"/>
         <v>-0.19399999999999995</v>
       </c>
       <c r="K91" s="25">
         <v>-0.45100000000000001</v>
       </c>
-      <c r="L91" s="58">
-        <f>U91-K91</f>
-        <v>0</v>
-      </c>
-      <c r="M91" s="68">
+      <c r="L91" s="55">
+        <f>W91-K91</f>
+        <v>0</v>
+      </c>
+      <c r="M91" s="62">
         <v>-0.16800000000000001</v>
       </c>
-      <c r="S91" s="25">
+      <c r="N91" s="55">
+        <f t="shared" si="106"/>
+        <v>-0.18299999999999997</v>
+      </c>
+      <c r="O91" s="25">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="U91" s="25">
         <v>-0.23699999999999999</v>
       </c>
-      <c r="T91" s="25">
+      <c r="V91" s="25">
         <v>-0.72599999999999998</v>
       </c>
-      <c r="U91" s="25">
+      <c r="W91" s="25">
         <v>-0.45100000000000001</v>
       </c>
-    </row>
-    <row r="92" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X91" s="62">
+        <v>-0.35099999999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G92" s="25">
         <v>1E-3</v>
@@ -4905,100 +5736,123 @@
       <c r="I92" s="25">
         <v>1E-3</v>
       </c>
-      <c r="J92" s="58">
-        <f t="shared" si="80"/>
+      <c r="J92" s="55">
+        <f t="shared" si="105"/>
         <v>2E-3</v>
       </c>
       <c r="K92" s="25">
         <v>0.01</v>
       </c>
-      <c r="L92" s="58">
-        <f>U92-K92</f>
+      <c r="L92" s="55">
+        <f>W92-K92</f>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="M92" s="68">
+      <c r="M92" s="62">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="S92" s="25">
+      <c r="N92" s="55">
+        <f t="shared" si="106"/>
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="O92" s="25">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="U92" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="T92" s="25">
+      <c r="V92" s="25">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="U92" s="25">
+      <c r="W92" s="25">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="93" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X92" s="62">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D93" s="29"/>
       <c r="F93" s="29"/>
-      <c r="G93" s="67">
+      <c r="G93" s="61">
         <f>SUM(G88:G92)</f>
         <v>-1.2300000000000002</v>
       </c>
       <c r="H93" s="29"/>
-      <c r="I93" s="67">
+      <c r="I93" s="61">
         <f>SUM(I88:I92)</f>
         <v>-3.1120000000000001</v>
       </c>
-      <c r="J93" s="57">
+      <c r="J93" s="54">
         <f>SUM(J88:J92)</f>
         <v>-1.8599999999999997</v>
       </c>
-      <c r="K93" s="67">
+      <c r="K93" s="61">
         <f>SUM(K88:K92)</f>
         <v>-3.3210000000000002</v>
       </c>
-      <c r="L93" s="57">
+      <c r="L93" s="54">
         <f>SUM(L88:L92)</f>
         <v>9.0000000000000011E-2</v>
       </c>
-      <c r="M93" s="67">
+      <c r="M93" s="61">
         <f>SUM(M88:M92)</f>
         <v>-1.8839999999999999</v>
       </c>
-      <c r="N93" s="29"/>
-      <c r="P93" s="67">
-        <f t="shared" ref="P93:U93" si="81">SUM(P88:P92)</f>
-        <v>0</v>
-      </c>
-      <c r="Q93" s="67">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-      <c r="R93" s="67">
-        <f t="shared" si="81"/>
-        <v>0</v>
-      </c>
-      <c r="S93" s="67">
-        <f t="shared" si="81"/>
+      <c r="N93" s="54">
+        <f>+X93-M93</f>
+        <v>-3.1999999999999997</v>
+      </c>
+      <c r="O93" s="61">
+        <f>SUM(O88:O92)</f>
+        <v>-5.0149999999999997</v>
+      </c>
+      <c r="P93" s="29"/>
+      <c r="R93" s="61">
+        <f t="shared" ref="R93:X93" si="107">SUM(R88:R92)</f>
+        <v>0</v>
+      </c>
+      <c r="S93" s="61">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="T93" s="61">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="U93" s="61">
+        <f t="shared" si="107"/>
         <v>-2.7149999999999999</v>
       </c>
-      <c r="T93" s="67">
-        <f t="shared" si="81"/>
+      <c r="V93" s="61">
+        <f t="shared" si="107"/>
         <v>-4.9719999999999995</v>
       </c>
-      <c r="U93" s="67">
-        <f t="shared" si="81"/>
+      <c r="W93" s="61">
+        <f t="shared" si="107"/>
         <v>-3.2309999999999999</v>
       </c>
-      <c r="V93" s="47"/>
-    </row>
-    <row r="94" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X93" s="61">
+        <f t="shared" si="107"/>
+        <v>-5.0839999999999996</v>
+      </c>
+      <c r="Y93" s="46"/>
+    </row>
+    <row r="94" spans="2:25" x14ac:dyDescent="0.2">
       <c r="G94" s="25"/>
       <c r="I94" s="25"/>
       <c r="K94" s="25"/>
-      <c r="L94" s="58"/>
-      <c r="S94" s="25"/>
-      <c r="T94" s="25"/>
+      <c r="L94" s="55"/>
+      <c r="O94" s="25"/>
       <c r="U94" s="25"/>
-    </row>
-    <row r="95" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V94" s="25"/>
+      <c r="W94" s="25"/>
+    </row>
+    <row r="95" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G95" s="25">
         <v>0</v>
@@ -5006,34 +5860,44 @@
       <c r="I95" s="25">
         <v>0</v>
       </c>
-      <c r="J95" s="58">
-        <f t="shared" ref="J95:J99" si="82">T95-I95</f>
+      <c r="J95" s="55">
+        <f t="shared" ref="J95:J99" si="108">V95-I95</f>
         <v>0</v>
       </c>
       <c r="K95" s="25">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="L95" s="58">
-        <f>U95-K95</f>
+      <c r="L95" s="55">
+        <f>W95-K95</f>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="M95" s="68">
+      <c r="M95" s="62">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="S95" s="25">
+      <c r="N95" s="55">
+        <f t="shared" ref="N95:N99" si="109">+X95-M95</f>
+        <v>9.9999999999999742E-4</v>
+      </c>
+      <c r="O95" s="25">
+        <v>0</v>
+      </c>
+      <c r="U95" s="25">
         <f>15-0.314</f>
         <v>14.686</v>
       </c>
-      <c r="T95" s="25">
-        <v>0</v>
-      </c>
-      <c r="U95" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V95" s="25">
+        <v>0</v>
+      </c>
+      <c r="W95" s="25">
+        <v>0</v>
+      </c>
+      <c r="X95" s="62">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="96" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G96" s="25">
         <v>0</v>
@@ -5041,31 +5905,41 @@
       <c r="I96" s="25">
         <v>0</v>
       </c>
-      <c r="J96" s="58">
-        <f t="shared" si="82"/>
+      <c r="J96" s="55">
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="K96" s="25">
         <v>0.69099999999999995</v>
       </c>
-      <c r="L96" s="58">
-        <f>U96-K96</f>
+      <c r="L96" s="55">
+        <f>W96-K96</f>
         <v>-0.69899999999999995</v>
       </c>
-      <c r="M96" s="68">
+      <c r="M96" s="62">
         <v>-2.5000000000000001E-2</v>
       </c>
-      <c r="S96" s="25"/>
-      <c r="T96" s="25">
-        <v>0</v>
-      </c>
-      <c r="U96" s="25">
+      <c r="N96" s="55">
+        <f t="shared" si="109"/>
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="O96" s="25">
+        <v>-0.05</v>
+      </c>
+      <c r="U96" s="25"/>
+      <c r="V96" s="25">
+        <v>0</v>
+      </c>
+      <c r="W96" s="25">
         <v>-8.0000000000000002E-3</v>
       </c>
-    </row>
-    <row r="97" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X96" s="62">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="97" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B97" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G97" s="25">
         <v>1.5940000000000001</v>
@@ -5073,33 +5947,43 @@
       <c r="I97" s="25">
         <v>0</v>
       </c>
-      <c r="J97" s="58">
-        <f t="shared" si="82"/>
+      <c r="J97" s="55">
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="K97" s="25">
         <v>0</v>
       </c>
-      <c r="L97" s="58">
-        <f>U97-K97</f>
+      <c r="L97" s="55">
+        <f>W97-K97</f>
         <v>0.69099999999999995</v>
       </c>
-      <c r="M97" s="68">
+      <c r="M97" s="62">
         <v>5.508</v>
       </c>
-      <c r="S97" s="25">
+      <c r="N97" s="55">
+        <f t="shared" si="109"/>
+        <v>-0.91800000000000015</v>
+      </c>
+      <c r="O97" s="25">
+        <v>1.579</v>
+      </c>
+      <c r="U97" s="25">
         <v>-1.893</v>
       </c>
-      <c r="T97" s="25">
-        <v>0</v>
-      </c>
-      <c r="U97" s="25">
+      <c r="V97" s="25">
+        <v>0</v>
+      </c>
+      <c r="W97" s="25">
         <v>0.69099999999999995</v>
       </c>
-    </row>
-    <row r="98" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X97" s="62">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="98" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B98" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G98" s="25">
         <v>5.1050000000000004</v>
@@ -5107,34 +5991,44 @@
       <c r="I98" s="25">
         <v>0</v>
       </c>
-      <c r="J98" s="58">
-        <f t="shared" si="82"/>
+      <c r="J98" s="55">
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="K98" s="25">
         <v>0</v>
       </c>
-      <c r="L98" s="58">
-        <f>U98-K98</f>
-        <v>0</v>
-      </c>
-      <c r="M98" s="68">
+      <c r="L98" s="55">
+        <f>W98-K98</f>
+        <v>0</v>
+      </c>
+      <c r="M98" s="62">
         <v>1</v>
       </c>
-      <c r="S98" s="25">
+      <c r="N98" s="55">
+        <f t="shared" si="109"/>
+        <v>1</v>
+      </c>
+      <c r="O98" s="25">
+        <v>7.4180000000000001</v>
+      </c>
+      <c r="U98" s="25">
         <f>7.776-8.337</f>
         <v>-0.56099999999999994</v>
       </c>
-      <c r="T98" s="25">
-        <v>0</v>
-      </c>
-      <c r="U98" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V98" s="25">
+        <v>0</v>
+      </c>
+      <c r="W98" s="25">
+        <v>0</v>
+      </c>
+      <c r="X98" s="62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B99" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G99" s="25">
         <v>-0.47699999999999998</v>
@@ -5142,217 +6036,265 @@
       <c r="I99" s="25">
         <v>-0.30399999999999999</v>
       </c>
-      <c r="J99" s="58">
-        <f t="shared" si="82"/>
+      <c r="J99" s="55">
+        <f t="shared" si="108"/>
         <v>-0.15800000000000003</v>
       </c>
       <c r="K99" s="25">
         <v>-0.29899999999999999</v>
       </c>
-      <c r="L99" s="58">
-        <f>U99-K99</f>
-        <v>0</v>
-      </c>
-      <c r="M99" s="68">
+      <c r="L99" s="55">
+        <f>W99-K99</f>
+        <v>0</v>
+      </c>
+      <c r="M99" s="62">
         <v>-0.248</v>
       </c>
-      <c r="S99" s="25">
+      <c r="N99" s="55">
+        <f t="shared" si="109"/>
+        <v>-0.21200000000000002</v>
+      </c>
+      <c r="O99" s="25">
+        <v>-0.22800000000000001</v>
+      </c>
+      <c r="U99" s="25">
         <v>-0.46200000000000002</v>
       </c>
-      <c r="T99" s="25">
+      <c r="V99" s="25">
         <v>-0.46200000000000002</v>
       </c>
-      <c r="U99" s="25">
+      <c r="W99" s="25">
         <v>-0.29899999999999999</v>
       </c>
-    </row>
-    <row r="100" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X99" s="62">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="100" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B100" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D100" s="29"/>
       <c r="F100" s="29"/>
-      <c r="G100" s="67">
+      <c r="G100" s="61">
         <f>SUM(G95:G99)</f>
         <v>6.2220000000000004</v>
       </c>
       <c r="H100" s="29"/>
-      <c r="I100" s="67">
+      <c r="I100" s="61">
         <f>SUM(I95:I99)</f>
         <v>-0.30399999999999999</v>
       </c>
-      <c r="J100" s="57">
+      <c r="J100" s="54">
         <f>SUM(J95:J99)</f>
         <v>-0.15800000000000003</v>
       </c>
-      <c r="K100" s="67">
+      <c r="K100" s="61">
         <f>SUM(K95:K99)</f>
         <v>0.38399999999999995</v>
       </c>
-      <c r="L100" s="57">
+      <c r="L100" s="54">
         <f>SUM(L95:L99)</f>
         <v>0</v>
       </c>
-      <c r="M100" s="67">
+      <c r="M100" s="61">
         <f>SUM(M95:M99)</f>
         <v>6.2639999999999993</v>
       </c>
-      <c r="N100" s="29"/>
-      <c r="P100" s="67">
-        <f t="shared" ref="P100:U100" si="83">SUM(P95:P99)</f>
-        <v>0</v>
-      </c>
-      <c r="Q100" s="67">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="R100" s="67">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="S100" s="67">
-        <f t="shared" si="83"/>
+      <c r="N100" s="54">
+        <f>+X100-M100</f>
+        <v>-0.15399999999999903</v>
+      </c>
+      <c r="O100" s="61">
+        <f>SUM(O95:O99)</f>
+        <v>8.7189999999999994</v>
+      </c>
+      <c r="P100" s="29"/>
+      <c r="R100" s="61">
+        <f t="shared" ref="R100:X100" si="110">SUM(R95:R99)</f>
+        <v>0</v>
+      </c>
+      <c r="S100" s="61">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="T100" s="61">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="U100" s="61">
+        <f t="shared" si="110"/>
         <v>11.77</v>
       </c>
-      <c r="T100" s="67">
-        <f t="shared" si="83"/>
+      <c r="V100" s="61">
+        <f t="shared" si="110"/>
         <v>-0.46200000000000002</v>
       </c>
-      <c r="U100" s="67">
-        <f t="shared" si="83"/>
+      <c r="W100" s="61">
+        <f t="shared" si="110"/>
         <v>0.38399999999999995</v>
       </c>
-      <c r="V100" s="47"/>
-    </row>
-    <row r="101" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X100" s="61">
+        <f t="shared" si="110"/>
+        <v>6.11</v>
+      </c>
+      <c r="Y100" s="46"/>
+    </row>
+    <row r="101" spans="2:25" x14ac:dyDescent="0.2">
       <c r="I101" s="25"/>
-      <c r="L101" s="58"/>
-    </row>
-    <row r="102" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="L101" s="55"/>
+    </row>
+    <row r="102" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B102" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G102" s="68">
-        <f t="shared" ref="G102" si="84">+G90+G91</f>
+        <v>134</v>
+      </c>
+      <c r="G102" s="62">
+        <f t="shared" ref="G102" si="111">+G90+G91</f>
         <v>-1.2310000000000001</v>
       </c>
-      <c r="I102" s="68">
-        <f t="shared" ref="I102:K102" si="85">+I90+I91</f>
+      <c r="I102" s="62">
+        <f t="shared" ref="I102:K102" si="112">+I90+I91</f>
         <v>-3.113</v>
       </c>
-      <c r="J102" s="58">
-        <f t="shared" ref="J102:L102" si="86">+J90+J91</f>
+      <c r="J102" s="55">
+        <f t="shared" ref="J102:L102" si="113">+J90+J91</f>
         <v>-1.8619999999999997</v>
       </c>
-      <c r="K102" s="68">
-        <f t="shared" si="85"/>
+      <c r="K102" s="62">
+        <f t="shared" si="112"/>
         <v>-2.3159999999999998</v>
       </c>
-      <c r="L102" s="58">
-        <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="M102" s="68">
-        <f t="shared" ref="M102" si="87">+M90+M91</f>
+      <c r="L102" s="55">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="M102" s="62">
+        <f t="shared" ref="M102:O102" si="114">+M90+M91</f>
         <v>-1.8879999999999999</v>
       </c>
-      <c r="P102" s="68">
-        <f t="shared" ref="P102:T102" si="88">+P90+P91</f>
-        <v>0</v>
-      </c>
-      <c r="Q102" s="68">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="R102" s="68">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="S102" s="68">
-        <f t="shared" si="88"/>
+      <c r="N102" s="55">
+        <f t="shared" si="114"/>
+        <v>-3.2069999999999999</v>
+      </c>
+      <c r="O102" s="62">
+        <f t="shared" si="114"/>
+        <v>-3.5869999999999997</v>
+      </c>
+      <c r="R102" s="62">
+        <f t="shared" ref="R102:V102" si="115">+R90+R91</f>
+        <v>0</v>
+      </c>
+      <c r="S102" s="62">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="T102" s="62">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="U102" s="62">
+        <f t="shared" si="115"/>
         <v>-2.718</v>
       </c>
-      <c r="T102" s="68">
-        <f t="shared" si="88"/>
+      <c r="V102" s="62">
+        <f t="shared" si="115"/>
         <v>-4.9749999999999996</v>
       </c>
-      <c r="U102" s="68">
-        <f>+U90+U91</f>
+      <c r="W102" s="62">
+        <f>+W90+W91</f>
         <v>-2.3159999999999998</v>
       </c>
-    </row>
-    <row r="103" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X102" s="62">
+        <f>+X90+X91</f>
+        <v>-5.0949999999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B103" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D103" s="29"/>
       <c r="F103" s="29"/>
-      <c r="G103" s="67">
+      <c r="G103" s="61">
         <f>G86-G102</f>
         <v>-3.7170000000000005</v>
       </c>
       <c r="H103" s="29"/>
-      <c r="I103" s="67">
+      <c r="I103" s="61">
         <f>I86-I102</f>
         <v>4.6269999999999998</v>
       </c>
-      <c r="J103" s="57">
+      <c r="J103" s="54">
         <f>J86-J102</f>
         <v>4.5699999999999994</v>
       </c>
-      <c r="K103" s="67">
+      <c r="K103" s="61">
         <f>K86-K102</f>
         <v>1.7309999999999999</v>
       </c>
-      <c r="L103" s="57">
+      <c r="L103" s="54">
         <f>L86-L102</f>
         <v>5.0890000000000004</v>
       </c>
-      <c r="M103" s="67">
+      <c r="M103" s="61">
         <f>M86-M102</f>
         <v>-4.8170000000000002</v>
       </c>
-      <c r="N103" s="29"/>
-      <c r="P103" s="67">
-        <f t="shared" ref="P103:R103" si="89">P86-P102</f>
-        <v>0</v>
-      </c>
-      <c r="Q103" s="67">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="R103" s="67">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="S103" s="67">
-        <f t="shared" ref="S103:T103" si="90">S86+S102</f>
+      <c r="N103" s="54">
+        <f>N86-N102</f>
+        <v>6.056</v>
+      </c>
+      <c r="O103" s="61">
+        <f>O86-O102</f>
+        <v>-0.42300000000000004</v>
+      </c>
+      <c r="P103" s="29"/>
+      <c r="R103" s="61">
+        <f t="shared" ref="R103:T103" si="116">R86-R102</f>
+        <v>0</v>
+      </c>
+      <c r="S103" s="61">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="T103" s="61">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="U103" s="61">
+        <f t="shared" ref="U103:V103" si="117">U86+U102</f>
         <v>-6.5739999999999998</v>
       </c>
-      <c r="T103" s="67">
-        <f t="shared" si="90"/>
+      <c r="V103" s="61">
+        <f t="shared" si="117"/>
         <v>-0.75300000000000011</v>
       </c>
-      <c r="U103" s="67">
-        <f>U86+U102</f>
+      <c r="W103" s="61">
+        <f>W86+W102</f>
         <v>2.1879999999999997</v>
       </c>
-      <c r="V103" s="47"/>
+      <c r="X103" s="61">
+        <f>X86+X102</f>
+        <v>-8.9510000000000005</v>
+      </c>
+      <c r="Y103" s="46"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U1" r:id="rId1" xr:uid="{0F1F7899-CBC0-4EDD-B320-C6331D9D04E1}"/>
-    <hyperlink ref="S1" r:id="rId2" xr:uid="{27F9E946-7008-4128-A946-D7CD3BD95A46}"/>
-    <hyperlink ref="Q1" r:id="rId3" xr:uid="{851E20EF-A79F-4087-846B-75750EFD5CDE}"/>
+    <hyperlink ref="W1" r:id="rId1" xr:uid="{0F1F7899-CBC0-4EDD-B320-C6331D9D04E1}"/>
+    <hyperlink ref="U1" r:id="rId2" xr:uid="{27F9E946-7008-4128-A946-D7CD3BD95A46}"/>
+    <hyperlink ref="S1" r:id="rId3" xr:uid="{851E20EF-A79F-4087-846B-75750EFD5CDE}"/>
     <hyperlink ref="K1" r:id="rId4" xr:uid="{55ACAAC2-78C7-4DF1-A031-C9C03F5CC52E}"/>
     <hyperlink ref="M1" r:id="rId5" xr:uid="{7DA399CD-D7CD-43B7-BB15-739C308E5CEF}"/>
-    <hyperlink ref="T1" r:id="rId6" xr:uid="{C76E6A73-1E57-4D23-92D7-948EE0F78E12}"/>
+    <hyperlink ref="V1" r:id="rId6" xr:uid="{C76E6A73-1E57-4D23-92D7-948EE0F78E12}"/>
+    <hyperlink ref="X1" r:id="rId7" xr:uid="{EF290409-A769-4E70-A5D9-450C67909D5D}"/>
+    <hyperlink ref="O1" r:id="rId8" xr:uid="{4B0B4C7A-6A47-4345-AE82-42F09D7D9616}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId7"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId9"/>
   <ignoredErrors>
-    <ignoredError sqref="L5:L16 J5:J18 L37" formula="1"/>
+    <ignoredError sqref="L5:L16 J5:J18 L37 N5:N16 M37:N49 M50:N52 N63 N86:N104" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId8"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>
--- a/£HRN.xlsx
+++ b/£HRN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B0AFF5-FD58-45F6-828E-B219A9D8A0FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8DC237-6C06-4941-B5D0-14E385756B75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{2FA1A45F-62BC-48F6-B990-34E28132E0A7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{2FA1A45F-62BC-48F6-B990-34E28132E0A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="156">
   <si>
     <t>£HRN</t>
   </si>
@@ -491,6 +491,9 @@
   </si>
   <si>
     <t>H224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRAS becomes "strategic stakeholder" with Mike Ashley acting as advisor to the board </t>
   </si>
 </sst>
 </file>
@@ -500,8 +503,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="0.0\x"/>
-    <numFmt numFmtId="168" formatCode="#,##0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0\x"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -711,7 +714,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -802,14 +805,14 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="17" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -829,8 +832,8 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -840,48 +843,6 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -901,6 +862,50 @@
     </xf>
     <xf numFmtId="9" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1391,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79E222E-B96F-437C-8E98-98E56FA92AC3}">
   <dimension ref="A2:Y39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1411,30 +1416,30 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="G5" s="76" t="s">
+      <c r="C5" s="90"/>
+      <c r="D5" s="91"/>
+      <c r="G5" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="V5" s="76" t="s">
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="91"/>
+      <c r="V5" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="W5" s="77"/>
-      <c r="X5" s="77"/>
-      <c r="Y5" s="78"/>
+      <c r="W5" s="90"/>
+      <c r="X5" s="90"/>
+      <c r="Y5" s="91"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="35" t="s">
@@ -1445,10 +1450,10 @@
       </c>
       <c r="D6" s="16"/>
       <c r="G6" s="52">
-        <v>44927</v>
+        <v>45323</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -1508,7 +1513,7 @@
         <v>44927</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -1565,10 +1570,10 @@
         <v>153</v>
       </c>
       <c r="G10" s="52">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -1625,10 +1630,10 @@
       </c>
       <c r="D12" s="17"/>
       <c r="G12" s="52">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1648,9 +1653,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="G13" s="10"/>
-      <c r="H13" s="65" t="s">
-        <v>119</v>
-      </c>
+      <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -1668,8 +1671,12 @@
       <c r="Y13" s="5"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="G14" s="10"/>
-      <c r="H14" s="4"/>
+      <c r="G14" s="52">
+        <v>44866</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -1688,16 +1695,14 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="78"/>
-      <c r="G15" s="52">
-        <v>44409</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>113</v>
+      <c r="C15" s="90"/>
+      <c r="D15" s="91"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="65" t="s">
+        <v>119</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1720,10 +1725,10 @@
       <c r="B16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="80"/>
+      <c r="D16" s="88"/>
       <c r="G16" s="10"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -1745,12 +1750,16 @@
       <c r="B17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="79" t="s">
+      <c r="C17" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="80"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="4"/>
+      <c r="D17" s="88"/>
+      <c r="G17" s="52">
+        <v>44409</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -1764,10 +1773,10 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="79" t="s">
+      <c r="C18" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="80"/>
+      <c r="D18" s="88"/>
       <c r="G18" s="10"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -1787,10 +1796,10 @@
       <c r="B19" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="75"/>
+      <c r="D19" s="100"/>
       <c r="G19" s="11"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -1804,29 +1813,29 @@
       <c r="Q19" s="7"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="78"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="91"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B23" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="80"/>
+      <c r="D23" s="88"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="79">
+      <c r="C24" s="87">
         <v>1907</v>
       </c>
-      <c r="D24" s="80"/>
+      <c r="D24" s="88"/>
       <c r="G24" s="70" t="s">
         <v>123</v>
       </c>
@@ -1835,11 +1844,11 @@
       <c r="B25" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="86">
+      <c r="C25" s="97">
         <f>'Financial Model'!O38</f>
         <v>24.111999999999998</v>
       </c>
-      <c r="D25" s="87"/>
+      <c r="D25" s="98"/>
       <c r="G25" s="70" t="s">
         <v>122</v>
       </c>
@@ -1848,19 +1857,19 @@
       <c r="B26" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="85">
+      <c r="C26" s="96">
         <f>'Financial Model'!O62</f>
         <v>6.9363136420081517E-2</v>
       </c>
-      <c r="D26" s="80"/>
+      <c r="D26" s="88"/>
       <c r="G26" s="70" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B27" s="10"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="80"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="88"/>
       <c r="G27" s="70"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -1870,7 +1879,7 @@
       <c r="C28" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="D28" s="98">
+      <c r="D28" s="84">
         <v>45619</v>
       </c>
     </row>
@@ -1878,57 +1887,57 @@
       <c r="B29" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="81" t="s">
+      <c r="C29" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="82"/>
+      <c r="D29" s="93"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="77"/>
-      <c r="D32" s="78"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="91"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="83">
+      <c r="C33" s="94">
         <f>C6/'Financial Model'!O60</f>
         <v>1.9440285165717164</v>
       </c>
-      <c r="D33" s="84"/>
+      <c r="D33" s="95"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="83">
+      <c r="C34" s="94">
         <f>C6/SUM('Financial Model'!N19:O19)</f>
         <v>-7.7117904857035793</v>
       </c>
-      <c r="D34" s="84"/>
+      <c r="D34" s="95"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="83">
+      <c r="C35" s="94">
         <f>C12/SUM('Financial Model'!N18:O18)</f>
         <v>-9.3504469971282251</v>
       </c>
-      <c r="D35" s="84"/>
+      <c r="D35" s="95"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="10"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="80"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="88"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="10"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="80"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="88"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="10"/>
@@ -1942,6 +1951,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="V5:Y5"/>
     <mergeCell ref="C29:D29"/>
@@ -1958,11 +1972,6 @@
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="G5:Q5"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C29:D29" r:id="rId1" display="Link" xr:uid="{DCC15395-9800-42C6-A051-2B2869197E07}"/>
@@ -1977,11 +1986,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B96169E-3E8F-4BA7-8806-4E2301312E77}">
   <dimension ref="B1:AG103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="I54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="W66" sqref="W66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2156,10 +2165,10 @@
       <c r="W2" s="26">
         <v>44651</v>
       </c>
-      <c r="X2" s="88">
+      <c r="X2" s="74">
         <v>45016</v>
       </c>
-      <c r="Y2" s="92"/>
+      <c r="Y2" s="78"/>
     </row>
     <row r="3" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -2214,7 +2223,10 @@
       <c r="X3" s="61">
         <v>55.104999999999997</v>
       </c>
-      <c r="Y3" s="46"/>
+      <c r="Y3" s="85">
+        <f>+X3*1.05</f>
+        <v>57.860250000000001</v>
+      </c>
     </row>
     <row r="4" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
@@ -2265,6 +2277,7 @@
       <c r="X4" s="62">
         <v>28.166</v>
       </c>
+      <c r="Y4" s="86"/>
     </row>
     <row r="5" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
@@ -2330,7 +2343,7 @@
         <f>X3-X4</f>
         <v>26.938999999999997</v>
       </c>
-      <c r="Y5" s="46"/>
+      <c r="Y5" s="85"/>
     </row>
     <row r="6" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
@@ -2381,6 +2394,7 @@
       <c r="X6" s="62">
         <v>8.1959999999999997</v>
       </c>
+      <c r="Y6" s="86"/>
     </row>
     <row r="7" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -2431,6 +2445,7 @@
       <c r="X7" s="62">
         <v>11.448</v>
       </c>
+      <c r="Y7" s="86"/>
     </row>
     <row r="8" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
@@ -2481,6 +2496,7 @@
       <c r="X8" s="62">
         <v>7.7119999999999997</v>
       </c>
+      <c r="Y8" s="86"/>
       <c r="AA8" s="50"/>
     </row>
     <row r="9" spans="2:33" x14ac:dyDescent="0.2">
@@ -2532,6 +2548,7 @@
       <c r="X9" s="62">
         <v>-0.65300000000000002</v>
       </c>
+      <c r="Y9" s="86"/>
     </row>
     <row r="10" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
@@ -2582,6 +2599,7 @@
       <c r="X10" s="62">
         <v>-3.9740000000000002</v>
       </c>
+      <c r="Y10" s="86"/>
     </row>
     <row r="11" spans="2:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
@@ -2647,7 +2665,7 @@
         <f t="shared" si="6"/>
         <v>-5.0440000000000058</v>
       </c>
-      <c r="Y11" s="46"/>
+      <c r="Y11" s="85"/>
     </row>
     <row r="12" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
@@ -2698,6 +2716,7 @@
       <c r="X12" s="62">
         <v>1.0999999999999999E-2</v>
       </c>
+      <c r="Y12" s="86"/>
     </row>
     <row r="13" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
@@ -2748,6 +2767,7 @@
       <c r="X13" s="62">
         <v>0.84299999999999997</v>
       </c>
+      <c r="Y13" s="86"/>
     </row>
     <row r="14" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
@@ -2809,6 +2829,7 @@
         <f t="shared" si="8"/>
         <v>-0.83199999999999996</v>
       </c>
+      <c r="Y14" s="86"/>
     </row>
     <row r="15" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
@@ -2859,6 +2880,7 @@
       <c r="X15" s="62">
         <v>0</v>
       </c>
+      <c r="Y15" s="86"/>
     </row>
     <row r="16" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
@@ -2920,6 +2942,7 @@
         <f t="shared" si="10"/>
         <v>-5.8760000000000057</v>
       </c>
+      <c r="Y16" s="86"/>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
@@ -2970,6 +2993,7 @@
       <c r="X17" s="62">
         <v>4.5999999999999999E-2</v>
       </c>
+      <c r="Y17" s="86"/>
     </row>
     <row r="18" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
@@ -3035,29 +3059,29 @@
         <f t="shared" si="13"/>
         <v>-5.9220000000000059</v>
       </c>
-      <c r="Y18" s="46"/>
-    </row>
-    <row r="19" spans="2:25" s="89" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="89" t="s">
+      <c r="Y18" s="85"/>
+    </row>
+    <row r="19" spans="2:25" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="90">
+      <c r="D19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="76">
         <f>J18/J20</f>
         <v>3.3607102420789309E-3</v>
       </c>
-      <c r="K19" s="91">
+      <c r="K19" s="77">
         <f t="shared" ref="K19:O19" si="14">K18/K20</f>
         <v>-4.4630063440946385E-3</v>
       </c>
-      <c r="L19" s="90">
+      <c r="L19" s="76">
         <f>L18/L20</f>
         <v>1.3323029551485973E-2</v>
       </c>
-      <c r="M19" s="91">
+      <c r="M19" s="77">
         <f t="shared" si="14"/>
         <v>-1.7503291213377247E-2</v>
       </c>
@@ -3065,40 +3089,40 @@
         <f>N18/N20</f>
         <v>-1.7666193411570229E-2</v>
       </c>
-      <c r="O19" s="91">
+      <c r="O19" s="77">
         <f t="shared" si="14"/>
         <v>-3.031228845796715E-2</v>
       </c>
-      <c r="P19" s="90"/>
-      <c r="R19" s="89">
+      <c r="P19" s="76"/>
+      <c r="R19" s="75">
         <f t="shared" ref="R19:X19" si="15">R18/R20</f>
         <v>-0.12654482614160031</v>
       </c>
-      <c r="S19" s="89">
+      <c r="S19" s="75">
         <f t="shared" si="15"/>
         <v>-0.10128690074829369</v>
       </c>
-      <c r="T19" s="89">
+      <c r="T19" s="75">
         <f t="shared" si="15"/>
         <v>-4.2407453237639788E-2</v>
       </c>
-      <c r="U19" s="89">
+      <c r="U19" s="75">
         <f t="shared" si="15"/>
         <v>-2.6691090914808653E-2</v>
       </c>
-      <c r="V19" s="89">
+      <c r="V19" s="75">
         <f t="shared" si="15"/>
         <v>8.1651480569583327E-3</v>
       </c>
-      <c r="W19" s="89">
+      <c r="W19" s="75">
         <f t="shared" si="15"/>
         <v>8.8600542745718106E-3</v>
       </c>
-      <c r="X19" s="89">
+      <c r="X19" s="75">
         <f t="shared" si="15"/>
         <v>-3.5476160523336304E-2</v>
       </c>
-      <c r="Y19" s="93"/>
+      <c r="Y19" s="79"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
@@ -3215,27 +3239,27 @@
         <v>96</v>
       </c>
       <c r="J23" s="56">
-        <f>J3/I3-1</f>
+        <f t="shared" ref="J23:O23" si="20">J3/I3-1</f>
         <v>0.29676412148736842</v>
       </c>
       <c r="K23" s="40">
-        <f>K3/J3-1</f>
+        <f t="shared" si="20"/>
         <v>-0.2030571668308343</v>
       </c>
       <c r="L23" s="56">
-        <f>L3/K3-1</f>
+        <f t="shared" si="20"/>
         <v>0.46001373311970695</v>
       </c>
       <c r="M23" s="40">
-        <f>M3/L3-1</f>
+        <f t="shared" si="20"/>
         <v>-0.29736000501661752</v>
       </c>
       <c r="N23" s="56">
-        <f>N3/M3-1</f>
+        <f t="shared" si="20"/>
         <v>0.45894689870593464</v>
       </c>
       <c r="O23" s="40">
-        <f>O3/N3-1</f>
+        <f t="shared" si="20"/>
         <v>-0.27224346230310426</v>
       </c>
       <c r="R23" s="34" t="s">
@@ -3270,47 +3294,47 @@
         <v>97</v>
       </c>
       <c r="I25" s="40">
-        <f t="shared" ref="I25:J25" si="20">I5/I3</f>
+        <f t="shared" ref="I25:J25" si="21">I5/I3</f>
         <v>0.46655312706973229</v>
       </c>
       <c r="J25" s="56">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.43384042902484393</v>
       </c>
       <c r="K25" s="40">
-        <f t="shared" ref="K25:L25" si="21">K5/K3</f>
+        <f t="shared" ref="K25:L25" si="22">K5/K3</f>
         <v>0.46349279011215377</v>
       </c>
       <c r="L25" s="56">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.48883802596099585</v>
       </c>
       <c r="M25" s="40">
-        <f t="shared" ref="M25:N25" si="22">M5/M3</f>
+        <f t="shared" ref="M25:N25" si="23">M5/M3</f>
         <v>0.47867023650156182</v>
       </c>
       <c r="N25" s="56">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.49585563541825955</v>
       </c>
       <c r="O25" s="40">
-        <f t="shared" ref="O25" si="23">O5/O3</f>
+        <f t="shared" ref="O25" si="24">O5/O3</f>
         <v>0.43817769185508954</v>
       </c>
       <c r="R25" s="40">
-        <f t="shared" ref="R25:S25" si="24">R5/R3</f>
+        <f t="shared" ref="R25:S25" si="25">R5/R3</f>
         <v>0.38274989455925773</v>
       </c>
       <c r="S25" s="40">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.38571148074387823</v>
       </c>
       <c r="T25" s="40">
-        <f t="shared" ref="T25:U25" si="25">T5/T3</f>
+        <f t="shared" ref="T25:U25" si="26">T5/T3</f>
         <v>0.40938368082053789</v>
       </c>
       <c r="U25" s="40">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.44136145024047352</v>
       </c>
       <c r="V25" s="40">
@@ -3322,7 +3346,7 @@
         <v>0.47853514207558756</v>
       </c>
       <c r="X25" s="40">
-        <f t="shared" ref="X25" si="26">X5/X3</f>
+        <f t="shared" ref="X25" si="27">X5/X3</f>
         <v>0.48886670901007162</v>
       </c>
     </row>
@@ -3331,47 +3355,47 @@
         <v>98</v>
       </c>
       <c r="I26" s="40">
-        <f t="shared" ref="I26:J26" si="27">I11/I3</f>
+        <f t="shared" ref="I26:J26" si="28">I11/I3</f>
         <v>7.7112309584635207E-3</v>
       </c>
       <c r="J26" s="56">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.473860858779311E-2</v>
       </c>
       <c r="K26" s="40">
-        <f t="shared" ref="K26:L26" si="28">K11/K3</f>
+        <f t="shared" ref="K26:L26" si="29">K11/K3</f>
         <v>-2.5772487983520356E-2</v>
       </c>
       <c r="L26" s="56">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.7312974227127429E-2</v>
       </c>
       <c r="M26" s="40">
-        <f t="shared" ref="M26:N26" si="29">M11/M3</f>
+        <f t="shared" ref="M26:N26" si="30">M11/M3</f>
         <v>-0.12351628737170905</v>
       </c>
       <c r="N26" s="56">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>-6.9613090686649559E-2</v>
       </c>
       <c r="O26" s="40">
-        <f t="shared" ref="O26" si="30">O11/O3</f>
+        <f t="shared" ref="O26" si="31">O11/O3</f>
         <v>-0.18332352693956455</v>
       </c>
       <c r="R26" s="40">
-        <f t="shared" ref="R26:S26" si="31">R11/R3</f>
+        <f t="shared" ref="R26:S26" si="32">R11/R3</f>
         <v>-0.19375790805567267</v>
       </c>
       <c r="S26" s="40">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-0.276850579226389</v>
       </c>
       <c r="T26" s="40">
-        <f t="shared" ref="T26:U26" si="32">T11/T3</f>
+        <f t="shared" ref="T26:U26" si="33">T11/T3</f>
         <v>-0.15943710125461699</v>
       </c>
       <c r="U26" s="40">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-7.4441097193594444E-2</v>
       </c>
       <c r="V26" s="40">
@@ -3383,7 +3407,7 @@
         <v>1.7603602597740891E-2</v>
       </c>
       <c r="X26" s="40">
-        <f t="shared" ref="X26" si="33">X11/X3</f>
+        <f t="shared" ref="X26" si="34">X11/X3</f>
         <v>-9.1534343525995931E-2</v>
       </c>
     </row>
@@ -3392,47 +3416,47 @@
         <v>99</v>
       </c>
       <c r="I27" s="40">
-        <f t="shared" ref="I27:J27" si="34">I18/I3</f>
+        <f t="shared" ref="I27:J27" si="35">I18/I3</f>
         <v>2.6019490964141316E-3</v>
       </c>
       <c r="J27" s="56">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2.0466236182554227E-2</v>
       </c>
       <c r="K27" s="40">
-        <f t="shared" ref="K27:L27" si="35">K18/K3</f>
+        <f t="shared" ref="K27:L27" si="36">K18/K3</f>
         <v>-3.4103913939116604E-2</v>
       </c>
       <c r="L27" s="56">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>6.9730983884116193E-2</v>
       </c>
       <c r="M27" s="40">
-        <f t="shared" ref="M27:N27" si="36">M18/M3</f>
+        <f t="shared" ref="M27:N27" si="37">M18/M3</f>
         <v>-0.1326639892904953</v>
       </c>
       <c r="N27" s="56">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>-9.0197277871234369E-2</v>
       </c>
       <c r="O27" s="40">
-        <f t="shared" ref="O27" si="37">O18/O3</f>
+        <f t="shared" ref="O27" si="38">O18/O3</f>
         <v>-0.21265865344204415</v>
       </c>
       <c r="R27" s="40">
-        <f t="shared" ref="R27:S27" si="38">R18/R3</f>
+        <f t="shared" ref="R27:S27" si="39">R18/R3</f>
         <v>-0.20383804301982283</v>
       </c>
       <c r="S27" s="40">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>-0.27640178396117904</v>
       </c>
       <c r="T27" s="40">
-        <f t="shared" ref="T27:U27" si="39">T18/T3</f>
+        <f t="shared" ref="T27:U27" si="40">T18/T3</f>
         <v>-0.16215391190207265</v>
       </c>
       <c r="U27" s="40">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>-8.971513133555313E-2</v>
       </c>
       <c r="V27" s="40">
@@ -3444,7 +3468,7 @@
         <v>2.7521911460950111E-2</v>
       </c>
       <c r="X27" s="40">
-        <f t="shared" ref="X27" si="40">X18/X3</f>
+        <f t="shared" ref="X27" si="41">X18/X3</f>
         <v>-0.10746756192722995</v>
       </c>
     </row>
@@ -3453,51 +3477,51 @@
         <v>100</v>
       </c>
       <c r="I28" s="40">
-        <f t="shared" ref="I28:J28" si="41">I17/I16</f>
+        <f t="shared" ref="I28:J28" si="42">I17/I16</f>
         <v>-2.2352941176468066</v>
       </c>
       <c r="J28" s="56">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>-0.71036585365853389</v>
       </c>
       <c r="K28" s="40">
-        <f t="shared" ref="K28:L28" si="42">K17/K16</f>
+        <f t="shared" ref="K28:L28" si="43">K17/K16</f>
         <v>0</v>
       </c>
       <c r="L28" s="56">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-0.67469879518072184</v>
       </c>
       <c r="M28" s="40">
-        <f t="shared" ref="M28:N28" si="43">M17/M16</f>
+        <f t="shared" ref="M28:N28" si="44">M17/M16</f>
         <v>-3.0145530145530147E-2</v>
       </c>
       <c r="N28" s="56">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>1.3712374581939767E-2</v>
       </c>
       <c r="O28" s="40">
-        <f t="shared" ref="O28" si="44">O17/O16</f>
+        <f t="shared" ref="O28" si="45">O17/O16</f>
         <v>2.7591643673630277E-3</v>
       </c>
       <c r="R28" s="40">
-        <f t="shared" ref="R28:S28" si="45">R17/R16</f>
+        <f t="shared" ref="R28:S28" si="46">R17/R16</f>
         <v>-1.6510674098222738E-2</v>
       </c>
       <c r="S28" s="40">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2.1060997417047495E-2</v>
       </c>
       <c r="T28" s="40">
-        <f t="shared" ref="T28:V28" si="46">T17/T16</f>
+        <f t="shared" ref="T28:V28" si="47">T17/T16</f>
         <v>0</v>
       </c>
       <c r="U28" s="40">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="V28" s="40">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-2.9507246376811809</v>
       </c>
       <c r="W28" s="40">
@@ -3505,7 +3529,7 @@
         <v>-1.5368782161235051</v>
       </c>
       <c r="X28" s="40">
-        <f t="shared" ref="X28" si="47">X17/X16</f>
+        <f t="shared" ref="X28" si="48">X17/X16</f>
         <v>-7.8284547311095899E-3</v>
       </c>
     </row>
@@ -3654,7 +3678,7 @@
         <v>78</v>
       </c>
       <c r="L35" s="55">
-        <f t="shared" ref="L35:L39" si="48">W35</f>
+        <f t="shared" ref="L35:L39" si="49">W35</f>
         <v>2.5840000000000001</v>
       </c>
       <c r="M35" s="62">
@@ -3694,7 +3718,7 @@
         <v>79</v>
       </c>
       <c r="L36" s="55">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>3.4249999999999998</v>
       </c>
       <c r="M36" s="62">
@@ -3734,47 +3758,47 @@
         <v>80</v>
       </c>
       <c r="L37" s="55">
-        <f t="shared" ref="L37:N37" si="49">SUM(L32:L36)</f>
+        <f t="shared" ref="L37:N37" si="50">SUM(L32:L36)</f>
         <v>23.896999999999998</v>
       </c>
       <c r="M37" s="25">
-        <f t="shared" ref="M37:O37" si="50">SUM(M32:M36)</f>
+        <f t="shared" ref="M37:O37" si="51">SUM(M32:M36)</f>
         <v>24.128</v>
       </c>
       <c r="N37" s="55">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>22.417000000000002</v>
       </c>
       <c r="O37" s="25">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>25.375000000000004</v>
       </c>
       <c r="R37" s="25">
-        <f t="shared" ref="R37:X37" si="51">SUM(R32:R36)</f>
+        <f t="shared" ref="R37:X37" si="52">SUM(R32:R36)</f>
         <v>16.425000000000001</v>
       </c>
       <c r="S37" s="25">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>16.065999999999999</v>
       </c>
       <c r="T37" s="25">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>15.261999999999999</v>
       </c>
       <c r="U37" s="25">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>17.886000000000003</v>
       </c>
       <c r="V37" s="25">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>21.742999999999999</v>
       </c>
       <c r="W37" s="25">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>23.896999999999998</v>
       </c>
       <c r="X37" s="25">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>22.417000000000002</v>
       </c>
     </row>
@@ -3829,7 +3853,7 @@
         <v>82</v>
       </c>
       <c r="L39" s="55">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>8.7859999999999996</v>
       </c>
       <c r="M39" s="62">
@@ -3962,47 +3986,47 @@
         <v>83</v>
       </c>
       <c r="L42" s="55">
-        <f t="shared" ref="L42:N42" si="52">L37+SUM(L38:L41)</f>
+        <f t="shared" ref="L42:N42" si="53">L37+SUM(L38:L41)</f>
         <v>53.787999999999997</v>
       </c>
       <c r="M42" s="25">
-        <f t="shared" ref="M42:O42" si="53">M37+SUM(M38:M41)</f>
+        <f t="shared" ref="M42:O42" si="54">M37+SUM(M38:M41)</f>
         <v>59.512</v>
       </c>
       <c r="N42" s="55">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>54.219000000000001</v>
       </c>
       <c r="O42" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>59.872</v>
       </c>
       <c r="R42" s="25">
-        <f t="shared" ref="R42:X42" si="54">R37+SUM(R38:R41)</f>
+        <f t="shared" ref="R42:X42" si="55">R37+SUM(R38:R41)</f>
         <v>37.100999999999999</v>
       </c>
       <c r="S42" s="25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>35.923000000000002</v>
       </c>
       <c r="T42" s="25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>34.030999999999999</v>
       </c>
       <c r="U42" s="25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>44.683</v>
       </c>
       <c r="V42" s="25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>48.858999999999995</v>
       </c>
       <c r="W42" s="25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>53.787999999999997</v>
       </c>
       <c r="X42" s="25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>54.219000000000001</v>
       </c>
     </row>
@@ -4025,14 +4049,14 @@
       <c r="H44" s="29"/>
       <c r="J44" s="29"/>
       <c r="L44" s="54">
-        <f>W44</f>
+        <f t="shared" ref="L44:L53" si="56">W44</f>
         <v>0.05</v>
       </c>
       <c r="M44" s="61">
         <v>5.5579999999999998</v>
       </c>
       <c r="N44" s="54">
-        <f>+X44</f>
+        <f t="shared" ref="N44:N49" si="57">+X44</f>
         <v>6.75</v>
       </c>
       <c r="O44" s="24">
@@ -4067,14 +4091,14 @@
         <v>85</v>
       </c>
       <c r="L45" s="55">
-        <f>W45</f>
+        <f t="shared" si="56"/>
         <v>7.3719999999999999</v>
       </c>
       <c r="M45" s="62">
         <v>8.4540000000000006</v>
       </c>
       <c r="N45" s="55">
-        <f>+X45</f>
+        <f t="shared" si="57"/>
         <v>8.0670000000000002</v>
       </c>
       <c r="O45" s="25">
@@ -4107,14 +4131,14 @@
         <v>86</v>
       </c>
       <c r="L46" s="55">
-        <f>W46</f>
+        <f t="shared" si="56"/>
         <v>0.433</v>
       </c>
       <c r="M46" s="62">
         <v>0.45</v>
       </c>
       <c r="N46" s="55">
-        <f>+X46</f>
+        <f t="shared" si="57"/>
         <v>0.40899999999999997</v>
       </c>
       <c r="O46" s="25">
@@ -4151,14 +4175,14 @@
       <c r="H47" s="29"/>
       <c r="J47" s="29"/>
       <c r="L47" s="54">
-        <f>W47</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="M47" s="61">
         <v>0</v>
       </c>
       <c r="N47" s="54">
-        <f>+X47</f>
+        <f t="shared" si="57"/>
         <v>0.55700000000000005</v>
       </c>
       <c r="O47" s="24">
@@ -4193,14 +4217,14 @@
         <v>112</v>
       </c>
       <c r="L48" s="55">
-        <f>W48</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="M48" s="62">
         <v>0</v>
       </c>
       <c r="N48" s="55">
-        <f>+X48</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="O48" s="25">
@@ -4233,14 +4257,14 @@
         <v>114</v>
       </c>
       <c r="L49" s="55">
-        <f>W49</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="M49" s="62">
         <v>0</v>
       </c>
       <c r="N49" s="55">
-        <f>+X49</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="O49" s="25">
@@ -4273,7 +4297,7 @@
         <v>87</v>
       </c>
       <c r="L50" s="55">
-        <f>W50</f>
+        <f t="shared" si="56"/>
         <v>7.8549999999999995</v>
       </c>
       <c r="M50" s="25">
@@ -4297,23 +4321,23 @@
         <v>4.9090000000000007</v>
       </c>
       <c r="T50" s="25">
-        <f t="shared" ref="T50:X50" si="55">SUM(T44:T49)</f>
+        <f t="shared" ref="T50:X50" si="58">SUM(T44:T49)</f>
         <v>7.5209999999999999</v>
       </c>
       <c r="U50" s="25">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>5.2730000000000006</v>
       </c>
       <c r="V50" s="25">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>8.0090000000000003</v>
       </c>
       <c r="W50" s="25">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>7.8549999999999995</v>
       </c>
       <c r="X50" s="25">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>15.783000000000001</v>
       </c>
     </row>
@@ -4326,7 +4350,7 @@
       <c r="H51" s="29"/>
       <c r="J51" s="29"/>
       <c r="L51" s="54">
-        <f>W51</f>
+        <f t="shared" si="56"/>
         <v>0.27700000000000002</v>
       </c>
       <c r="M51" s="61">
@@ -4368,7 +4392,7 @@
         <v>86</v>
       </c>
       <c r="L52" s="55">
-        <f>W52</f>
+        <f t="shared" si="56"/>
         <v>2.3130000000000002</v>
       </c>
       <c r="M52" s="62">
@@ -4408,7 +4432,7 @@
         <v>79</v>
       </c>
       <c r="L53" s="55">
-        <f>W53</f>
+        <f t="shared" si="56"/>
         <v>0.23300000000000001</v>
       </c>
       <c r="M53" s="62">
@@ -4448,27 +4472,27 @@
         <v>88</v>
       </c>
       <c r="L54" s="55">
-        <f t="shared" ref="L54:O54" si="56">L50+SUM(L51:L53)</f>
+        <f t="shared" ref="L54:O54" si="59">L50+SUM(L51:L53)</f>
         <v>10.678000000000001</v>
       </c>
       <c r="M54" s="25">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>18.260000000000002</v>
       </c>
       <c r="N54" s="55">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>18.18</v>
       </c>
       <c r="O54" s="25">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>28.100999999999999</v>
       </c>
       <c r="R54" s="25">
-        <f t="shared" ref="R54:S54" si="57">R50+SUM(R51:R53)</f>
+        <f t="shared" ref="R54:S54" si="60">R50+SUM(R51:R53)</f>
         <v>7.4379999999999997</v>
       </c>
       <c r="S54" s="25">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>5.0590000000000011</v>
       </c>
       <c r="T54" s="25">
@@ -4547,7 +4571,7 @@
         <v>53.787999999999997</v>
       </c>
       <c r="M57" s="25">
-        <f t="shared" ref="M57:O57" si="58">M56+M54</f>
+        <f t="shared" ref="M57:O57" si="61">M56+M54</f>
         <v>59.611999999999995</v>
       </c>
       <c r="N57" s="55">
@@ -4555,15 +4579,15 @@
         <v>54.219000000000001</v>
       </c>
       <c r="O57" s="25">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>59.89</v>
       </c>
       <c r="R57" s="25">
-        <f t="shared" ref="R57:S57" si="59">R56+R54</f>
+        <f t="shared" ref="R57:S57" si="62">R56+R54</f>
         <v>37.100999999999999</v>
       </c>
       <c r="S57" s="25">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>35.923000000000002</v>
       </c>
       <c r="T57" s="25">
@@ -4596,7 +4620,7 @@
         <v>43.11</v>
       </c>
       <c r="M59" s="25">
-        <f t="shared" ref="M59:O59" si="60">M42-M54</f>
+        <f t="shared" ref="M59:O59" si="63">M42-M54</f>
         <v>41.251999999999995</v>
       </c>
       <c r="N59" s="55">
@@ -4604,27 +4628,27 @@
         <v>36.039000000000001</v>
       </c>
       <c r="O59" s="25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>31.771000000000001</v>
       </c>
       <c r="R59" s="25">
-        <f t="shared" ref="R59" si="61">R42-R54</f>
+        <f t="shared" ref="R59" si="64">R42-R54</f>
         <v>29.663</v>
       </c>
       <c r="S59" s="25">
-        <f t="shared" ref="S59" si="62">S42-S54</f>
+        <f t="shared" ref="S59" si="65">S42-S54</f>
         <v>30.864000000000001</v>
       </c>
       <c r="T59" s="25">
-        <f t="shared" ref="T59:V59" si="63">T42-T54</f>
+        <f t="shared" ref="T59:V59" si="66">T42-T54</f>
         <v>25.798999999999999</v>
       </c>
       <c r="U59" s="25">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>37.004999999999995</v>
       </c>
       <c r="V59" s="25">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>38.256999999999991</v>
       </c>
       <c r="W59" s="25">
@@ -4632,7 +4656,7 @@
         <v>43.11</v>
       </c>
       <c r="X59" s="25">
-        <f t="shared" ref="X59" si="64">X42-X54</f>
+        <f t="shared" ref="X59" si="67">X42-X54</f>
         <v>36.039000000000001</v>
       </c>
     </row>
@@ -4649,7 +4673,7 @@
         <v>0.25825350897687038</v>
       </c>
       <c r="M60" s="49">
-        <f t="shared" ref="M60:O60" si="65">M59/M20</f>
+        <f t="shared" ref="M60:O60" si="68">M59/M20</f>
         <v>0.24286773263849248</v>
       </c>
       <c r="N60" s="64">
@@ -4657,16 +4681,16 @@
         <v>0.21589418255665582</v>
       </c>
       <c r="O60" s="49">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>0.19032642620515308</v>
       </c>
       <c r="P60" s="64"/>
       <c r="R60" s="49">
-        <f t="shared" ref="R60" si="66">R59/R20</f>
+        <f t="shared" ref="R60" si="69">R59/R20</f>
         <v>0.38834049015500627</v>
       </c>
       <c r="S60" s="49">
-        <f t="shared" ref="S60" si="67">S59/S20</f>
+        <f t="shared" ref="S60" si="70">S59/S20</f>
         <v>0.31724364772633834</v>
       </c>
       <c r="T60" s="49">
@@ -4686,10 +4710,10 @@
         <v>0.25825350897687038</v>
       </c>
       <c r="X60" s="49">
-        <f t="shared" ref="X60" si="68">X59/X20</f>
+        <f t="shared" ref="X60" si="71">X59/X20</f>
         <v>0.21589418255665582</v>
       </c>
-      <c r="Y60" s="95"/>
+      <c r="Y60" s="81"/>
     </row>
     <row r="61" spans="2:25" x14ac:dyDescent="0.2">
       <c r="X61" s="1"/>
@@ -4698,13 +4722,13 @@
       <c r="B62" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="D62" s="94"/>
-      <c r="F62" s="94"/>
-      <c r="H62" s="94"/>
-      <c r="J62" s="94"/>
-      <c r="L62" s="94"/>
+      <c r="D62" s="80"/>
+      <c r="F62" s="80"/>
+      <c r="H62" s="80"/>
+      <c r="J62" s="80"/>
+      <c r="L62" s="80"/>
       <c r="M62" s="66"/>
-      <c r="N62" s="94">
+      <c r="N62" s="80">
         <f>+N38/L38-1</f>
         <v>0.29279552909731499</v>
       </c>
@@ -4712,24 +4736,24 @@
         <f>+O38/M38-1</f>
         <v>6.9363136420081517E-2</v>
       </c>
-      <c r="P62" s="94"/>
-      <c r="R62" s="96" t="s">
+      <c r="P62" s="80"/>
+      <c r="R62" s="82" t="s">
         <v>101</v>
       </c>
       <c r="S62" s="41">
-        <f t="shared" ref="S62" si="69">S38/R38-1</f>
+        <f t="shared" ref="S62" si="72">S38/R38-1</f>
         <v>3.6157024793388448E-2</v>
       </c>
       <c r="T62" s="41">
-        <f t="shared" ref="T62" si="70">T38/S38-1</f>
+        <f t="shared" ref="T62" si="73">T38/S38-1</f>
         <v>8.2751744765702906E-2</v>
       </c>
       <c r="U62" s="41">
-        <f t="shared" ref="U62:V62" si="71">U38/T38-1</f>
+        <f t="shared" ref="U62:V62" si="74">U38/T38-1</f>
         <v>0.31077348066298338</v>
       </c>
       <c r="V62" s="41">
-        <f t="shared" si="71"/>
+        <f t="shared" si="74"/>
         <v>6.4418686336494613E-2</v>
       </c>
       <c r="W62" s="41">
@@ -4737,10 +4761,10 @@
         <v>8.6457233368532282E-2</v>
       </c>
       <c r="X62" s="41">
-        <f t="shared" ref="X62" si="72">X38/W38-1</f>
+        <f t="shared" ref="X62" si="75">X38/W38-1</f>
         <v>0.29279552909731499</v>
       </c>
-      <c r="Y62" s="97"/>
+      <c r="Y62" s="83"/>
     </row>
     <row r="63" spans="2:25" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="37" t="s">
@@ -4755,7 +4779,7 @@
         <f>M38/L38-1</f>
         <v>0.36969991495565546</v>
       </c>
-      <c r="N63" s="94">
+      <c r="N63" s="80">
         <f>+N38/M38-1</f>
         <v>-5.6146886641830651E-2</v>
       </c>
@@ -4796,40 +4820,40 @@
       <c r="H65" s="38"/>
       <c r="J65" s="38"/>
       <c r="L65" s="63">
-        <f t="shared" ref="L65:M65" si="73">L41+L40+L34</f>
+        <f t="shared" ref="L65:M65" si="76">L41+L40+L34</f>
         <v>4.6430000000000007</v>
       </c>
       <c r="M65" s="39">
-        <f t="shared" si="73"/>
+        <f t="shared" si="76"/>
         <v>3.6820000000000004</v>
       </c>
       <c r="N65" s="63">
-        <f t="shared" ref="N65:O65" si="74">N41+N40+N34</f>
+        <f t="shared" ref="N65:O65" si="77">N41+N40+N34</f>
         <v>1.339</v>
       </c>
       <c r="O65" s="39">
-        <f t="shared" si="74"/>
+        <f t="shared" si="77"/>
         <v>2.7069999999999999</v>
       </c>
       <c r="P65" s="38"/>
       <c r="R65" s="39">
-        <f t="shared" ref="R65:S65" si="75">R41+R40+R34</f>
+        <f t="shared" ref="R65:S65" si="78">R41+R40+R34</f>
         <v>1.75</v>
       </c>
       <c r="S65" s="39">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>5.4930000000000003</v>
       </c>
       <c r="T65" s="39">
-        <f t="shared" ref="T65:V65" si="76">T41+T40+T34</f>
+        <f t="shared" ref="T65:V65" si="79">T41+T40+T34</f>
         <v>2.4249999999999998</v>
       </c>
       <c r="U65" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>7.7669999999999995</v>
       </c>
       <c r="V65" s="39">
-        <f t="shared" si="76"/>
+        <f t="shared" si="79"/>
         <v>6.5559999999999992</v>
       </c>
       <c r="W65" s="39">
@@ -4837,7 +4861,7 @@
         <v>4.6430000000000007</v>
       </c>
       <c r="X65" s="39">
-        <f t="shared" ref="X65" si="77">X41+X40+X34</f>
+        <f t="shared" ref="X65" si="80">X41+X40+X34</f>
         <v>1.339</v>
       </c>
       <c r="Y65" s="48"/>
@@ -4851,40 +4875,40 @@
       <c r="H66" s="38"/>
       <c r="J66" s="38"/>
       <c r="L66" s="63">
-        <f t="shared" ref="L66:M66" si="78">L44+L47+L51</f>
+        <f t="shared" ref="L66:M66" si="81">L44+L47+L51</f>
         <v>0.32700000000000001</v>
       </c>
       <c r="M66" s="39">
-        <f t="shared" si="78"/>
+        <f t="shared" si="81"/>
         <v>6.81</v>
       </c>
       <c r="N66" s="63">
-        <f t="shared" ref="N66:O66" si="79">N44+N47+N51</f>
+        <f t="shared" ref="N66:O66" si="82">N44+N47+N51</f>
         <v>7.4240000000000004</v>
       </c>
       <c r="O66" s="39">
-        <f t="shared" si="79"/>
+        <f t="shared" si="82"/>
         <v>15.831000000000001</v>
       </c>
       <c r="P66" s="38"/>
       <c r="R66" s="39">
-        <f t="shared" ref="R66:S66" si="80">R44+R47+R51</f>
+        <f t="shared" ref="R66:S66" si="83">R44+R47+R51</f>
         <v>0.27200000000000002</v>
       </c>
       <c r="S66" s="39">
-        <f t="shared" si="80"/>
+        <f t="shared" si="83"/>
         <v>0.42299999999999999</v>
       </c>
       <c r="T66" s="39">
-        <f t="shared" ref="T66:V66" si="81">T44+T47+T51</f>
+        <f t="shared" ref="T66:V66" si="84">T44+T47+T51</f>
         <v>2.61</v>
       </c>
       <c r="U66" s="39">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="V66" s="39">
-        <f t="shared" si="81"/>
+        <f t="shared" si="84"/>
         <v>0.51300000000000001</v>
       </c>
       <c r="W66" s="39">
@@ -4892,7 +4916,7 @@
         <v>0.32700000000000001</v>
       </c>
       <c r="X66" s="39">
-        <f t="shared" ref="X66" si="82">X44+X47+X51</f>
+        <f t="shared" ref="X66" si="85">X44+X47+X51</f>
         <v>7.4240000000000004</v>
       </c>
       <c r="Y66" s="48"/>
@@ -4902,39 +4926,39 @@
         <v>8</v>
       </c>
       <c r="L67" s="55">
-        <f t="shared" ref="L67:M67" si="83">L65-L66</f>
+        <f t="shared" ref="L67:M67" si="86">L65-L66</f>
         <v>4.3160000000000007</v>
       </c>
       <c r="M67" s="25">
-        <f t="shared" si="83"/>
+        <f t="shared" si="86"/>
         <v>-3.1279999999999992</v>
       </c>
       <c r="N67" s="55">
-        <f t="shared" ref="N67:O67" si="84">N65-N66</f>
+        <f t="shared" ref="N67:O67" si="87">N65-N66</f>
         <v>-6.0850000000000009</v>
       </c>
       <c r="O67" s="25">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>-13.124000000000002</v>
       </c>
       <c r="R67" s="25">
-        <f t="shared" ref="R67:S67" si="85">R65-R66</f>
+        <f t="shared" ref="R67:S67" si="88">R65-R66</f>
         <v>1.478</v>
       </c>
       <c r="S67" s="25">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>5.07</v>
       </c>
       <c r="T67" s="25">
-        <f t="shared" ref="T67:V67" si="86">T65-T66</f>
+        <f t="shared" ref="T67:V67" si="89">T65-T66</f>
         <v>-0.18500000000000005</v>
       </c>
       <c r="U67" s="25">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>7.7669999999999995</v>
       </c>
       <c r="V67" s="25">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>6.0429999999999993</v>
       </c>
       <c r="W67" s="25">
@@ -4942,7 +4966,7 @@
         <v>4.3160000000000007</v>
       </c>
       <c r="X67" s="25">
-        <f t="shared" ref="X67" si="87">X65-X66</f>
+        <f t="shared" ref="X67" si="90">X65-X66</f>
         <v>-6.0850000000000009</v>
       </c>
     </row>
@@ -4995,7 +5019,7 @@
         <v>54.251925</v>
       </c>
       <c r="M70" s="25">
-        <f t="shared" ref="M70:O70" si="88">M69*M20</f>
+        <f t="shared" ref="M70:O70" si="91">M69*M20</f>
         <v>48.408324449999995</v>
       </c>
       <c r="N70" s="55">
@@ -5003,27 +5027,27 @@
         <v>40.897604999999999</v>
       </c>
       <c r="O70" s="25">
-        <f t="shared" si="88"/>
+        <f t="shared" si="91"/>
         <v>27.543285000000001</v>
       </c>
       <c r="R70" s="25">
-        <f t="shared" ref="R70:V70" si="89">R69*R20</f>
+        <f t="shared" ref="R70:V70" si="92">R69*R20</f>
         <v>23.954022399999999</v>
       </c>
       <c r="S70" s="25">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>23.446407999999998</v>
       </c>
       <c r="T70" s="25">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>45.469742999999994</v>
       </c>
       <c r="U70" s="25">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>41.338700000000003</v>
       </c>
       <c r="V70" s="25">
-        <f t="shared" si="89"/>
+        <f t="shared" si="92"/>
         <v>73.448760000000007</v>
       </c>
       <c r="W70" s="25">
@@ -5031,7 +5055,7 @@
         <v>54.251925</v>
       </c>
       <c r="X70" s="25">
-        <f t="shared" ref="X70" si="90">X69*X20</f>
+        <f t="shared" ref="X70" si="93">X69*X20</f>
         <v>40.897604999999999</v>
       </c>
     </row>
@@ -5044,7 +5068,7 @@
         <v>49.935924999999997</v>
       </c>
       <c r="M71" s="25">
-        <f t="shared" ref="M71:O71" si="91">M70-M67</f>
+        <f t="shared" ref="M71:O71" si="94">M70-M67</f>
         <v>51.536324449999995</v>
       </c>
       <c r="N71" s="55">
@@ -5052,27 +5076,27 @@
         <v>46.982605</v>
       </c>
       <c r="O71" s="25">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>40.667285000000007</v>
       </c>
       <c r="R71" s="25">
-        <f t="shared" ref="R71:V71" si="92">R70-R67</f>
+        <f t="shared" ref="R71:V71" si="95">R70-R67</f>
         <v>22.476022399999998</v>
       </c>
       <c r="S71" s="25">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>18.376407999999998</v>
       </c>
       <c r="T71" s="25">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>45.654742999999996</v>
       </c>
       <c r="U71" s="25">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>33.571700000000007</v>
       </c>
       <c r="V71" s="25">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>67.405760000000015</v>
       </c>
       <c r="W71" s="25">
@@ -5080,7 +5104,7 @@
         <v>49.935924999999997</v>
       </c>
       <c r="X71" s="25">
-        <f t="shared" ref="X71" si="93">X70-X67</f>
+        <f t="shared" ref="X71" si="96">X70-X67</f>
         <v>46.982605</v>
       </c>
     </row>
@@ -5108,23 +5132,23 @@
         <v>0.48758669829524343</v>
       </c>
       <c r="R73" s="53">
-        <f t="shared" ref="R73:V73" si="94">R70/R3</f>
+        <f t="shared" ref="R73:V73" si="97">R70/R3</f>
         <v>0.50514598059890337</v>
       </c>
       <c r="S73" s="53">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>0.65766480603629618</v>
       </c>
       <c r="T73" s="53">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>1.3880076620165449</v>
       </c>
       <c r="U73" s="53">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>1.092402621425929</v>
       </c>
       <c r="V73" s="53">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>1.5128789470431936</v>
       </c>
       <c r="W73" s="53">
@@ -5132,7 +5156,7 @@
         <v>1.0095447440406409</v>
       </c>
       <c r="X73" s="53">
-        <f t="shared" ref="X73" si="95">X70/X3</f>
+        <f t="shared" ref="X73" si="98">X70/X3</f>
         <v>0.742175936847836</v>
       </c>
     </row>
@@ -5161,27 +5185,27 @@
         <v>-2.4781732257397064</v>
       </c>
       <c r="S74" s="53">
-        <f t="shared" ref="S74:W74" si="96">S69/S19</f>
+        <f t="shared" ref="S74:W74" si="99">S69/S19</f>
         <v>-2.3793797442662887</v>
       </c>
       <c r="T74" s="53">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>-8.5598160768072322</v>
       </c>
       <c r="U74" s="53">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>-12.176347569955812</v>
       </c>
       <c r="V74" s="53">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>53.887571533382342</v>
       </c>
       <c r="W74" s="53">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>36.681490872211008</v>
       </c>
       <c r="X74" s="53">
-        <f t="shared" ref="X74" si="97">X69/X19</f>
+        <f t="shared" ref="X74" si="100">X69/X19</f>
         <v>-6.9060460992907728</v>
       </c>
     </row>
@@ -5206,23 +5230,23 @@
         <v>0.86693163576846821</v>
       </c>
       <c r="R75" s="53">
-        <f t="shared" ref="R75:V75" si="98">R69/R60</f>
+        <f t="shared" ref="R75:V75" si="101">R69/R60</f>
         <v>0.8075387654653946</v>
       </c>
       <c r="S75" s="53">
-        <f t="shared" si="98"/>
+        <f t="shared" si="101"/>
         <v>0.75966848107827878</v>
       </c>
       <c r="T75" s="53">
-        <f t="shared" si="98"/>
+        <f t="shared" si="101"/>
         <v>1.7624614519942634</v>
       </c>
       <c r="U75" s="53">
-        <f t="shared" si="98"/>
+        <f t="shared" si="101"/>
         <v>1.1171112011890287</v>
       </c>
       <c r="V75" s="53">
-        <f t="shared" si="98"/>
+        <f t="shared" si="101"/>
         <v>1.919877669446115</v>
       </c>
       <c r="W75" s="53">
@@ -5230,7 +5254,7 @@
         <v>1.2584533750869868</v>
       </c>
       <c r="X75" s="53">
-        <f t="shared" ref="X75" si="99">X69/X60</f>
+        <f t="shared" ref="X75" si="102">X69/X60</f>
         <v>1.1348152001997835</v>
       </c>
     </row>
@@ -5259,23 +5283,23 @@
         <v>0.42684416435058159</v>
       </c>
       <c r="R77" s="40">
-        <f t="shared" ref="R77:V77" si="100">R38/R3</f>
+        <f t="shared" ref="R77:V77" si="103">R38/R3</f>
         <v>0.20413327709827075</v>
       </c>
       <c r="S77" s="40">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>0.28133853187848862</v>
       </c>
       <c r="T77" s="40">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>0.33151195091425256</v>
       </c>
       <c r="U77" s="40">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>0.37616933565879179</v>
       </c>
       <c r="V77" s="40">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>0.31209705658200992</v>
       </c>
       <c r="W77" s="40">
@@ -5283,7 +5307,7 @@
         <v>0.30633245873574128</v>
       </c>
       <c r="X77" s="40">
-        <f t="shared" ref="X77" si="101">X38/X3</f>
+        <f t="shared" ref="X77" si="104">X38/X3</f>
         <v>0.3862081480809364</v>
       </c>
     </row>
@@ -5347,7 +5371,7 @@
         <v>-0.17599999999999999</v>
       </c>
       <c r="J83" s="55">
-        <f t="shared" ref="J83:J85" si="102">V83-I83</f>
+        <f t="shared" ref="J83:J85" si="105">V83-I83</f>
         <v>0.10099999999999999</v>
       </c>
       <c r="K83" s="25">
@@ -5361,7 +5385,7 @@
         <v>-4.2999999999999997E-2</v>
       </c>
       <c r="N83" s="55">
-        <f t="shared" ref="N83:N85" si="103">+X83-M83</f>
+        <f t="shared" ref="N83:N85" si="106">+X83-M83</f>
         <v>-0.27900000000000003</v>
       </c>
       <c r="O83" s="25">
@@ -5391,7 +5415,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="55">
-        <f t="shared" si="102"/>
+        <f t="shared" si="105"/>
         <v>0.09</v>
       </c>
       <c r="K84" s="25">
@@ -5405,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="N84" s="55">
-        <f t="shared" si="103"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="O84" s="25">
@@ -5435,7 +5459,7 @@
         <v>-7.6999999999999999E-2</v>
       </c>
       <c r="J85" s="55">
-        <f t="shared" si="102"/>
+        <f t="shared" si="105"/>
         <v>-8.8000000000000009E-2</v>
       </c>
       <c r="K85" s="25">
@@ -5449,7 +5473,7 @@
         <v>-7.9000000000000001E-2</v>
       </c>
       <c r="N85" s="55">
-        <f t="shared" si="103"/>
+        <f t="shared" si="106"/>
         <v>-7.3999999999999996E-2</v>
       </c>
       <c r="O85" s="25">
@@ -5509,31 +5533,31 @@
       </c>
       <c r="P86" s="29"/>
       <c r="R86" s="61">
-        <f t="shared" ref="R86:X86" si="104">SUM(R82:R85)</f>
+        <f t="shared" ref="R86:X86" si="107">SUM(R82:R85)</f>
         <v>0</v>
       </c>
       <c r="S86" s="61">
-        <f t="shared" si="104"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="T86" s="61">
-        <f t="shared" si="104"/>
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
       <c r="U86" s="61">
-        <f t="shared" si="104"/>
+        <f t="shared" si="107"/>
         <v>-3.8560000000000003</v>
       </c>
       <c r="V86" s="61">
-        <f t="shared" si="104"/>
+        <f t="shared" si="107"/>
         <v>4.2219999999999995</v>
       </c>
       <c r="W86" s="61">
-        <f t="shared" si="104"/>
+        <f t="shared" si="107"/>
         <v>4.5039999999999996</v>
       </c>
       <c r="X86" s="61">
-        <f t="shared" si="104"/>
+        <f t="shared" si="107"/>
         <v>-3.8559999999999999</v>
       </c>
       <c r="Y86" s="46"/>
@@ -5560,7 +5584,7 @@
         <v>0</v>
       </c>
       <c r="J88" s="55">
-        <f t="shared" ref="J88:J92" si="105">V88-I88</f>
+        <f t="shared" ref="J88:J92" si="108">V88-I88</f>
         <v>0</v>
       </c>
       <c r="K88" s="25">
@@ -5605,7 +5629,7 @@
         <v>0</v>
       </c>
       <c r="J89" s="55">
-        <f t="shared" si="105"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="K89" s="25">
@@ -5619,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="N89" s="55">
-        <f t="shared" ref="N89:N92" si="106">+X89-M89</f>
+        <f t="shared" ref="N89:N92" si="109">+X89-M89</f>
         <v>0</v>
       </c>
       <c r="O89" s="25">
@@ -5649,7 +5673,7 @@
         <v>-2.581</v>
       </c>
       <c r="J90" s="55">
-        <f t="shared" si="105"/>
+        <f t="shared" si="108"/>
         <v>-1.6679999999999997</v>
       </c>
       <c r="K90" s="25">
@@ -5663,7 +5687,7 @@
         <v>-1.72</v>
       </c>
       <c r="N90" s="55">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>-3.024</v>
       </c>
       <c r="O90" s="25">
@@ -5693,7 +5717,7 @@
         <v>-0.53200000000000003</v>
       </c>
       <c r="J91" s="55">
-        <f t="shared" si="105"/>
+        <f t="shared" si="108"/>
         <v>-0.19399999999999995</v>
       </c>
       <c r="K91" s="25">
@@ -5707,7 +5731,7 @@
         <v>-0.16800000000000001</v>
       </c>
       <c r="N91" s="55">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>-0.18299999999999997</v>
       </c>
       <c r="O91" s="25">
@@ -5737,7 +5761,7 @@
         <v>1E-3</v>
       </c>
       <c r="J92" s="55">
-        <f t="shared" si="105"/>
+        <f t="shared" si="108"/>
         <v>2E-3</v>
       </c>
       <c r="K92" s="25">
@@ -5751,7 +5775,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="N92" s="55">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>6.9999999999999993E-3</v>
       </c>
       <c r="O92" s="25">
@@ -5811,31 +5835,31 @@
       </c>
       <c r="P93" s="29"/>
       <c r="R93" s="61">
-        <f t="shared" ref="R93:X93" si="107">SUM(R88:R92)</f>
+        <f t="shared" ref="R93:X93" si="110">SUM(R88:R92)</f>
         <v>0</v>
       </c>
       <c r="S93" s="61">
-        <f t="shared" si="107"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="T93" s="61">
-        <f t="shared" si="107"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="U93" s="61">
-        <f t="shared" si="107"/>
+        <f t="shared" si="110"/>
         <v>-2.7149999999999999</v>
       </c>
       <c r="V93" s="61">
-        <f t="shared" si="107"/>
+        <f t="shared" si="110"/>
         <v>-4.9719999999999995</v>
       </c>
       <c r="W93" s="61">
-        <f t="shared" si="107"/>
+        <f t="shared" si="110"/>
         <v>-3.2309999999999999</v>
       </c>
       <c r="X93" s="61">
-        <f t="shared" si="107"/>
+        <f t="shared" si="110"/>
         <v>-5.0839999999999996</v>
       </c>
       <c r="Y93" s="46"/>
@@ -5861,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="J95" s="55">
-        <f t="shared" ref="J95:J99" si="108">V95-I95</f>
+        <f t="shared" ref="J95:J99" si="111">V95-I95</f>
         <v>0</v>
       </c>
       <c r="K95" s="25">
@@ -5875,7 +5899,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="N95" s="55">
-        <f t="shared" ref="N95:N99" si="109">+X95-M95</f>
+        <f t="shared" ref="N95:N99" si="112">+X95-M95</f>
         <v>9.9999999999999742E-4</v>
       </c>
       <c r="O95" s="25">
@@ -5906,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="55">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="K96" s="25">
@@ -5920,7 +5944,7 @@
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="N96" s="55">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="O96" s="25">
@@ -5948,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="J97" s="55">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="K97" s="25">
@@ -5962,7 +5986,7 @@
         <v>5.508</v>
       </c>
       <c r="N97" s="55">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>-0.91800000000000015</v>
       </c>
       <c r="O97" s="25">
@@ -5992,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="J98" s="55">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="K98" s="25">
@@ -6006,7 +6030,7 @@
         <v>1</v>
       </c>
       <c r="N98" s="55">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>1</v>
       </c>
       <c r="O98" s="25">
@@ -6037,7 +6061,7 @@
         <v>-0.30399999999999999</v>
       </c>
       <c r="J99" s="55">
-        <f t="shared" si="108"/>
+        <f t="shared" si="111"/>
         <v>-0.15800000000000003</v>
       </c>
       <c r="K99" s="25">
@@ -6051,7 +6075,7 @@
         <v>-0.248</v>
       </c>
       <c r="N99" s="55">
-        <f t="shared" si="109"/>
+        <f t="shared" si="112"/>
         <v>-0.21200000000000002</v>
       </c>
       <c r="O99" s="25">
@@ -6111,31 +6135,31 @@
       </c>
       <c r="P100" s="29"/>
       <c r="R100" s="61">
-        <f t="shared" ref="R100:X100" si="110">SUM(R95:R99)</f>
+        <f t="shared" ref="R100:X100" si="113">SUM(R95:R99)</f>
         <v>0</v>
       </c>
       <c r="S100" s="61">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="T100" s="61">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="U100" s="61">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>11.77</v>
       </c>
       <c r="V100" s="61">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>-0.46200000000000002</v>
       </c>
       <c r="W100" s="61">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>0.38399999999999995</v>
       </c>
       <c r="X100" s="61">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>6.11</v>
       </c>
       <c r="Y100" s="46"/>
@@ -6149,55 +6173,55 @@
         <v>134</v>
       </c>
       <c r="G102" s="62">
-        <f t="shared" ref="G102" si="111">+G90+G91</f>
+        <f t="shared" ref="G102" si="114">+G90+G91</f>
         <v>-1.2310000000000001</v>
       </c>
       <c r="I102" s="62">
-        <f t="shared" ref="I102:K102" si="112">+I90+I91</f>
+        <f t="shared" ref="I102:K102" si="115">+I90+I91</f>
         <v>-3.113</v>
       </c>
       <c r="J102" s="55">
-        <f t="shared" ref="J102:L102" si="113">+J90+J91</f>
+        <f t="shared" ref="J102:L102" si="116">+J90+J91</f>
         <v>-1.8619999999999997</v>
       </c>
       <c r="K102" s="62">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>-2.3159999999999998</v>
       </c>
       <c r="L102" s="55">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
       <c r="M102" s="62">
-        <f t="shared" ref="M102:O102" si="114">+M90+M91</f>
+        <f t="shared" ref="M102:O102" si="117">+M90+M91</f>
         <v>-1.8879999999999999</v>
       </c>
       <c r="N102" s="55">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>-3.2069999999999999</v>
       </c>
       <c r="O102" s="62">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>-3.5869999999999997</v>
       </c>
       <c r="R102" s="62">
-        <f t="shared" ref="R102:V102" si="115">+R90+R91</f>
+        <f t="shared" ref="R102:V102" si="118">+R90+R91</f>
         <v>0</v>
       </c>
       <c r="S102" s="62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="T102" s="62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="U102" s="62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>-2.718</v>
       </c>
       <c r="V102" s="62">
-        <f t="shared" si="115"/>
+        <f t="shared" si="118"/>
         <v>-4.9749999999999996</v>
       </c>
       <c r="W102" s="62">
@@ -6221,52 +6245,52 @@
       </c>
       <c r="H103" s="29"/>
       <c r="I103" s="61">
-        <f>I86-I102</f>
+        <f t="shared" ref="I103:O103" si="119">I86-I102</f>
         <v>4.6269999999999998</v>
       </c>
       <c r="J103" s="54">
-        <f>J86-J102</f>
+        <f t="shared" si="119"/>
         <v>4.5699999999999994</v>
       </c>
       <c r="K103" s="61">
-        <f>K86-K102</f>
+        <f t="shared" si="119"/>
         <v>1.7309999999999999</v>
       </c>
       <c r="L103" s="54">
-        <f>L86-L102</f>
+        <f t="shared" si="119"/>
         <v>5.0890000000000004</v>
       </c>
       <c r="M103" s="61">
-        <f>M86-M102</f>
+        <f t="shared" si="119"/>
         <v>-4.8170000000000002</v>
       </c>
       <c r="N103" s="54">
-        <f>N86-N102</f>
+        <f t="shared" si="119"/>
         <v>6.056</v>
       </c>
       <c r="O103" s="61">
-        <f>O86-O102</f>
+        <f t="shared" si="119"/>
         <v>-0.42300000000000004</v>
       </c>
       <c r="P103" s="29"/>
       <c r="R103" s="61">
-        <f t="shared" ref="R103:T103" si="116">R86-R102</f>
+        <f t="shared" ref="R103:T103" si="120">R86-R102</f>
         <v>0</v>
       </c>
       <c r="S103" s="61">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="T103" s="61">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="U103" s="61">
-        <f t="shared" ref="U103:V103" si="117">U86+U102</f>
+        <f t="shared" ref="U103:V103" si="121">U86+U102</f>
         <v>-6.5739999999999998</v>
       </c>
       <c r="V103" s="61">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>-0.75300000000000011</v>
       </c>
       <c r="W103" s="61">
